--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-27.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-27.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BH9"/>
+  <dimension ref="A1:BH11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -925,7 +925,7 @@
       </c>
       <c r="BH2" t="inlineStr">
         <is>
-          <t>2026-02-25 01:09:12</t>
+          <t>2026-02-25 03:16:49</t>
         </is>
       </c>
     </row>
@@ -1119,7 +1119,7 @@
       </c>
       <c r="BH3" t="inlineStr">
         <is>
-          <t>2026-02-25 01:09:12</t>
+          <t>2026-02-25 03:16:49</t>
         </is>
       </c>
     </row>
@@ -1150,16 +1150,16 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.66</v>
+        <v>1.04</v>
       </c>
       <c r="G4" t="n">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="H4" t="n">
-        <v>1.34</v>
+        <v>1.41</v>
       </c>
       <c r="I4" t="n">
-        <v>1.6</v>
+        <v>1.48</v>
       </c>
       <c r="J4" t="n">
         <v>4.6</v>
@@ -1180,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.22</v>
+        <v>2.28</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.46</v>
+        <v>1.56</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -1313,7 +1313,7 @@
       </c>
       <c r="BH4" t="inlineStr">
         <is>
-          <t>2026-02-25 01:09:12</t>
+          <t>2026-02-25 03:16:49</t>
         </is>
       </c>
     </row>
@@ -1507,7 +1507,7 @@
       </c>
       <c r="BH5" t="inlineStr">
         <is>
-          <t>2026-02-25 01:09:12</t>
+          <t>2026-02-25 03:16:49</t>
         </is>
       </c>
     </row>
@@ -1538,22 +1538,22 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.47</v>
+        <v>1.51</v>
       </c>
       <c r="G6" t="n">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="H6" t="n">
-        <v>2.38</v>
+        <v>4.8</v>
       </c>
       <c r="I6" t="n">
-        <v>11.5</v>
+        <v>7.2</v>
       </c>
       <c r="J6" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="K6" t="n">
-        <v>950</v>
+        <v>6.6</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -1568,10 +1568,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>1.25</v>
+        <v>2.8</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.37</v>
+        <v>1.46</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -1701,7 +1701,7 @@
       </c>
       <c r="BH6" t="inlineStr">
         <is>
-          <t>2026-02-25 01:09:12</t>
+          <t>2026-02-25 03:16:49</t>
         </is>
       </c>
     </row>
@@ -1732,40 +1732,40 @@
         </is>
       </c>
       <c r="F7" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="G7" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="H7" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="I7" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="J7" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="K7" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
         <v>2.06</v>
       </c>
-      <c r="G7" t="n">
-        <v>3</v>
-      </c>
-      <c r="H7" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="I7" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="J7" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="K7" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>2.04</v>
-      </c>
       <c r="Q7" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1895,14 +1895,14 @@
       </c>
       <c r="BH7" t="inlineStr">
         <is>
-          <t>2026-02-25 01:09:12</t>
+          <t>2026-02-25 03:16:49</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Algerian Ligue 1</t>
+          <t>Colombian Primera B</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1912,17 +1912,17 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>JS Saoura</t>
+          <t>Bogota</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>ES Ben Aknoun</t>
+          <t>Atletico FC Cali</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -2089,201 +2089,589 @@
       </c>
       <c r="BH8" t="inlineStr">
         <is>
-          <t>2026-02-25 01:09:12</t>
+          <t>2026-02-25 03:16:49</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>Colombian Primera B</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Leones FC</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Independiente Yumbo</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K9" t="n">
+        <v>950</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH9" t="inlineStr">
+        <is>
+          <t>2026-02-25 03:16:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Algerian Ligue 1</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>18:00:00</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>JS Saoura</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>ES Ben Aknoun</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K10" t="n">
+        <v>950</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH10" t="inlineStr">
+        <is>
+          <t>2026-02-25 03:16:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>Uruguayan Primera Division</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B11" t="inlineStr">
         <is>
           <t>2026-02-27</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>20:00:00</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>Cerro</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>Boston River</t>
         </is>
       </c>
-      <c r="F9" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="G9" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="H9" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="I9" t="n">
-        <v>3</v>
-      </c>
-      <c r="J9" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="K9" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0</v>
-      </c>
-      <c r="V9" t="n">
-        <v>0</v>
-      </c>
-      <c r="W9" t="n">
-        <v>0</v>
-      </c>
-      <c r="X9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH9" t="inlineStr">
-        <is>
-          <t>2026-02-25 01:09:12</t>
+      <c r="F11" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="G11" t="n">
+        <v>4</v>
+      </c>
+      <c r="H11" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="I11" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="J11" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="K11" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH11" t="inlineStr">
+        <is>
+          <t>2026-02-25 03:16:49</t>
         </is>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-27.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-27.xlsx
@@ -777,7 +777,7 @@
         <v>2.5</v>
       </c>
       <c r="K2" t="n">
-        <v>1000</v>
+        <v>6.8</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -925,7 +925,7 @@
       </c>
       <c r="BH2" t="inlineStr">
         <is>
-          <t>2026-02-25 03:16:49</t>
+          <t>2026-02-25 05:24:15</t>
         </is>
       </c>
     </row>
@@ -1119,7 +1119,7 @@
       </c>
       <c r="BH3" t="inlineStr">
         <is>
-          <t>2026-02-25 03:16:49</t>
+          <t>2026-02-25 05:24:15</t>
         </is>
       </c>
     </row>
@@ -1150,10 +1150,10 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.04</v>
+        <v>3.05</v>
       </c>
       <c r="G4" t="n">
-        <v>14</v>
+        <v>11.5</v>
       </c>
       <c r="H4" t="n">
         <v>1.41</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="Q4" t="n">
         <v>1.56</v>
@@ -1313,7 +1313,7 @@
       </c>
       <c r="BH4" t="inlineStr">
         <is>
-          <t>2026-02-25 03:16:49</t>
+          <t>2026-02-25 05:24:15</t>
         </is>
       </c>
     </row>
@@ -1344,16 +1344,16 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="G5" t="n">
         <v>3.9</v>
       </c>
       <c r="H5" t="n">
-        <v>2.16</v>
+        <v>2.22</v>
       </c>
       <c r="I5" t="n">
-        <v>2.96</v>
+        <v>2.9</v>
       </c>
       <c r="J5" t="n">
         <v>3.1</v>
@@ -1507,7 +1507,7 @@
       </c>
       <c r="BH5" t="inlineStr">
         <is>
-          <t>2026-02-25 03:16:49</t>
+          <t>2026-02-25 05:24:15</t>
         </is>
       </c>
     </row>
@@ -1571,7 +1571,7 @@
         <v>2.8</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -1701,7 +1701,7 @@
       </c>
       <c r="BH6" t="inlineStr">
         <is>
-          <t>2026-02-25 03:16:49</t>
+          <t>2026-02-25 05:24:15</t>
         </is>
       </c>
     </row>
@@ -1741,7 +1741,7 @@
         <v>2.78</v>
       </c>
       <c r="I7" t="n">
-        <v>3.3</v>
+        <v>3.15</v>
       </c>
       <c r="J7" t="n">
         <v>3.45</v>
@@ -1895,7 +1895,7 @@
       </c>
       <c r="BH7" t="inlineStr">
         <is>
-          <t>2026-02-25 03:16:49</t>
+          <t>2026-02-25 05:24:15</t>
         </is>
       </c>
     </row>
@@ -2089,7 +2089,7 @@
       </c>
       <c r="BH8" t="inlineStr">
         <is>
-          <t>2026-02-25 03:16:49</t>
+          <t>2026-02-25 05:24:15</t>
         </is>
       </c>
     </row>
@@ -2283,7 +2283,7 @@
       </c>
       <c r="BH9" t="inlineStr">
         <is>
-          <t>2026-02-25 03:16:49</t>
+          <t>2026-02-25 05:24:15</t>
         </is>
       </c>
     </row>
@@ -2317,16 +2317,16 @@
         <v>1.04</v>
       </c>
       <c r="G10" t="n">
-        <v>1000</v>
+        <v>1.81</v>
       </c>
       <c r="H10" t="n">
-        <v>1.04</v>
+        <v>2.28</v>
       </c>
       <c r="I10" t="n">
         <v>1000</v>
       </c>
       <c r="J10" t="n">
-        <v>1.01</v>
+        <v>2.22</v>
       </c>
       <c r="K10" t="n">
         <v>950</v>
@@ -2477,7 +2477,7 @@
       </c>
       <c r="BH10" t="inlineStr">
         <is>
-          <t>2026-02-25 03:16:49</t>
+          <t>2026-02-25 05:24:15</t>
         </is>
       </c>
     </row>
@@ -2671,7 +2671,7 @@
       </c>
       <c r="BH11" t="inlineStr">
         <is>
-          <t>2026-02-25 03:16:49</t>
+          <t>2026-02-25 05:24:15</t>
         </is>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-27.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-27.xlsx
@@ -925,7 +925,7 @@
       </c>
       <c r="BH2" t="inlineStr">
         <is>
-          <t>2026-02-25 05:24:15</t>
+          <t>2026-02-25 07:31:48</t>
         </is>
       </c>
     </row>
@@ -1119,7 +1119,7 @@
       </c>
       <c r="BH3" t="inlineStr">
         <is>
-          <t>2026-02-25 05:24:15</t>
+          <t>2026-02-25 07:31:48</t>
         </is>
       </c>
     </row>
@@ -1313,7 +1313,7 @@
       </c>
       <c r="BH4" t="inlineStr">
         <is>
-          <t>2026-02-25 05:24:15</t>
+          <t>2026-02-25 07:31:48</t>
         </is>
       </c>
     </row>
@@ -1344,22 +1344,22 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.55</v>
+        <v>2.82</v>
       </c>
       <c r="G5" t="n">
-        <v>3.9</v>
+        <v>3.3</v>
       </c>
       <c r="H5" t="n">
-        <v>2.22</v>
+        <v>2.32</v>
       </c>
       <c r="I5" t="n">
-        <v>2.9</v>
+        <v>2.82</v>
       </c>
       <c r="J5" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="K5" t="n">
-        <v>950</v>
+        <v>4.1</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -1374,10 +1374,10 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>1.92</v>
+        <v>2.02</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.66</v>
+        <v>1.76</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -1507,7 +1507,7 @@
       </c>
       <c r="BH5" t="inlineStr">
         <is>
-          <t>2026-02-25 05:24:15</t>
+          <t>2026-02-25 07:31:48</t>
         </is>
       </c>
     </row>
@@ -1541,10 +1541,10 @@
         <v>1.51</v>
       </c>
       <c r="G6" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="H6" t="n">
-        <v>4.8</v>
+        <v>5.4</v>
       </c>
       <c r="I6" t="n">
         <v>7.2</v>
@@ -1553,7 +1553,7 @@
         <v>4.6</v>
       </c>
       <c r="K6" t="n">
-        <v>6.6</v>
+        <v>5.6</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -1701,7 +1701,7 @@
       </c>
       <c r="BH6" t="inlineStr">
         <is>
-          <t>2026-02-25 05:24:15</t>
+          <t>2026-02-25 07:31:48</t>
         </is>
       </c>
     </row>
@@ -1762,10 +1762,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1895,7 +1895,7 @@
       </c>
       <c r="BH7" t="inlineStr">
         <is>
-          <t>2026-02-25 05:24:15</t>
+          <t>2026-02-25 07:31:48</t>
         </is>
       </c>
     </row>
@@ -2089,7 +2089,7 @@
       </c>
       <c r="BH8" t="inlineStr">
         <is>
-          <t>2026-02-25 05:24:15</t>
+          <t>2026-02-25 07:31:48</t>
         </is>
       </c>
     </row>
@@ -2283,7 +2283,7 @@
       </c>
       <c r="BH9" t="inlineStr">
         <is>
-          <t>2026-02-25 05:24:15</t>
+          <t>2026-02-25 07:31:48</t>
         </is>
       </c>
     </row>
@@ -2317,16 +2317,16 @@
         <v>1.04</v>
       </c>
       <c r="G10" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="H10" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="I10" t="n">
         <v>1000</v>
       </c>
       <c r="J10" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="K10" t="n">
         <v>950</v>
@@ -2477,7 +2477,7 @@
       </c>
       <c r="BH10" t="inlineStr">
         <is>
-          <t>2026-02-25 05:24:15</t>
+          <t>2026-02-25 07:31:48</t>
         </is>
       </c>
     </row>
@@ -2508,19 +2508,19 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.98</v>
+        <v>3.2</v>
       </c>
       <c r="G11" t="n">
         <v>4</v>
       </c>
       <c r="H11" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="I11" t="n">
-        <v>2.82</v>
+        <v>3</v>
       </c>
       <c r="J11" t="n">
-        <v>2.8</v>
+        <v>2.66</v>
       </c>
       <c r="K11" t="n">
         <v>3.55</v>
@@ -2671,7 +2671,7 @@
       </c>
       <c r="BH11" t="inlineStr">
         <is>
-          <t>2026-02-25 05:24:15</t>
+          <t>2026-02-25 07:31:48</t>
         </is>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-27.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-27.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BH11"/>
+  <dimension ref="A1:BH14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -738,7 +738,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Algerian Ligue 1</t>
+          <t>Bulgarian A League</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -748,191 +748,191 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>10:30:00</t>
+          <t>07:45:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>MC El Bayadh</t>
+          <t>Arda</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>USM Alger</t>
+          <t>Spartak Varna</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.98</v>
+        <v>1.41</v>
       </c>
       <c r="G2" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+      <c r="I2" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="J2" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="K2" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N2" t="n">
+        <v>3</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="S2" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="T2" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="U2" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="V2" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="W2" t="n">
+        <v>3</v>
+      </c>
+      <c r="X2" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>32</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>130</v>
+      </c>
+      <c r="AA2" t="n">
         <v>1000</v>
       </c>
-      <c r="H2" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="I2" t="n">
-        <v>870</v>
-      </c>
-      <c r="J2" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="K2" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="Q2" t="n">
+      <c r="AB2" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>55</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>330</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>46</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>290</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>24</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>75</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>380</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>12</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AR2" t="n">
         <v>1.01</v>
       </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR2" t="n">
-        <v>0</v>
-      </c>
       <c r="AS2" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AT2" t="n">
-        <v>0</v>
+        <v>4.6</v>
       </c>
       <c r="AU2" t="n">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="AV2" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AW2" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AX2" t="n">
-        <v>0</v>
+        <v>5.4</v>
       </c>
       <c r="AY2" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AZ2" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="BA2" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BB2" t="n">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="BC2" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="BD2" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BE2" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BF2" t="n">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="BG2" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BH2" t="inlineStr">
         <is>
-          <t>2026-02-25 07:31:48</t>
+          <t>2026-02-25 09:39:52</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Algerian Ligue 1</t>
+          <t>Bulgarian A League</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -942,36 +942,36 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>10:30:00</t>
+          <t>10:15:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Paradou</t>
+          <t>Montana</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>MC Oran</t>
+          <t>Botev Plovdiv</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.04</v>
+        <v>3.5</v>
       </c>
       <c r="G3" t="n">
-        <v>1000</v>
+        <v>4.6</v>
       </c>
       <c r="H3" t="n">
-        <v>1.04</v>
+        <v>2.18</v>
       </c>
       <c r="I3" t="n">
-        <v>1000</v>
+        <v>2.48</v>
       </c>
       <c r="J3" t="n">
-        <v>1.01</v>
+        <v>3</v>
       </c>
       <c r="K3" t="n">
-        <v>1000</v>
+        <v>3.55</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -986,10 +986,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.24</v>
+        <v>1.58</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.01</v>
+        <v>2.34</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -1119,14 +1119,14 @@
       </c>
       <c r="BH3" t="inlineStr">
         <is>
-          <t>2026-02-25 07:31:48</t>
+          <t>2026-02-25 09:39:52</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Algerian Ligue 1</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1136,36 +1136,36 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>10:30:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Al-Shabab (KSA)</t>
+          <t>MC El Bayadh</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Al-Hilal</t>
+          <t>USM Alger</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>3.05</v>
+        <v>2.98</v>
       </c>
       <c r="G4" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="H4" t="n">
-        <v>1.41</v>
+        <v>1.94</v>
       </c>
       <c r="I4" t="n">
-        <v>1.48</v>
+        <v>870</v>
       </c>
       <c r="J4" t="n">
-        <v>4.6</v>
+        <v>2.5</v>
       </c>
       <c r="K4" t="n">
-        <v>950</v>
+        <v>6.8</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.3</v>
+        <v>1.24</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.56</v>
+        <v>1.01</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -1313,14 +1313,14 @@
       </c>
       <c r="BH4" t="inlineStr">
         <is>
-          <t>2026-02-25 07:31:48</t>
+          <t>2026-02-25 09:39:52</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Algerian Ligue 1</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1330,36 +1330,36 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>10:30:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Al-Hazm (KSA)</t>
+          <t>Paradou</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Al-Ettifaq</t>
+          <t>MC Oran</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.82</v>
+        <v>1.04</v>
       </c>
       <c r="G5" t="n">
-        <v>3.3</v>
+        <v>1000</v>
       </c>
       <c r="H5" t="n">
-        <v>2.32</v>
+        <v>1.04</v>
       </c>
       <c r="I5" t="n">
-        <v>2.82</v>
+        <v>1000</v>
       </c>
       <c r="J5" t="n">
-        <v>3.4</v>
+        <v>1.01</v>
       </c>
       <c r="K5" t="n">
-        <v>4.1</v>
+        <v>1000</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -1374,10 +1374,10 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>2.02</v>
+        <v>1.24</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.76</v>
+        <v>1.01</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -1507,14 +1507,14 @@
       </c>
       <c r="BH5" t="inlineStr">
         <is>
-          <t>2026-02-25 07:31:48</t>
+          <t>2026-02-25 09:39:52</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Bulgarian A League</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1524,36 +1524,36 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>12:45:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Al-Ittihad</t>
+          <t>Slavia Sofia</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Al-Khaleej Saihat</t>
+          <t>CSKA 1948 Sofia</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.51</v>
+        <v>4.2</v>
       </c>
       <c r="G6" t="n">
-        <v>1.64</v>
+        <v>4.7</v>
       </c>
       <c r="H6" t="n">
-        <v>5.4</v>
+        <v>1.85</v>
       </c>
       <c r="I6" t="n">
-        <v>7.2</v>
+        <v>2.04</v>
       </c>
       <c r="J6" t="n">
-        <v>4.6</v>
+        <v>3.55</v>
       </c>
       <c r="K6" t="n">
-        <v>5.6</v>
+        <v>4.2</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -1568,10 +1568,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>2.8</v>
+        <v>1.86</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.44</v>
+        <v>1.96</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -1701,14 +1701,14 @@
       </c>
       <c r="BH6" t="inlineStr">
         <is>
-          <t>2026-02-25 07:31:48</t>
+          <t>2026-02-25 09:39:52</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1718,36 +1718,36 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Albacete</t>
+          <t>Al-Shabab (KSA)</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Al-Hilal</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.46</v>
+        <v>1.04</v>
       </c>
       <c r="G7" t="n">
-        <v>2.86</v>
+        <v>11.5</v>
       </c>
       <c r="H7" t="n">
-        <v>2.78</v>
+        <v>1.41</v>
       </c>
       <c r="I7" t="n">
-        <v>3.15</v>
+        <v>1.48</v>
       </c>
       <c r="J7" t="n">
-        <v>3.45</v>
+        <v>1.12</v>
       </c>
       <c r="K7" t="n">
-        <v>4.1</v>
+        <v>950</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1762,10 +1762,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.08</v>
+        <v>2.3</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1895,14 +1895,14 @@
       </c>
       <c r="BH7" t="inlineStr">
         <is>
-          <t>2026-02-25 07:31:48</t>
+          <t>2026-02-25 09:39:52</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Colombian Primera B</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1912,36 +1912,36 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Bogota</t>
+          <t>Al-Hazm (KSA)</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Atletico FC Cali</t>
+          <t>Al-Ettifaq</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.04</v>
+        <v>2.84</v>
       </c>
       <c r="G8" t="n">
-        <v>1000</v>
+        <v>3.3</v>
       </c>
       <c r="H8" t="n">
-        <v>1.04</v>
+        <v>2.32</v>
       </c>
       <c r="I8" t="n">
-        <v>1000</v>
+        <v>2.8</v>
       </c>
       <c r="J8" t="n">
-        <v>1.01</v>
+        <v>3.4</v>
       </c>
       <c r="K8" t="n">
-        <v>950</v>
+        <v>4.1</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -1956,10 +1956,10 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>1.24</v>
+        <v>2.04</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.01</v>
+        <v>1.76</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -2089,14 +2089,14 @@
       </c>
       <c r="BH8" t="inlineStr">
         <is>
-          <t>2026-02-25 07:31:48</t>
+          <t>2026-02-25 09:39:52</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Colombian Primera B</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2106,36 +2106,36 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Leones FC</t>
+          <t>Al-Ittihad</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Independiente Yumbo</t>
+          <t>Al-Khaleej Saihat</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.04</v>
+        <v>1.51</v>
       </c>
       <c r="G9" t="n">
-        <v>1000</v>
+        <v>1.64</v>
       </c>
       <c r="H9" t="n">
-        <v>1.04</v>
+        <v>5.4</v>
       </c>
       <c r="I9" t="n">
-        <v>1000</v>
+        <v>7.2</v>
       </c>
       <c r="J9" t="n">
-        <v>1.01</v>
+        <v>4.6</v>
       </c>
       <c r="K9" t="n">
-        <v>950</v>
+        <v>5.6</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -2150,10 +2150,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>1.24</v>
+        <v>2.8</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.01</v>
+        <v>1.44</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -2283,14 +2283,14 @@
       </c>
       <c r="BH9" t="inlineStr">
         <is>
-          <t>2026-02-25 07:31:48</t>
+          <t>2026-02-25 09:39:52</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Algerian Ligue 1</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2300,36 +2300,36 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>JS Saoura</t>
+          <t>Albacete</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>ES Ben Aknoun</t>
+          <t>Almeria</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.04</v>
+        <v>2.46</v>
       </c>
       <c r="G10" t="n">
-        <v>1.8</v>
+        <v>2.86</v>
       </c>
       <c r="H10" t="n">
-        <v>2.3</v>
+        <v>2.78</v>
       </c>
       <c r="I10" t="n">
-        <v>1000</v>
+        <v>3.15</v>
       </c>
       <c r="J10" t="n">
-        <v>2.24</v>
+        <v>3.45</v>
       </c>
       <c r="K10" t="n">
-        <v>950</v>
+        <v>4.1</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -2344,10 +2344,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>1.24</v>
+        <v>2.1</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.01</v>
+        <v>1.75</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -2477,201 +2477,783 @@
       </c>
       <c r="BH10" t="inlineStr">
         <is>
-          <t>2026-02-25 07:31:48</t>
+          <t>2026-02-25 09:39:52</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>Colombian Primera B</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Bogota</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Atletico FC Cali</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K11" t="n">
+        <v>950</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH11" t="inlineStr">
+        <is>
+          <t>2026-02-25 09:39:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Colombian Primera B</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Leones FC</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Independiente Yumbo</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K12" t="n">
+        <v>950</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0</v>
+      </c>
+      <c r="X12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH12" t="inlineStr">
+        <is>
+          <t>2026-02-25 09:39:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Algerian Ligue 1</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>18:00:00</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>JS Saoura</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>ES Ben Aknoun</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H13" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J13" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="K13" t="n">
+        <v>950</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0</v>
+      </c>
+      <c r="X13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH13" t="inlineStr">
+        <is>
+          <t>2026-02-25 09:39:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
           <t>Uruguayan Primera Division</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B14" t="inlineStr">
         <is>
           <t>2026-02-27</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>20:00:00</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>Cerro</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>Boston River</t>
         </is>
       </c>
-      <c r="F11" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="G11" t="n">
+      <c r="F14" t="n">
+        <v>3</v>
+      </c>
+      <c r="G14" t="n">
         <v>4</v>
       </c>
-      <c r="H11" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="I11" t="n">
+      <c r="H14" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="I14" t="n">
         <v>3</v>
       </c>
-      <c r="J11" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="K11" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
+      <c r="J14" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="K14" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
         <v>1.48</v>
       </c>
-      <c r="Q11" t="n">
+      <c r="Q14" t="n">
         <v>2.62</v>
       </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0</v>
-      </c>
-      <c r="X11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ11" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA11" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB11" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC11" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD11" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE11" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF11" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG11" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH11" t="inlineStr">
-        <is>
-          <t>2026-02-25 07:31:48</t>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH14" t="inlineStr">
+        <is>
+          <t>2026-02-25 09:39:52</t>
         </is>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-27.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-27.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BH14"/>
+  <dimension ref="A1:BH15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -876,10 +876,10 @@
         <v>18.5</v>
       </c>
       <c r="AR2" t="n">
-        <v>1.01</v>
+        <v>4.3</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.03</v>
+        <v>4.4</v>
       </c>
       <c r="AT2" t="n">
         <v>4.6</v>
@@ -888,10 +888,10 @@
         <v>7.8</v>
       </c>
       <c r="AV2" t="n">
-        <v>1.01</v>
+        <v>4.1</v>
       </c>
       <c r="AW2" t="n">
-        <v>1.01</v>
+        <v>4.3</v>
       </c>
       <c r="AX2" t="n">
         <v>5.4</v>
@@ -900,10 +900,10 @@
         <v>8</v>
       </c>
       <c r="AZ2" t="n">
-        <v>1.03</v>
+        <v>4</v>
       </c>
       <c r="BA2" t="n">
-        <v>1.01</v>
+        <v>4.3</v>
       </c>
       <c r="BB2" t="n">
         <v>8.800000000000001</v>
@@ -912,20 +912,20 @@
         <v>14</v>
       </c>
       <c r="BD2" t="n">
-        <v>1.01</v>
+        <v>4.2</v>
       </c>
       <c r="BE2" t="n">
-        <v>1.01</v>
+        <v>4.3</v>
       </c>
       <c r="BF2" t="n">
         <v>7.4</v>
       </c>
       <c r="BG2" t="n">
-        <v>1.01</v>
+        <v>4.4</v>
       </c>
       <c r="BH2" t="inlineStr">
         <is>
-          <t>2026-02-25 09:39:52</t>
+          <t>2026-02-25 11:47:56</t>
         </is>
       </c>
     </row>
@@ -965,25 +965,25 @@
         <v>2.18</v>
       </c>
       <c r="I3" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="J3" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K3" t="n">
         <v>3.55</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="P3" t="n">
         <v>1.58</v>
@@ -992,134 +992,134 @@
         <v>2.34</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="Z3" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AA3" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AB3" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="AC3" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="AD3" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="AE3" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AF3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AH3" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AI3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AP3" t="n">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0</v>
+        <v>1.84</v>
       </c>
       <c r="AR3" t="n">
-        <v>0</v>
+        <v>1.99</v>
       </c>
       <c r="AS3" t="n">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="AT3" t="n">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="AU3" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="AV3" t="n">
-        <v>0</v>
+        <v>1.96</v>
       </c>
       <c r="AW3" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AX3" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="AY3" t="n">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="AZ3" t="n">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="BA3" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="BB3" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="BC3" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="BD3" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="BE3" t="n">
-        <v>0</v>
+        <v>2.22</v>
       </c>
       <c r="BF3" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="BG3" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="BH3" t="inlineStr">
         <is>
-          <t>2026-02-25 09:39:52</t>
+          <t>2026-02-25 11:47:56</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
         <v>1.94</v>
       </c>
       <c r="I4" t="n">
-        <v>870</v>
+        <v>3.8</v>
       </c>
       <c r="J4" t="n">
         <v>2.5</v>
@@ -1168,16 +1168,16 @@
         <v>6.8</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P4" t="n">
         <v>1.24</v>
@@ -1186,134 +1186,134 @@
         <v>1.01</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AP4" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AR4" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AS4" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AT4" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AU4" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AV4" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AW4" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AX4" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AY4" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AZ4" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="BA4" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="BB4" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="BC4" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="BD4" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="BE4" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="BF4" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BG4" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BH4" t="inlineStr">
         <is>
-          <t>2026-02-25 09:39:52</t>
+          <t>2026-02-25 11:47:56</t>
         </is>
       </c>
     </row>
@@ -1356,165 +1356,165 @@
         <v>1000</v>
       </c>
       <c r="J5" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L5" t="n">
         <v>1.01</v>
       </c>
-      <c r="K5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P5" t="n">
         <v>1.24</v>
       </c>
       <c r="Q5" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="T5" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="V5" t="n">
         <v>1.01</v>
       </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AP5" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AR5" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AS5" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AT5" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AU5" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AV5" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AW5" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AX5" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AY5" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AZ5" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="BA5" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="BB5" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="BC5" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="BD5" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="BE5" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="BF5" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BG5" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BH5" t="inlineStr">
         <is>
-          <t>2026-02-25 09:39:52</t>
+          <t>2026-02-25 11:47:56</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Bulgarian A League</t>
+          <t>Ukrainian Premier League</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1524,191 +1524,191 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>12:45:00</t>
+          <t>10:30:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Slavia Sofia</t>
+          <t>Shakhtar</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>CSKA 1948 Sofia</t>
+          <t>Veres Rivne</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>4.2</v>
+        <v>1.19</v>
       </c>
       <c r="G6" t="n">
-        <v>4.7</v>
+        <v>1.26</v>
       </c>
       <c r="H6" t="n">
-        <v>1.85</v>
+        <v>1.04</v>
       </c>
       <c r="I6" t="n">
-        <v>2.04</v>
+        <v>24</v>
       </c>
       <c r="J6" t="n">
-        <v>3.55</v>
+        <v>4.1</v>
       </c>
       <c r="K6" t="n">
-        <v>4.2</v>
+        <v>8.6</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>2.52</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="P6" t="n">
-        <v>1.86</v>
+        <v>2.2</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.96</v>
+        <v>1.56</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AP6" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AQ6" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AR6" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AS6" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AT6" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AU6" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AV6" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AW6" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AX6" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AY6" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AZ6" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="BA6" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="BB6" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="BC6" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="BD6" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="BE6" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="BF6" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BG6" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BH6" t="inlineStr">
         <is>
-          <t>2026-02-25 09:39:52</t>
+          <t>2026-02-25 11:47:56</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Bulgarian A League</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1718,36 +1718,36 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>12:45:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Al-Shabab (KSA)</t>
+          <t>Slavia Sofia</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Al-Hilal</t>
+          <t>CSKA 1948 Sofia</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.04</v>
+        <v>4.2</v>
       </c>
       <c r="G7" t="n">
-        <v>11.5</v>
+        <v>4.7</v>
       </c>
       <c r="H7" t="n">
-        <v>1.41</v>
+        <v>1.85</v>
       </c>
       <c r="I7" t="n">
-        <v>1.48</v>
+        <v>2.04</v>
       </c>
       <c r="J7" t="n">
-        <v>1.12</v>
+        <v>3.55</v>
       </c>
       <c r="K7" t="n">
-        <v>950</v>
+        <v>4.2</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1762,10 +1762,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.3</v>
+        <v>1.86</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.56</v>
+        <v>1.96</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1895,7 +1895,7 @@
       </c>
       <c r="BH7" t="inlineStr">
         <is>
-          <t>2026-02-25 09:39:52</t>
+          <t>2026-02-25 11:47:56</t>
         </is>
       </c>
     </row>
@@ -1917,31 +1917,31 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Al-Hazm (KSA)</t>
+          <t>Al-Shabab (KSA)</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Al-Ettifaq</t>
+          <t>Al-Hilal</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.84</v>
+        <v>1.04</v>
       </c>
       <c r="G8" t="n">
-        <v>3.3</v>
+        <v>11.5</v>
       </c>
       <c r="H8" t="n">
-        <v>2.32</v>
+        <v>1.41</v>
       </c>
       <c r="I8" t="n">
-        <v>2.8</v>
+        <v>1.48</v>
       </c>
       <c r="J8" t="n">
-        <v>3.4</v>
+        <v>1.12</v>
       </c>
       <c r="K8" t="n">
-        <v>4.1</v>
+        <v>950</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -1956,10 +1956,10 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>2.04</v>
+        <v>2.3</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.76</v>
+        <v>1.56</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -2089,7 +2089,7 @@
       </c>
       <c r="BH8" t="inlineStr">
         <is>
-          <t>2026-02-25 09:39:52</t>
+          <t>2026-02-25 11:47:56</t>
         </is>
       </c>
     </row>
@@ -2111,31 +2111,31 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Al-Ittihad</t>
+          <t>Al-Hazm (KSA)</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Al-Khaleej Saihat</t>
+          <t>Al-Ettifaq</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.51</v>
+        <v>2.82</v>
       </c>
       <c r="G9" t="n">
-        <v>1.64</v>
+        <v>3.5</v>
       </c>
       <c r="H9" t="n">
-        <v>5.4</v>
+        <v>2.32</v>
       </c>
       <c r="I9" t="n">
-        <v>7.2</v>
+        <v>2.8</v>
       </c>
       <c r="J9" t="n">
-        <v>4.6</v>
+        <v>3.25</v>
       </c>
       <c r="K9" t="n">
-        <v>5.6</v>
+        <v>4.1</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -2150,10 +2150,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>2.8</v>
+        <v>2.04</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.44</v>
+        <v>1.76</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -2283,14 +2283,14 @@
       </c>
       <c r="BH9" t="inlineStr">
         <is>
-          <t>2026-02-25 09:39:52</t>
+          <t>2026-02-25 11:47:56</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2300,36 +2300,36 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Albacete</t>
+          <t>Al-Ittihad</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Al-Khaleej Saihat</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.46</v>
+        <v>1.51</v>
       </c>
       <c r="G10" t="n">
-        <v>2.86</v>
+        <v>1.64</v>
       </c>
       <c r="H10" t="n">
-        <v>2.78</v>
+        <v>5.4</v>
       </c>
       <c r="I10" t="n">
-        <v>3.15</v>
+        <v>7.2</v>
       </c>
       <c r="J10" t="n">
-        <v>3.45</v>
+        <v>4.6</v>
       </c>
       <c r="K10" t="n">
-        <v>4.1</v>
+        <v>5.6</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -2344,10 +2344,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.75</v>
+        <v>1.44</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -2477,14 +2477,14 @@
       </c>
       <c r="BH10" t="inlineStr">
         <is>
-          <t>2026-02-25 09:39:52</t>
+          <t>2026-02-25 11:47:56</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Colombian Primera B</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2494,36 +2494,36 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Bogota</t>
+          <t>Albacete</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Atletico FC Cali</t>
+          <t>Almeria</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.04</v>
+        <v>2.46</v>
       </c>
       <c r="G11" t="n">
-        <v>1000</v>
+        <v>2.86</v>
       </c>
       <c r="H11" t="n">
-        <v>1.04</v>
+        <v>2.78</v>
       </c>
       <c r="I11" t="n">
-        <v>1000</v>
+        <v>3.3</v>
       </c>
       <c r="J11" t="n">
-        <v>1.01</v>
+        <v>3.45</v>
       </c>
       <c r="K11" t="n">
-        <v>950</v>
+        <v>4.1</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -2538,10 +2538,10 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>1.24</v>
+        <v>2.1</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.01</v>
+        <v>1.75</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -2671,7 +2671,7 @@
       </c>
       <c r="BH11" t="inlineStr">
         <is>
-          <t>2026-02-25 09:39:52</t>
+          <t>2026-02-25 11:47:56</t>
         </is>
       </c>
     </row>
@@ -2693,12 +2693,12 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Leones FC</t>
+          <t>Bogota</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Independiente Yumbo</t>
+          <t>Atletico FC Cali</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -2865,14 +2865,14 @@
       </c>
       <c r="BH12" t="inlineStr">
         <is>
-          <t>2026-02-25 09:39:52</t>
+          <t>2026-02-25 11:47:56</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Algerian Ligue 1</t>
+          <t>Colombian Primera B</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2882,33 +2882,33 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>JS Saoura</t>
+          <t>Leones FC</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>ES Ben Aknoun</t>
+          <t>Independiente Yumbo</t>
         </is>
       </c>
       <c r="F13" t="n">
         <v>1.04</v>
       </c>
       <c r="G13" t="n">
-        <v>1.8</v>
+        <v>1000</v>
       </c>
       <c r="H13" t="n">
-        <v>2.3</v>
+        <v>1.04</v>
       </c>
       <c r="I13" t="n">
         <v>1000</v>
       </c>
       <c r="J13" t="n">
-        <v>2.24</v>
+        <v>1.01</v>
       </c>
       <c r="K13" t="n">
         <v>950</v>
@@ -3059,201 +3059,395 @@
       </c>
       <c r="BH13" t="inlineStr">
         <is>
-          <t>2026-02-25 09:39:52</t>
+          <t>2026-02-25 11:47:56</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>Algerian Ligue 1</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>18:00:00</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>JS Saoura</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>ES Ben Aknoun</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H14" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J14" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="K14" t="n">
+        <v>950</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH14" t="inlineStr">
+        <is>
+          <t>2026-02-25 11:47:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
           <t>Uruguayan Primera Division</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B15" t="inlineStr">
         <is>
           <t>2026-02-27</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>20:00:00</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>Cerro</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>Boston River</t>
         </is>
       </c>
-      <c r="F14" t="n">
+      <c r="F15" t="n">
         <v>3</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G15" t="n">
         <v>4</v>
       </c>
-      <c r="H14" t="n">
+      <c r="H15" t="n">
         <v>2.46</v>
       </c>
-      <c r="I14" t="n">
+      <c r="I15" t="n">
         <v>3</v>
       </c>
-      <c r="J14" t="n">
+      <c r="J15" t="n">
         <v>2.68</v>
       </c>
-      <c r="K14" t="n">
+      <c r="K15" t="n">
         <v>3.6</v>
       </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
         <v>1.48</v>
       </c>
-      <c r="Q14" t="n">
+      <c r="Q15" t="n">
         <v>2.62</v>
       </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0</v>
-      </c>
-      <c r="W14" t="n">
-        <v>0</v>
-      </c>
-      <c r="X14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH14" t="inlineStr">
-        <is>
-          <t>2026-02-25 09:39:52</t>
+      <c r="R15" t="n">
+        <v>0</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0</v>
+      </c>
+      <c r="X15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH15" t="inlineStr">
+        <is>
+          <t>2026-02-25 11:47:56</t>
         </is>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-27.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-27.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BH15"/>
+  <dimension ref="A1:BH19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -846,10 +846,10 @@
         <v>13</v>
       </c>
       <c r="AH2" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AI2" t="n">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="AJ2" t="n">
         <v>14.5</v>
@@ -891,7 +891,7 @@
         <v>4.1</v>
       </c>
       <c r="AW2" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="AX2" t="n">
         <v>5.4</v>
@@ -903,10 +903,10 @@
         <v>4</v>
       </c>
       <c r="BA2" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="BB2" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="BC2" t="n">
         <v>14</v>
@@ -915,17 +915,17 @@
         <v>4.2</v>
       </c>
       <c r="BE2" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="BF2" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="BG2" t="n">
         <v>4.4</v>
       </c>
       <c r="BH2" t="inlineStr">
         <is>
-          <t>2026-02-25 11:47:56</t>
+          <t>2026-02-25 13:56:25</t>
         </is>
       </c>
     </row>
@@ -977,10 +977,10 @@
         <v>1.01</v>
       </c>
       <c r="M3" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="N3" t="n">
-        <v>2.38</v>
+        <v>2.72</v>
       </c>
       <c r="O3" t="n">
         <v>1.46</v>
@@ -992,16 +992,16 @@
         <v>2.34</v>
       </c>
       <c r="R3" t="n">
-        <v>1.17</v>
+        <v>1.21</v>
       </c>
       <c r="S3" t="n">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="T3" t="n">
         <v>1.68</v>
       </c>
       <c r="U3" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="V3" t="n">
         <v>1.66</v>
@@ -1010,37 +1010,37 @@
         <v>1.27</v>
       </c>
       <c r="X3" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="Y3" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Z3" t="n">
         <v>970</v>
       </c>
-      <c r="Z3" t="n">
-        <v>20</v>
-      </c>
       <c r="AA3" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AB3" t="n">
-        <v>970</v>
+        <v>15.5</v>
       </c>
       <c r="AC3" t="n">
         <v>970</v>
       </c>
       <c r="AD3" t="n">
+        <v>16</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>44</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG3" t="n">
         <v>970</v>
       </c>
-      <c r="AE3" t="n">
-        <v>46</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>24</v>
-      </c>
       <c r="AH3" t="n">
-        <v>32</v>
+        <v>970</v>
       </c>
       <c r="AI3" t="n">
         <v>1000</v>
@@ -1064,62 +1064,62 @@
         <v>1000</v>
       </c>
       <c r="AP3" t="n">
-        <v>1.92</v>
+        <v>2.28</v>
       </c>
       <c r="AQ3" t="n">
-        <v>1.84</v>
+        <v>1.88</v>
       </c>
       <c r="AR3" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AT3" t="n">
         <v>1.99</v>
       </c>
-      <c r="AS3" t="n">
+      <c r="AU3" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AZ3" t="n">
         <v>2.12</v>
       </c>
-      <c r="AT3" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="AV3" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="AW3" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AX3" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AY3" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="AZ3" t="n">
-        <v>2.06</v>
-      </c>
       <c r="BA3" t="n">
-        <v>2.2</v>
+        <v>2.28</v>
       </c>
       <c r="BB3" t="n">
-        <v>2.2</v>
+        <v>2.28</v>
       </c>
       <c r="BC3" t="n">
-        <v>2.2</v>
+        <v>2.28</v>
       </c>
       <c r="BD3" t="n">
-        <v>2.2</v>
+        <v>2.28</v>
       </c>
       <c r="BE3" t="n">
-        <v>2.22</v>
+        <v>2.28</v>
       </c>
       <c r="BF3" t="n">
-        <v>2.2</v>
+        <v>2.28</v>
       </c>
       <c r="BG3" t="n">
-        <v>2.2</v>
+        <v>17.5</v>
       </c>
       <c r="BH3" t="inlineStr">
         <is>
-          <t>2026-02-25 11:47:56</t>
+          <t>2026-02-25 13:56:25</t>
         </is>
       </c>
     </row>
@@ -1174,7 +1174,7 @@
         <v>1.01</v>
       </c>
       <c r="N4" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="O4" t="n">
         <v>1.01</v>
@@ -1189,7 +1189,7 @@
         <v>1.08</v>
       </c>
       <c r="S4" t="n">
-        <v>1.05</v>
+        <v>1.58</v>
       </c>
       <c r="T4" t="n">
         <v>1.05</v>
@@ -1258,52 +1258,52 @@
         <v>1000</v>
       </c>
       <c r="AP4" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AR4" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AT4" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AU4" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AV4" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AW4" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AX4" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AY4" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AZ4" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="BA4" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="BB4" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="BC4" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="BD4" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="BE4" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="BF4" t="n">
         <v>1.01</v>
@@ -1313,7 +1313,7 @@
       </c>
       <c r="BH4" t="inlineStr">
         <is>
-          <t>2026-02-25 11:47:56</t>
+          <t>2026-02-25 13:56:25</t>
         </is>
       </c>
     </row>
@@ -1368,7 +1368,7 @@
         <v>1.01</v>
       </c>
       <c r="N5" t="n">
-        <v>1.24</v>
+        <v>1.1</v>
       </c>
       <c r="O5" t="n">
         <v>1.01</v>
@@ -1383,7 +1383,7 @@
         <v>1.08</v>
       </c>
       <c r="S5" t="n">
-        <v>1.05</v>
+        <v>1.48</v>
       </c>
       <c r="T5" t="n">
         <v>1.05</v>
@@ -1452,52 +1452,52 @@
         <v>1000</v>
       </c>
       <c r="AP5" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AQ5" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AR5" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AS5" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AT5" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AU5" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AV5" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AW5" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AX5" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AY5" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AZ5" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="BA5" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="BB5" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="BC5" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="BD5" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="BE5" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="BF5" t="n">
         <v>1.01</v>
@@ -1507,7 +1507,7 @@
       </c>
       <c r="BH5" t="inlineStr">
         <is>
-          <t>2026-02-25 11:47:56</t>
+          <t>2026-02-25 13:56:25</t>
         </is>
       </c>
     </row>
@@ -1541,174 +1541,174 @@
         <v>1.19</v>
       </c>
       <c r="G6" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="H6" t="n">
-        <v>1.04</v>
+        <v>17.5</v>
       </c>
       <c r="I6" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J6" t="n">
-        <v>4.1</v>
+        <v>7</v>
       </c>
       <c r="K6" t="n">
         <v>8.6</v>
       </c>
       <c r="L6" t="n">
-        <v>1.01</v>
+        <v>1.18</v>
       </c>
       <c r="M6" t="n">
         <v>1.01</v>
       </c>
       <c r="N6" t="n">
-        <v>2.52</v>
+        <v>5.7</v>
       </c>
       <c r="O6" t="n">
-        <v>1.18</v>
+        <v>1.16</v>
       </c>
       <c r="P6" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="S6" t="n">
         <v>2.2</v>
       </c>
-      <c r="Q6" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="S6" t="n">
-        <v>2.12</v>
-      </c>
       <c r="T6" t="n">
-        <v>1.95</v>
+        <v>2.26</v>
       </c>
       <c r="U6" t="n">
-        <v>1.42</v>
+        <v>1.66</v>
       </c>
       <c r="V6" t="n">
         <v>1.04</v>
       </c>
       <c r="W6" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="X6" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="Y6" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="Z6" t="n">
-        <v>1000</v>
+        <v>240</v>
       </c>
       <c r="AA6" t="n">
         <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AC6" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AD6" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AE6" t="n">
-        <v>1000</v>
+        <v>420</v>
       </c>
       <c r="AF6" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="AG6" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AH6" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AI6" t="n">
-        <v>1000</v>
+        <v>290</v>
       </c>
       <c r="AJ6" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AK6" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AL6" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AM6" t="n">
-        <v>1000</v>
+        <v>280</v>
       </c>
       <c r="AN6" t="n">
-        <v>1000</v>
+        <v>4.3</v>
       </c>
       <c r="AO6" t="n">
-        <v>1000</v>
+        <v>620</v>
       </c>
       <c r="AP6" t="n">
-        <v>1.03</v>
+        <v>4.7</v>
       </c>
       <c r="AQ6" t="n">
-        <v>1.03</v>
+        <v>4.9</v>
       </c>
       <c r="AR6" t="n">
-        <v>1.03</v>
+        <v>5.2</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.03</v>
+        <v>5.4</v>
       </c>
       <c r="AT6" t="n">
-        <v>1.03</v>
+        <v>3.75</v>
       </c>
       <c r="AU6" t="n">
-        <v>1.03</v>
+        <v>15</v>
       </c>
       <c r="AV6" t="n">
-        <v>1.03</v>
+        <v>5</v>
       </c>
       <c r="AW6" t="n">
-        <v>1.03</v>
+        <v>5.3</v>
       </c>
       <c r="AX6" t="n">
-        <v>1.03</v>
+        <v>7</v>
       </c>
       <c r="AY6" t="n">
-        <v>1.03</v>
+        <v>3.85</v>
       </c>
       <c r="AZ6" t="n">
-        <v>1.03</v>
+        <v>4.8</v>
       </c>
       <c r="BA6" t="n">
-        <v>1.03</v>
+        <v>5.3</v>
       </c>
       <c r="BB6" t="n">
-        <v>1.03</v>
+        <v>7.6</v>
       </c>
       <c r="BC6" t="n">
-        <v>1.03</v>
+        <v>12.5</v>
       </c>
       <c r="BD6" t="n">
-        <v>1.03</v>
+        <v>4.9</v>
       </c>
       <c r="BE6" t="n">
-        <v>1.03</v>
+        <v>5.3</v>
       </c>
       <c r="BF6" t="n">
-        <v>1.01</v>
+        <v>2.38</v>
       </c>
       <c r="BG6" t="n">
-        <v>1.01</v>
+        <v>5.3</v>
       </c>
       <c r="BH6" t="inlineStr">
         <is>
-          <t>2026-02-25 11:47:56</t>
+          <t>2026-02-25 13:56:25</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Bulgarian A League</t>
+          <t>Romanian Liga I</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1718,191 +1718,191 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>12:45:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Slavia Sofia</t>
+          <t>Hermannstadt</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>CSKA 1948 Sofia</t>
+          <t>Botosani</t>
         </is>
       </c>
       <c r="F7" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="G7" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="H7" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="I7" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="J7" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="K7" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N7" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="S7" t="n">
         <v>4.2</v>
       </c>
-      <c r="G7" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="H7" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="I7" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="J7" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="K7" t="n">
+      <c r="T7" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="V7" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="W7" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X7" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>44</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>36</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>28</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>18</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>80</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>60</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>75</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>160</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>70</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>10</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>17</v>
+      </c>
+      <c r="BA7" t="n">
         <v>4.2</v>
       </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="R7" t="n">
-        <v>0</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0</v>
-      </c>
-      <c r="U7" t="n">
-        <v>0</v>
-      </c>
-      <c r="V7" t="n">
-        <v>0</v>
-      </c>
-      <c r="W7" t="n">
-        <v>0</v>
-      </c>
-      <c r="X7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA7" t="n">
-        <v>0</v>
-      </c>
       <c r="BB7" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="BC7" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="BD7" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="BE7" t="n">
-        <v>0</v>
+        <v>4.4</v>
       </c>
       <c r="BF7" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="BG7" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BH7" t="inlineStr">
         <is>
-          <t>2026-02-25 11:47:56</t>
+          <t>2026-02-25 13:56:25</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Bulgarian A League</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1912,191 +1912,191 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>12:45:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Al-Shabab (KSA)</t>
+          <t>Slavia Sofia</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Al-Hilal</t>
+          <t>CSKA 1948 Sofia</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.04</v>
+        <v>4</v>
       </c>
       <c r="G8" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="J8" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="K8" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N8" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="S8" t="n">
+        <v>3</v>
+      </c>
+      <c r="T8" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V8" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="W8" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="X8" t="n">
+        <v>18</v>
+      </c>
+      <c r="Y8" t="n">
         <v>11.5</v>
       </c>
-      <c r="H8" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="I8" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="K8" t="n">
-        <v>950</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0</v>
-      </c>
       <c r="Z8" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AA8" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AB8" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AC8" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AE8" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AF8" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AG8" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AH8" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AI8" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AP8" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="AR8" t="n">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="AS8" t="n">
-        <v>0</v>
+        <v>2.32</v>
       </c>
       <c r="AT8" t="n">
-        <v>0</v>
+        <v>2.22</v>
       </c>
       <c r="AU8" t="n">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="AV8" t="n">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="AW8" t="n">
-        <v>0</v>
+        <v>2.32</v>
       </c>
       <c r="AX8" t="n">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="AY8" t="n">
-        <v>0</v>
+        <v>2.26</v>
       </c>
       <c r="AZ8" t="n">
-        <v>0</v>
+        <v>2.32</v>
       </c>
       <c r="BA8" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="BB8" t="n">
-        <v>0</v>
+        <v>2.52</v>
       </c>
       <c r="BC8" t="n">
-        <v>0</v>
+        <v>2.52</v>
       </c>
       <c r="BD8" t="n">
-        <v>0</v>
+        <v>2.52</v>
       </c>
       <c r="BE8" t="n">
-        <v>0</v>
+        <v>2.52</v>
       </c>
       <c r="BF8" t="n">
-        <v>0</v>
+        <v>2.52</v>
       </c>
       <c r="BG8" t="n">
-        <v>0</v>
+        <v>2.52</v>
       </c>
       <c r="BH8" t="inlineStr">
         <is>
-          <t>2026-02-25 11:47:56</t>
+          <t>2026-02-25 13:56:25</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Czech 2 Liga</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2106,191 +2106,191 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>13:00:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Al-Hazm (KSA)</t>
+          <t>Vysocina Jihlava</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Al-Ettifaq</t>
+          <t>SK Artis Brno</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.82</v>
+        <v>3.05</v>
       </c>
       <c r="G9" t="n">
-        <v>3.5</v>
+        <v>4.3</v>
       </c>
       <c r="H9" t="n">
-        <v>2.32</v>
+        <v>2.16</v>
       </c>
       <c r="I9" t="n">
-        <v>2.8</v>
+        <v>2.46</v>
       </c>
       <c r="J9" t="n">
-        <v>3.25</v>
+        <v>2.94</v>
       </c>
       <c r="K9" t="n">
-        <v>4.1</v>
+        <v>3.75</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>1.77</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="P9" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="Q9" t="n">
         <v>2.04</v>
       </c>
-      <c r="Q9" t="n">
-        <v>1.76</v>
-      </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>2.54</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AP9" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AQ9" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AR9" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AS9" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AT9" t="n">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="AU9" t="n">
-        <v>0</v>
+        <v>6.4</v>
       </c>
       <c r="AV9" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AW9" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AX9" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AY9" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AZ9" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="BA9" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="BB9" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="BC9" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="BD9" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="BE9" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="BF9" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BG9" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BH9" t="inlineStr">
         <is>
-          <t>2026-02-25 11:47:56</t>
+          <t>2026-02-25 13:56:25</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Czech 2 Liga</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2300,36 +2300,36 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>14:15:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Al-Ittihad</t>
+          <t>Usti Nad Labem</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Al-Khaleej Saihat</t>
+          <t>H Slavia Kromeriz</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.51</v>
+        <v>1.04</v>
       </c>
       <c r="G10" t="n">
-        <v>1.64</v>
+        <v>1000</v>
       </c>
       <c r="H10" t="n">
-        <v>5.4</v>
+        <v>1.04</v>
       </c>
       <c r="I10" t="n">
-        <v>7.2</v>
+        <v>1000</v>
       </c>
       <c r="J10" t="n">
-        <v>4.6</v>
+        <v>1.01</v>
       </c>
       <c r="K10" t="n">
-        <v>5.6</v>
+        <v>950</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -2344,10 +2344,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.8</v>
+        <v>1.24</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.44</v>
+        <v>1.01</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -2477,14 +2477,14 @@
       </c>
       <c r="BH10" t="inlineStr">
         <is>
-          <t>2026-02-25 11:47:56</t>
+          <t>2026-02-25 13:56:25</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Romanian Liga I</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2494,36 +2494,36 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Albacete</t>
+          <t>Universitatea Cluj</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Otelul Galati</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.46</v>
+        <v>1.93</v>
       </c>
       <c r="G11" t="n">
-        <v>2.86</v>
+        <v>2.26</v>
       </c>
       <c r="H11" t="n">
-        <v>2.78</v>
+        <v>4.1</v>
       </c>
       <c r="I11" t="n">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="J11" t="n">
-        <v>3.45</v>
+        <v>3.2</v>
       </c>
       <c r="K11" t="n">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -2538,11 +2538,11 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="Q11" t="n">
         <v>2.1</v>
       </c>
-      <c r="Q11" t="n">
-        <v>1.75</v>
-      </c>
       <c r="R11" t="n">
         <v>0</v>
       </c>
@@ -2671,14 +2671,14 @@
       </c>
       <c r="BH11" t="inlineStr">
         <is>
-          <t>2026-02-25 11:47:56</t>
+          <t>2026-02-25 13:56:25</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Colombian Primera B</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2688,33 +2688,33 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Bogota</t>
+          <t>Al-Shabab (KSA)</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Atletico FC Cali</t>
+          <t>Al-Hilal</t>
         </is>
       </c>
       <c r="F12" t="n">
         <v>1.04</v>
       </c>
       <c r="G12" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="H12" t="n">
-        <v>1.04</v>
+        <v>1.41</v>
       </c>
       <c r="I12" t="n">
-        <v>1000</v>
+        <v>1.48</v>
       </c>
       <c r="J12" t="n">
-        <v>1.01</v>
+        <v>1.12</v>
       </c>
       <c r="K12" t="n">
         <v>950</v>
@@ -2732,10 +2732,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>1.24</v>
+        <v>2.3</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.01</v>
+        <v>1.56</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -2865,14 +2865,14 @@
       </c>
       <c r="BH12" t="inlineStr">
         <is>
-          <t>2026-02-25 11:47:56</t>
+          <t>2026-02-25 13:56:25</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Colombian Primera B</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2882,36 +2882,36 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Leones FC</t>
+          <t>Al-Hazm (KSA)</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Independiente Yumbo</t>
+          <t>Al-Ettifaq</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.04</v>
+        <v>2.84</v>
       </c>
       <c r="G13" t="n">
-        <v>1000</v>
+        <v>3.5</v>
       </c>
       <c r="H13" t="n">
-        <v>1.04</v>
+        <v>2.32</v>
       </c>
       <c r="I13" t="n">
-        <v>1000</v>
+        <v>2.82</v>
       </c>
       <c r="J13" t="n">
-        <v>1.01</v>
+        <v>3.4</v>
       </c>
       <c r="K13" t="n">
-        <v>950</v>
+        <v>4.1</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -2926,10 +2926,10 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>1.24</v>
+        <v>2.02</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.01</v>
+        <v>1.76</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -3059,14 +3059,14 @@
       </c>
       <c r="BH13" t="inlineStr">
         <is>
-          <t>2026-02-25 11:47:56</t>
+          <t>2026-02-25 13:56:25</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Algerian Ligue 1</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -3076,36 +3076,36 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>JS Saoura</t>
+          <t>Al-Ittihad</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>ES Ben Aknoun</t>
+          <t>Al-Khaleej Saihat</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.04</v>
+        <v>1.51</v>
       </c>
       <c r="G14" t="n">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="H14" t="n">
-        <v>2.3</v>
+        <v>5.4</v>
       </c>
       <c r="I14" t="n">
-        <v>1000</v>
+        <v>7.2</v>
       </c>
       <c r="J14" t="n">
-        <v>2.24</v>
+        <v>4.6</v>
       </c>
       <c r="K14" t="n">
-        <v>950</v>
+        <v>5.6</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -3120,10 +3120,10 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>1.24</v>
+        <v>2.8</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.01</v>
+        <v>1.44</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -3253,201 +3253,977 @@
       </c>
       <c r="BH14" t="inlineStr">
         <is>
-          <t>2026-02-25 11:47:56</t>
+          <t>2026-02-25 13:56:25</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
+          <t>Spanish Segunda Division</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>16:30:00</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Albacete</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Almeria</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="G15" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="H15" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="I15" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="J15" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="K15" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0</v>
+      </c>
+      <c r="X15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH15" t="inlineStr">
+        <is>
+          <t>2026-02-25 13:56:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Colombian Primera B</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Bogota</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Atletico FC Cali</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K16" t="n">
+        <v>950</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="n">
+        <v>0</v>
+      </c>
+      <c r="X16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH16" t="inlineStr">
+        <is>
+          <t>2026-02-25 13:56:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Colombian Primera B</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Leones FC</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Independiente Yumbo</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="I17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K17" t="n">
+        <v>950</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0</v>
+      </c>
+      <c r="X17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH17" t="inlineStr">
+        <is>
+          <t>2026-02-25 13:56:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Algerian Ligue 1</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>18:00:00</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>JS Saoura</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>ES Ben Aknoun</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H18" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="I18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J18" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="K18" t="n">
+        <v>950</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0</v>
+      </c>
+      <c r="T18" t="n">
+        <v>0</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="n">
+        <v>0</v>
+      </c>
+      <c r="X18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH18" t="inlineStr">
+        <is>
+          <t>2026-02-25 13:56:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
           <t>Uruguayan Primera Division</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B19" t="inlineStr">
         <is>
           <t>2026-02-27</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>20:00:00</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>Cerro</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>Boston River</t>
         </is>
       </c>
-      <c r="F15" t="n">
+      <c r="F19" t="n">
         <v>3</v>
       </c>
-      <c r="G15" t="n">
-        <v>4</v>
-      </c>
-      <c r="H15" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="I15" t="n">
-        <v>3</v>
-      </c>
-      <c r="J15" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="K15" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
+      <c r="G19" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="H19" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="I19" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="J19" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="K19" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
         <v>1.48</v>
       </c>
-      <c r="Q15" t="n">
+      <c r="Q19" t="n">
         <v>2.62</v>
       </c>
-      <c r="R15" t="n">
-        <v>0</v>
-      </c>
-      <c r="S15" t="n">
-        <v>0</v>
-      </c>
-      <c r="T15" t="n">
-        <v>0</v>
-      </c>
-      <c r="U15" t="n">
-        <v>0</v>
-      </c>
-      <c r="V15" t="n">
-        <v>0</v>
-      </c>
-      <c r="W15" t="n">
-        <v>0</v>
-      </c>
-      <c r="X15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH15" t="inlineStr">
-        <is>
-          <t>2026-02-25 11:47:56</t>
+      <c r="R19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0</v>
+      </c>
+      <c r="X19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH19" t="inlineStr">
+        <is>
+          <t>2026-02-25 13:56:25</t>
         </is>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-27.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-27.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BH19"/>
+  <dimension ref="A1:BH48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -762,16 +762,16 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="G2" t="n">
-        <v>1.49</v>
+        <v>1.51</v>
       </c>
       <c r="H2" t="n">
         <v>10</v>
       </c>
       <c r="I2" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="J2" t="n">
         <v>4.1</v>
@@ -780,7 +780,7 @@
         <v>4.9</v>
       </c>
       <c r="L2" t="n">
-        <v>1.01</v>
+        <v>1.37</v>
       </c>
       <c r="M2" t="n">
         <v>1.08</v>
@@ -798,28 +798,28 @@
         <v>2.18</v>
       </c>
       <c r="R2" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="S2" t="n">
         <v>4.1</v>
       </c>
       <c r="T2" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="U2" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="V2" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="W2" t="n">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="X2" t="n">
         <v>14.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="Z2" t="n">
         <v>130</v>
@@ -828,19 +828,19 @@
         <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>7.2</v>
+        <v>6.4</v>
       </c>
       <c r="AC2" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AD2" t="n">
-        <v>55</v>
+        <v>970</v>
       </c>
       <c r="AE2" t="n">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.6</v>
+        <v>7.6</v>
       </c>
       <c r="AG2" t="n">
         <v>13</v>
@@ -852,58 +852,58 @@
         <v>280</v>
       </c>
       <c r="AJ2" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="AK2" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="AL2" t="n">
         <v>75</v>
       </c>
       <c r="AM2" t="n">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="AN2" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AO2" t="n">
         <v>1000</v>
       </c>
       <c r="AP2" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AQ2" t="n">
-        <v>18.5</v>
+        <v>21</v>
       </c>
       <c r="AR2" t="n">
-        <v>4.3</v>
+        <v>6.8</v>
       </c>
       <c r="AS2" t="n">
-        <v>4.4</v>
+        <v>7</v>
       </c>
       <c r="AT2" t="n">
-        <v>4.6</v>
+        <v>5.2</v>
       </c>
       <c r="AU2" t="n">
         <v>7.8</v>
       </c>
       <c r="AV2" t="n">
-        <v>4.1</v>
+        <v>6.2</v>
       </c>
       <c r="AW2" t="n">
-        <v>4.4</v>
+        <v>7</v>
       </c>
       <c r="AX2" t="n">
-        <v>5.4</v>
+        <v>6.2</v>
       </c>
       <c r="AY2" t="n">
         <v>8</v>
       </c>
       <c r="AZ2" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BA2" t="n">
-        <v>4.4</v>
+        <v>7</v>
       </c>
       <c r="BB2" t="n">
         <v>9</v>
@@ -912,20 +912,20 @@
         <v>14</v>
       </c>
       <c r="BD2" t="n">
-        <v>4.2</v>
+        <v>6.4</v>
       </c>
       <c r="BE2" t="n">
-        <v>4.4</v>
+        <v>7</v>
       </c>
       <c r="BF2" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="BG2" t="n">
-        <v>4.4</v>
+        <v>7</v>
       </c>
       <c r="BH2" t="inlineStr">
         <is>
-          <t>2026-02-25 13:56:25</t>
+          <t>2026-02-25 16:07:13</t>
         </is>
       </c>
     </row>
@@ -965,7 +965,7 @@
         <v>2.18</v>
       </c>
       <c r="I3" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="J3" t="n">
         <v>3.1</v>
@@ -986,7 +986,7 @@
         <v>1.46</v>
       </c>
       <c r="P3" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="Q3" t="n">
         <v>2.34</v>
@@ -998,40 +998,40 @@
         <v>4.2</v>
       </c>
       <c r="T3" t="n">
-        <v>1.68</v>
+        <v>1.98</v>
       </c>
       <c r="U3" t="n">
-        <v>1.57</v>
+        <v>1.81</v>
       </c>
       <c r="V3" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="W3" t="n">
-        <v>1.27</v>
+        <v>1.31</v>
       </c>
       <c r="X3" t="n">
         <v>1000</v>
       </c>
       <c r="Y3" t="n">
-        <v>10.5</v>
+        <v>9.4</v>
       </c>
       <c r="Z3" t="n">
         <v>970</v>
       </c>
       <c r="AA3" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AB3" t="n">
-        <v>15.5</v>
+        <v>970</v>
       </c>
       <c r="AC3" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD3" t="n">
         <v>970</v>
       </c>
-      <c r="AD3" t="n">
-        <v>16</v>
-      </c>
       <c r="AE3" t="n">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="AF3" t="n">
         <v>1000</v>
@@ -1040,7 +1040,7 @@
         <v>970</v>
       </c>
       <c r="AH3" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AI3" t="n">
         <v>1000</v>
@@ -1064,62 +1064,62 @@
         <v>1000</v>
       </c>
       <c r="AP3" t="n">
-        <v>2.28</v>
+        <v>3.2</v>
       </c>
       <c r="AQ3" t="n">
-        <v>1.88</v>
+        <v>2.98</v>
       </c>
       <c r="AR3" t="n">
-        <v>2.04</v>
+        <v>3.45</v>
       </c>
       <c r="AS3" t="n">
-        <v>2.18</v>
+        <v>3.95</v>
       </c>
       <c r="AT3" t="n">
-        <v>1.99</v>
+        <v>3.3</v>
       </c>
       <c r="AU3" t="n">
-        <v>1.82</v>
+        <v>6.2</v>
       </c>
       <c r="AV3" t="n">
-        <v>2</v>
+        <v>3.3</v>
       </c>
       <c r="AW3" t="n">
-        <v>2.18</v>
+        <v>3.9</v>
       </c>
       <c r="AX3" t="n">
-        <v>2.14</v>
+        <v>3.85</v>
       </c>
       <c r="AY3" t="n">
-        <v>2.08</v>
+        <v>3.55</v>
       </c>
       <c r="AZ3" t="n">
-        <v>2.12</v>
+        <v>3.75</v>
       </c>
       <c r="BA3" t="n">
-        <v>2.28</v>
+        <v>4.1</v>
       </c>
       <c r="BB3" t="n">
-        <v>2.28</v>
+        <v>4.2</v>
       </c>
       <c r="BC3" t="n">
-        <v>2.28</v>
+        <v>4.1</v>
       </c>
       <c r="BD3" t="n">
-        <v>2.28</v>
+        <v>4.1</v>
       </c>
       <c r="BE3" t="n">
-        <v>2.28</v>
+        <v>4.2</v>
       </c>
       <c r="BF3" t="n">
-        <v>2.28</v>
+        <v>4.1</v>
       </c>
       <c r="BG3" t="n">
-        <v>17.5</v>
+        <v>3.9</v>
       </c>
       <c r="BH3" t="inlineStr">
         <is>
-          <t>2026-02-25 13:56:25</t>
+          <t>2026-02-25 16:07:13</t>
         </is>
       </c>
     </row>
@@ -1174,19 +1174,19 @@
         <v>1.01</v>
       </c>
       <c r="N4" t="n">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="O4" t="n">
         <v>1.01</v>
       </c>
       <c r="P4" t="n">
-        <v>1.24</v>
+        <v>1.28</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="R4" t="n">
-        <v>1.08</v>
+        <v>1.12</v>
       </c>
       <c r="S4" t="n">
         <v>1.58</v>
@@ -1313,7 +1313,7 @@
       </c>
       <c r="BH4" t="inlineStr">
         <is>
-          <t>2026-02-25 13:56:25</t>
+          <t>2026-02-25 16:07:13</t>
         </is>
       </c>
     </row>
@@ -1380,7 +1380,7 @@
         <v>1.02</v>
       </c>
       <c r="R5" t="n">
-        <v>1.08</v>
+        <v>1.12</v>
       </c>
       <c r="S5" t="n">
         <v>1.48</v>
@@ -1507,7 +1507,7 @@
       </c>
       <c r="BH5" t="inlineStr">
         <is>
-          <t>2026-02-25 13:56:25</t>
+          <t>2026-02-25 16:07:13</t>
         </is>
       </c>
     </row>
@@ -1541,16 +1541,16 @@
         <v>1.19</v>
       </c>
       <c r="G6" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="H6" t="n">
         <v>17.5</v>
       </c>
       <c r="I6" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="J6" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="K6" t="n">
         <v>8.6</v>
@@ -1568,19 +1568,19 @@
         <v>1.16</v>
       </c>
       <c r="P6" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="R6" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="S6" t="n">
-        <v>2.2</v>
+        <v>2.14</v>
       </c>
       <c r="T6" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="U6" t="n">
         <v>1.66</v>
@@ -1589,13 +1589,13 @@
         <v>1.04</v>
       </c>
       <c r="W6" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="X6" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="Y6" t="n">
-        <v>60</v>
+        <v>970</v>
       </c>
       <c r="Z6" t="n">
         <v>240</v>
@@ -1604,34 +1604,34 @@
         <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AC6" t="n">
-        <v>22</v>
+        <v>18.5</v>
       </c>
       <c r="AD6" t="n">
         <v>970</v>
       </c>
       <c r="AE6" t="n">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.6</v>
+        <v>8.4</v>
       </c>
       <c r="AG6" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AH6" t="n">
-        <v>48</v>
+        <v>970</v>
       </c>
       <c r="AI6" t="n">
         <v>290</v>
       </c>
       <c r="AJ6" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AK6" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AL6" t="n">
         <v>60</v>
@@ -1640,68 +1640,68 @@
         <v>280</v>
       </c>
       <c r="AN6" t="n">
-        <v>4.3</v>
+        <v>3.75</v>
       </c>
       <c r="AO6" t="n">
-        <v>620</v>
+        <v>610</v>
       </c>
       <c r="AP6" t="n">
-        <v>4.7</v>
+        <v>7.8</v>
       </c>
       <c r="AQ6" t="n">
-        <v>4.9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AR6" t="n">
-        <v>5.2</v>
+        <v>9.6</v>
       </c>
       <c r="AS6" t="n">
-        <v>5.4</v>
+        <v>10</v>
       </c>
       <c r="AT6" t="n">
-        <v>3.75</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AU6" t="n">
         <v>15</v>
       </c>
       <c r="AV6" t="n">
-        <v>5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AW6" t="n">
-        <v>5.3</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AX6" t="n">
         <v>7</v>
       </c>
       <c r="AY6" t="n">
-        <v>3.85</v>
+        <v>10.5</v>
       </c>
       <c r="AZ6" t="n">
-        <v>4.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="BA6" t="n">
-        <v>5.3</v>
+        <v>9.6</v>
       </c>
       <c r="BB6" t="n">
         <v>7.6</v>
       </c>
       <c r="BC6" t="n">
-        <v>12.5</v>
+        <v>10.5</v>
       </c>
       <c r="BD6" t="n">
-        <v>4.9</v>
+        <v>32</v>
       </c>
       <c r="BE6" t="n">
-        <v>5.3</v>
+        <v>9.6</v>
       </c>
       <c r="BF6" t="n">
-        <v>2.38</v>
+        <v>3.2</v>
       </c>
       <c r="BG6" t="n">
-        <v>5.3</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="BH6" t="inlineStr">
         <is>
-          <t>2026-02-25 13:56:25</t>
+          <t>2026-02-25 16:07:13</t>
         </is>
       </c>
     </row>
@@ -1738,7 +1738,7 @@
         <v>3.75</v>
       </c>
       <c r="H7" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="I7" t="n">
         <v>2.62</v>
@@ -1762,16 +1762,16 @@
         <v>1.42</v>
       </c>
       <c r="P7" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.22</v>
+        <v>2.08</v>
       </c>
       <c r="R7" t="n">
         <v>1.24</v>
       </c>
       <c r="S7" t="n">
-        <v>4.2</v>
+        <v>3.85</v>
       </c>
       <c r="T7" t="n">
         <v>1.89</v>
@@ -1780,122 +1780,122 @@
         <v>1.93</v>
       </c>
       <c r="V7" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="W7" t="n">
         <v>1.36</v>
       </c>
       <c r="X7" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="Y7" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="Z7" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AA7" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AC7" t="n">
-        <v>8.6</v>
+        <v>1000</v>
       </c>
       <c r="AD7" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AE7" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AF7" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AG7" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AH7" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AI7" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AJ7" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AK7" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AL7" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AM7" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AO7" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AP7" t="n">
-        <v>9.4</v>
+        <v>1.01</v>
       </c>
       <c r="AQ7" t="n">
-        <v>7.6</v>
+        <v>1.01</v>
       </c>
       <c r="AR7" t="n">
-        <v>12.5</v>
+        <v>1.01</v>
       </c>
       <c r="AS7" t="n">
-        <v>4.1</v>
+        <v>1.01</v>
       </c>
       <c r="AT7" t="n">
-        <v>9.4</v>
+        <v>1.01</v>
       </c>
       <c r="AU7" t="n">
-        <v>6.4</v>
+        <v>1.01</v>
       </c>
       <c r="AV7" t="n">
-        <v>10</v>
+        <v>1.01</v>
       </c>
       <c r="AW7" t="n">
-        <v>21</v>
+        <v>1.01</v>
       </c>
       <c r="AX7" t="n">
-        <v>19</v>
+        <v>1.01</v>
       </c>
       <c r="AY7" t="n">
-        <v>12.5</v>
+        <v>1.01</v>
       </c>
       <c r="AZ7" t="n">
-        <v>17</v>
+        <v>1.01</v>
       </c>
       <c r="BA7" t="n">
-        <v>4.2</v>
+        <v>1.01</v>
       </c>
       <c r="BB7" t="n">
-        <v>4.2</v>
+        <v>1.01</v>
       </c>
       <c r="BC7" t="n">
-        <v>4.2</v>
+        <v>1.01</v>
       </c>
       <c r="BD7" t="n">
-        <v>4.2</v>
+        <v>1.01</v>
       </c>
       <c r="BE7" t="n">
-        <v>4.4</v>
+        <v>1.01</v>
       </c>
       <c r="BF7" t="n">
-        <v>4.2</v>
+        <v>1.01</v>
       </c>
       <c r="BG7" t="n">
-        <v>4</v>
+        <v>1.01</v>
       </c>
       <c r="BH7" t="inlineStr">
         <is>
-          <t>2026-02-25 13:56:25</t>
+          <t>2026-02-25 16:07:13</t>
         </is>
       </c>
     </row>
@@ -1935,7 +1935,7 @@
         <v>1.87</v>
       </c>
       <c r="I8" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="J8" t="n">
         <v>3.45</v>
@@ -1950,31 +1950,31 @@
         <v>1.01</v>
       </c>
       <c r="N8" t="n">
-        <v>1.92</v>
+        <v>2.44</v>
       </c>
       <c r="O8" t="n">
         <v>1.33</v>
       </c>
       <c r="P8" t="n">
-        <v>1.82</v>
+        <v>1.7</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.96</v>
+        <v>1.83</v>
       </c>
       <c r="R8" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="S8" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="T8" t="n">
-        <v>1.76</v>
+        <v>1.71</v>
       </c>
       <c r="U8" t="n">
-        <v>1.01</v>
+        <v>1.79</v>
       </c>
       <c r="V8" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="W8" t="n">
         <v>1.27</v>
@@ -1983,22 +1983,22 @@
         <v>18</v>
       </c>
       <c r="Y8" t="n">
-        <v>11.5</v>
+        <v>970</v>
       </c>
       <c r="Z8" t="n">
-        <v>15</v>
+        <v>970</v>
       </c>
       <c r="AA8" t="n">
         <v>28</v>
       </c>
       <c r="AB8" t="n">
-        <v>19</v>
+        <v>970</v>
       </c>
       <c r="AC8" t="n">
-        <v>11.5</v>
+        <v>970</v>
       </c>
       <c r="AD8" t="n">
-        <v>15</v>
+        <v>970</v>
       </c>
       <c r="AE8" t="n">
         <v>29</v>
@@ -2007,10 +2007,10 @@
         <v>46</v>
       </c>
       <c r="AG8" t="n">
-        <v>23</v>
+        <v>970</v>
       </c>
       <c r="AH8" t="n">
-        <v>28</v>
+        <v>970</v>
       </c>
       <c r="AI8" t="n">
         <v>55</v>
@@ -2031,65 +2031,65 @@
         <v>1000</v>
       </c>
       <c r="AO8" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AP8" t="n">
-        <v>2.2</v>
+        <v>2.54</v>
       </c>
       <c r="AQ8" t="n">
-        <v>2.06</v>
+        <v>2.34</v>
       </c>
       <c r="AR8" t="n">
-        <v>2.16</v>
+        <v>2.46</v>
       </c>
       <c r="AS8" t="n">
-        <v>2.32</v>
+        <v>2.68</v>
       </c>
       <c r="AT8" t="n">
-        <v>2.22</v>
+        <v>2.56</v>
       </c>
       <c r="AU8" t="n">
-        <v>2.06</v>
+        <v>2.34</v>
       </c>
       <c r="AV8" t="n">
-        <v>2.16</v>
+        <v>2.46</v>
       </c>
       <c r="AW8" t="n">
-        <v>2.32</v>
+        <v>2.68</v>
       </c>
       <c r="AX8" t="n">
-        <v>2.38</v>
+        <v>2.78</v>
       </c>
       <c r="AY8" t="n">
-        <v>2.26</v>
+        <v>2.62</v>
       </c>
       <c r="AZ8" t="n">
-        <v>2.32</v>
+        <v>2.68</v>
       </c>
       <c r="BA8" t="n">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="BB8" t="n">
-        <v>2.52</v>
+        <v>2.96</v>
       </c>
       <c r="BC8" t="n">
-        <v>2.52</v>
+        <v>2.94</v>
       </c>
       <c r="BD8" t="n">
-        <v>2.52</v>
+        <v>2.94</v>
       </c>
       <c r="BE8" t="n">
-        <v>2.52</v>
+        <v>2.96</v>
       </c>
       <c r="BF8" t="n">
-        <v>2.52</v>
+        <v>2.94</v>
       </c>
       <c r="BG8" t="n">
-        <v>2.52</v>
+        <v>9.6</v>
       </c>
       <c r="BH8" t="inlineStr">
         <is>
-          <t>2026-02-25 13:56:25</t>
+          <t>2026-02-25 16:07:13</t>
         </is>
       </c>
     </row>
@@ -2120,34 +2120,34 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>3.05</v>
+        <v>2.88</v>
       </c>
       <c r="G9" t="n">
-        <v>4.3</v>
+        <v>3.95</v>
       </c>
       <c r="H9" t="n">
         <v>2.16</v>
       </c>
       <c r="I9" t="n">
-        <v>2.46</v>
+        <v>2.62</v>
       </c>
       <c r="J9" t="n">
-        <v>2.94</v>
+        <v>2.92</v>
       </c>
       <c r="K9" t="n">
         <v>3.75</v>
       </c>
       <c r="L9" t="n">
-        <v>1.01</v>
+        <v>1.33</v>
       </c>
       <c r="M9" t="n">
         <v>1.01</v>
       </c>
       <c r="N9" t="n">
-        <v>1.77</v>
+        <v>2.66</v>
       </c>
       <c r="O9" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="P9" t="n">
         <v>1.77</v>
@@ -2156,22 +2156,22 @@
         <v>2.04</v>
       </c>
       <c r="R9" t="n">
-        <v>1.18</v>
+        <v>1.24</v>
       </c>
       <c r="S9" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="T9" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="U9" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="V9" t="n">
-        <v>1.68</v>
+        <v>1.61</v>
       </c>
       <c r="W9" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="X9" t="n">
         <v>1000</v>
@@ -2228,52 +2228,52 @@
         <v>1000</v>
       </c>
       <c r="AP9" t="n">
-        <v>10</v>
+        <v>1.01</v>
       </c>
       <c r="AQ9" t="n">
-        <v>8</v>
+        <v>1.01</v>
       </c>
       <c r="AR9" t="n">
-        <v>10</v>
+        <v>1.01</v>
       </c>
       <c r="AS9" t="n">
-        <v>24</v>
+        <v>1.01</v>
       </c>
       <c r="AT9" t="n">
-        <v>9.6</v>
+        <v>1.01</v>
       </c>
       <c r="AU9" t="n">
-        <v>6.4</v>
+        <v>1.01</v>
       </c>
       <c r="AV9" t="n">
-        <v>9</v>
+        <v>1.01</v>
       </c>
       <c r="AW9" t="n">
-        <v>18.5</v>
+        <v>1.01</v>
       </c>
       <c r="AX9" t="n">
-        <v>17.5</v>
+        <v>1.01</v>
       </c>
       <c r="AY9" t="n">
-        <v>11</v>
+        <v>1.01</v>
       </c>
       <c r="AZ9" t="n">
-        <v>15</v>
+        <v>1.01</v>
       </c>
       <c r="BA9" t="n">
-        <v>29</v>
+        <v>1.01</v>
       </c>
       <c r="BB9" t="n">
-        <v>42</v>
+        <v>1.01</v>
       </c>
       <c r="BC9" t="n">
-        <v>28</v>
+        <v>1.01</v>
       </c>
       <c r="BD9" t="n">
-        <v>36</v>
+        <v>1.01</v>
       </c>
       <c r="BE9" t="n">
-        <v>50</v>
+        <v>1.01</v>
       </c>
       <c r="BF9" t="n">
         <v>1.01</v>
@@ -2283,14 +2283,14 @@
       </c>
       <c r="BH9" t="inlineStr">
         <is>
-          <t>2026-02-25 13:56:25</t>
+          <t>2026-02-25 16:07:13</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Czech 2 Liga</t>
+          <t>Turkish Super League</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2300,191 +2300,191 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>14:15:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Usti Nad Labem</t>
+          <t>Trabzonspor</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>H Slavia Kromeriz</t>
+          <t>Fatih Karagumruk Istanbul</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.04</v>
+        <v>1.41</v>
       </c>
       <c r="G10" t="n">
-        <v>1000</v>
+        <v>1.46</v>
       </c>
       <c r="H10" t="n">
-        <v>1.04</v>
+        <v>9</v>
       </c>
       <c r="I10" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="J10" t="n">
-        <v>1.01</v>
+        <v>4.7</v>
       </c>
       <c r="K10" t="n">
-        <v>950</v>
+        <v>5.2</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="P10" t="n">
-        <v>1.24</v>
+        <v>2.04</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.01</v>
+        <v>1.83</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>1.81</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>3.05</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="Z10" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AA10" t="n">
-        <v>0</v>
+        <v>390</v>
       </c>
       <c r="AB10" t="n">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC10" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AE10" t="n">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="AF10" t="n">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="AG10" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AH10" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AI10" t="n">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AK10" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AL10" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AM10" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="AN10" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AO10" t="n">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="AP10" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AR10" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AS10" t="n">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="AT10" t="n">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="AU10" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AV10" t="n">
-        <v>0</v>
+        <v>6.4</v>
       </c>
       <c r="AW10" t="n">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="AX10" t="n">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="AY10" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AZ10" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BA10" t="n">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="BB10" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="BC10" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="BD10" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="BE10" t="n">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="BF10" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BG10" t="n">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="BH10" t="inlineStr">
         <is>
-          <t>2026-02-25 13:56:25</t>
+          <t>2026-02-25 16:07:13</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Romanian Liga I</t>
+          <t>Turkish Super League</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2494,191 +2494,191 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Universitatea Cluj</t>
+          <t>Basaksehir</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Otelul Galati</t>
+          <t>Konyaspor</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.93</v>
+        <v>1.74</v>
       </c>
       <c r="G11" t="n">
-        <v>2.26</v>
+        <v>1.84</v>
       </c>
       <c r="H11" t="n">
-        <v>4.1</v>
+        <v>4.8</v>
       </c>
       <c r="I11" t="n">
-        <v>5</v>
+        <v>5.3</v>
       </c>
       <c r="J11" t="n">
-        <v>3.2</v>
+        <v>3.95</v>
       </c>
       <c r="K11" t="n">
-        <v>3.8</v>
+        <v>4.4</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="P11" t="n">
-        <v>1.65</v>
+        <v>2.14</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>2.92</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>2.18</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="Z11" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AA11" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="AB11" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AC11" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AD11" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AE11" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AF11" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AG11" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AH11" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AI11" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AK11" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AL11" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AM11" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AN11" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AO11" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AP11" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AQ11" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AR11" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AS11" t="n">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="AT11" t="n">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AU11" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="AV11" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AW11" t="n">
-        <v>0</v>
+        <v>6.4</v>
       </c>
       <c r="AX11" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AY11" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AZ11" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="BA11" t="n">
-        <v>0</v>
+        <v>6.4</v>
       </c>
       <c r="BB11" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="BC11" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="BD11" t="n">
-        <v>0</v>
+        <v>5.8</v>
       </c>
       <c r="BE11" t="n">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="BF11" t="n">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="BG11" t="n">
-        <v>0</v>
+        <v>6.4</v>
       </c>
       <c r="BH11" t="inlineStr">
         <is>
-          <t>2026-02-25 13:56:25</t>
+          <t>2026-02-25 16:07:13</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Polish I Liga</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2688,191 +2688,191 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Al-Shabab (KSA)</t>
+          <t>Pogon Siedlce</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Al-Hilal</t>
+          <t>Gornik Leczna</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.04</v>
+        <v>2.14</v>
       </c>
       <c r="G12" t="n">
-        <v>11.5</v>
+        <v>2.92</v>
       </c>
       <c r="H12" t="n">
-        <v>1.41</v>
+        <v>2.86</v>
       </c>
       <c r="I12" t="n">
-        <v>1.48</v>
+        <v>4.4</v>
       </c>
       <c r="J12" t="n">
-        <v>1.12</v>
+        <v>2.96</v>
       </c>
       <c r="K12" t="n">
-        <v>950</v>
+        <v>5.5</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="P12" t="n">
-        <v>2.3</v>
+        <v>1.83</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.56</v>
+        <v>2</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AP12" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AQ12" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AR12" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AS12" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AT12" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AU12" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AV12" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AW12" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AX12" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AY12" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AZ12" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BA12" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BB12" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BC12" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BD12" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BE12" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BF12" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BG12" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BH12" t="inlineStr">
         <is>
-          <t>2026-02-25 13:56:25</t>
+          <t>2026-02-25 16:07:13</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Polish Ekstraklasa</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2882,191 +2882,191 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Al-Hazm (KSA)</t>
+          <t>Cracovia Krakow</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Al-Ettifaq</t>
+          <t>Piast Gliwice</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.84</v>
+        <v>2.36</v>
       </c>
       <c r="G13" t="n">
-        <v>3.5</v>
+        <v>2.76</v>
       </c>
       <c r="H13" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I13" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="J13" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="K13" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N13" t="n">
         <v>2.32</v>
       </c>
-      <c r="I13" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="J13" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="K13" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="P13" t="n">
-        <v>2.02</v>
+        <v>1.54</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.76</v>
+        <v>2.52</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AP13" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AQ13" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AR13" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AS13" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AT13" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AU13" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AV13" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AW13" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AX13" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AY13" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AZ13" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="BA13" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="BB13" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="BC13" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="BD13" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="BE13" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="BF13" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="BG13" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="BH13" t="inlineStr">
         <is>
-          <t>2026-02-25 13:56:25</t>
+          <t>2026-02-25 16:07:13</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Danish 1st Division</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -3076,191 +3076,191 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Al-Ittihad</t>
+          <t>Hobro</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Al-Khaleej Saihat</t>
+          <t>HB Koge</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.51</v>
+        <v>2.08</v>
       </c>
       <c r="G14" t="n">
-        <v>1.64</v>
+        <v>2.74</v>
       </c>
       <c r="H14" t="n">
-        <v>5.4</v>
+        <v>3.1</v>
       </c>
       <c r="I14" t="n">
-        <v>7.2</v>
+        <v>4.4</v>
       </c>
       <c r="J14" t="n">
-        <v>4.6</v>
+        <v>3.05</v>
       </c>
       <c r="K14" t="n">
-        <v>5.6</v>
+        <v>5.1</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="P14" t="n">
-        <v>2.8</v>
+        <v>1.69</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.44</v>
+        <v>1.89</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>2.44</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AP14" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AQ14" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AR14" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AS14" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AT14" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AU14" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AV14" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AW14" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AX14" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AY14" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AZ14" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BA14" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BB14" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BC14" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BD14" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BE14" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BF14" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BG14" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BH14" t="inlineStr">
         <is>
-          <t>2026-02-25 13:56:25</t>
+          <t>2026-02-25 16:07:13</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Austrian Erste Liga</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3270,191 +3270,191 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Albacete</t>
+          <t>FC Liefering</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>First Vienna Fc 1894</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.46</v>
+        <v>2.1</v>
       </c>
       <c r="G15" t="n">
-        <v>2.86</v>
+        <v>2.28</v>
       </c>
       <c r="H15" t="n">
-        <v>2.78</v>
+        <v>3.45</v>
       </c>
       <c r="I15" t="n">
-        <v>3.3</v>
+        <v>3.9</v>
       </c>
       <c r="J15" t="n">
         <v>3.45</v>
       </c>
       <c r="K15" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N15" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="S15" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="T15" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="U15" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="V15" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="W15" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="X15" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>85</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>55</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>28</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>44</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>110</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>50</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>11</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>19</v>
+      </c>
+      <c r="AS15" t="n">
         <v>4.1</v>
       </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="R15" t="n">
-        <v>0</v>
-      </c>
-      <c r="S15" t="n">
-        <v>0</v>
-      </c>
-      <c r="T15" t="n">
-        <v>0</v>
-      </c>
-      <c r="U15" t="n">
-        <v>0</v>
-      </c>
-      <c r="V15" t="n">
-        <v>0</v>
-      </c>
-      <c r="W15" t="n">
-        <v>0</v>
-      </c>
-      <c r="X15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS15" t="n">
-        <v>0</v>
-      </c>
       <c r="AT15" t="n">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="AU15" t="n">
-        <v>0</v>
+        <v>6.2</v>
       </c>
       <c r="AV15" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AW15" t="n">
-        <v>0</v>
+        <v>3.95</v>
       </c>
       <c r="AX15" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AY15" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AZ15" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="BA15" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BB15" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="BC15" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="BD15" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="BE15" t="n">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="BF15" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="BG15" t="n">
-        <v>0</v>
+        <v>3.95</v>
       </c>
       <c r="BH15" t="inlineStr">
         <is>
-          <t>2026-02-25 13:56:25</t>
+          <t>2026-02-25 16:07:13</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Colombian Primera B</t>
+          <t>Austrian Erste Liga</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -3464,191 +3464,191 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Bogota</t>
+          <t>Bregenz</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Atletico FC Cali</t>
+          <t>Austria Klagenfurt</t>
         </is>
       </c>
       <c r="F16" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="H16" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I16" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="J16" t="n">
+        <v>4</v>
+      </c>
+      <c r="K16" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M16" t="n">
         <v>1.04</v>
       </c>
-      <c r="G16" t="n">
-        <v>1000</v>
-      </c>
-      <c r="H16" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="I16" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="K16" t="n">
-        <v>950</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="P16" t="n">
-        <v>1.24</v>
+        <v>2.1</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.01</v>
+        <v>1.76</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>2.96</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>1.77</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="Z16" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AA16" t="n">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="AB16" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AC16" t="n">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD16" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AE16" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AF16" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AG16" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AH16" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="AI16" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AJ16" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="AK16" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="AL16" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AM16" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AN16" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AO16" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AP16" t="n">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="AQ16" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AR16" t="n">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="AS16" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AT16" t="n">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="AU16" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="AV16" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AW16" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AX16" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AY16" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AZ16" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="BA16" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="BB16" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="BC16" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="BD16" t="n">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="BE16" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BF16" t="n">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="BG16" t="n">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="BH16" t="inlineStr">
         <is>
-          <t>2026-02-25 13:56:25</t>
+          <t>2026-02-25 16:07:13</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Colombian Primera B</t>
+          <t>Austrian Erste Liga</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -3658,191 +3658,191 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Leones FC</t>
+          <t>WSC Hertha Wels</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Independiente Yumbo</t>
+          <t>Admira Wacker</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.04</v>
+        <v>5.1</v>
       </c>
       <c r="G17" t="n">
-        <v>1000</v>
+        <v>6.2</v>
       </c>
       <c r="H17" t="n">
-        <v>1.04</v>
+        <v>1.72</v>
       </c>
       <c r="I17" t="n">
-        <v>1000</v>
+        <v>1.89</v>
       </c>
       <c r="J17" t="n">
-        <v>1.01</v>
+        <v>3.55</v>
       </c>
       <c r="K17" t="n">
-        <v>950</v>
+        <v>4.1</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="P17" t="n">
-        <v>1.24</v>
+        <v>1.79</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.01</v>
+        <v>2.06</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>1.94</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z17" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AA17" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AB17" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="AC17" t="n">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD17" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AE17" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AF17" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AG17" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AH17" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AI17" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AJ17" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="AK17" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AL17" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AM17" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="AN17" t="n">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="AO17" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AP17" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AQ17" t="n">
-        <v>0</v>
+        <v>6.4</v>
       </c>
       <c r="AR17" t="n">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AS17" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AT17" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AU17" t="n">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="AV17" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AW17" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AX17" t="n">
-        <v>0</v>
+        <v>4.6</v>
       </c>
       <c r="AY17" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AZ17" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="BA17" t="n">
-        <v>0</v>
+        <v>4.6</v>
       </c>
       <c r="BB17" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BC17" t="n">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="BD17" t="n">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="BE17" t="n">
-        <v>0</v>
+        <v>4.9</v>
       </c>
       <c r="BF17" t="n">
-        <v>0</v>
+        <v>4.9</v>
       </c>
       <c r="BG17" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="BH17" t="inlineStr">
         <is>
-          <t>2026-02-25 13:56:25</t>
+          <t>2026-02-25 16:07:13</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Algerian Ligue 1</t>
+          <t>Austrian Erste Liga</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -3852,378 +3852,6004 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>JS Saoura</t>
+          <t>Austria Wien (A)</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>ES Ben Aknoun</t>
+          <t>Rapid Vienna (Am)</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.04</v>
+        <v>2</v>
       </c>
       <c r="G18" t="n">
-        <v>1.8</v>
+        <v>2.26</v>
       </c>
       <c r="H18" t="n">
-        <v>2.3</v>
+        <v>3.4</v>
       </c>
       <c r="I18" t="n">
-        <v>1000</v>
+        <v>4.4</v>
       </c>
       <c r="J18" t="n">
-        <v>2.24</v>
+        <v>3.6</v>
       </c>
       <c r="K18" t="n">
-        <v>950</v>
+        <v>4.3</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="P18" t="n">
-        <v>1.24</v>
+        <v>2.1</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.01</v>
+        <v>1.72</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>2.48</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>1.79</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AP18" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AQ18" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AR18" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AS18" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AT18" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AU18" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AV18" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AW18" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AX18" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AY18" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AZ18" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BA18" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BB18" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BC18" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BD18" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BE18" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BF18" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BG18" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BH18" t="inlineStr">
         <is>
-          <t>2026-02-25 13:56:25</t>
+          <t>2026-02-25 16:07:13</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
+          <t>Czech 1 Liga</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>14:00:00</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Dukla Prague</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Slavia Prague</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>18</v>
+      </c>
+      <c r="G19" t="n">
+        <v>26</v>
+      </c>
+      <c r="H19" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="I19" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="J19" t="n">
+        <v>7</v>
+      </c>
+      <c r="K19" t="n">
+        <v>9</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N19" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="P19" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="S19" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="T19" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U19" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="V19" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="W19" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="X19" t="n">
+        <v>27</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>65</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>16</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>250</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>85</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>55</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>630</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>430</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>370</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>6</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>8</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>10</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>13</v>
+      </c>
+      <c r="AX19" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AY19" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AZ19" t="n">
+        <v>36</v>
+      </c>
+      <c r="BA19" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="BB19" t="n">
+        <v>9</v>
+      </c>
+      <c r="BC19" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="BD19" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="BE19" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="BF19" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG19" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="BH19" t="inlineStr">
+        <is>
+          <t>2026-02-25 16:07:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Czech 2 Liga</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>14:15:00</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Usti Nad Labem</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>H Slavia Kromeriz</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="G20" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="H20" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I20" t="n">
+        <v>4</v>
+      </c>
+      <c r="J20" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="K20" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N20" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P20" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="S20" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="T20" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="U20" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="V20" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="W20" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="X20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AV20" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AX20" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AY20" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AZ20" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BA20" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BB20" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BC20" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BD20" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BE20" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BF20" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BG20" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BH20" t="inlineStr">
+        <is>
+          <t>2026-02-25 16:07:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>German Bundesliga 2</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>14:30:00</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Fortuna Dusseldorf</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Bochum</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="G21" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+      <c r="I21" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="J21" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K21" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="L21" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N21" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P21" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="S21" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="T21" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="U21" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="V21" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="W21" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="X21" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>19</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>32</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>75</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>20</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>48</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>48</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>36</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>50</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>100</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>10</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="AU21" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AV21" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="AW21" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AX21" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="AY21" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="AZ21" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="BA21" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BB21" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BC21" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BD21" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BE21" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="BF21" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="BG21" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="BH21" t="inlineStr">
+        <is>
+          <t>2026-02-25 16:07:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>German Bundesliga 2</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>14:30:00</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Dynamo Dresden</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>SV Darmstadt</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="G22" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="H22" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="I22" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="J22" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K22" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="L22" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N22" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P22" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="S22" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="T22" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="U22" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="V22" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="W22" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="X22" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>38</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>27</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>22</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>38</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>48</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>32</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>90</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>25</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>15</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AU22" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AV22" t="n">
+        <v>10</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>20</v>
+      </c>
+      <c r="AX22" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AY22" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ22" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="BA22" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="BB22" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="BC22" t="n">
+        <v>24</v>
+      </c>
+      <c r="BD22" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="BE22" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF22" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="BG22" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="BH22" t="inlineStr">
+        <is>
+          <t>2026-02-25 16:07:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Lithuanian A Lyga</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>15:00:00</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>VMFD Zalgiris</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Panevezys</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="G23" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="H23" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="I23" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="J23" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K23" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N23" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="P23" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="S23" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="T23" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="U23" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="V23" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="W23" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="X23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AU23" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AV23" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AW23" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AX23" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AY23" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AZ23" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BA23" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BB23" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BC23" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BD23" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BE23" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BF23" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BG23" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BH23" t="inlineStr">
+        <is>
+          <t>2026-02-25 16:07:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Romanian Liga I</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>15:00:00</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Universitatea Cluj</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Otelul Galati</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="G24" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="H24" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>5</v>
+      </c>
+      <c r="J24" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K24" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="L24" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N24" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P24" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="S24" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="T24" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="U24" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="V24" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="W24" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="X24" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>970</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>40</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>140</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>85</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>970</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>27</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>100</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>32</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>32</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>190</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>25</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>120</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AU24" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="AV24" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AW24" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AX24" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AY24" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AZ24" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="BA24" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BB24" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BC24" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BD24" t="n">
+        <v>4</v>
+      </c>
+      <c r="BE24" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="BF24" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="BG24" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BH24" t="inlineStr">
+        <is>
+          <t>2026-02-25 16:07:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Italian Serie B</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>15:00:00</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>AC Monza</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Entella</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="G25" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="H25" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="I25" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="J25" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="K25" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="L25" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N25" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P25" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="R25" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="S25" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T25" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="U25" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="V25" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="W25" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="X25" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>22</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>65</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>30</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>22</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>50</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AQ25" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AR25" t="n">
+        <v>36</v>
+      </c>
+      <c r="AS25" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AT25" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AU25" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AV25" t="n">
+        <v>19</v>
+      </c>
+      <c r="AW25" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AX25" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AY25" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AZ25" t="n">
+        <v>4</v>
+      </c>
+      <c r="BA25" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="BB25" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BC25" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BD25" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="BE25" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="BF25" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="BG25" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="BH25" t="inlineStr">
+        <is>
+          <t>2026-02-25 16:07:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Danish 1st Division</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>15:00:00</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Lyngby</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Kolding IF</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="G26" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+      <c r="I26" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="J26" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="K26" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="L26" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N26" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="O26" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P26" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="R26" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="S26" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="T26" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="U26" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="V26" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="W26" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="X26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AP26" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AQ26" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AR26" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AS26" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AT26" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AU26" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AV26" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AW26" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AX26" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AY26" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AZ26" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BA26" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BB26" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BC26" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BD26" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BE26" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BF26" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BG26" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BH26" t="inlineStr">
+        <is>
+          <t>2026-02-25 16:07:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Danish 1st Division</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>15:00:00</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>B93 Copenhagen</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Hvidovre</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="G27" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="H27" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="I27" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="J27" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K27" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="L27" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N27" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="O27" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="P27" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="R27" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="S27" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="T27" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U27" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V27" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="W27" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="X27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AP27" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AQ27" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AR27" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AS27" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AT27" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AU27" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AV27" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AW27" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AX27" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AY27" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AZ27" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BA27" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BB27" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BC27" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BD27" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BE27" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BF27" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BG27" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BH27" t="inlineStr">
+        <is>
+          <t>2026-02-25 16:07:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Danish 1st Division</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>15:00:00</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>AaB</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Hillerod Fodbold</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="G28" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H28" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I28" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="J28" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="K28" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L28" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N28" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="O28" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P28" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="R28" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="S28" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="T28" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="U28" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="V28" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="W28" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="X28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AP28" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AQ28" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AR28" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AS28" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AT28" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AU28" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AV28" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AW28" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AX28" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AY28" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AZ28" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BA28" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BB28" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BC28" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BD28" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BE28" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BF28" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BG28" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BH28" t="inlineStr">
+        <is>
+          <t>2026-02-25 16:07:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>German 3 Liga</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>15:00:00</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Hoffenheim II</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>1860 Munich</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="G29" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="H29" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="I29" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J29" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K29" t="n">
+        <v>7</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0</v>
+      </c>
+      <c r="X29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH29" t="inlineStr">
+        <is>
+          <t>2026-02-25 16:07:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>French National</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>15:30:00</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Sochaux</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Villefranche Beaujolais</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="G30" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="H30" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>18</v>
+      </c>
+      <c r="J30" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="K30" t="n">
+        <v>7</v>
+      </c>
+      <c r="L30" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N30" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="O30" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="P30" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="R30" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="S30" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="T30" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U30" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V30" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="W30" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="X30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AP30" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AQ30" t="n">
+        <v>13</v>
+      </c>
+      <c r="AR30" t="n">
+        <v>28</v>
+      </c>
+      <c r="AS30" t="n">
+        <v>50</v>
+      </c>
+      <c r="AT30" t="n">
+        <v>6</v>
+      </c>
+      <c r="AU30" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AV30" t="n">
+        <v>18</v>
+      </c>
+      <c r="AW30" t="n">
+        <v>50</v>
+      </c>
+      <c r="AX30" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AY30" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AZ30" t="n">
+        <v>19</v>
+      </c>
+      <c r="BA30" t="n">
+        <v>50</v>
+      </c>
+      <c r="BB30" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="BC30" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="BD30" t="n">
+        <v>30</v>
+      </c>
+      <c r="BE30" t="n">
+        <v>50</v>
+      </c>
+      <c r="BF30" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BG30" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BH30" t="inlineStr">
+        <is>
+          <t>2026-02-25 16:07:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>French National</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>15:30:00</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Versailles 78 FC</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Aubagne FC</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="G31" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="H31" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I31" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="J31" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="K31" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="L31" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N31" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="O31" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="P31" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="R31" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="S31" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T31" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U31" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V31" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="W31" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="X31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AP31" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AQ31" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AR31" t="n">
+        <v>19</v>
+      </c>
+      <c r="AS31" t="n">
+        <v>50</v>
+      </c>
+      <c r="AT31" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AU31" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AV31" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AW31" t="n">
+        <v>40</v>
+      </c>
+      <c r="AX31" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AY31" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ31" t="n">
+        <v>17</v>
+      </c>
+      <c r="BA31" t="n">
+        <v>44</v>
+      </c>
+      <c r="BB31" t="n">
+        <v>19</v>
+      </c>
+      <c r="BC31" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="BD31" t="n">
+        <v>34</v>
+      </c>
+      <c r="BE31" t="n">
+        <v>50</v>
+      </c>
+      <c r="BF31" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BG31" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BH31" t="inlineStr">
+        <is>
+          <t>2026-02-25 16:07:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>French National</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>15:30:00</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Fleury Merogis</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Concarneau</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="G32" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="H32" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I32" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="J32" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K32" t="n">
+        <v>5</v>
+      </c>
+      <c r="L32" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N32" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="O32" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="P32" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="R32" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="S32" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T32" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="U32" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="V32" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="W32" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="X32" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>38</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>120</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>75</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>85</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>32</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>30</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN32" t="n">
+        <v>23</v>
+      </c>
+      <c r="AO32" t="n">
+        <v>90</v>
+      </c>
+      <c r="AP32" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AQ32" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AR32" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AS32" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AT32" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AU32" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="AV32" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AW32" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AX32" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AY32" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AZ32" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="BA32" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BB32" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="BC32" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BD32" t="n">
+        <v>4</v>
+      </c>
+      <c r="BE32" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="BF32" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="BG32" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BH32" t="inlineStr">
+        <is>
+          <t>2026-02-25 16:07:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>French National</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>15:30:00</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Le Puy</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Stade Briochin</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="G33" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H33" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="I33" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="J33" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K33" t="n">
+        <v>950</v>
+      </c>
+      <c r="L33" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N33" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="O33" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P33" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="R33" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="S33" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="T33" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U33" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V33" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="W33" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="X33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AP33" t="n">
+        <v>11</v>
+      </c>
+      <c r="AQ33" t="n">
+        <v>16</v>
+      </c>
+      <c r="AR33" t="n">
+        <v>36</v>
+      </c>
+      <c r="AS33" t="n">
+        <v>50</v>
+      </c>
+      <c r="AT33" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AU33" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AV33" t="n">
+        <v>19</v>
+      </c>
+      <c r="AW33" t="n">
+        <v>50</v>
+      </c>
+      <c r="AX33" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY33" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AZ33" t="n">
+        <v>18</v>
+      </c>
+      <c r="BA33" t="n">
+        <v>50</v>
+      </c>
+      <c r="BB33" t="n">
+        <v>11</v>
+      </c>
+      <c r="BC33" t="n">
+        <v>14</v>
+      </c>
+      <c r="BD33" t="n">
+        <v>30</v>
+      </c>
+      <c r="BE33" t="n">
+        <v>50</v>
+      </c>
+      <c r="BF33" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BG33" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BH33" t="inlineStr">
+        <is>
+          <t>2026-02-25 16:07:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>French National</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>15:30:00</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Chateauroux</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Paris 13 Atletico</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="G34" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="H34" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="J34" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="K34" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="L34" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N34" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="O34" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P34" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="R34" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S34" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="T34" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U34" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V34" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="W34" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="X34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AP34" t="n">
+        <v>9</v>
+      </c>
+      <c r="AQ34" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AR34" t="n">
+        <v>18</v>
+      </c>
+      <c r="AS34" t="n">
+        <v>46</v>
+      </c>
+      <c r="AT34" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AU34" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV34" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AW34" t="n">
+        <v>36</v>
+      </c>
+      <c r="AX34" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AY34" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AZ34" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="BA34" t="n">
+        <v>46</v>
+      </c>
+      <c r="BB34" t="n">
+        <v>22</v>
+      </c>
+      <c r="BC34" t="n">
+        <v>20</v>
+      </c>
+      <c r="BD34" t="n">
+        <v>40</v>
+      </c>
+      <c r="BE34" t="n">
+        <v>50</v>
+      </c>
+      <c r="BF34" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BG34" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BH34" t="inlineStr">
+        <is>
+          <t>2026-02-25 16:07:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Portuguese Primeira Liga</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>15:45:00</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Porto</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Arouca</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="G35" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="H35" t="n">
+        <v>20</v>
+      </c>
+      <c r="I35" t="n">
+        <v>26</v>
+      </c>
+      <c r="J35" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="K35" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH35" t="inlineStr">
+        <is>
+          <t>2026-02-25 16:07:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Saudi Professional League</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>16:00:00</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Al-Hazm (KSA)</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Al-Ettifaq</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="G36" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="H36" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="I36" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="J36" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K36" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="L36" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N36" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="O36" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P36" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="R36" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="S36" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="T36" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U36" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V36" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="W36" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X36" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ36" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK36" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL36" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM36" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN36" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO36" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AP36" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AQ36" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AR36" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AS36" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AT36" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AU36" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AV36" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AW36" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AX36" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AY36" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AZ36" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BA36" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BB36" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BC36" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BD36" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BE36" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BF36" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BG36" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BH36" t="inlineStr">
+        <is>
+          <t>2026-02-25 16:07:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Saudi Professional League</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>16:00:00</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Al-Ittihad</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Al-Khaleej Saihat</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="G37" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="H37" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="I37" t="n">
+        <v>7</v>
+      </c>
+      <c r="J37" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="K37" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="n">
+        <v>0</v>
+      </c>
+      <c r="X37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ37" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA37" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB37" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC37" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD37" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE37" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF37" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG37" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH37" t="inlineStr">
+        <is>
+          <t>2026-02-25 16:07:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Saudi Professional League</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>16:00:00</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Al-Shabab (KSA)</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Al-Hilal</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="G38" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="H38" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="I38" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="J38" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="K38" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="n">
+        <v>0</v>
+      </c>
+      <c r="X38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ38" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA38" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB38" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC38" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD38" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE38" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF38" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG38" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH38" t="inlineStr">
+        <is>
+          <t>2026-02-25 16:07:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Austrian Erste Liga</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>16:30:00</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>St Polten</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>SKU Amstetten</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="G39" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="H39" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I39" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="J39" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="K39" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0</v>
+      </c>
+      <c r="P39" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="R39" t="n">
+        <v>0</v>
+      </c>
+      <c r="S39" t="n">
+        <v>0</v>
+      </c>
+      <c r="T39" t="n">
+        <v>0</v>
+      </c>
+      <c r="U39" t="n">
+        <v>0</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="n">
+        <v>0</v>
+      </c>
+      <c r="X39" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ39" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA39" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB39" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC39" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD39" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE39" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF39" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG39" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH39" t="inlineStr">
+        <is>
+          <t>2026-02-25 16:07:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Polish Ekstraklasa</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>16:30:00</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Arka Gdynia</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Lechia Gdansk</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="G40" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="H40" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="I40" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="J40" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K40" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="n">
+        <v>0</v>
+      </c>
+      <c r="X40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ40" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA40" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB40" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC40" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD40" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE40" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF40" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG40" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH40" t="inlineStr">
+        <is>
+          <t>2026-02-25 16:07:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Spanish Segunda Division</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>16:30:00</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Albacete</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Almeria</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="G41" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="H41" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="I41" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="J41" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="K41" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="n">
+        <v>0</v>
+      </c>
+      <c r="X41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ41" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA41" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB41" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC41" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD41" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE41" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF41" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG41" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH41" t="inlineStr">
+        <is>
+          <t>2026-02-25 16:07:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Colombian Primera B</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Bogota</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Atletico FC Cali</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="G42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H42" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="I42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J42" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K42" t="n">
+        <v>950</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0</v>
+      </c>
+      <c r="P42" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="R42" t="n">
+        <v>0</v>
+      </c>
+      <c r="S42" t="n">
+        <v>0</v>
+      </c>
+      <c r="T42" t="n">
+        <v>0</v>
+      </c>
+      <c r="U42" t="n">
+        <v>0</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="n">
+        <v>0</v>
+      </c>
+      <c r="X42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ42" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA42" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB42" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC42" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD42" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE42" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF42" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG42" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH42" t="inlineStr">
+        <is>
+          <t>2026-02-25 16:07:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Colombian Primera B</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Leones FC</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Independiente Yumbo</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="G43" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H43" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="I43" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J43" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K43" t="n">
+        <v>950</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0</v>
+      </c>
+      <c r="U43" t="n">
+        <v>0</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="n">
+        <v>0</v>
+      </c>
+      <c r="X43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ43" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA43" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB43" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC43" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD43" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE43" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF43" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG43" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH43" t="inlineStr">
+        <is>
+          <t>2026-02-25 16:07:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Italian Serie B</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Sampdoria</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>SSD Bari</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="G44" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H44" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="I44" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="J44" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K44" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0</v>
+      </c>
+      <c r="U44" t="n">
+        <v>0</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="n">
+        <v>0</v>
+      </c>
+      <c r="X44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ44" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA44" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB44" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC44" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD44" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE44" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF44" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG44" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH44" t="inlineStr">
+        <is>
+          <t>2026-02-25 16:07:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Polish I Liga</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Stal Rzeszow</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Ruch Chorzow</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="G45" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="H45" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="I45" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="J45" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K45" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0</v>
+      </c>
+      <c r="P45" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="R45" t="n">
+        <v>0</v>
+      </c>
+      <c r="S45" t="n">
+        <v>0</v>
+      </c>
+      <c r="T45" t="n">
+        <v>0</v>
+      </c>
+      <c r="U45" t="n">
+        <v>0</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="n">
+        <v>0</v>
+      </c>
+      <c r="X45" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ45" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA45" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB45" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC45" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD45" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE45" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF45" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG45" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH45" t="inlineStr">
+        <is>
+          <t>2026-02-25 16:07:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Portuguese Primeira Liga</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>17:45:00</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Sporting Lisbon</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Estoril Praia</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="G46" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="H46" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="I46" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="J46" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="K46" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0</v>
+      </c>
+      <c r="T46" t="n">
+        <v>0</v>
+      </c>
+      <c r="U46" t="n">
+        <v>0</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="n">
+        <v>0</v>
+      </c>
+      <c r="X46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH46" t="inlineStr">
+        <is>
+          <t>2026-02-25 16:07:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Algerian Ligue 1</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>18:00:00</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>JS Saoura</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>ES Ben Aknoun</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="G47" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H47" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="I47" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J47" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="K47" t="n">
+        <v>950</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0</v>
+      </c>
+      <c r="O47" t="n">
+        <v>0</v>
+      </c>
+      <c r="P47" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="R47" t="n">
+        <v>0</v>
+      </c>
+      <c r="S47" t="n">
+        <v>0</v>
+      </c>
+      <c r="T47" t="n">
+        <v>0</v>
+      </c>
+      <c r="U47" t="n">
+        <v>0</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="n">
+        <v>0</v>
+      </c>
+      <c r="X47" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ47" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA47" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB47" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC47" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD47" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE47" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF47" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG47" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH47" t="inlineStr">
+        <is>
+          <t>2026-02-25 16:07:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
           <t>Uruguayan Primera Division</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B48" t="inlineStr">
         <is>
           <t>2026-02-27</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="C48" t="inlineStr">
         <is>
           <t>20:00:00</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="D48" t="inlineStr">
         <is>
           <t>Cerro</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>Boston River</t>
         </is>
       </c>
-      <c r="F19" t="n">
-        <v>3</v>
-      </c>
-      <c r="G19" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="H19" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="I19" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="J19" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="K19" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
-        <v>0</v>
-      </c>
-      <c r="P19" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="Q19" t="n">
+      <c r="F48" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="G48" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="H48" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="I48" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="J48" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="K48" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0</v>
+      </c>
+      <c r="O48" t="n">
+        <v>0</v>
+      </c>
+      <c r="P48" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="Q48" t="n">
         <v>2.62</v>
       </c>
-      <c r="R19" t="n">
-        <v>0</v>
-      </c>
-      <c r="S19" t="n">
-        <v>0</v>
-      </c>
-      <c r="T19" t="n">
-        <v>0</v>
-      </c>
-      <c r="U19" t="n">
-        <v>0</v>
-      </c>
-      <c r="V19" t="n">
-        <v>0</v>
-      </c>
-      <c r="W19" t="n">
-        <v>0</v>
-      </c>
-      <c r="X19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH19" t="inlineStr">
-        <is>
-          <t>2026-02-25 13:56:25</t>
+      <c r="R48" t="n">
+        <v>0</v>
+      </c>
+      <c r="S48" t="n">
+        <v>0</v>
+      </c>
+      <c r="T48" t="n">
+        <v>0</v>
+      </c>
+      <c r="U48" t="n">
+        <v>0</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="n">
+        <v>0</v>
+      </c>
+      <c r="X48" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ48" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA48" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB48" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC48" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD48" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE48" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF48" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG48" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH48" t="inlineStr">
+        <is>
+          <t>2026-02-25 16:07:13</t>
         </is>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-27.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-27.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BH96"/>
+  <dimension ref="A1:BH100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -762,10 +762,10 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="G2" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="H2" t="n">
         <v>4.4</v>
@@ -777,7 +777,7 @@
         <v>4</v>
       </c>
       <c r="K2" t="n">
-        <v>5.7</v>
+        <v>6.2</v>
       </c>
       <c r="L2" t="n">
         <v>1.24</v>
@@ -786,13 +786,13 @@
         <v>1.02</v>
       </c>
       <c r="N2" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="O2" t="n">
         <v>1.13</v>
       </c>
       <c r="P2" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="Q2" t="n">
         <v>1.4</v>
@@ -804,16 +804,16 @@
         <v>2.06</v>
       </c>
       <c r="T2" t="n">
-        <v>1.53</v>
+        <v>1.47</v>
       </c>
       <c r="U2" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="V2" t="n">
         <v>1.19</v>
       </c>
       <c r="W2" t="n">
-        <v>2.28</v>
+        <v>2.36</v>
       </c>
       <c r="X2" t="n">
         <v>1000</v>
@@ -864,68 +864,68 @@
         <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>7.8</v>
+        <v>980</v>
       </c>
       <c r="AO2" t="n">
         <v>1000</v>
       </c>
       <c r="AP2" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="AQ2" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="AR2" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="AT2" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="AU2" t="n">
-        <v>1.28</v>
+        <v>9.6</v>
       </c>
       <c r="AV2" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="AW2" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="AX2" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="AY2" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AZ2" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="BA2" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="BB2" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="BC2" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="BD2" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="BE2" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="BF2" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="BG2" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="BH2" t="inlineStr">
         <is>
-          <t>2026-02-25 23:01:25</t>
+          <t>2026-02-26 01:19:12</t>
         </is>
       </c>
     </row>
@@ -971,7 +971,7 @@
         <v>4.1</v>
       </c>
       <c r="K3" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="L3" t="n">
         <v>1.37</v>
@@ -1001,7 +1001,7 @@
         <v>2.38</v>
       </c>
       <c r="U3" t="n">
-        <v>1.59</v>
+        <v>1.57</v>
       </c>
       <c r="V3" t="n">
         <v>1.09</v>
@@ -1119,7 +1119,7 @@
       </c>
       <c r="BH3" t="inlineStr">
         <is>
-          <t>2026-02-25 23:01:25</t>
+          <t>2026-02-26 01:19:12</t>
         </is>
       </c>
     </row>
@@ -1159,10 +1159,10 @@
         <v>2</v>
       </c>
       <c r="I4" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="J4" t="n">
-        <v>2.66</v>
+        <v>3.1</v>
       </c>
       <c r="K4" t="n">
         <v>6</v>
@@ -1171,7 +1171,7 @@
         <v>1.01</v>
       </c>
       <c r="M4" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N4" t="n">
         <v>2.74</v>
@@ -1201,7 +1201,7 @@
         <v>1.64</v>
       </c>
       <c r="W4" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="X4" t="n">
         <v>1000</v>
@@ -1313,7 +1313,7 @@
       </c>
       <c r="BH4" t="inlineStr">
         <is>
-          <t>2026-02-25 23:01:25</t>
+          <t>2026-02-26 01:19:12</t>
         </is>
       </c>
     </row>
@@ -1350,40 +1350,40 @@
         <v>3.35</v>
       </c>
       <c r="H5" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="I5" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="K5" t="n">
         <v>2.82</v>
       </c>
-      <c r="I5" t="n">
+      <c r="L5" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N5" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="Q5" t="n">
         <v>3.3</v>
-      </c>
-      <c r="J5" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="K5" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="L5" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N5" t="n">
-        <v>2</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="P5" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1.01</v>
       </c>
       <c r="R5" t="n">
         <v>1.12</v>
       </c>
       <c r="S5" t="n">
-        <v>1.05</v>
+        <v>7</v>
       </c>
       <c r="T5" t="n">
         <v>1.05</v>
@@ -1392,16 +1392,16 @@
         <v>1.05</v>
       </c>
       <c r="V5" t="n">
-        <v>1.43</v>
+        <v>1.47</v>
       </c>
       <c r="W5" t="n">
         <v>1.42</v>
       </c>
       <c r="X5" t="n">
-        <v>7.2</v>
+        <v>6.6</v>
       </c>
       <c r="Y5" t="n">
-        <v>8.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="Z5" t="n">
         <v>1000</v>
@@ -1410,7 +1410,7 @@
         <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>9.4</v>
+        <v>9</v>
       </c>
       <c r="AC5" t="n">
         <v>8</v>
@@ -1452,62 +1452,62 @@
         <v>1000</v>
       </c>
       <c r="AP5" t="n">
-        <v>2.64</v>
+        <v>4.8</v>
       </c>
       <c r="AQ5" t="n">
-        <v>2.84</v>
+        <v>3.2</v>
       </c>
       <c r="AR5" t="n">
-        <v>3.5</v>
+        <v>4.1</v>
       </c>
       <c r="AS5" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AY5" t="n">
         <v>4.1</v>
       </c>
-      <c r="AT5" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="AV5" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="AW5" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="AX5" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="AY5" t="n">
-        <v>3.45</v>
-      </c>
       <c r="AZ5" t="n">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="BA5" t="n">
-        <v>4.1</v>
+        <v>4.9</v>
       </c>
       <c r="BB5" t="n">
-        <v>4</v>
+        <v>4.9</v>
       </c>
       <c r="BC5" t="n">
-        <v>3.95</v>
+        <v>4.8</v>
       </c>
       <c r="BD5" t="n">
-        <v>4</v>
+        <v>4.9</v>
       </c>
       <c r="BE5" t="n">
-        <v>4.1</v>
+        <v>5.1</v>
       </c>
       <c r="BF5" t="n">
-        <v>4</v>
+        <v>4.9</v>
       </c>
       <c r="BG5" t="n">
-        <v>4</v>
+        <v>4.9</v>
       </c>
       <c r="BH5" t="inlineStr">
         <is>
-          <t>2026-02-25 23:01:25</t>
+          <t>2026-02-26 01:19:12</t>
         </is>
       </c>
     </row>
@@ -1538,19 +1538,19 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.38</v>
+        <v>2.28</v>
       </c>
       <c r="G6" t="n">
-        <v>2.68</v>
+        <v>2.58</v>
       </c>
       <c r="H6" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="I6" t="n">
-        <v>3.95</v>
+        <v>4.2</v>
       </c>
       <c r="J6" t="n">
-        <v>2.82</v>
+        <v>2.86</v>
       </c>
       <c r="K6" t="n">
         <v>3.25</v>
@@ -1568,7 +1568,7 @@
         <v>1.29</v>
       </c>
       <c r="P6" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="Q6" t="n">
         <v>2.44</v>
@@ -1586,10 +1586,10 @@
         <v>1.05</v>
       </c>
       <c r="V6" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="W6" t="n">
-        <v>1.59</v>
+        <v>1.63</v>
       </c>
       <c r="X6" t="n">
         <v>1000</v>
@@ -1701,7 +1701,7 @@
       </c>
       <c r="BH6" t="inlineStr">
         <is>
-          <t>2026-02-25 23:01:25</t>
+          <t>2026-02-26 01:19:12</t>
         </is>
       </c>
     </row>
@@ -1732,22 +1732,22 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="G7" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="H7" t="n">
         <v>17.5</v>
       </c>
       <c r="I7" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="J7" t="n">
         <v>7.2</v>
       </c>
       <c r="K7" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="L7" t="n">
         <v>1.18</v>
@@ -1756,7 +1756,7 @@
         <v>1.01</v>
       </c>
       <c r="N7" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="O7" t="n">
         <v>1.16</v>
@@ -1765,10 +1765,10 @@
         <v>2.6</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="R7" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="S7" t="n">
         <v>2.14</v>
@@ -1780,7 +1780,7 @@
         <v>1.66</v>
       </c>
       <c r="V7" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="W7" t="n">
         <v>5.1</v>
@@ -1804,10 +1804,10 @@
         <v>22</v>
       </c>
       <c r="AD7" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AE7" t="n">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="AF7" t="n">
         <v>9.800000000000001</v>
@@ -1819,7 +1819,7 @@
         <v>50</v>
       </c>
       <c r="AI7" t="n">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="AJ7" t="n">
         <v>10.5</v>
@@ -1837,7 +1837,7 @@
         <v>4.3</v>
       </c>
       <c r="AO7" t="n">
-        <v>630</v>
+        <v>600</v>
       </c>
       <c r="AP7" t="n">
         <v>4.1</v>
@@ -1870,7 +1870,7 @@
         <v>10.5</v>
       </c>
       <c r="AZ7" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="BA7" t="n">
         <v>4.6</v>
@@ -1895,7 +1895,7 @@
       </c>
       <c r="BH7" t="inlineStr">
         <is>
-          <t>2026-02-25 23:01:25</t>
+          <t>2026-02-26 01:19:12</t>
         </is>
       </c>
     </row>
@@ -1929,19 +1929,19 @@
         <v>4.3</v>
       </c>
       <c r="G8" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="H8" t="n">
-        <v>1.64</v>
+        <v>1.61</v>
       </c>
       <c r="I8" t="n">
-        <v>2.14</v>
+        <v>2.08</v>
       </c>
       <c r="J8" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="K8" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="L8" t="n">
         <v>1.42</v>
@@ -1950,13 +1950,13 @@
         <v>1.01</v>
       </c>
       <c r="N8" t="n">
-        <v>1.44</v>
+        <v>2.72</v>
       </c>
       <c r="O8" t="n">
         <v>1.01</v>
       </c>
       <c r="P8" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="Q8" t="n">
         <v>2.14</v>
@@ -1974,7 +1974,7 @@
         <v>1.01</v>
       </c>
       <c r="V8" t="n">
-        <v>1.87</v>
+        <v>1.92</v>
       </c>
       <c r="W8" t="n">
         <v>1.13</v>
@@ -2089,7 +2089,7 @@
       </c>
       <c r="BH8" t="inlineStr">
         <is>
-          <t>2026-02-25 23:01:25</t>
+          <t>2026-02-26 01:19:12</t>
         </is>
       </c>
     </row>
@@ -2120,16 +2120,16 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>3.15</v>
+        <v>2.84</v>
       </c>
       <c r="G9" t="n">
         <v>4.2</v>
       </c>
       <c r="H9" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="I9" t="n">
-        <v>2.68</v>
+        <v>2.86</v>
       </c>
       <c r="J9" t="n">
         <v>3.15</v>
@@ -2144,16 +2144,16 @@
         <v>1.09</v>
       </c>
       <c r="N9" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="O9" t="n">
         <v>1.42</v>
       </c>
       <c r="P9" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.2</v>
+        <v>2.04</v>
       </c>
       <c r="R9" t="n">
         <v>1.2</v>
@@ -2168,10 +2168,10 @@
         <v>1.9</v>
       </c>
       <c r="V9" t="n">
-        <v>1.6</v>
+        <v>1.54</v>
       </c>
       <c r="W9" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="X9" t="n">
         <v>1000</v>
@@ -2283,7 +2283,7 @@
       </c>
       <c r="BH9" t="inlineStr">
         <is>
-          <t>2026-02-25 23:01:25</t>
+          <t>2026-02-26 01:19:12</t>
         </is>
       </c>
     </row>
@@ -2314,61 +2314,61 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.09</v>
+        <v>3.65</v>
       </c>
       <c r="G10" t="n">
         <v>4.6</v>
       </c>
       <c r="H10" t="n">
-        <v>1.69</v>
+        <v>1.86</v>
       </c>
       <c r="I10" t="n">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="J10" t="n">
         <v>3.5</v>
       </c>
       <c r="K10" t="n">
-        <v>1000</v>
+        <v>5.2</v>
       </c>
       <c r="L10" t="n">
         <v>1.01</v>
       </c>
       <c r="M10" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N10" t="n">
-        <v>2.42</v>
+        <v>2.34</v>
       </c>
       <c r="O10" t="n">
         <v>1.33</v>
       </c>
       <c r="P10" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.82</v>
+        <v>1.62</v>
       </c>
       <c r="R10" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="S10" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="T10" t="n">
-        <v>1.67</v>
+        <v>1.05</v>
       </c>
       <c r="U10" t="n">
-        <v>1.79</v>
+        <v>1.05</v>
       </c>
       <c r="V10" t="n">
-        <v>1.83</v>
+        <v>1.86</v>
       </c>
       <c r="W10" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="X10" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="Y10" t="n">
         <v>980</v>
@@ -2425,59 +2425,59 @@
         <v>2.54</v>
       </c>
       <c r="AQ10" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AW10" t="n">
         <v>2.34</v>
       </c>
-      <c r="AR10" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="AS10" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="AT10" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="AU10" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="AV10" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="AW10" t="n">
-        <v>2.68</v>
-      </c>
       <c r="AX10" t="n">
-        <v>2.78</v>
+        <v>2.4</v>
       </c>
       <c r="AY10" t="n">
-        <v>2.62</v>
+        <v>2.28</v>
       </c>
       <c r="AZ10" t="n">
-        <v>2.68</v>
+        <v>2.32</v>
       </c>
       <c r="BA10" t="n">
-        <v>2.8</v>
+        <v>2.42</v>
       </c>
       <c r="BB10" t="n">
-        <v>2.96</v>
+        <v>2.54</v>
       </c>
       <c r="BC10" t="n">
-        <v>2.94</v>
+        <v>2.54</v>
       </c>
       <c r="BD10" t="n">
-        <v>2.94</v>
+        <v>2.54</v>
       </c>
       <c r="BE10" t="n">
-        <v>2.96</v>
+        <v>2.54</v>
       </c>
       <c r="BF10" t="n">
-        <v>2.94</v>
+        <v>2.54</v>
       </c>
       <c r="BG10" t="n">
         <v>9.6</v>
       </c>
       <c r="BH10" t="inlineStr">
         <is>
-          <t>2026-02-25 23:01:25</t>
+          <t>2026-02-26 01:19:12</t>
         </is>
       </c>
     </row>
@@ -2508,19 +2508,19 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="G11" t="n">
-        <v>3.85</v>
+        <v>4.2</v>
       </c>
       <c r="H11" t="n">
         <v>2.16</v>
       </c>
       <c r="I11" t="n">
-        <v>2.46</v>
+        <v>2.62</v>
       </c>
       <c r="J11" t="n">
-        <v>3</v>
+        <v>2.92</v>
       </c>
       <c r="K11" t="n">
         <v>3.75</v>
@@ -2529,79 +2529,79 @@
         <v>1.33</v>
       </c>
       <c r="M11" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N11" t="n">
-        <v>2.98</v>
+        <v>1.1</v>
       </c>
       <c r="O11" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="P11" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.04</v>
+        <v>1.96</v>
       </c>
       <c r="R11" t="n">
-        <v>1.29</v>
+        <v>1.24</v>
       </c>
       <c r="S11" t="n">
-        <v>2.82</v>
+        <v>2.34</v>
       </c>
       <c r="T11" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="U11" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="V11" t="n">
-        <v>1.68</v>
+        <v>1.61</v>
       </c>
       <c r="W11" t="n">
-        <v>1.35</v>
+        <v>1.31</v>
       </c>
       <c r="X11" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="Y11" t="n">
-        <v>9.6</v>
+        <v>12.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="AA11" t="n">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="AB11" t="n">
-        <v>13</v>
+        <v>17.5</v>
       </c>
       <c r="AC11" t="n">
-        <v>8.199999999999999</v>
+        <v>10.5</v>
       </c>
       <c r="AD11" t="n">
-        <v>12</v>
+        <v>15.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="AF11" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>21</v>
+      </c>
+      <c r="AH11" t="n">
         <v>26</v>
       </c>
-      <c r="AG11" t="n">
-        <v>16</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>19.5</v>
-      </c>
       <c r="AI11" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AJ11" t="n">
         <v>1000</v>
       </c>
       <c r="AK11" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AL11" t="n">
         <v>1000</v>
@@ -2610,68 +2610,68 @@
         <v>1000</v>
       </c>
       <c r="AN11" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AO11" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="AP11" t="n">
-        <v>5.4</v>
+        <v>2.6</v>
       </c>
       <c r="AQ11" t="n">
-        <v>4.5</v>
+        <v>2.16</v>
       </c>
       <c r="AR11" t="n">
-        <v>5.5</v>
+        <v>2.3</v>
       </c>
       <c r="AS11" t="n">
-        <v>6.8</v>
+        <v>2.46</v>
       </c>
       <c r="AT11" t="n">
-        <v>5.2</v>
+        <v>2.26</v>
       </c>
       <c r="AU11" t="n">
-        <v>4.2</v>
+        <v>2.08</v>
       </c>
       <c r="AV11" t="n">
-        <v>5</v>
+        <v>2.22</v>
       </c>
       <c r="AW11" t="n">
-        <v>6.6</v>
+        <v>2.44</v>
       </c>
       <c r="AX11" t="n">
-        <v>6.4</v>
+        <v>2.42</v>
       </c>
       <c r="AY11" t="n">
-        <v>5.6</v>
+        <v>2.32</v>
       </c>
       <c r="AZ11" t="n">
-        <v>6</v>
+        <v>2.36</v>
       </c>
       <c r="BA11" t="n">
-        <v>7.2</v>
+        <v>2.5</v>
       </c>
       <c r="BB11" t="n">
-        <v>7.6</v>
+        <v>2.54</v>
       </c>
       <c r="BC11" t="n">
-        <v>7.2</v>
+        <v>2.5</v>
       </c>
       <c r="BD11" t="n">
-        <v>7.6</v>
+        <v>2.52</v>
       </c>
       <c r="BE11" t="n">
-        <v>8</v>
+        <v>2.6</v>
       </c>
       <c r="BF11" t="n">
-        <v>7.4</v>
+        <v>2.52</v>
       </c>
       <c r="BG11" t="n">
-        <v>6.2</v>
+        <v>2.4</v>
       </c>
       <c r="BH11" t="inlineStr">
         <is>
-          <t>2026-02-25 23:01:25</t>
+          <t>2026-02-26 01:19:12</t>
         </is>
       </c>
     </row>
@@ -2865,7 +2865,7 @@
       </c>
       <c r="BH12" t="inlineStr">
         <is>
-          <t>2026-02-25 23:01:25</t>
+          <t>2026-02-26 01:19:12</t>
         </is>
       </c>
     </row>
@@ -2902,7 +2902,7 @@
         <v>2.64</v>
       </c>
       <c r="H13" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="I13" t="n">
         <v>3.55</v>
@@ -2911,7 +2911,7 @@
         <v>3.2</v>
       </c>
       <c r="K13" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="L13" t="n">
         <v>1.33</v>
@@ -2920,7 +2920,7 @@
         <v>1.07</v>
       </c>
       <c r="N13" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="O13" t="n">
         <v>1.33</v>
@@ -2947,7 +2947,7 @@
         <v>1.39</v>
       </c>
       <c r="W13" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="X13" t="n">
         <v>16</v>
@@ -2962,7 +2962,7 @@
         <v>1000</v>
       </c>
       <c r="AB13" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AC13" t="n">
         <v>9.4</v>
@@ -2974,7 +2974,7 @@
         <v>48</v>
       </c>
       <c r="AF13" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AG13" t="n">
         <v>14</v>
@@ -3013,10 +3013,10 @@
         <v>19</v>
       </c>
       <c r="AS13" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="AT13" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AU13" t="n">
         <v>6.6</v>
@@ -3025,7 +3025,7 @@
         <v>11.5</v>
       </c>
       <c r="AW13" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="AX13" t="n">
         <v>13</v>
@@ -3037,29 +3037,29 @@
         <v>15</v>
       </c>
       <c r="BA13" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BB13" t="n">
         <v>4</v>
       </c>
-      <c r="BB13" t="n">
+      <c r="BC13" t="n">
         <v>3.9</v>
       </c>
-      <c r="BC13" t="n">
-        <v>3.8</v>
-      </c>
       <c r="BD13" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="BE13" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="BF13" t="n">
         <v>16.5</v>
       </c>
       <c r="BG13" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="BH13" t="inlineStr">
         <is>
-          <t>2026-02-25 23:01:25</t>
+          <t>2026-02-26 01:19:12</t>
         </is>
       </c>
     </row>
@@ -3102,7 +3102,7 @@
         <v>4.6</v>
       </c>
       <c r="J14" t="n">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="K14" t="n">
         <v>3.35</v>
@@ -3111,16 +3111,16 @@
         <v>1.01</v>
       </c>
       <c r="M14" t="n">
-        <v>1.1</v>
+        <v>1.12</v>
       </c>
       <c r="N14" t="n">
         <v>2.62</v>
       </c>
       <c r="O14" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="P14" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="Q14" t="n">
         <v>2.5</v>
@@ -3135,7 +3135,7 @@
         <v>2.04</v>
       </c>
       <c r="U14" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="V14" t="n">
         <v>1.3</v>
@@ -3168,7 +3168,7 @@
         <v>1000</v>
       </c>
       <c r="AF14" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AG14" t="n">
         <v>14.5</v>
@@ -3204,7 +3204,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AR14" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="AS14" t="n">
         <v>4.4</v>
@@ -3219,7 +3219,7 @@
         <v>12</v>
       </c>
       <c r="AW14" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="AX14" t="n">
         <v>11</v>
@@ -3228,32 +3228,32 @@
         <v>10.5</v>
       </c>
       <c r="AZ14" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="BA14" t="n">
         <v>4.4</v>
       </c>
       <c r="BB14" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="BC14" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="BD14" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="BE14" t="n">
         <v>4.5</v>
       </c>
       <c r="BF14" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="BG14" t="n">
         <v>4.4</v>
       </c>
       <c r="BH14" t="inlineStr">
         <is>
-          <t>2026-02-25 23:01:25</t>
+          <t>2026-02-26 01:19:12</t>
         </is>
       </c>
     </row>
@@ -3447,7 +3447,7 @@
       </c>
       <c r="BH15" t="inlineStr">
         <is>
-          <t>2026-02-25 23:01:25</t>
+          <t>2026-02-26 01:19:12</t>
         </is>
       </c>
     </row>
@@ -3641,7 +3641,7 @@
       </c>
       <c r="BH16" t="inlineStr">
         <is>
-          <t>2026-02-25 23:01:25</t>
+          <t>2026-02-26 01:19:12</t>
         </is>
       </c>
     </row>
@@ -3835,7 +3835,7 @@
       </c>
       <c r="BH17" t="inlineStr">
         <is>
-          <t>2026-02-25 23:01:25</t>
+          <t>2026-02-26 01:19:12</t>
         </is>
       </c>
     </row>
@@ -4029,7 +4029,7 @@
       </c>
       <c r="BH18" t="inlineStr">
         <is>
-          <t>2026-02-25 23:01:25</t>
+          <t>2026-02-26 01:19:12</t>
         </is>
       </c>
     </row>
@@ -4223,7 +4223,7 @@
       </c>
       <c r="BH19" t="inlineStr">
         <is>
-          <t>2026-02-25 23:01:25</t>
+          <t>2026-02-26 01:19:12</t>
         </is>
       </c>
     </row>
@@ -4287,19 +4287,19 @@
         <v>2.08</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="R20" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="S20" t="n">
         <v>3.1</v>
       </c>
       <c r="T20" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="U20" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="V20" t="n">
         <v>1.11</v>
@@ -4329,7 +4329,7 @@
         <v>40</v>
       </c>
       <c r="AE20" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="AF20" t="n">
         <v>9.6</v>
@@ -4353,13 +4353,13 @@
         <v>48</v>
       </c>
       <c r="AM20" t="n">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="AN20" t="n">
         <v>8</v>
       </c>
       <c r="AO20" t="n">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="AP20" t="n">
         <v>15</v>
@@ -4407,7 +4407,7 @@
         <v>5.4</v>
       </c>
       <c r="BE20" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="BF20" t="n">
         <v>5.5</v>
@@ -4417,7 +4417,7 @@
       </c>
       <c r="BH20" t="inlineStr">
         <is>
-          <t>2026-02-25 23:01:25</t>
+          <t>2026-02-26 01:19:12</t>
         </is>
       </c>
     </row>
@@ -4611,7 +4611,7 @@
       </c>
       <c r="BH21" t="inlineStr">
         <is>
-          <t>2026-02-25 23:01:25</t>
+          <t>2026-02-26 01:19:12</t>
         </is>
       </c>
     </row>
@@ -4648,13 +4648,13 @@
         <v>1.95</v>
       </c>
       <c r="H22" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="I22" t="n">
         <v>4.3</v>
       </c>
       <c r="J22" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="K22" t="n">
         <v>4.8</v>
@@ -4663,10 +4663,10 @@
         <v>1.01</v>
       </c>
       <c r="M22" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="N22" t="n">
-        <v>3.1</v>
+        <v>1.1</v>
       </c>
       <c r="O22" t="n">
         <v>1.22</v>
@@ -4678,7 +4678,7 @@
         <v>1.65</v>
       </c>
       <c r="R22" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="S22" t="n">
         <v>2.44</v>
@@ -4805,7 +4805,7 @@
       </c>
       <c r="BH22" t="inlineStr">
         <is>
-          <t>2026-02-25 23:01:25</t>
+          <t>2026-02-26 01:19:12</t>
         </is>
       </c>
     </row>
@@ -4863,7 +4863,7 @@
         <v>2.22</v>
       </c>
       <c r="O23" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="P23" t="n">
         <v>2.2</v>
@@ -4887,7 +4887,7 @@
         <v>1.64</v>
       </c>
       <c r="W23" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="X23" t="n">
         <v>18.5</v>
@@ -4941,7 +4941,7 @@
         <v>25</v>
       </c>
       <c r="AO23" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AP23" t="n">
         <v>15.5</v>
@@ -4980,7 +4980,7 @@
         <v>7</v>
       </c>
       <c r="BB23" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="BC23" t="n">
         <v>24</v>
@@ -4989,7 +4989,7 @@
         <v>7</v>
       </c>
       <c r="BE23" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="BF23" t="n">
         <v>18</v>
@@ -4999,7 +4999,7 @@
       </c>
       <c r="BH23" t="inlineStr">
         <is>
-          <t>2026-02-25 23:01:25</t>
+          <t>2026-02-26 01:19:12</t>
         </is>
       </c>
     </row>
@@ -5057,7 +5057,7 @@
         <v>1.1</v>
       </c>
       <c r="O24" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P24" t="n">
         <v>1.97</v>
@@ -5193,7 +5193,7 @@
       </c>
       <c r="BH24" t="inlineStr">
         <is>
-          <t>2026-02-25 23:01:25</t>
+          <t>2026-02-26 01:19:12</t>
         </is>
       </c>
     </row>
@@ -5387,7 +5387,7 @@
       </c>
       <c r="BH25" t="inlineStr">
         <is>
-          <t>2026-02-25 23:01:25</t>
+          <t>2026-02-26 01:19:12</t>
         </is>
       </c>
     </row>
@@ -5581,7 +5581,7 @@
       </c>
       <c r="BH26" t="inlineStr">
         <is>
-          <t>2026-02-25 23:01:25</t>
+          <t>2026-02-26 01:19:12</t>
         </is>
       </c>
     </row>
@@ -5612,19 +5612,19 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.75</v>
+        <v>1.88</v>
       </c>
       <c r="G27" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="H27" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="I27" t="n">
-        <v>5.8</v>
+        <v>4.7</v>
       </c>
       <c r="J27" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="K27" t="n">
         <v>4.1</v>
@@ -5660,10 +5660,10 @@
         <v>1.05</v>
       </c>
       <c r="V27" t="n">
-        <v>1.21</v>
+        <v>1.27</v>
       </c>
       <c r="W27" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="X27" t="n">
         <v>1000</v>
@@ -5775,7 +5775,7 @@
       </c>
       <c r="BH27" t="inlineStr">
         <is>
-          <t>2026-02-25 23:01:25</t>
+          <t>2026-02-26 01:19:12</t>
         </is>
       </c>
     </row>
@@ -5969,7 +5969,7 @@
       </c>
       <c r="BH28" t="inlineStr">
         <is>
-          <t>2026-02-25 23:01:25</t>
+          <t>2026-02-26 01:19:12</t>
         </is>
       </c>
     </row>
@@ -6163,7 +6163,7 @@
       </c>
       <c r="BH29" t="inlineStr">
         <is>
-          <t>2026-02-25 23:01:25</t>
+          <t>2026-02-26 01:19:12</t>
         </is>
       </c>
     </row>
@@ -6357,7 +6357,7 @@
       </c>
       <c r="BH30" t="inlineStr">
         <is>
-          <t>2026-02-25 23:01:25</t>
+          <t>2026-02-26 01:19:12</t>
         </is>
       </c>
     </row>
@@ -6388,10 +6388,10 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="G31" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="H31" t="n">
         <v>4.2</v>
@@ -6409,7 +6409,7 @@
         <v>1.01</v>
       </c>
       <c r="M31" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N31" t="n">
         <v>2.84</v>
@@ -6439,7 +6439,7 @@
         <v>1.24</v>
       </c>
       <c r="W31" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="X31" t="n">
         <v>13.5</v>
@@ -6499,13 +6499,13 @@
         <v>4.3</v>
       </c>
       <c r="AQ31" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="AR31" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="AS31" t="n">
-        <v>2.82</v>
+        <v>4.2</v>
       </c>
       <c r="AT31" t="n">
         <v>6.2</v>
@@ -6514,44 +6514,44 @@
         <v>6.4</v>
       </c>
       <c r="AV31" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="AW31" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AX31" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AY31" t="n">
+        <v>4</v>
+      </c>
+      <c r="AZ31" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="BA31" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="BB31" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="BC31" t="n">
         <v>5.2</v>
       </c>
-      <c r="AW31" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="AX31" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AY31" t="n">
+      <c r="BD31" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="BE31" t="n">
         <v>4.2</v>
       </c>
-      <c r="AZ31" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="BA31" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="BB31" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="BC31" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="BD31" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="BE31" t="n">
-        <v>2.84</v>
-      </c>
       <c r="BF31" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="BG31" t="n">
-        <v>2.8</v>
+        <v>2.72</v>
       </c>
       <c r="BH31" t="inlineStr">
         <is>
-          <t>2026-02-25 23:01:25</t>
+          <t>2026-02-26 01:19:12</t>
         </is>
       </c>
     </row>
@@ -6745,7 +6745,7 @@
       </c>
       <c r="BH32" t="inlineStr">
         <is>
-          <t>2026-02-25 23:01:25</t>
+          <t>2026-02-26 01:19:12</t>
         </is>
       </c>
     </row>
@@ -6939,7 +6939,7 @@
       </c>
       <c r="BH33" t="inlineStr">
         <is>
-          <t>2026-02-25 23:01:25</t>
+          <t>2026-02-26 01:19:12</t>
         </is>
       </c>
     </row>
@@ -7133,7 +7133,7 @@
       </c>
       <c r="BH34" t="inlineStr">
         <is>
-          <t>2026-02-25 23:01:25</t>
+          <t>2026-02-26 01:19:12</t>
         </is>
       </c>
     </row>
@@ -7188,7 +7188,7 @@
         <v>1.01</v>
       </c>
       <c r="N35" t="n">
-        <v>1.1</v>
+        <v>2.34</v>
       </c>
       <c r="O35" t="n">
         <v>1.39</v>
@@ -7327,7 +7327,7 @@
       </c>
       <c r="BH35" t="inlineStr">
         <is>
-          <t>2026-02-25 23:01:25</t>
+          <t>2026-02-26 01:19:12</t>
         </is>
       </c>
     </row>
@@ -7364,7 +7364,7 @@
         <v>2.24</v>
       </c>
       <c r="H36" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="I36" t="n">
         <v>5.2</v>
@@ -7373,7 +7373,7 @@
         <v>3.2</v>
       </c>
       <c r="K36" t="n">
-        <v>4.6</v>
+        <v>5.2</v>
       </c>
       <c r="L36" t="n">
         <v>1.01</v>
@@ -7391,7 +7391,7 @@
         <v>1.72</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="R36" t="n">
         <v>1.27</v>
@@ -7521,7 +7521,7 @@
       </c>
       <c r="BH36" t="inlineStr">
         <is>
-          <t>2026-02-25 23:01:25</t>
+          <t>2026-02-26 01:19:12</t>
         </is>
       </c>
     </row>
@@ -7567,7 +7567,7 @@
         <v>7.8</v>
       </c>
       <c r="K37" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -7585,7 +7585,7 @@
         <v>2.3</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -7715,7 +7715,7 @@
       </c>
       <c r="BH37" t="inlineStr">
         <is>
-          <t>2026-02-25 23:01:25</t>
+          <t>2026-02-26 01:19:12</t>
         </is>
       </c>
     </row>
@@ -7737,179 +7737,179 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Clermont</t>
+          <t>Laval</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Dunkerque</t>
+          <t>Nancy</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>2.92</v>
+        <v>2.82</v>
       </c>
       <c r="G38" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="H38" t="n">
-        <v>2.52</v>
+        <v>2.94</v>
       </c>
       <c r="I38" t="n">
-        <v>2.74</v>
+        <v>3.2</v>
       </c>
       <c r="J38" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="K38" t="n">
         <v>3.2</v>
       </c>
-      <c r="K38" t="n">
-        <v>3.55</v>
-      </c>
       <c r="L38" t="n">
         <v>1.01</v>
       </c>
       <c r="M38" t="n">
-        <v>1.08</v>
+        <v>1.13</v>
       </c>
       <c r="N38" t="n">
-        <v>3.3</v>
+        <v>2.6</v>
       </c>
       <c r="O38" t="n">
-        <v>1.37</v>
+        <v>1.54</v>
       </c>
       <c r="P38" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="R38" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="S38" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="T38" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="U38" t="n">
         <v>1.79</v>
       </c>
-      <c r="Q38" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="R38" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="S38" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="T38" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="U38" t="n">
-        <v>2.06</v>
-      </c>
       <c r="V38" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="W38" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="X38" t="n">
-        <v>13</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Y38" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="Z38" t="n">
-        <v>18</v>
+        <v>980</v>
       </c>
       <c r="AA38" t="n">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="AB38" t="n">
-        <v>12</v>
+        <v>8.6</v>
       </c>
       <c r="AC38" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AD38" t="n">
-        <v>13</v>
+        <v>980</v>
       </c>
       <c r="AE38" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AF38" t="n">
-        <v>22</v>
+        <v>980</v>
       </c>
       <c r="AG38" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AH38" t="n">
-        <v>19</v>
+        <v>980</v>
       </c>
       <c r="AI38" t="n">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="AJ38" t="n">
         <v>55</v>
       </c>
       <c r="AK38" t="n">
-        <v>40</v>
+        <v>980</v>
       </c>
       <c r="AL38" t="n">
-        <v>980</v>
+        <v>75</v>
       </c>
       <c r="AM38" t="n">
-        <v>130</v>
+        <v>210</v>
       </c>
       <c r="AN38" t="n">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="AO38" t="n">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="AP38" t="n">
-        <v>10.5</v>
+        <v>7</v>
       </c>
       <c r="AQ38" t="n">
-        <v>8.6</v>
+        <v>7.4</v>
       </c>
       <c r="AR38" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AS38" t="n">
         <v>7.4</v>
       </c>
       <c r="AT38" t="n">
-        <v>9.6</v>
+        <v>7.2</v>
       </c>
       <c r="AU38" t="n">
-        <v>6.6</v>
+        <v>6.2</v>
       </c>
       <c r="AV38" t="n">
-        <v>10</v>
+        <v>12.5</v>
       </c>
       <c r="AW38" t="n">
-        <v>22</v>
+        <v>7.2</v>
       </c>
       <c r="AX38" t="n">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="AY38" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AZ38" t="n">
-        <v>15.5</v>
+        <v>20</v>
       </c>
       <c r="BA38" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="BB38" t="n">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="BC38" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="BD38" t="n">
         <v>7.6</v>
       </c>
       <c r="BE38" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="BF38" t="n">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
       <c r="BG38" t="n">
-        <v>20</v>
+        <v>7.6</v>
       </c>
       <c r="BH38" t="inlineStr">
         <is>
-          <t>2026-02-25 23:01:25</t>
+          <t>2026-02-26 01:19:12</t>
         </is>
       </c>
     </row>
@@ -7931,91 +7931,91 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Laval</t>
+          <t>Montpellier</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Nancy</t>
+          <t>Reims</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>2.84</v>
+        <v>3</v>
       </c>
       <c r="G39" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="H39" t="n">
-        <v>2.94</v>
+        <v>2.36</v>
       </c>
       <c r="I39" t="n">
-        <v>3.2</v>
+        <v>2.62</v>
       </c>
       <c r="J39" t="n">
-        <v>2.98</v>
+        <v>3.4</v>
       </c>
       <c r="K39" t="n">
-        <v>3.1</v>
+        <v>3.65</v>
       </c>
       <c r="L39" t="n">
         <v>1.01</v>
       </c>
       <c r="M39" t="n">
-        <v>1.12</v>
+        <v>1.09</v>
       </c>
       <c r="N39" t="n">
-        <v>2.5</v>
+        <v>3.05</v>
       </c>
       <c r="O39" t="n">
-        <v>1.57</v>
+        <v>1.4</v>
       </c>
       <c r="P39" t="n">
-        <v>1.5</v>
+        <v>1.72</v>
       </c>
       <c r="Q39" t="n">
-        <v>2.72</v>
+        <v>2.14</v>
       </c>
       <c r="R39" t="n">
-        <v>1.18</v>
+        <v>1.26</v>
       </c>
       <c r="S39" t="n">
-        <v>5.7</v>
+        <v>4</v>
       </c>
       <c r="T39" t="n">
-        <v>2.12</v>
+        <v>1.86</v>
       </c>
       <c r="U39" t="n">
-        <v>1.78</v>
+        <v>1.96</v>
       </c>
       <c r="V39" t="n">
-        <v>1.46</v>
+        <v>1.62</v>
       </c>
       <c r="W39" t="n">
-        <v>1.48</v>
+        <v>1.43</v>
       </c>
       <c r="X39" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Y39" t="n">
         <v>9.199999999999999</v>
       </c>
-      <c r="Y39" t="n">
-        <v>8.6</v>
-      </c>
       <c r="Z39" t="n">
+        <v>16</v>
+      </c>
+      <c r="AA39" t="n">
         <v>980</v>
       </c>
-      <c r="AA39" t="n">
-        <v>60</v>
-      </c>
       <c r="AB39" t="n">
-        <v>8.4</v>
+        <v>11.5</v>
       </c>
       <c r="AC39" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AD39" t="n">
-        <v>980</v>
+        <v>12</v>
       </c>
       <c r="AE39" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="AF39" t="n">
         <v>980</v>
@@ -8024,86 +8024,86 @@
         <v>14.5</v>
       </c>
       <c r="AH39" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI39" t="n">
         <v>980</v>
       </c>
-      <c r="AI39" t="n">
-        <v>80</v>
-      </c>
       <c r="AJ39" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="AK39" t="n">
         <v>980</v>
       </c>
       <c r="AL39" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="AM39" t="n">
-        <v>220</v>
+        <v>150</v>
       </c>
       <c r="AN39" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AO39" t="n">
-        <v>70</v>
+        <v>980</v>
       </c>
       <c r="AP39" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AQ39" t="n">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="AR39" t="n">
         <v>13</v>
       </c>
       <c r="AS39" t="n">
+        <v>30</v>
+      </c>
+      <c r="AT39" t="n">
         <v>9.4</v>
       </c>
-      <c r="AT39" t="n">
-        <v>7.2</v>
-      </c>
       <c r="AU39" t="n">
-        <v>6.2</v>
+        <v>6.8</v>
       </c>
       <c r="AV39" t="n">
-        <v>12.5</v>
+        <v>10</v>
       </c>
       <c r="AW39" t="n">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="AX39" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AY39" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AZ39" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="BA39" t="n">
-        <v>9.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="BB39" t="n">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="BC39" t="n">
-        <v>9</v>
+        <v>8.4</v>
       </c>
       <c r="BD39" t="n">
-        <v>9.800000000000001</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="BE39" t="n">
-        <v>10.5</v>
+        <v>9.6</v>
       </c>
       <c r="BF39" t="n">
-        <v>9.6</v>
+        <v>34</v>
       </c>
       <c r="BG39" t="n">
-        <v>9.6</v>
+        <v>21</v>
       </c>
       <c r="BH39" t="inlineStr">
         <is>
-          <t>2026-02-25 23:01:25</t>
+          <t>2026-02-26 01:19:12</t>
         </is>
       </c>
     </row>
@@ -8155,10 +8155,10 @@
         <v>1.01</v>
       </c>
       <c r="M40" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="N40" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="O40" t="n">
         <v>1.62</v>
@@ -8221,7 +8221,7 @@
         <v>29</v>
       </c>
       <c r="AI40" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AJ40" t="n">
         <v>42</v>
@@ -8230,7 +8230,7 @@
         <v>42</v>
       </c>
       <c r="AL40" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AM40" t="n">
         <v>250</v>
@@ -8260,7 +8260,7 @@
         <v>6.6</v>
       </c>
       <c r="AV40" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AW40" t="n">
         <v>10</v>
@@ -8297,7 +8297,7 @@
       </c>
       <c r="BH40" t="inlineStr">
         <is>
-          <t>2026-02-25 23:01:25</t>
+          <t>2026-02-26 01:19:12</t>
         </is>
       </c>
     </row>
@@ -8340,7 +8340,7 @@
         <v>2.76</v>
       </c>
       <c r="J41" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="K41" t="n">
         <v>3.85</v>
@@ -8361,7 +8361,7 @@
         <v>2.08</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.69</v>
+        <v>1.77</v>
       </c>
       <c r="R41" t="n">
         <v>1.42</v>
@@ -8491,7 +8491,7 @@
       </c>
       <c r="BH41" t="inlineStr">
         <is>
-          <t>2026-02-25 23:01:25</t>
+          <t>2026-02-26 01:19:12</t>
         </is>
       </c>
     </row>
@@ -8522,22 +8522,22 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>7.4</v>
+        <v>6.4</v>
       </c>
       <c r="G42" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="H42" t="n">
-        <v>1.41</v>
+        <v>1.37</v>
       </c>
       <c r="I42" t="n">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="J42" t="n">
-        <v>4.4</v>
+        <v>5.4</v>
       </c>
       <c r="K42" t="n">
-        <v>5.8</v>
+        <v>6.4</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -8552,10 +8552,10 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>2.52</v>
+        <v>2.94</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.56</v>
+        <v>1.43</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -8685,7 +8685,7 @@
       </c>
       <c r="BH42" t="inlineStr">
         <is>
-          <t>2026-02-25 23:01:25</t>
+          <t>2026-02-26 01:19:12</t>
         </is>
       </c>
     </row>
@@ -8716,7 +8716,7 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>2.88</v>
+        <v>2.78</v>
       </c>
       <c r="G43" t="n">
         <v>3.3</v>
@@ -8755,7 +8755,7 @@
         <v>1.41</v>
       </c>
       <c r="S43" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="T43" t="n">
         <v>1.64</v>
@@ -8767,7 +8767,7 @@
         <v>1.59</v>
       </c>
       <c r="W43" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="X43" t="n">
         <v>1000</v>
@@ -8879,7 +8879,7 @@
       </c>
       <c r="BH43" t="inlineStr">
         <is>
-          <t>2026-02-25 23:01:25</t>
+          <t>2026-02-26 01:19:12</t>
         </is>
       </c>
     </row>
@@ -9073,7 +9073,7 @@
       </c>
       <c r="BH44" t="inlineStr">
         <is>
-          <t>2026-02-25 23:01:25</t>
+          <t>2026-02-26 01:19:12</t>
         </is>
       </c>
     </row>
@@ -9104,7 +9104,7 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="G45" t="n">
         <v>2.88</v>
@@ -9267,7 +9267,7 @@
       </c>
       <c r="BH45" t="inlineStr">
         <is>
-          <t>2026-02-25 23:01:25</t>
+          <t>2026-02-26 01:19:12</t>
         </is>
       </c>
     </row>
@@ -9304,7 +9304,7 @@
         <v>3.3</v>
       </c>
       <c r="H46" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="I46" t="n">
         <v>2.42</v>
@@ -9334,10 +9334,10 @@
         <v>1.12</v>
       </c>
       <c r="R46" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="S46" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="T46" t="n">
         <v>1.05</v>
@@ -9346,7 +9346,7 @@
         <v>1.05</v>
       </c>
       <c r="V46" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="W46" t="n">
         <v>1.43</v>
@@ -9461,7 +9461,7 @@
       </c>
       <c r="BH46" t="inlineStr">
         <is>
-          <t>2026-02-25 23:01:25</t>
+          <t>2026-02-26 01:19:12</t>
         </is>
       </c>
     </row>
@@ -9483,31 +9483,31 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Montpellier</t>
+          <t>Clermont</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Reims</t>
+          <t>Dunkerque</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>3.05</v>
+        <v>2.92</v>
       </c>
       <c r="G47" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="H47" t="n">
-        <v>2.42</v>
+        <v>2.52</v>
       </c>
       <c r="I47" t="n">
-        <v>2.62</v>
+        <v>2.74</v>
       </c>
       <c r="J47" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="K47" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="L47" t="n">
         <v>1.01</v>
@@ -9516,146 +9516,146 @@
         <v>1.08</v>
       </c>
       <c r="N47" t="n">
-        <v>3.05</v>
+        <v>3.3</v>
       </c>
       <c r="O47" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="P47" t="n">
-        <v>1.71</v>
+        <v>1.79</v>
       </c>
       <c r="Q47" t="n">
-        <v>2.14</v>
+        <v>2.08</v>
       </c>
       <c r="R47" t="n">
-        <v>1.26</v>
+        <v>1.29</v>
       </c>
       <c r="S47" t="n">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="T47" t="n">
-        <v>1.87</v>
+        <v>1.8</v>
       </c>
       <c r="U47" t="n">
-        <v>1.94</v>
+        <v>2.06</v>
       </c>
       <c r="V47" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="W47" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="X47" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="Y47" t="n">
-        <v>9.199999999999999</v>
+        <v>10.5</v>
       </c>
       <c r="Z47" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AA47" t="n">
-        <v>980</v>
+        <v>42</v>
       </c>
       <c r="AB47" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AC47" t="n">
         <v>8</v>
       </c>
       <c r="AD47" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AE47" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AF47" t="n">
+        <v>22</v>
+      </c>
+      <c r="AG47" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH47" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI47" t="n">
+        <v>48</v>
+      </c>
+      <c r="AJ47" t="n">
+        <v>55</v>
+      </c>
+      <c r="AK47" t="n">
+        <v>40</v>
+      </c>
+      <c r="AL47" t="n">
         <v>980</v>
       </c>
-      <c r="AG47" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AH47" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI47" t="n">
-        <v>980</v>
-      </c>
-      <c r="AJ47" t="n">
-        <v>70</v>
-      </c>
-      <c r="AK47" t="n">
-        <v>980</v>
-      </c>
-      <c r="AL47" t="n">
-        <v>60</v>
-      </c>
       <c r="AM47" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="AN47" t="n">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="AO47" t="n">
-        <v>980</v>
+        <v>29</v>
       </c>
       <c r="AP47" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AQ47" t="n">
-        <v>7.8</v>
+        <v>8.6</v>
       </c>
       <c r="AR47" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AS47" t="n">
-        <v>30</v>
+        <v>7.4</v>
       </c>
       <c r="AT47" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AU47" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="AV47" t="n">
         <v>10</v>
       </c>
       <c r="AW47" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AX47" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AY47" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AZ47" t="n">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="BA47" t="n">
-        <v>8.199999999999999</v>
+        <v>7.6</v>
       </c>
       <c r="BB47" t="n">
-        <v>8.6</v>
+        <v>7.8</v>
       </c>
       <c r="BC47" t="n">
-        <v>8.199999999999999</v>
+        <v>7.4</v>
       </c>
       <c r="BD47" t="n">
-        <v>8.6</v>
+        <v>7.6</v>
       </c>
       <c r="BE47" t="n">
-        <v>9.4</v>
+        <v>8.4</v>
       </c>
       <c r="BF47" t="n">
-        <v>34</v>
+        <v>7.2</v>
       </c>
       <c r="BG47" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BH47" t="inlineStr">
         <is>
-          <t>2026-02-25 23:01:25</t>
+          <t>2026-02-26 01:19:12</t>
         </is>
       </c>
     </row>
@@ -9722,7 +9722,7 @@
         <v>1.64</v>
       </c>
       <c r="R48" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="S48" t="n">
         <v>2.6</v>
@@ -9849,7 +9849,7 @@
       </c>
       <c r="BH48" t="inlineStr">
         <is>
-          <t>2026-02-25 23:01:25</t>
+          <t>2026-02-26 01:19:12</t>
         </is>
       </c>
     </row>
@@ -9871,179 +9871,179 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>RKC Waalwijk</t>
+          <t>FC Oss</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>FC Eindhoven</t>
+          <t>Cambuur Leeuwarden</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>1.97</v>
+        <v>4.4</v>
       </c>
       <c r="G49" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="H49" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="I49" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="J49" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="K49" t="n">
+        <v>6</v>
+      </c>
+      <c r="L49" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M49" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N49" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="O49" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P49" t="n">
         <v>2.12</v>
       </c>
-      <c r="H49" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="I49" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="J49" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="K49" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="L49" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M49" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N49" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="O49" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P49" t="n">
-        <v>2.3</v>
-      </c>
       <c r="Q49" t="n">
-        <v>1.65</v>
+        <v>1.51</v>
       </c>
       <c r="R49" t="n">
-        <v>1.52</v>
+        <v>1.45</v>
       </c>
       <c r="S49" t="n">
-        <v>2.6</v>
+        <v>2.26</v>
       </c>
       <c r="T49" t="n">
-        <v>1.61</v>
+        <v>1.01</v>
       </c>
       <c r="U49" t="n">
-        <v>2.38</v>
+        <v>1.01</v>
       </c>
       <c r="V49" t="n">
-        <v>1.32</v>
+        <v>2.16</v>
       </c>
       <c r="W49" t="n">
-        <v>1.89</v>
+        <v>1.17</v>
       </c>
       <c r="X49" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Y49" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="Z49" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AA49" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AB49" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AC49" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AD49" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AE49" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AF49" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AG49" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AH49" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AI49" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AJ49" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AK49" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AL49" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AM49" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AN49" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AO49" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AP49" t="n">
-        <v>4.4</v>
+        <v>1.01</v>
       </c>
       <c r="AQ49" t="n">
-        <v>4.2</v>
+        <v>1.01</v>
       </c>
       <c r="AR49" t="n">
-        <v>4.6</v>
+        <v>1.01</v>
       </c>
       <c r="AS49" t="n">
-        <v>5</v>
+        <v>1.01</v>
       </c>
       <c r="AT49" t="n">
-        <v>3.85</v>
+        <v>1.01</v>
       </c>
       <c r="AU49" t="n">
-        <v>8</v>
+        <v>1.01</v>
       </c>
       <c r="AV49" t="n">
-        <v>4.1</v>
+        <v>1.01</v>
       </c>
       <c r="AW49" t="n">
-        <v>4.8</v>
+        <v>1.01</v>
       </c>
       <c r="AX49" t="n">
-        <v>4</v>
+        <v>1.01</v>
       </c>
       <c r="AY49" t="n">
-        <v>9.6</v>
+        <v>1.01</v>
       </c>
       <c r="AZ49" t="n">
-        <v>4.1</v>
+        <v>1.01</v>
       </c>
       <c r="BA49" t="n">
-        <v>4.8</v>
+        <v>1.01</v>
       </c>
       <c r="BB49" t="n">
-        <v>4.5</v>
+        <v>1.01</v>
       </c>
       <c r="BC49" t="n">
-        <v>4.3</v>
+        <v>1.01</v>
       </c>
       <c r="BD49" t="n">
-        <v>4.6</v>
+        <v>1.01</v>
       </c>
       <c r="BE49" t="n">
-        <v>5</v>
+        <v>1.01</v>
       </c>
       <c r="BF49" t="n">
-        <v>8.199999999999999</v>
+        <v>1.01</v>
       </c>
       <c r="BG49" t="n">
-        <v>4.6</v>
+        <v>1.01</v>
       </c>
       <c r="BH49" t="inlineStr">
         <is>
-          <t>2026-02-25 23:01:25</t>
+          <t>2026-02-26 01:19:12</t>
         </is>
       </c>
     </row>
@@ -10065,179 +10065,179 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Jong Ajax Amsterdam</t>
+          <t>Vitesse Arnhem</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Helmond Sport</t>
+          <t>Jong AZ Alkmaar</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>2.5</v>
+        <v>2.18</v>
       </c>
       <c r="G50" t="n">
-        <v>2.74</v>
+        <v>2.4</v>
       </c>
       <c r="H50" t="n">
-        <v>2.74</v>
+        <v>2.82</v>
       </c>
       <c r="I50" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="J50" t="n">
-        <v>3.4</v>
+        <v>4.1</v>
       </c>
       <c r="K50" t="n">
-        <v>4.1</v>
+        <v>4.9</v>
       </c>
       <c r="L50" t="n">
         <v>1.01</v>
       </c>
       <c r="M50" t="n">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="N50" t="n">
-        <v>4</v>
+        <v>5.7</v>
       </c>
       <c r="O50" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="P50" t="n">
-        <v>2.04</v>
+        <v>2.36</v>
       </c>
       <c r="Q50" t="n">
-        <v>1.78</v>
+        <v>1.43</v>
       </c>
       <c r="R50" t="n">
-        <v>1.41</v>
+        <v>1.56</v>
       </c>
       <c r="S50" t="n">
-        <v>2.92</v>
+        <v>2.12</v>
       </c>
       <c r="T50" t="n">
-        <v>1.66</v>
+        <v>1.4</v>
       </c>
       <c r="U50" t="n">
-        <v>2.28</v>
+        <v>1.01</v>
       </c>
       <c r="V50" t="n">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="W50" t="n">
-        <v>1.57</v>
+        <v>1.71</v>
       </c>
       <c r="X50" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Y50" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Z50" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AA50" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AB50" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AC50" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AD50" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AE50" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AF50" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AG50" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AH50" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AI50" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AJ50" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AK50" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AL50" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AM50" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AN50" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AO50" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AP50" t="n">
-        <v>4.6</v>
+        <v>1.01</v>
       </c>
       <c r="AQ50" t="n">
-        <v>4.3</v>
+        <v>1.01</v>
       </c>
       <c r="AR50" t="n">
-        <v>4.8</v>
+        <v>1.01</v>
       </c>
       <c r="AS50" t="n">
-        <v>5.3</v>
+        <v>1.01</v>
       </c>
       <c r="AT50" t="n">
-        <v>4.2</v>
+        <v>1.01</v>
       </c>
       <c r="AU50" t="n">
-        <v>6.8</v>
+        <v>1.01</v>
       </c>
       <c r="AV50" t="n">
-        <v>4.2</v>
+        <v>1.01</v>
       </c>
       <c r="AW50" t="n">
-        <v>5.1</v>
+        <v>1.01</v>
       </c>
       <c r="AX50" t="n">
-        <v>4.5</v>
+        <v>1.01</v>
       </c>
       <c r="AY50" t="n">
-        <v>4.2</v>
+        <v>1.01</v>
       </c>
       <c r="AZ50" t="n">
-        <v>4.5</v>
+        <v>1.01</v>
       </c>
       <c r="BA50" t="n">
-        <v>5.2</v>
+        <v>1.01</v>
       </c>
       <c r="BB50" t="n">
-        <v>5.2</v>
+        <v>1.01</v>
       </c>
       <c r="BC50" t="n">
-        <v>4.9</v>
+        <v>1.01</v>
       </c>
       <c r="BD50" t="n">
-        <v>5.1</v>
+        <v>1.01</v>
       </c>
       <c r="BE50" t="n">
-        <v>5.6</v>
+        <v>1.01</v>
       </c>
       <c r="BF50" t="n">
-        <v>4.7</v>
+        <v>1.01</v>
       </c>
       <c r="BG50" t="n">
-        <v>4.8</v>
+        <v>1.01</v>
       </c>
       <c r="BH50" t="inlineStr">
         <is>
-          <t>2026-02-25 23:01:25</t>
+          <t>2026-02-26 01:19:12</t>
         </is>
       </c>
     </row>
@@ -10259,28 +10259,28 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Den Bosch</t>
+          <t>Jong FC Utrecht</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Roda JC</t>
+          <t>Almere City</t>
         </is>
       </c>
       <c r="F51" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="G51" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="H51" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="I51" t="n">
         <v>2.5</v>
       </c>
-      <c r="G51" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="H51" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="I51" t="n">
-        <v>2.86</v>
-      </c>
       <c r="J51" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="K51" t="n">
         <v>4.5</v>
@@ -10292,146 +10292,146 @@
         <v>1.02</v>
       </c>
       <c r="N51" t="n">
-        <v>2.3</v>
+        <v>6.2</v>
       </c>
       <c r="O51" t="n">
         <v>1.15</v>
       </c>
       <c r="P51" t="n">
-        <v>2.3</v>
+        <v>2.78</v>
       </c>
       <c r="Q51" t="n">
-        <v>1.43</v>
+        <v>1.47</v>
       </c>
       <c r="R51" t="n">
-        <v>1.54</v>
+        <v>1.6</v>
       </c>
       <c r="S51" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="T51" t="n">
-        <v>1.01</v>
+        <v>1.46</v>
       </c>
       <c r="U51" t="n">
-        <v>1.01</v>
+        <v>2.72</v>
       </c>
       <c r="V51" t="n">
-        <v>1.55</v>
+        <v>1.66</v>
       </c>
       <c r="W51" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="X51" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Y51" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Z51" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AA51" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AB51" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AC51" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AD51" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AE51" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AF51" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AG51" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AH51" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI51" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AJ51" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AK51" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL51" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AM51" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AN51" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AO51" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AP51" t="n">
-        <v>1.01</v>
+        <v>6.6</v>
       </c>
       <c r="AQ51" t="n">
-        <v>1.01</v>
+        <v>5.8</v>
       </c>
       <c r="AR51" t="n">
-        <v>1.01</v>
+        <v>6</v>
       </c>
       <c r="AS51" t="n">
-        <v>1.01</v>
+        <v>6.8</v>
       </c>
       <c r="AT51" t="n">
-        <v>1.01</v>
+        <v>6</v>
       </c>
       <c r="AU51" t="n">
-        <v>1.01</v>
+        <v>9</v>
       </c>
       <c r="AV51" t="n">
-        <v>1.01</v>
+        <v>9.4</v>
       </c>
       <c r="AW51" t="n">
-        <v>1.01</v>
+        <v>6</v>
       </c>
       <c r="AX51" t="n">
-        <v>1.01</v>
+        <v>6.4</v>
       </c>
       <c r="AY51" t="n">
-        <v>1.01</v>
+        <v>11</v>
       </c>
       <c r="AZ51" t="n">
-        <v>1.01</v>
+        <v>10</v>
       </c>
       <c r="BA51" t="n">
-        <v>1.01</v>
+        <v>6.4</v>
       </c>
       <c r="BB51" t="n">
-        <v>1.01</v>
+        <v>7.2</v>
       </c>
       <c r="BC51" t="n">
-        <v>1.01</v>
+        <v>6.6</v>
       </c>
       <c r="BD51" t="n">
-        <v>1.01</v>
+        <v>6.6</v>
       </c>
       <c r="BE51" t="n">
-        <v>1.01</v>
+        <v>7.2</v>
       </c>
       <c r="BF51" t="n">
-        <v>1.01</v>
+        <v>5.6</v>
       </c>
       <c r="BG51" t="n">
-        <v>1.01</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="BH51" t="inlineStr">
         <is>
-          <t>2026-02-25 23:01:25</t>
+          <t>2026-02-26 01:19:12</t>
         </is>
       </c>
     </row>
@@ -10492,13 +10492,13 @@
         <v>1.1</v>
       </c>
       <c r="P52" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="Q52" t="n">
         <v>1.1</v>
       </c>
       <c r="R52" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="S52" t="n">
         <v>1.87</v>
@@ -10625,7 +10625,7 @@
       </c>
       <c r="BH52" t="inlineStr">
         <is>
-          <t>2026-02-25 23:01:25</t>
+          <t>2026-02-26 01:19:12</t>
         </is>
       </c>
     </row>
@@ -10647,179 +10647,179 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Jong FC Utrecht</t>
+          <t>ADO Den Haag</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Almere City</t>
+          <t>VVV Venlo</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>2.76</v>
+        <v>1.25</v>
       </c>
       <c r="G53" t="n">
-        <v>3.15</v>
+        <v>1.32</v>
       </c>
       <c r="H53" t="n">
-        <v>2.26</v>
+        <v>11</v>
       </c>
       <c r="I53" t="n">
-        <v>2.52</v>
+        <v>15</v>
       </c>
       <c r="J53" t="n">
-        <v>3.9</v>
+        <v>6.6</v>
       </c>
       <c r="K53" t="n">
-        <v>4.5</v>
+        <v>8</v>
       </c>
       <c r="L53" t="n">
         <v>1.01</v>
       </c>
       <c r="M53" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N53" t="n">
-        <v>6.2</v>
+        <v>5.8</v>
       </c>
       <c r="O53" t="n">
-        <v>1.15</v>
+        <v>1.09</v>
       </c>
       <c r="P53" t="n">
-        <v>2.78</v>
+        <v>2.74</v>
       </c>
       <c r="Q53" t="n">
-        <v>1.47</v>
+        <v>1.3</v>
       </c>
       <c r="R53" t="n">
-        <v>1.59</v>
+        <v>1.74</v>
       </c>
       <c r="S53" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="T53" t="n">
-        <v>1.46</v>
+        <v>1.01</v>
       </c>
       <c r="U53" t="n">
-        <v>2.72</v>
+        <v>1.01</v>
       </c>
       <c r="V53" t="n">
-        <v>1.66</v>
+        <v>1.07</v>
       </c>
       <c r="W53" t="n">
-        <v>1.46</v>
+        <v>4.1</v>
       </c>
       <c r="X53" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Y53" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Z53" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AA53" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AB53" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AC53" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AD53" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AE53" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AF53" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AG53" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AH53" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AI53" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AJ53" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AK53" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AL53" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AM53" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AN53" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AO53" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AP53" t="n">
-        <v>6.6</v>
+        <v>1.01</v>
       </c>
       <c r="AQ53" t="n">
-        <v>5.8</v>
+        <v>1.01</v>
       </c>
       <c r="AR53" t="n">
-        <v>6</v>
+        <v>1.01</v>
       </c>
       <c r="AS53" t="n">
-        <v>6.8</v>
+        <v>1.01</v>
       </c>
       <c r="AT53" t="n">
-        <v>6</v>
+        <v>1.01</v>
       </c>
       <c r="AU53" t="n">
-        <v>9</v>
+        <v>1.01</v>
       </c>
       <c r="AV53" t="n">
-        <v>9.4</v>
+        <v>1.01</v>
       </c>
       <c r="AW53" t="n">
-        <v>6</v>
+        <v>1.01</v>
       </c>
       <c r="AX53" t="n">
-        <v>6.4</v>
+        <v>1.01</v>
       </c>
       <c r="AY53" t="n">
-        <v>11</v>
+        <v>1.01</v>
       </c>
       <c r="AZ53" t="n">
-        <v>10</v>
+        <v>1.01</v>
       </c>
       <c r="BA53" t="n">
-        <v>6.4</v>
+        <v>1.01</v>
       </c>
       <c r="BB53" t="n">
-        <v>7.2</v>
+        <v>1.01</v>
       </c>
       <c r="BC53" t="n">
-        <v>6.6</v>
+        <v>1.01</v>
       </c>
       <c r="BD53" t="n">
-        <v>6.6</v>
+        <v>1.01</v>
       </c>
       <c r="BE53" t="n">
-        <v>7.2</v>
+        <v>1.01</v>
       </c>
       <c r="BF53" t="n">
-        <v>5.6</v>
+        <v>1.01</v>
       </c>
       <c r="BG53" t="n">
-        <v>8.800000000000001</v>
+        <v>1.01</v>
       </c>
       <c r="BH53" t="inlineStr">
         <is>
-          <t>2026-02-25 23:01:25</t>
+          <t>2026-02-26 01:19:12</t>
         </is>
       </c>
     </row>
@@ -10841,179 +10841,179 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Vitesse Arnhem</t>
+          <t>Jong Ajax Amsterdam</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Jong AZ Alkmaar</t>
+          <t>Helmond Sport</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>2.18</v>
+        <v>2.5</v>
       </c>
       <c r="G54" t="n">
-        <v>2.4</v>
+        <v>2.74</v>
       </c>
       <c r="H54" t="n">
-        <v>2.82</v>
+        <v>2.74</v>
       </c>
       <c r="I54" t="n">
-        <v>3.25</v>
+        <v>3.05</v>
       </c>
       <c r="J54" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K54" t="n">
         <v>4.1</v>
       </c>
-      <c r="K54" t="n">
+      <c r="L54" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M54" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N54" t="n">
+        <v>4</v>
+      </c>
+      <c r="O54" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="P54" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="R54" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="S54" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="T54" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="U54" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="V54" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="W54" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="X54" t="n">
+        <v>980</v>
+      </c>
+      <c r="Y54" t="n">
+        <v>980</v>
+      </c>
+      <c r="Z54" t="n">
+        <v>980</v>
+      </c>
+      <c r="AA54" t="n">
+        <v>980</v>
+      </c>
+      <c r="AB54" t="n">
+        <v>980</v>
+      </c>
+      <c r="AC54" t="n">
+        <v>980</v>
+      </c>
+      <c r="AD54" t="n">
+        <v>980</v>
+      </c>
+      <c r="AE54" t="n">
+        <v>980</v>
+      </c>
+      <c r="AF54" t="n">
+        <v>980</v>
+      </c>
+      <c r="AG54" t="n">
+        <v>980</v>
+      </c>
+      <c r="AH54" t="n">
+        <v>980</v>
+      </c>
+      <c r="AI54" t="n">
+        <v>980</v>
+      </c>
+      <c r="AJ54" t="n">
+        <v>980</v>
+      </c>
+      <c r="AK54" t="n">
+        <v>980</v>
+      </c>
+      <c r="AL54" t="n">
+        <v>980</v>
+      </c>
+      <c r="AM54" t="n">
+        <v>85</v>
+      </c>
+      <c r="AN54" t="n">
+        <v>980</v>
+      </c>
+      <c r="AO54" t="n">
+        <v>980</v>
+      </c>
+      <c r="AP54" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AQ54" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AR54" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AS54" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AT54" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AU54" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AV54" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AW54" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="AX54" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AY54" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AZ54" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BA54" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="BB54" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="BC54" t="n">
         <v>4.9</v>
       </c>
-      <c r="L54" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M54" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N54" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="O54" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P54" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="Q54" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="R54" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="S54" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="T54" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="U54" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="V54" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="W54" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="X54" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y54" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z54" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA54" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB54" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC54" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD54" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE54" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF54" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG54" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH54" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI54" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ54" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK54" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL54" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM54" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN54" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO54" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AP54" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="AQ54" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="AR54" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="AS54" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="AT54" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="AU54" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="AV54" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="AW54" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="AX54" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="AY54" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="AZ54" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="BA54" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="BB54" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="BC54" t="n">
-        <v>1.01</v>
-      </c>
       <c r="BD54" t="n">
-        <v>1.01</v>
+        <v>5.1</v>
       </c>
       <c r="BE54" t="n">
-        <v>1.01</v>
+        <v>5.6</v>
       </c>
       <c r="BF54" t="n">
-        <v>1.01</v>
+        <v>4.7</v>
       </c>
       <c r="BG54" t="n">
-        <v>1.01</v>
+        <v>4.8</v>
       </c>
       <c r="BH54" t="inlineStr">
         <is>
-          <t>2026-02-25 23:01:25</t>
+          <t>2026-02-26 01:19:12</t>
         </is>
       </c>
     </row>
@@ -11035,179 +11035,179 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>FC Oss</t>
+          <t>RKC Waalwijk</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Cambuur Leeuwarden</t>
+          <t>FC Eindhoven</t>
         </is>
       </c>
       <c r="F55" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="G55" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="H55" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="I55" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="J55" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K55" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L55" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M55" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N55" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="O55" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P55" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="R55" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="S55" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="T55" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="U55" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V55" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="W55" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="X55" t="n">
+        <v>980</v>
+      </c>
+      <c r="Y55" t="n">
+        <v>22</v>
+      </c>
+      <c r="Z55" t="n">
+        <v>980</v>
+      </c>
+      <c r="AA55" t="n">
+        <v>85</v>
+      </c>
+      <c r="AB55" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AC55" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD55" t="n">
+        <v>19</v>
+      </c>
+      <c r="AE55" t="n">
+        <v>980</v>
+      </c>
+      <c r="AF55" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG55" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH55" t="n">
+        <v>18</v>
+      </c>
+      <c r="AI55" t="n">
+        <v>980</v>
+      </c>
+      <c r="AJ55" t="n">
+        <v>980</v>
+      </c>
+      <c r="AK55" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL55" t="n">
+        <v>980</v>
+      </c>
+      <c r="AM55" t="n">
+        <v>75</v>
+      </c>
+      <c r="AN55" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AO55" t="n">
+        <v>980</v>
+      </c>
+      <c r="AP55" t="n">
         <v>4.4</v>
       </c>
-      <c r="G55" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="H55" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="I55" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="J55" t="n">
+      <c r="AQ55" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AR55" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AS55" t="n">
+        <v>5</v>
+      </c>
+      <c r="AT55" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AU55" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV55" t="n">
         <v>4.1</v>
       </c>
-      <c r="K55" t="n">
-        <v>6</v>
-      </c>
-      <c r="L55" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M55" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N55" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="O55" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P55" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="Q55" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="R55" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="S55" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="T55" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="U55" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="V55" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="W55" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="X55" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y55" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z55" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA55" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB55" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC55" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD55" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE55" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF55" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG55" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH55" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI55" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ55" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK55" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL55" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM55" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN55" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO55" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AP55" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="AQ55" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="AR55" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="AS55" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="AT55" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="AU55" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="AV55" t="n">
-        <v>1.01</v>
-      </c>
       <c r="AW55" t="n">
-        <v>1.01</v>
+        <v>4.8</v>
       </c>
       <c r="AX55" t="n">
-        <v>1.01</v>
+        <v>4</v>
       </c>
       <c r="AY55" t="n">
-        <v>1.01</v>
+        <v>9.6</v>
       </c>
       <c r="AZ55" t="n">
-        <v>1.01</v>
+        <v>4.1</v>
       </c>
       <c r="BA55" t="n">
-        <v>1.01</v>
+        <v>4.8</v>
       </c>
       <c r="BB55" t="n">
-        <v>1.01</v>
+        <v>4.5</v>
       </c>
       <c r="BC55" t="n">
-        <v>1.01</v>
+        <v>4.3</v>
       </c>
       <c r="BD55" t="n">
-        <v>1.01</v>
+        <v>4.6</v>
       </c>
       <c r="BE55" t="n">
-        <v>1.01</v>
+        <v>5</v>
       </c>
       <c r="BF55" t="n">
-        <v>1.01</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="BG55" t="n">
-        <v>1.01</v>
+        <v>4.6</v>
       </c>
       <c r="BH55" t="inlineStr">
         <is>
-          <t>2026-02-25 23:01:25</t>
+          <t>2026-02-26 01:19:12</t>
         </is>
       </c>
     </row>
@@ -11229,55 +11229,55 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>ADO Den Haag</t>
+          <t>Den Bosch</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>VVV Venlo</t>
+          <t>Roda JC</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>1.25</v>
+        <v>2.5</v>
       </c>
       <c r="G56" t="n">
-        <v>1.32</v>
+        <v>2.72</v>
       </c>
       <c r="H56" t="n">
-        <v>11</v>
+        <v>2.58</v>
       </c>
       <c r="I56" t="n">
-        <v>15</v>
+        <v>2.86</v>
       </c>
       <c r="J56" t="n">
-        <v>6.6</v>
+        <v>3.85</v>
       </c>
       <c r="K56" t="n">
-        <v>8</v>
+        <v>4.5</v>
       </c>
       <c r="L56" t="n">
         <v>1.01</v>
       </c>
       <c r="M56" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N56" t="n">
-        <v>5.8</v>
+        <v>2.3</v>
       </c>
       <c r="O56" t="n">
-        <v>1.09</v>
+        <v>1.15</v>
       </c>
       <c r="P56" t="n">
-        <v>2.74</v>
+        <v>2.3</v>
       </c>
       <c r="Q56" t="n">
-        <v>1.3</v>
+        <v>1.43</v>
       </c>
       <c r="R56" t="n">
-        <v>1.74</v>
+        <v>1.54</v>
       </c>
       <c r="S56" t="n">
-        <v>1.8</v>
+        <v>2.08</v>
       </c>
       <c r="T56" t="n">
         <v>1.01</v>
@@ -11286,10 +11286,10 @@
         <v>1.01</v>
       </c>
       <c r="V56" t="n">
-        <v>1.07</v>
+        <v>1.55</v>
       </c>
       <c r="W56" t="n">
-        <v>4.1</v>
+        <v>1.58</v>
       </c>
       <c r="X56" t="n">
         <v>1000</v>
@@ -11401,7 +11401,7 @@
       </c>
       <c r="BH56" t="inlineStr">
         <is>
-          <t>2026-02-25 23:01:25</t>
+          <t>2026-02-26 01:19:12</t>
         </is>
       </c>
     </row>
@@ -11595,7 +11595,7 @@
       </c>
       <c r="BH57" t="inlineStr">
         <is>
-          <t>2026-02-25 23:01:25</t>
+          <t>2026-02-26 01:19:12</t>
         </is>
       </c>
     </row>
@@ -11626,7 +11626,7 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="G58" t="n">
         <v>1.89</v>
@@ -11635,7 +11635,7 @@
         <v>4.2</v>
       </c>
       <c r="I58" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="J58" t="n">
         <v>3.7</v>
@@ -11662,16 +11662,16 @@
         <v>1.58</v>
       </c>
       <c r="R58" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="S58" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="T58" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="U58" t="n">
         <v>2.32</v>
-      </c>
-      <c r="T58" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="U58" t="n">
-        <v>2.3</v>
       </c>
       <c r="V58" t="n">
         <v>1.22</v>
@@ -11686,7 +11686,7 @@
         <v>26</v>
       </c>
       <c r="Z58" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AA58" t="n">
         <v>110</v>
@@ -11713,7 +11713,7 @@
         <v>19.5</v>
       </c>
       <c r="AI58" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AJ58" t="n">
         <v>23</v>
@@ -11737,13 +11737,13 @@
         <v>18</v>
       </c>
       <c r="AQ58" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AR58" t="n">
         <v>4.5</v>
       </c>
       <c r="AS58" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="AT58" t="n">
         <v>9.4</v>
@@ -11755,7 +11755,7 @@
         <v>14</v>
       </c>
       <c r="AW58" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="AX58" t="n">
         <v>10</v>
@@ -11770,7 +11770,7 @@
         <v>4.6</v>
       </c>
       <c r="BB58" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="BC58" t="n">
         <v>13</v>
@@ -11779,24 +11779,24 @@
         <v>20</v>
       </c>
       <c r="BE58" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="BF58" t="n">
         <v>6.2</v>
       </c>
       <c r="BG58" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="BH58" t="inlineStr">
         <is>
-          <t>2026-02-25 23:01:25</t>
+          <t>2026-02-26 01:19:12</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -11811,115 +11811,115 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Albacete</t>
+          <t>Pergolettese</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Triestina</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>2.46</v>
+        <v>2.36</v>
       </c>
       <c r="G59" t="n">
-        <v>2.74</v>
+        <v>3.35</v>
       </c>
       <c r="H59" t="n">
-        <v>2.74</v>
+        <v>2.66</v>
       </c>
       <c r="I59" t="n">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="J59" t="n">
-        <v>3.55</v>
+        <v>2.6</v>
       </c>
       <c r="K59" t="n">
-        <v>4.1</v>
+        <v>5</v>
       </c>
       <c r="L59" t="n">
-        <v>1.35</v>
+        <v>1.42</v>
       </c>
       <c r="M59" t="n">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="N59" t="n">
-        <v>4.2</v>
+        <v>1.47</v>
       </c>
       <c r="O59" t="n">
-        <v>1.26</v>
+        <v>1.02</v>
       </c>
       <c r="P59" t="n">
-        <v>2.1</v>
+        <v>1.47</v>
       </c>
       <c r="Q59" t="n">
-        <v>1.75</v>
+        <v>2.24</v>
       </c>
       <c r="R59" t="n">
-        <v>1.36</v>
+        <v>1.08</v>
       </c>
       <c r="S59" t="n">
-        <v>2.62</v>
+        <v>2.24</v>
       </c>
       <c r="T59" t="n">
-        <v>1.64</v>
+        <v>1.01</v>
       </c>
       <c r="U59" t="n">
-        <v>2.32</v>
+        <v>1.01</v>
       </c>
       <c r="V59" t="n">
-        <v>1.47</v>
+        <v>1.33</v>
       </c>
       <c r="W59" t="n">
-        <v>1.58</v>
+        <v>1.42</v>
       </c>
       <c r="X59" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="Y59" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="Z59" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AA59" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AB59" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AC59" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="AD59" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AE59" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AF59" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AG59" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AH59" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AI59" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AJ59" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AK59" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AL59" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AM59" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AN59" t="n">
         <v>1000</v>
@@ -11928,69 +11928,69 @@
         <v>1000</v>
       </c>
       <c r="AP59" t="n">
-        <v>15</v>
+        <v>1.01</v>
       </c>
       <c r="AQ59" t="n">
-        <v>10.5</v>
+        <v>1.01</v>
       </c>
       <c r="AR59" t="n">
-        <v>15.5</v>
+        <v>1.01</v>
       </c>
       <c r="AS59" t="n">
-        <v>30</v>
+        <v>1.01</v>
       </c>
       <c r="AT59" t="n">
-        <v>9.800000000000001</v>
+        <v>1.01</v>
       </c>
       <c r="AU59" t="n">
-        <v>7.2</v>
+        <v>1.01</v>
       </c>
       <c r="AV59" t="n">
-        <v>10</v>
+        <v>1.01</v>
       </c>
       <c r="AW59" t="n">
-        <v>22</v>
+        <v>1.01</v>
       </c>
       <c r="AX59" t="n">
-        <v>15</v>
+        <v>1.01</v>
       </c>
       <c r="AY59" t="n">
-        <v>2.84</v>
+        <v>1.01</v>
       </c>
       <c r="AZ59" t="n">
-        <v>13</v>
+        <v>1.01</v>
       </c>
       <c r="BA59" t="n">
-        <v>3.25</v>
+        <v>1.01</v>
       </c>
       <c r="BB59" t="n">
-        <v>3.25</v>
+        <v>1.01</v>
       </c>
       <c r="BC59" t="n">
-        <v>3.15</v>
+        <v>1.01</v>
       </c>
       <c r="BD59" t="n">
-        <v>3.25</v>
+        <v>1.01</v>
       </c>
       <c r="BE59" t="n">
-        <v>3.4</v>
+        <v>1.01</v>
       </c>
       <c r="BF59" t="n">
-        <v>3.5</v>
+        <v>1.01</v>
       </c>
       <c r="BG59" t="n">
-        <v>3.5</v>
+        <v>1.01</v>
       </c>
       <c r="BH59" t="inlineStr">
         <is>
-          <t>2026-02-25 23:01:25</t>
+          <t>2026-02-26 01:19:12</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Polish Ekstraklasa</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -12005,186 +12005,186 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Arka Gdynia</t>
+          <t>Albacete</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Lechia Gdansk</t>
+          <t>Almeria</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>2.72</v>
+        <v>2.46</v>
       </c>
       <c r="G60" t="n">
-        <v>3.6</v>
+        <v>2.74</v>
       </c>
       <c r="H60" t="n">
-        <v>2.3</v>
+        <v>2.74</v>
       </c>
       <c r="I60" t="n">
-        <v>2.92</v>
+        <v>3.1</v>
       </c>
       <c r="J60" t="n">
-        <v>2.76</v>
+        <v>3.55</v>
       </c>
       <c r="K60" t="n">
-        <v>950</v>
+        <v>4.1</v>
       </c>
       <c r="L60" t="n">
-        <v>1.01</v>
+        <v>1.35</v>
       </c>
       <c r="M60" t="n">
         <v>1.05</v>
       </c>
       <c r="N60" t="n">
-        <v>1.1</v>
+        <v>4.2</v>
       </c>
       <c r="O60" t="n">
-        <v>1.32</v>
+        <v>1.26</v>
       </c>
       <c r="P60" t="n">
-        <v>1.72</v>
+        <v>2.1</v>
       </c>
       <c r="Q60" t="n">
-        <v>1.84</v>
+        <v>1.66</v>
       </c>
       <c r="R60" t="n">
-        <v>1.26</v>
+        <v>1.42</v>
       </c>
       <c r="S60" t="n">
-        <v>3.05</v>
+        <v>2.9</v>
       </c>
       <c r="T60" t="n">
-        <v>1.05</v>
+        <v>1.64</v>
       </c>
       <c r="U60" t="n">
-        <v>2</v>
+        <v>2.32</v>
       </c>
       <c r="V60" t="n">
-        <v>1.55</v>
+        <v>1.47</v>
       </c>
       <c r="W60" t="n">
-        <v>1.38</v>
+        <v>1.58</v>
       </c>
       <c r="X60" t="n">
+        <v>18</v>
+      </c>
+      <c r="Y60" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Z60" t="n">
+        <v>22</v>
+      </c>
+      <c r="AA60" t="n">
+        <v>46</v>
+      </c>
+      <c r="AB60" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AC60" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD60" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AE60" t="n">
+        <v>32</v>
+      </c>
+      <c r="AF60" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AG60" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH60" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI60" t="n">
+        <v>40</v>
+      </c>
+      <c r="AJ60" t="n">
+        <v>38</v>
+      </c>
+      <c r="AK60" t="n">
+        <v>28</v>
+      </c>
+      <c r="AL60" t="n">
+        <v>38</v>
+      </c>
+      <c r="AM60" t="n">
+        <v>85</v>
+      </c>
+      <c r="AN60" t="n">
+        <v>22</v>
+      </c>
+      <c r="AO60" t="n">
+        <v>28</v>
+      </c>
+      <c r="AP60" t="n">
+        <v>15</v>
+      </c>
+      <c r="AQ60" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AR60" t="n">
         <v>17.5</v>
       </c>
-      <c r="Y60" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z60" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA60" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB60" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC60" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD60" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE60" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF60" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG60" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH60" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI60" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ60" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK60" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL60" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM60" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN60" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO60" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AP60" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="AQ60" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="AR60" t="n">
-        <v>1.07</v>
-      </c>
       <c r="AS60" t="n">
-        <v>1.07</v>
+        <v>6.8</v>
       </c>
       <c r="AT60" t="n">
-        <v>1.07</v>
+        <v>10.5</v>
       </c>
       <c r="AU60" t="n">
-        <v>1.07</v>
+        <v>7.4</v>
       </c>
       <c r="AV60" t="n">
-        <v>1.07</v>
+        <v>11</v>
       </c>
       <c r="AW60" t="n">
-        <v>1.07</v>
+        <v>22</v>
       </c>
       <c r="AX60" t="n">
-        <v>1.07</v>
+        <v>15.5</v>
       </c>
       <c r="AY60" t="n">
-        <v>1.07</v>
+        <v>10</v>
       </c>
       <c r="AZ60" t="n">
-        <v>1.07</v>
+        <v>13.5</v>
       </c>
       <c r="BA60" t="n">
-        <v>1.07</v>
+        <v>29</v>
       </c>
       <c r="BB60" t="n">
-        <v>1.07</v>
+        <v>6.6</v>
       </c>
       <c r="BC60" t="n">
-        <v>1.07</v>
+        <v>20</v>
       </c>
       <c r="BD60" t="n">
-        <v>1.07</v>
+        <v>6.6</v>
       </c>
       <c r="BE60" t="n">
-        <v>1.08</v>
+        <v>7.2</v>
       </c>
       <c r="BF60" t="n">
-        <v>1.07</v>
+        <v>13.5</v>
       </c>
       <c r="BG60" t="n">
-        <v>1.07</v>
+        <v>16.5</v>
       </c>
       <c r="BH60" t="inlineStr">
         <is>
-          <t>2026-02-25 23:01:25</t>
+          <t>2026-02-26 01:19:12</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Polish Ekstraklasa</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -12199,179 +12199,179 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Arzignanochiampo</t>
+          <t>Arka Gdynia</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Novara</t>
+          <t>Lechia Gdansk</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>2.42</v>
+        <v>2.72</v>
       </c>
       <c r="G61" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="H61" t="n">
-        <v>2.58</v>
+        <v>2.3</v>
       </c>
       <c r="I61" t="n">
-        <v>3.8</v>
+        <v>2.92</v>
       </c>
       <c r="J61" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="K61" t="n">
+        <v>980</v>
+      </c>
+      <c r="L61" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M61" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N61" t="n">
         <v>2.62</v>
       </c>
-      <c r="K61" t="n">
-        <v>5</v>
-      </c>
-      <c r="L61" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="M61" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N61" t="n">
-        <v>2.7</v>
-      </c>
       <c r="O61" t="n">
-        <v>1.49</v>
+        <v>1.32</v>
       </c>
       <c r="P61" t="n">
-        <v>1.56</v>
+        <v>1.72</v>
       </c>
       <c r="Q61" t="n">
-        <v>2.44</v>
+        <v>1.84</v>
       </c>
       <c r="R61" t="n">
-        <v>1.2</v>
+        <v>1.26</v>
       </c>
       <c r="S61" t="n">
-        <v>4.3</v>
+        <v>3.05</v>
       </c>
       <c r="T61" t="n">
-        <v>1.82</v>
+        <v>1.05</v>
       </c>
       <c r="U61" t="n">
-        <v>1.71</v>
+        <v>2</v>
       </c>
       <c r="V61" t="n">
-        <v>1.36</v>
+        <v>1.55</v>
       </c>
       <c r="W61" t="n">
-        <v>1.42</v>
+        <v>1.01</v>
       </c>
       <c r="X61" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="Y61" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="Z61" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AA61" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AB61" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AC61" t="n">
-        <v>8.6</v>
+        <v>1000</v>
       </c>
       <c r="AD61" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AE61" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AF61" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AG61" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AH61" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AI61" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AJ61" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AK61" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AL61" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AM61" t="n">
-        <v>190</v>
+        <v>1000</v>
       </c>
       <c r="AN61" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AO61" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AP61" t="n">
-        <v>3.1</v>
+        <v>1.01</v>
       </c>
       <c r="AQ61" t="n">
-        <v>3.1</v>
+        <v>1.01</v>
       </c>
       <c r="AR61" t="n">
-        <v>14</v>
+        <v>1.01</v>
       </c>
       <c r="AS61" t="n">
-        <v>4</v>
+        <v>1.01</v>
       </c>
       <c r="AT61" t="n">
-        <v>3</v>
+        <v>1.01</v>
       </c>
       <c r="AU61" t="n">
-        <v>2.86</v>
+        <v>1.01</v>
       </c>
       <c r="AV61" t="n">
-        <v>10</v>
+        <v>1.01</v>
       </c>
       <c r="AW61" t="n">
-        <v>3.95</v>
+        <v>1.01</v>
       </c>
       <c r="AX61" t="n">
-        <v>12.5</v>
+        <v>1.01</v>
       </c>
       <c r="AY61" t="n">
-        <v>9.800000000000001</v>
+        <v>1.01</v>
       </c>
       <c r="AZ61" t="n">
-        <v>3.65</v>
+        <v>1.01</v>
       </c>
       <c r="BA61" t="n">
-        <v>4</v>
+        <v>1.01</v>
       </c>
       <c r="BB61" t="n">
-        <v>4</v>
+        <v>1.01</v>
       </c>
       <c r="BC61" t="n">
-        <v>3.95</v>
+        <v>1.01</v>
       </c>
       <c r="BD61" t="n">
-        <v>4</v>
+        <v>1.01</v>
       </c>
       <c r="BE61" t="n">
-        <v>4.1</v>
+        <v>1.01</v>
       </c>
       <c r="BF61" t="n">
-        <v>3.95</v>
+        <v>1.01</v>
       </c>
       <c r="BG61" t="n">
-        <v>4</v>
+        <v>1.01</v>
       </c>
       <c r="BH61" t="inlineStr">
         <is>
-          <t>2026-02-25 23:01:25</t>
+          <t>2026-02-26 01:19:12</t>
         </is>
       </c>
     </row>
@@ -12393,179 +12393,179 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Pergolettese</t>
+          <t>Arzignanochiampo</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Triestina</t>
+          <t>Novara</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="G62" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="H62" t="n">
-        <v>2.66</v>
+        <v>2.58</v>
       </c>
       <c r="I62" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="J62" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="K62" t="n">
         <v>5</v>
       </c>
       <c r="L62" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="M62" t="n">
-        <v>1.01</v>
+        <v>1.11</v>
       </c>
       <c r="N62" t="n">
-        <v>1.47</v>
+        <v>2.7</v>
       </c>
       <c r="O62" t="n">
-        <v>1.02</v>
+        <v>1.49</v>
       </c>
       <c r="P62" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="Q62" t="n">
-        <v>2.24</v>
+        <v>2.44</v>
       </c>
       <c r="R62" t="n">
-        <v>1.08</v>
+        <v>1.2</v>
       </c>
       <c r="S62" t="n">
-        <v>2.24</v>
+        <v>4.3</v>
       </c>
       <c r="T62" t="n">
-        <v>1.01</v>
+        <v>1.82</v>
       </c>
       <c r="U62" t="n">
-        <v>1.01</v>
+        <v>1.71</v>
       </c>
       <c r="V62" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="W62" t="n">
         <v>1.42</v>
       </c>
       <c r="X62" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="Y62" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="Z62" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AA62" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AB62" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AC62" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="AD62" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AE62" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AF62" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AG62" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AH62" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI62" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AJ62" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AK62" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL62" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AM62" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AN62" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AO62" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AP62" t="n">
-        <v>1.01</v>
+        <v>3.1</v>
       </c>
       <c r="AQ62" t="n">
-        <v>1.01</v>
+        <v>7.8</v>
       </c>
       <c r="AR62" t="n">
-        <v>1.01</v>
+        <v>14</v>
       </c>
       <c r="AS62" t="n">
-        <v>1.01</v>
+        <v>4</v>
       </c>
       <c r="AT62" t="n">
-        <v>1.01</v>
+        <v>3</v>
       </c>
       <c r="AU62" t="n">
-        <v>1.01</v>
+        <v>2.86</v>
       </c>
       <c r="AV62" t="n">
-        <v>1.01</v>
+        <v>10</v>
       </c>
       <c r="AW62" t="n">
-        <v>1.01</v>
+        <v>3.95</v>
       </c>
       <c r="AX62" t="n">
-        <v>1.01</v>
+        <v>12.5</v>
       </c>
       <c r="AY62" t="n">
-        <v>1.01</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AZ62" t="n">
-        <v>1.01</v>
+        <v>3.65</v>
       </c>
       <c r="BA62" t="n">
-        <v>1.01</v>
+        <v>4</v>
       </c>
       <c r="BB62" t="n">
-        <v>1.01</v>
+        <v>4</v>
       </c>
       <c r="BC62" t="n">
-        <v>1.01</v>
+        <v>3.95</v>
       </c>
       <c r="BD62" t="n">
-        <v>1.01</v>
+        <v>4</v>
       </c>
       <c r="BE62" t="n">
-        <v>1.01</v>
+        <v>4.1</v>
       </c>
       <c r="BF62" t="n">
-        <v>1.01</v>
+        <v>3.95</v>
       </c>
       <c r="BG62" t="n">
-        <v>1.01</v>
+        <v>4</v>
       </c>
       <c r="BH62" t="inlineStr">
         <is>
-          <t>2026-02-25 23:01:25</t>
+          <t>2026-02-26 01:19:12</t>
         </is>
       </c>
     </row>
@@ -12629,7 +12629,7 @@
         <v>2.24</v>
       </c>
       <c r="Q63" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="R63" t="n">
         <v>1.48</v>
@@ -12759,7 +12759,7 @@
       </c>
       <c r="BH63" t="inlineStr">
         <is>
-          <t>2026-02-25 23:01:25</t>
+          <t>2026-02-26 01:19:12</t>
         </is>
       </c>
     </row>
@@ -12781,55 +12781,55 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Cittadella</t>
+          <t>Giana Erminio</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>AC Ospitaletto</t>
+          <t>Pro Vercelli</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>1.65</v>
+        <v>2.3</v>
       </c>
       <c r="G64" t="n">
-        <v>2.08</v>
+        <v>3.2</v>
       </c>
       <c r="H64" t="n">
-        <v>3.25</v>
+        <v>2.8</v>
       </c>
       <c r="I64" t="n">
-        <v>7.2</v>
+        <v>4.5</v>
       </c>
       <c r="J64" t="n">
-        <v>3.05</v>
+        <v>2.66</v>
       </c>
       <c r="K64" t="n">
-        <v>11</v>
+        <v>4.7</v>
       </c>
       <c r="L64" t="n">
-        <v>1.34</v>
+        <v>1.47</v>
       </c>
       <c r="M64" t="n">
         <v>1.01</v>
       </c>
       <c r="N64" t="n">
-        <v>1.69</v>
+        <v>1.37</v>
       </c>
       <c r="O64" t="n">
-        <v>1.34</v>
+        <v>1.01</v>
       </c>
       <c r="P64" t="n">
-        <v>1.69</v>
+        <v>1.37</v>
       </c>
       <c r="Q64" t="n">
-        <v>1.86</v>
+        <v>2.32</v>
       </c>
       <c r="R64" t="n">
         <v>1.08</v>
       </c>
       <c r="S64" t="n">
-        <v>1.01</v>
+        <v>2.32</v>
       </c>
       <c r="T64" t="n">
         <v>1.01</v>
@@ -12838,10 +12838,10 @@
         <v>1.01</v>
       </c>
       <c r="V64" t="n">
-        <v>1.16</v>
+        <v>1.29</v>
       </c>
       <c r="W64" t="n">
-        <v>1.92</v>
+        <v>1.46</v>
       </c>
       <c r="X64" t="n">
         <v>1000</v>
@@ -12953,7 +12953,7 @@
       </c>
       <c r="BH64" t="inlineStr">
         <is>
-          <t>2026-02-25 23:01:25</t>
+          <t>2026-02-26 01:19:12</t>
         </is>
       </c>
     </row>
@@ -13147,7 +13147,7 @@
       </c>
       <c r="BH65" t="inlineStr">
         <is>
-          <t>2026-02-25 23:01:25</t>
+          <t>2026-02-26 01:19:12</t>
         </is>
       </c>
     </row>
@@ -13169,55 +13169,55 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Giana Erminio</t>
+          <t>Cittadella</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Pro Vercelli</t>
+          <t>AC Ospitaletto</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>2.3</v>
+        <v>1.65</v>
       </c>
       <c r="G66" t="n">
-        <v>3.2</v>
+        <v>2.08</v>
       </c>
       <c r="H66" t="n">
-        <v>2.8</v>
+        <v>3.25</v>
       </c>
       <c r="I66" t="n">
-        <v>4.5</v>
+        <v>7.2</v>
       </c>
       <c r="J66" t="n">
-        <v>2.66</v>
+        <v>3.05</v>
       </c>
       <c r="K66" t="n">
-        <v>4.7</v>
+        <v>11</v>
       </c>
       <c r="L66" t="n">
-        <v>1.47</v>
+        <v>1.34</v>
       </c>
       <c r="M66" t="n">
         <v>1.01</v>
       </c>
       <c r="N66" t="n">
-        <v>1.37</v>
+        <v>1.69</v>
       </c>
       <c r="O66" t="n">
-        <v>1.01</v>
+        <v>1.33</v>
       </c>
       <c r="P66" t="n">
-        <v>1.37</v>
+        <v>1.69</v>
       </c>
       <c r="Q66" t="n">
-        <v>2.32</v>
+        <v>1.86</v>
       </c>
       <c r="R66" t="n">
         <v>1.08</v>
       </c>
       <c r="S66" t="n">
-        <v>2.32</v>
+        <v>1.01</v>
       </c>
       <c r="T66" t="n">
         <v>1.01</v>
@@ -13226,10 +13226,10 @@
         <v>1.01</v>
       </c>
       <c r="V66" t="n">
-        <v>1.29</v>
+        <v>1.16</v>
       </c>
       <c r="W66" t="n">
-        <v>1.46</v>
+        <v>1.92</v>
       </c>
       <c r="X66" t="n">
         <v>1000</v>
@@ -13341,14 +13341,14 @@
       </c>
       <c r="BH66" t="inlineStr">
         <is>
-          <t>2026-02-25 23:01:25</t>
+          <t>2026-02-26 01:19:12</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Welsh Premiership</t>
+          <t>Irish Premier Division</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -13363,179 +13363,179 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Cardiff Metropolitan</t>
+          <t>Derry City</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Briton Ferry Llansawel</t>
+          <t>Waterford</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="G67" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="H67" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="I67" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="J67" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="K67" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="L67" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M67" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N67" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="O67" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="P67" t="n">
         <v>2</v>
       </c>
-      <c r="H67" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="I67" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="J67" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="K67" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="L67" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M67" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N67" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="O67" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="P67" t="n">
-        <v>2.16</v>
-      </c>
       <c r="Q67" t="n">
-        <v>1.47</v>
+        <v>1.84</v>
       </c>
       <c r="R67" t="n">
-        <v>1.46</v>
+        <v>1.38</v>
       </c>
       <c r="S67" t="n">
-        <v>2.18</v>
+        <v>3.05</v>
       </c>
       <c r="T67" t="n">
-        <v>1.01</v>
+        <v>1.99</v>
       </c>
       <c r="U67" t="n">
-        <v>1.01</v>
+        <v>1.83</v>
       </c>
       <c r="V67" t="n">
-        <v>1.17</v>
+        <v>1.12</v>
       </c>
       <c r="W67" t="n">
-        <v>2</v>
+        <v>2.78</v>
       </c>
       <c r="X67" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="Y67" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="Z67" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AA67" t="n">
-        <v>1000</v>
+        <v>310</v>
       </c>
       <c r="AB67" t="n">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
       <c r="AC67" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AD67" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AE67" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AF67" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AG67" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AH67" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AI67" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AJ67" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AK67" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AL67" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AM67" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AN67" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="AO67" t="n">
-        <v>1000</v>
+        <v>210</v>
       </c>
       <c r="AP67" t="n">
-        <v>1.01</v>
+        <v>14.5</v>
       </c>
       <c r="AQ67" t="n">
-        <v>1.01</v>
+        <v>20</v>
       </c>
       <c r="AR67" t="n">
-        <v>1.01</v>
+        <v>7.4</v>
       </c>
       <c r="AS67" t="n">
-        <v>1.01</v>
+        <v>8</v>
       </c>
       <c r="AT67" t="n">
-        <v>1.01</v>
+        <v>7</v>
       </c>
       <c r="AU67" t="n">
-        <v>1.01</v>
+        <v>9</v>
       </c>
       <c r="AV67" t="n">
-        <v>1.01</v>
+        <v>23</v>
       </c>
       <c r="AW67" t="n">
-        <v>1.01</v>
+        <v>7.8</v>
       </c>
       <c r="AX67" t="n">
-        <v>1.01</v>
+        <v>7.4</v>
       </c>
       <c r="AY67" t="n">
-        <v>1.01</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AZ67" t="n">
-        <v>1.01</v>
+        <v>21</v>
       </c>
       <c r="BA67" t="n">
-        <v>1.01</v>
+        <v>7.6</v>
       </c>
       <c r="BB67" t="n">
-        <v>1.01</v>
+        <v>11.5</v>
       </c>
       <c r="BC67" t="n">
-        <v>1.01</v>
+        <v>14</v>
       </c>
       <c r="BD67" t="n">
-        <v>1.01</v>
+        <v>6.8</v>
       </c>
       <c r="BE67" t="n">
-        <v>1.01</v>
+        <v>7.8</v>
       </c>
       <c r="BF67" t="n">
-        <v>1.01</v>
+        <v>6.4</v>
       </c>
       <c r="BG67" t="n">
-        <v>1.01</v>
+        <v>7.8</v>
       </c>
       <c r="BH67" t="inlineStr">
         <is>
-          <t>2026-02-25 23:01:25</t>
+          <t>2026-02-26 01:19:12</t>
         </is>
       </c>
     </row>
@@ -13692,7 +13692,7 @@
         <v>3</v>
       </c>
       <c r="AV68" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="AW68" t="n">
         <v>3.95</v>
@@ -13713,7 +13713,7 @@
         <v>3.9</v>
       </c>
       <c r="BC68" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="BD68" t="n">
         <v>3.95</v>
@@ -13729,7 +13729,7 @@
       </c>
       <c r="BH68" t="inlineStr">
         <is>
-          <t>2026-02-25 23:01:25</t>
+          <t>2026-02-26 01:19:12</t>
         </is>
       </c>
     </row>
@@ -13923,7 +13923,7 @@
       </c>
       <c r="BH69" t="inlineStr">
         <is>
-          <t>2026-02-25 23:01:25</t>
+          <t>2026-02-26 01:19:12</t>
         </is>
       </c>
     </row>
@@ -14117,7 +14117,7 @@
       </c>
       <c r="BH70" t="inlineStr">
         <is>
-          <t>2026-02-25 23:01:25</t>
+          <t>2026-02-26 01:19:12</t>
         </is>
       </c>
     </row>
@@ -14148,40 +14148,40 @@
         </is>
       </c>
       <c r="F71" t="n">
-        <v>1.73</v>
+        <v>1.78</v>
       </c>
       <c r="G71" t="n">
-        <v>1.84</v>
+        <v>1.89</v>
       </c>
       <c r="H71" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="I71" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="J71" t="n">
         <v>3.6</v>
       </c>
       <c r="K71" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="L71" t="n">
         <v>1.01</v>
       </c>
       <c r="M71" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N71" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="O71" t="n">
         <v>1.35</v>
       </c>
       <c r="P71" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="Q71" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="R71" t="n">
         <v>1.24</v>
@@ -14196,10 +14196,10 @@
         <v>1.05</v>
       </c>
       <c r="V71" t="n">
-        <v>1.17</v>
+        <v>1.19</v>
       </c>
       <c r="W71" t="n">
-        <v>2.18</v>
+        <v>2.12</v>
       </c>
       <c r="X71" t="n">
         <v>1000</v>
@@ -14311,14 +14311,14 @@
       </c>
       <c r="BH71" t="inlineStr">
         <is>
-          <t>2026-02-25 23:01:25</t>
+          <t>2026-02-26 01:19:12</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Irish Premier Division</t>
+          <t>Welsh Premiership</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -14333,179 +14333,179 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Derry City</t>
+          <t>Cardiff Metropolitan</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Waterford</t>
+          <t>Briton Ferry Llansawel</t>
         </is>
       </c>
       <c r="F72" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="G72" t="n">
+        <v>2</v>
+      </c>
+      <c r="H72" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="I72" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="J72" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K72" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="L72" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M72" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N72" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="O72" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="P72" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="R72" t="n">
         <v>1.46</v>
       </c>
-      <c r="G72" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="H72" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="I72" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="J72" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="K72" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="L72" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M72" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N72" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="O72" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="P72" t="n">
+      <c r="S72" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="T72" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U72" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V72" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="W72" t="n">
         <v>2</v>
       </c>
-      <c r="Q72" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="R72" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="S72" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="T72" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="U72" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V72" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="W72" t="n">
-        <v>2.78</v>
-      </c>
       <c r="X72" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="Y72" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="Z72" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AA72" t="n">
-        <v>310</v>
+        <v>1000</v>
       </c>
       <c r="AB72" t="n">
-        <v>8.4</v>
+        <v>1000</v>
       </c>
       <c r="AC72" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AD72" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AE72" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AF72" t="n">
-        <v>9.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AG72" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AH72" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AI72" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AJ72" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AK72" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AL72" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AM72" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AN72" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="AO72" t="n">
-        <v>210</v>
+        <v>1000</v>
       </c>
       <c r="AP72" t="n">
-        <v>14.5</v>
+        <v>1.01</v>
       </c>
       <c r="AQ72" t="n">
-        <v>20</v>
+        <v>1.01</v>
       </c>
       <c r="AR72" t="n">
-        <v>7.4</v>
+        <v>1.01</v>
       </c>
       <c r="AS72" t="n">
-        <v>8</v>
+        <v>1.01</v>
       </c>
       <c r="AT72" t="n">
-        <v>7</v>
+        <v>1.01</v>
       </c>
       <c r="AU72" t="n">
-        <v>9</v>
+        <v>1.01</v>
       </c>
       <c r="AV72" t="n">
-        <v>23</v>
+        <v>1.01</v>
       </c>
       <c r="AW72" t="n">
-        <v>7.8</v>
+        <v>1.01</v>
       </c>
       <c r="AX72" t="n">
-        <v>7.4</v>
+        <v>1.01</v>
       </c>
       <c r="AY72" t="n">
-        <v>8.800000000000001</v>
+        <v>1.01</v>
       </c>
       <c r="AZ72" t="n">
-        <v>21</v>
+        <v>1.01</v>
       </c>
       <c r="BA72" t="n">
-        <v>7.6</v>
+        <v>1.01</v>
       </c>
       <c r="BB72" t="n">
-        <v>11.5</v>
+        <v>1.01</v>
       </c>
       <c r="BC72" t="n">
-        <v>14</v>
+        <v>1.01</v>
       </c>
       <c r="BD72" t="n">
-        <v>6.8</v>
+        <v>1.01</v>
       </c>
       <c r="BE72" t="n">
-        <v>7.8</v>
+        <v>1.01</v>
       </c>
       <c r="BF72" t="n">
-        <v>6.4</v>
+        <v>1.01</v>
       </c>
       <c r="BG72" t="n">
-        <v>7.8</v>
+        <v>1.01</v>
       </c>
       <c r="BH72" t="inlineStr">
         <is>
-          <t>2026-02-25 23:01:25</t>
+          <t>2026-02-26 01:19:12</t>
         </is>
       </c>
     </row>
@@ -14557,10 +14557,10 @@
         <v>1.01</v>
       </c>
       <c r="M73" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N73" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="O73" t="n">
         <v>1.32</v>
@@ -14572,7 +14572,7 @@
         <v>1.89</v>
       </c>
       <c r="R73" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="S73" t="n">
         <v>3.15</v>
@@ -14699,7 +14699,7 @@
       </c>
       <c r="BH73" t="inlineStr">
         <is>
-          <t>2026-02-25 23:01:25</t>
+          <t>2026-02-26 01:19:12</t>
         </is>
       </c>
     </row>
@@ -14730,7 +14730,7 @@
         </is>
       </c>
       <c r="F74" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="G74" t="n">
         <v>2.9</v>
@@ -14739,13 +14739,13 @@
         <v>2.62</v>
       </c>
       <c r="I74" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="J74" t="n">
         <v>3.15</v>
       </c>
       <c r="K74" t="n">
-        <v>6.8</v>
+        <v>6</v>
       </c>
       <c r="L74" t="n">
         <v>1.01</v>
@@ -14893,7 +14893,7 @@
       </c>
       <c r="BH74" t="inlineStr">
         <is>
-          <t>2026-02-25 23:01:25</t>
+          <t>2026-02-26 01:19:12</t>
         </is>
       </c>
     </row>
@@ -14930,7 +14930,7 @@
         <v>1.77</v>
       </c>
       <c r="H75" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="I75" t="n">
         <v>8.4</v>
@@ -14939,7 +14939,7 @@
         <v>3.15</v>
       </c>
       <c r="K75" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="L75" t="n">
         <v>1.01</v>
@@ -14960,16 +14960,16 @@
         <v>1.72</v>
       </c>
       <c r="R75" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="S75" t="n">
         <v>2.56</v>
       </c>
       <c r="T75" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="U75" t="n">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="V75" t="n">
         <v>1.13</v>
@@ -14978,7 +14978,7 @@
         <v>2.28</v>
       </c>
       <c r="X75" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Y75" t="n">
         <v>27</v>
@@ -14987,7 +14987,7 @@
         <v>65</v>
       </c>
       <c r="AA75" t="n">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="AB75" t="n">
         <v>10.5</v>
@@ -15008,7 +15008,7 @@
         <v>11.5</v>
       </c>
       <c r="AH75" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AI75" t="n">
         <v>95</v>
@@ -15029,7 +15029,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AO75" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AP75" t="n">
         <v>15</v>
@@ -15050,10 +15050,10 @@
         <v>8.4</v>
       </c>
       <c r="AV75" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AW75" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="AX75" t="n">
         <v>7.6</v>
@@ -15074,7 +15074,7 @@
         <v>12</v>
       </c>
       <c r="BD75" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="BE75" t="n">
         <v>5</v>
@@ -15087,7 +15087,7 @@
       </c>
       <c r="BH75" t="inlineStr">
         <is>
-          <t>2026-02-25 23:01:25</t>
+          <t>2026-02-26 01:19:12</t>
         </is>
       </c>
     </row>
@@ -15281,7 +15281,7 @@
       </c>
       <c r="BH76" t="inlineStr">
         <is>
-          <t>2026-02-25 23:01:25</t>
+          <t>2026-02-26 01:19:12</t>
         </is>
       </c>
     </row>
@@ -15475,7 +15475,7 @@
       </c>
       <c r="BH77" t="inlineStr">
         <is>
-          <t>2026-02-25 23:01:25</t>
+          <t>2026-02-26 01:19:12</t>
         </is>
       </c>
     </row>
@@ -15669,7 +15669,7 @@
       </c>
       <c r="BH78" t="inlineStr">
         <is>
-          <t>2026-02-25 23:01:25</t>
+          <t>2026-02-26 01:19:12</t>
         </is>
       </c>
     </row>
@@ -15700,16 +15700,16 @@
         </is>
       </c>
       <c r="F79" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="G79" t="n">
         <v>2.52</v>
       </c>
-      <c r="G79" t="n">
-        <v>2.54</v>
-      </c>
       <c r="H79" t="n">
-        <v>2.9</v>
+        <v>2.94</v>
       </c>
       <c r="I79" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="J79" t="n">
         <v>3.75</v>
@@ -15739,19 +15739,19 @@
         <v>1.52</v>
       </c>
       <c r="S79" t="n">
-        <v>2.78</v>
+        <v>2.76</v>
       </c>
       <c r="T79" t="n">
         <v>1.61</v>
       </c>
       <c r="U79" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="V79" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="W79" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="X79" t="n">
         <v>19</v>
@@ -15808,7 +15808,7 @@
         <v>20</v>
       </c>
       <c r="AP79" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AQ79" t="n">
         <v>14</v>
@@ -15863,7 +15863,7 @@
       </c>
       <c r="BH79" t="inlineStr">
         <is>
-          <t>2026-02-25 23:01:25</t>
+          <t>2026-02-26 01:19:12</t>
         </is>
       </c>
     </row>
@@ -15915,31 +15915,31 @@
         <v>1.01</v>
       </c>
       <c r="M80" t="n">
-        <v>1.1</v>
+        <v>1.12</v>
       </c>
       <c r="N80" t="n">
-        <v>2.58</v>
+        <v>2.52</v>
       </c>
       <c r="O80" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="P80" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="Q80" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="R80" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="S80" t="n">
-        <v>4.7</v>
+        <v>5.5</v>
       </c>
       <c r="T80" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="U80" t="n">
-        <v>1.76</v>
+        <v>1.74</v>
       </c>
       <c r="V80" t="n">
         <v>1.68</v>
@@ -15948,10 +15948,10 @@
         <v>1.31</v>
       </c>
       <c r="X80" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Y80" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="Z80" t="n">
         <v>16.5</v>
@@ -16008,10 +16008,10 @@
         <v>6.4</v>
       </c>
       <c r="AR80" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="AS80" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="AT80" t="n">
         <v>8.4</v>
@@ -16023,48 +16023,48 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AW80" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="AX80" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="AY80" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="AZ80" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="BA80" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BB80" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="BC80" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="BD80" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="BE80" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="BF80" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="BG80" t="n">
         <v>4</v>
       </c>
-      <c r="BB80" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="BC80" t="n">
-        <v>4</v>
-      </c>
-      <c r="BD80" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="BE80" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="BF80" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="BG80" t="n">
-        <v>3.9</v>
-      </c>
       <c r="BH80" t="inlineStr">
         <is>
-          <t>2026-02-25 23:01:25</t>
+          <t>2026-02-26 01:19:12</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>Polish I Liga</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -16079,186 +16079,186 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Levante</t>
+          <t>Stal Rzeszow</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Alaves</t>
+          <t>Ruch Chorzow</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>2.76</v>
+        <v>2.58</v>
       </c>
       <c r="G81" t="n">
-        <v>2.8</v>
+        <v>3.45</v>
       </c>
       <c r="H81" t="n">
-        <v>3</v>
+        <v>2.54</v>
       </c>
       <c r="I81" t="n">
-        <v>3.1</v>
+        <v>3.35</v>
       </c>
       <c r="J81" t="n">
-        <v>3.2</v>
+        <v>3.05</v>
       </c>
       <c r="K81" t="n">
-        <v>3.25</v>
+        <v>4.6</v>
       </c>
       <c r="L81" t="n">
-        <v>1.55</v>
+        <v>1.01</v>
       </c>
       <c r="M81" t="n">
-        <v>1.11</v>
+        <v>1.01</v>
       </c>
       <c r="N81" t="n">
-        <v>2.96</v>
+        <v>2.3</v>
       </c>
       <c r="O81" t="n">
-        <v>1.49</v>
+        <v>1.23</v>
       </c>
       <c r="P81" t="n">
-        <v>1.63</v>
+        <v>2.14</v>
       </c>
       <c r="Q81" t="n">
-        <v>2.5</v>
+        <v>1.72</v>
       </c>
       <c r="R81" t="n">
-        <v>1.23</v>
+        <v>1.4</v>
       </c>
       <c r="S81" t="n">
-        <v>5</v>
+        <v>2.42</v>
       </c>
       <c r="T81" t="n">
-        <v>2.04</v>
+        <v>1.05</v>
       </c>
       <c r="U81" t="n">
-        <v>1.91</v>
+        <v>1.05</v>
       </c>
       <c r="V81" t="n">
-        <v>1.48</v>
+        <v>1.43</v>
       </c>
       <c r="W81" t="n">
-        <v>1.55</v>
+        <v>1.41</v>
       </c>
       <c r="X81" t="n">
-        <v>9.6</v>
+        <v>1000</v>
       </c>
       <c r="Y81" t="n">
-        <v>9.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="Z81" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AA81" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AB81" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AC81" t="n">
-        <v>7</v>
+        <v>1000</v>
       </c>
       <c r="AD81" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AE81" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AF81" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AG81" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AH81" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AI81" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AJ81" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AK81" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AL81" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AM81" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AN81" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AO81" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AP81" t="n">
-        <v>9.199999999999999</v>
+        <v>1.01</v>
       </c>
       <c r="AQ81" t="n">
-        <v>8.800000000000001</v>
+        <v>1.01</v>
       </c>
       <c r="AR81" t="n">
-        <v>17</v>
+        <v>1.01</v>
       </c>
       <c r="AS81" t="n">
-        <v>46</v>
+        <v>1.01</v>
       </c>
       <c r="AT81" t="n">
-        <v>8.199999999999999</v>
+        <v>1.01</v>
       </c>
       <c r="AU81" t="n">
-        <v>6.8</v>
+        <v>1.01</v>
       </c>
       <c r="AV81" t="n">
-        <v>12.5</v>
+        <v>1.01</v>
       </c>
       <c r="AW81" t="n">
-        <v>38</v>
+        <v>1.01</v>
       </c>
       <c r="AX81" t="n">
-        <v>15</v>
+        <v>1.01</v>
       </c>
       <c r="AY81" t="n">
-        <v>12</v>
+        <v>1.01</v>
       </c>
       <c r="AZ81" t="n">
-        <v>19.5</v>
+        <v>1.01</v>
       </c>
       <c r="BA81" t="n">
-        <v>55</v>
+        <v>1.01</v>
       </c>
       <c r="BB81" t="n">
-        <v>40</v>
+        <v>1.01</v>
       </c>
       <c r="BC81" t="n">
-        <v>34</v>
+        <v>1.01</v>
       </c>
       <c r="BD81" t="n">
-        <v>50</v>
+        <v>1.01</v>
       </c>
       <c r="BE81" t="n">
-        <v>44</v>
+        <v>1.01</v>
       </c>
       <c r="BF81" t="n">
-        <v>34</v>
+        <v>1.01</v>
       </c>
       <c r="BG81" t="n">
-        <v>40</v>
+        <v>1.01</v>
       </c>
       <c r="BH81" t="inlineStr">
         <is>
-          <t>2026-02-25 23:01:25</t>
+          <t>2026-02-26 01:19:12</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Polish I Liga</t>
+          <t>Italian Serie B</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -16273,179 +16273,179 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Stal Rzeszow</t>
+          <t>Sampdoria</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Ruch Chorzow</t>
+          <t>SSD Bari</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>2.58</v>
+        <v>1.74</v>
       </c>
       <c r="G82" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H82" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="I82" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="J82" t="n">
         <v>3.45</v>
       </c>
-      <c r="H82" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="I82" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="J82" t="n">
-        <v>3.05</v>
-      </c>
       <c r="K82" t="n">
-        <v>4.6</v>
+        <v>3.9</v>
       </c>
       <c r="L82" t="n">
         <v>1.01</v>
       </c>
       <c r="M82" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="N82" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="O82" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P82" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="Q82" t="n">
         <v>2.3</v>
       </c>
-      <c r="O82" t="n">
+      <c r="R82" t="n">
         <v>1.23</v>
       </c>
-      <c r="P82" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="Q82" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="R82" t="n">
-        <v>1.4</v>
-      </c>
       <c r="S82" t="n">
-        <v>2.42</v>
+        <v>4.4</v>
       </c>
       <c r="T82" t="n">
-        <v>1.05</v>
+        <v>2.1</v>
       </c>
       <c r="U82" t="n">
-        <v>1.05</v>
+        <v>1.76</v>
       </c>
       <c r="V82" t="n">
-        <v>1.43</v>
+        <v>1.19</v>
       </c>
       <c r="W82" t="n">
-        <v>1.41</v>
+        <v>2.1</v>
       </c>
       <c r="X82" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="Y82" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="Z82" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AA82" t="n">
-        <v>1000</v>
+        <v>220</v>
       </c>
       <c r="AB82" t="n">
-        <v>1000</v>
+        <v>7.2</v>
       </c>
       <c r="AC82" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="AD82" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AE82" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AF82" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AG82" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AH82" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AI82" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AJ82" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AK82" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AL82" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AM82" t="n">
-        <v>1000</v>
+        <v>230</v>
       </c>
       <c r="AN82" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AO82" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AP82" t="n">
-        <v>1.01</v>
+        <v>9.4</v>
       </c>
       <c r="AQ82" t="n">
-        <v>1.01</v>
+        <v>13</v>
       </c>
       <c r="AR82" t="n">
-        <v>1.01</v>
+        <v>36</v>
       </c>
       <c r="AS82" t="n">
-        <v>1.01</v>
+        <v>6.6</v>
       </c>
       <c r="AT82" t="n">
-        <v>1.01</v>
+        <v>5.9</v>
       </c>
       <c r="AU82" t="n">
-        <v>1.01</v>
+        <v>7</v>
       </c>
       <c r="AV82" t="n">
-        <v>1.01</v>
+        <v>19.5</v>
       </c>
       <c r="AW82" t="n">
-        <v>1.01</v>
+        <v>6.4</v>
       </c>
       <c r="AX82" t="n">
-        <v>1.01</v>
+        <v>8.4</v>
       </c>
       <c r="AY82" t="n">
-        <v>1.01</v>
+        <v>9.4</v>
       </c>
       <c r="AZ82" t="n">
-        <v>1.01</v>
+        <v>20</v>
       </c>
       <c r="BA82" t="n">
-        <v>1.01</v>
+        <v>6.4</v>
       </c>
       <c r="BB82" t="n">
-        <v>1.01</v>
+        <v>16.5</v>
       </c>
       <c r="BC82" t="n">
-        <v>1.01</v>
+        <v>19</v>
       </c>
       <c r="BD82" t="n">
-        <v>1.01</v>
+        <v>6</v>
       </c>
       <c r="BE82" t="n">
-        <v>1.01</v>
+        <v>6.6</v>
       </c>
       <c r="BF82" t="n">
-        <v>1.01</v>
+        <v>14</v>
       </c>
       <c r="BG82" t="n">
-        <v>1.01</v>
+        <v>6.6</v>
       </c>
       <c r="BH82" t="inlineStr">
         <is>
-          <t>2026-02-25 23:01:25</t>
+          <t>2026-02-26 01:19:12</t>
         </is>
       </c>
     </row>
@@ -16479,13 +16479,13 @@
         <v>2.8</v>
       </c>
       <c r="G83" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="H83" t="n">
         <v>2.84</v>
       </c>
       <c r="I83" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="J83" t="n">
         <v>3</v>
@@ -16524,10 +16524,10 @@
         <v>1.86</v>
       </c>
       <c r="V83" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="W83" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="X83" t="n">
         <v>10</v>
@@ -16617,7 +16617,7 @@
         <v>18.5</v>
       </c>
       <c r="BA83" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="BB83" t="n">
         <v>7.6</v>
@@ -16632,21 +16632,21 @@
         <v>8.4</v>
       </c>
       <c r="BF83" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="BG83" t="n">
         <v>7.6</v>
       </c>
       <c r="BH83" t="inlineStr">
         <is>
-          <t>2026-02-25 23:01:25</t>
+          <t>2026-02-26 01:19:12</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Italian Serie B</t>
+          <t>Spanish La Liga</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -16661,179 +16661,179 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Sampdoria</t>
+          <t>Levante</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>SSD Bari</t>
+          <t>Alaves</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>1.74</v>
+        <v>2.76</v>
       </c>
       <c r="G84" t="n">
-        <v>1.91</v>
+        <v>2.8</v>
       </c>
       <c r="H84" t="n">
-        <v>5.3</v>
+        <v>3</v>
       </c>
       <c r="I84" t="n">
-        <v>6.6</v>
+        <v>3.1</v>
       </c>
       <c r="J84" t="n">
-        <v>3.45</v>
+        <v>3.2</v>
       </c>
       <c r="K84" t="n">
-        <v>3.9</v>
+        <v>3.25</v>
       </c>
       <c r="L84" t="n">
-        <v>1.01</v>
+        <v>1.55</v>
       </c>
       <c r="M84" t="n">
-        <v>1.09</v>
+        <v>1.11</v>
       </c>
       <c r="N84" t="n">
         <v>2.96</v>
       </c>
       <c r="O84" t="n">
-        <v>1.44</v>
+        <v>1.49</v>
       </c>
       <c r="P84" t="n">
-        <v>1.65</v>
+        <v>1.63</v>
       </c>
       <c r="Q84" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="R84" t="n">
         <v>1.23</v>
       </c>
       <c r="S84" t="n">
-        <v>4.4</v>
+        <v>5</v>
       </c>
       <c r="T84" t="n">
-        <v>2.1</v>
+        <v>2.04</v>
       </c>
       <c r="U84" t="n">
-        <v>1.76</v>
+        <v>1.91</v>
       </c>
       <c r="V84" t="n">
-        <v>1.18</v>
+        <v>1.48</v>
       </c>
       <c r="W84" t="n">
-        <v>2.1</v>
+        <v>1.55</v>
       </c>
       <c r="X84" t="n">
-        <v>11.5</v>
+        <v>9.6</v>
       </c>
       <c r="Y84" t="n">
-        <v>16.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z84" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AA84" t="n">
         <v>55</v>
       </c>
-      <c r="AA84" t="n">
-        <v>220</v>
-      </c>
       <c r="AB84" t="n">
-        <v>7.2</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC84" t="n">
-        <v>8.6</v>
+        <v>7</v>
       </c>
       <c r="AD84" t="n">
-        <v>29</v>
+        <v>13.5</v>
       </c>
       <c r="AE84" t="n">
-        <v>130</v>
+        <v>42</v>
       </c>
       <c r="AF84" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AG84" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="AH84" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AI84" t="n">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="AJ84" t="n">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="AK84" t="n">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="AL84" t="n">
         <v>60</v>
       </c>
       <c r="AM84" t="n">
-        <v>230</v>
+        <v>150</v>
       </c>
       <c r="AN84" t="n">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="AO84" t="n">
-        <v>200</v>
+        <v>48</v>
       </c>
       <c r="AP84" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AQ84" t="n">
-        <v>13</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AR84" t="n">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="AS84" t="n">
-        <v>6.6</v>
+        <v>46</v>
       </c>
       <c r="AT84" t="n">
-        <v>5.9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AU84" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AV84" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AW84" t="n">
+        <v>38</v>
+      </c>
+      <c r="AX84" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY84" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ84" t="n">
         <v>19.5</v>
       </c>
-      <c r="AW84" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="AX84" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AY84" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AZ84" t="n">
-        <v>20</v>
-      </c>
       <c r="BA84" t="n">
-        <v>6.4</v>
+        <v>55</v>
       </c>
       <c r="BB84" t="n">
-        <v>16.5</v>
+        <v>40</v>
       </c>
       <c r="BC84" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="BD84" t="n">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="BE84" t="n">
-        <v>6.6</v>
+        <v>44</v>
       </c>
       <c r="BF84" t="n">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="BG84" t="n">
-        <v>6.6</v>
+        <v>40</v>
       </c>
       <c r="BH84" t="inlineStr">
         <is>
-          <t>2026-02-25 23:01:25</t>
+          <t>2026-02-26 01:19:12</t>
         </is>
       </c>
     </row>
@@ -17027,7 +17027,7 @@
       </c>
       <c r="BH85" t="inlineStr">
         <is>
-          <t>2026-02-25 23:01:25</t>
+          <t>2026-02-26 01:19:12</t>
         </is>
       </c>
     </row>
@@ -17221,7 +17221,7 @@
       </c>
       <c r="BH86" t="inlineStr">
         <is>
-          <t>2026-02-25 23:01:25</t>
+          <t>2026-02-26 01:19:12</t>
         </is>
       </c>
     </row>
@@ -17415,7 +17415,7 @@
       </c>
       <c r="BH87" t="inlineStr">
         <is>
-          <t>2026-02-25 23:01:25</t>
+          <t>2026-02-26 01:19:12</t>
         </is>
       </c>
     </row>
@@ -17446,22 +17446,22 @@
         </is>
       </c>
       <c r="F88" t="n">
-        <v>1.21</v>
+        <v>1.24</v>
       </c>
       <c r="G88" t="n">
         <v>1.26</v>
       </c>
       <c r="H88" t="n">
-        <v>1.07</v>
+        <v>12.5</v>
       </c>
       <c r="I88" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="J88" t="n">
         <v>7.2</v>
       </c>
       <c r="K88" t="n">
-        <v>11</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="L88" t="n">
         <v>0</v>
@@ -17609,7 +17609,7 @@
       </c>
       <c r="BH88" t="inlineStr">
         <is>
-          <t>2026-02-25 23:01:25</t>
+          <t>2026-02-26 01:19:12</t>
         </is>
       </c>
     </row>
@@ -17640,13 +17640,13 @@
         </is>
       </c>
       <c r="F89" t="n">
-        <v>1.68</v>
+        <v>1.64</v>
       </c>
       <c r="G89" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="H89" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="I89" t="n">
         <v>8</v>
@@ -17655,7 +17655,7 @@
         <v>3.15</v>
       </c>
       <c r="K89" t="n">
-        <v>3.8</v>
+        <v>3.95</v>
       </c>
       <c r="L89" t="n">
         <v>1.45</v>
@@ -17667,22 +17667,22 @@
         <v>2.24</v>
       </c>
       <c r="O89" t="n">
-        <v>1.01</v>
+        <v>1.24</v>
       </c>
       <c r="P89" t="n">
-        <v>1.55</v>
+        <v>1.48</v>
       </c>
       <c r="Q89" t="n">
-        <v>2.24</v>
+        <v>2.16</v>
       </c>
       <c r="R89" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="S89" t="n">
         <v>3.75</v>
       </c>
       <c r="T89" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="U89" t="n">
         <v>1.46</v>
@@ -17691,13 +17691,13 @@
         <v>1.14</v>
       </c>
       <c r="W89" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="X89" t="n">
         <v>970</v>
       </c>
       <c r="Y89" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="Z89" t="n">
         <v>1000</v>
@@ -17730,7 +17730,7 @@
         <v>1000</v>
       </c>
       <c r="AJ89" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AK89" t="n">
         <v>34</v>
@@ -17748,62 +17748,62 @@
         <v>1000</v>
       </c>
       <c r="AP89" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="AQ89" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AR89" t="n">
-        <v>2.32</v>
+        <v>2.38</v>
       </c>
       <c r="AS89" t="n">
-        <v>2.32</v>
+        <v>2.38</v>
       </c>
       <c r="AT89" t="n">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="AU89" t="n">
-        <v>1.95</v>
+        <v>1.99</v>
       </c>
       <c r="AV89" t="n">
-        <v>2.2</v>
+        <v>2.26</v>
       </c>
       <c r="AW89" t="n">
-        <v>2.32</v>
+        <v>2.38</v>
       </c>
       <c r="AX89" t="n">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="AY89" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="AZ89" t="n">
-        <v>2.2</v>
+        <v>2.26</v>
       </c>
       <c r="BA89" t="n">
-        <v>2.32</v>
+        <v>2.38</v>
       </c>
       <c r="BB89" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="BC89" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="BD89" t="n">
-        <v>2.32</v>
+        <v>2.38</v>
       </c>
       <c r="BE89" t="n">
-        <v>2.32</v>
+        <v>2.38</v>
       </c>
       <c r="BF89" t="n">
-        <v>2.32</v>
+        <v>2.38</v>
       </c>
       <c r="BG89" t="n">
-        <v>2.32</v>
+        <v>2.38</v>
       </c>
       <c r="BH89" t="inlineStr">
         <is>
-          <t>2026-02-25 23:01:25</t>
+          <t>2026-02-26 01:19:12</t>
         </is>
       </c>
     </row>
@@ -17997,7 +17997,7 @@
       </c>
       <c r="BH90" t="inlineStr">
         <is>
-          <t>2026-02-25 23:01:25</t>
+          <t>2026-02-26 01:19:12</t>
         </is>
       </c>
     </row>
@@ -18191,7 +18191,7 @@
       </c>
       <c r="BH91" t="inlineStr">
         <is>
-          <t>2026-02-25 23:01:25</t>
+          <t>2026-02-26 01:19:12</t>
         </is>
       </c>
     </row>
@@ -18249,7 +18249,7 @@
         <v>2.58</v>
       </c>
       <c r="O92" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="P92" t="n">
         <v>1.6</v>
@@ -18385,7 +18385,7 @@
       </c>
       <c r="BH92" t="inlineStr">
         <is>
-          <t>2026-02-25 23:01:25</t>
+          <t>2026-02-26 01:19:12</t>
         </is>
       </c>
     </row>
@@ -18416,40 +18416,40 @@
         </is>
       </c>
       <c r="F93" t="n">
-        <v>3.65</v>
+        <v>3.25</v>
       </c>
       <c r="G93" t="n">
-        <v>4.7</v>
+        <v>3.8</v>
       </c>
       <c r="H93" t="n">
-        <v>2.22</v>
+        <v>2.46</v>
       </c>
       <c r="I93" t="n">
-        <v>2.54</v>
+        <v>2.82</v>
       </c>
       <c r="J93" t="n">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="K93" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="L93" t="n">
         <v>1.48</v>
       </c>
       <c r="M93" t="n">
-        <v>1.01</v>
+        <v>1.13</v>
       </c>
       <c r="N93" t="n">
-        <v>1.1</v>
+        <v>2.2</v>
       </c>
       <c r="O93" t="n">
         <v>1.57</v>
       </c>
       <c r="P93" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="Q93" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="R93" t="n">
         <v>1.13</v>
@@ -18464,22 +18464,22 @@
         <v>1.05</v>
       </c>
       <c r="V93" t="n">
-        <v>1.64</v>
+        <v>1.54</v>
       </c>
       <c r="W93" t="n">
-        <v>1.27</v>
+        <v>1.35</v>
       </c>
       <c r="X93" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="Y93" t="n">
-        <v>9.800000000000001</v>
+        <v>970</v>
       </c>
       <c r="Z93" t="n">
         <v>970</v>
       </c>
       <c r="AA93" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AB93" t="n">
         <v>970</v>
@@ -18491,13 +18491,13 @@
         <v>970</v>
       </c>
       <c r="AE93" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AF93" t="n">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="AG93" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AH93" t="n">
         <v>34</v>
@@ -18524,69 +18524,69 @@
         <v>1000</v>
       </c>
       <c r="AP93" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="AQ93" t="n">
-        <v>2.04</v>
+        <v>1.72</v>
       </c>
       <c r="AR93" t="n">
-        <v>9.4</v>
+        <v>1.89</v>
       </c>
       <c r="AS93" t="n">
-        <v>2.44</v>
+        <v>2.06</v>
       </c>
       <c r="AT93" t="n">
-        <v>2.18</v>
+        <v>1.79</v>
       </c>
       <c r="AU93" t="n">
-        <v>2.04</v>
+        <v>1.7</v>
       </c>
       <c r="AV93" t="n">
-        <v>2.24</v>
+        <v>1.86</v>
       </c>
       <c r="AW93" t="n">
-        <v>2.44</v>
+        <v>2</v>
       </c>
       <c r="AX93" t="n">
-        <v>2.42</v>
+        <v>1.94</v>
       </c>
       <c r="AY93" t="n">
-        <v>2.34</v>
+        <v>1.89</v>
       </c>
       <c r="AZ93" t="n">
-        <v>2.4</v>
+        <v>1.95</v>
       </c>
       <c r="BA93" t="n">
-        <v>2.58</v>
+        <v>2.06</v>
       </c>
       <c r="BB93" t="n">
-        <v>2.58</v>
+        <v>2.06</v>
       </c>
       <c r="BC93" t="n">
-        <v>2.58</v>
+        <v>2.06</v>
       </c>
       <c r="BD93" t="n">
-        <v>2.58</v>
+        <v>2.06</v>
       </c>
       <c r="BE93" t="n">
-        <v>2.58</v>
+        <v>2.06</v>
       </c>
       <c r="BF93" t="n">
-        <v>2.58</v>
+        <v>2.06</v>
       </c>
       <c r="BG93" t="n">
-        <v>2.58</v>
+        <v>2.06</v>
       </c>
       <c r="BH93" t="inlineStr">
         <is>
-          <t>2026-02-25 23:01:25</t>
+          <t>2026-02-26 01:19:12</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Chilean Primera Division</t>
+          <t>Chilean Primera B</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -18601,28 +18601,28 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Union La Calera</t>
+          <t>Club Deportes Santa Cruz</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Audax Italiano</t>
+          <t>Cobreloa Calama</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>2.6</v>
+        <v>1.04</v>
       </c>
       <c r="G94" t="n">
-        <v>3.25</v>
+        <v>1000</v>
       </c>
       <c r="H94" t="n">
-        <v>2.66</v>
+        <v>1.04</v>
       </c>
       <c r="I94" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="J94" t="n">
-        <v>3</v>
+        <v>1.02</v>
       </c>
       <c r="K94" t="n">
         <v>950</v>
@@ -18634,34 +18634,34 @@
         <v>1.01</v>
       </c>
       <c r="N94" t="n">
-        <v>1.59</v>
+        <v>1.25</v>
       </c>
       <c r="O94" t="n">
-        <v>1.49</v>
+        <v>1.38</v>
       </c>
       <c r="P94" t="n">
-        <v>1.59</v>
+        <v>1.24</v>
       </c>
       <c r="Q94" t="n">
-        <v>2.44</v>
+        <v>1.37</v>
       </c>
       <c r="R94" t="n">
-        <v>1.16</v>
+        <v>1.08</v>
       </c>
       <c r="S94" t="n">
-        <v>4.2</v>
+        <v>1.38</v>
       </c>
       <c r="T94" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="U94" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="V94" t="n">
-        <v>1.46</v>
+        <v>1.01</v>
       </c>
       <c r="W94" t="n">
-        <v>1.46</v>
+        <v>1.01</v>
       </c>
       <c r="X94" t="n">
         <v>1000</v>
@@ -18773,14 +18773,14 @@
       </c>
       <c r="BH94" t="inlineStr">
         <is>
-          <t>2026-02-25 23:01:25</t>
+          <t>2026-02-26 01:19:12</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Chilean Primera B</t>
+          <t>Chilean Primera Division</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -18795,28 +18795,28 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Club Deportes Santa Cruz</t>
+          <t>Union La Calera</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Cobreloa Calama</t>
+          <t>Audax Italiano</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>1.04</v>
+        <v>2.6</v>
       </c>
       <c r="G95" t="n">
-        <v>1000</v>
+        <v>3.25</v>
       </c>
       <c r="H95" t="n">
-        <v>1.04</v>
+        <v>2.66</v>
       </c>
       <c r="I95" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="J95" t="n">
-        <v>1.02</v>
+        <v>3</v>
       </c>
       <c r="K95" t="n">
         <v>950</v>
@@ -18825,37 +18825,37 @@
         <v>1.01</v>
       </c>
       <c r="M95" t="n">
-        <v>1.01</v>
+        <v>1.12</v>
       </c>
       <c r="N95" t="n">
-        <v>1.25</v>
+        <v>1.59</v>
       </c>
       <c r="O95" t="n">
-        <v>1.38</v>
+        <v>1.49</v>
       </c>
       <c r="P95" t="n">
-        <v>1.24</v>
+        <v>1.59</v>
       </c>
       <c r="Q95" t="n">
-        <v>1.37</v>
+        <v>2.44</v>
       </c>
       <c r="R95" t="n">
-        <v>1.08</v>
+        <v>1.16</v>
       </c>
       <c r="S95" t="n">
-        <v>1.38</v>
+        <v>4.2</v>
       </c>
       <c r="T95" t="n">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="U95" t="n">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="V95" t="n">
-        <v>1.01</v>
+        <v>1.46</v>
       </c>
       <c r="W95" t="n">
-        <v>1.01</v>
+        <v>1.46</v>
       </c>
       <c r="X95" t="n">
         <v>1000</v>
@@ -18967,7 +18967,7 @@
       </c>
       <c r="BH95" t="inlineStr">
         <is>
-          <t>2026-02-25 23:01:25</t>
+          <t>2026-02-26 01:19:12</t>
         </is>
       </c>
     </row>
@@ -19161,7 +19161,783 @@
       </c>
       <c r="BH96" t="inlineStr">
         <is>
-          <t>2026-02-25 23:01:25</t>
+          <t>2026-02-26 01:19:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Ecuadorian Serie A</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>21:30:00</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Tecnico Universitario</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>Orense Sporting Club</t>
+        </is>
+      </c>
+      <c r="F97" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="G97" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="H97" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="I97" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="J97" t="n">
+        <v>3</v>
+      </c>
+      <c r="K97" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="L97" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M97" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="N97" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="O97" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P97" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="R97" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="S97" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="T97" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U97" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V97" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="W97" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="X97" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y97" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z97" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA97" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB97" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC97" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD97" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE97" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF97" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG97" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH97" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI97" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ97" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK97" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL97" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM97" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN97" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO97" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AP97" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AQ97" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AR97" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AS97" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AT97" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AU97" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AV97" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AW97" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AX97" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AY97" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AZ97" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BA97" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BB97" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BC97" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BD97" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BE97" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BF97" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BG97" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BH97" t="inlineStr">
+        <is>
+          <t>2026-02-26 01:19:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Mexican Liga MX</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>22:00:00</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Queretaro</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>Santos Laguna</t>
+        </is>
+      </c>
+      <c r="F98" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="G98" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="H98" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="I98" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="J98" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="K98" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="L98" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M98" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N98" t="n">
+        <v>4</v>
+      </c>
+      <c r="O98" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="P98" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="R98" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="S98" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="T98" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="U98" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="V98" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="W98" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="X98" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y98" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="Z98" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA98" t="n">
+        <v>95</v>
+      </c>
+      <c r="AB98" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC98" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AD98" t="n">
+        <v>20</v>
+      </c>
+      <c r="AE98" t="n">
+        <v>60</v>
+      </c>
+      <c r="AF98" t="n">
+        <v>14</v>
+      </c>
+      <c r="AG98" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH98" t="n">
+        <v>20</v>
+      </c>
+      <c r="AI98" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ98" t="n">
+        <v>24</v>
+      </c>
+      <c r="AK98" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL98" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM98" t="n">
+        <v>90</v>
+      </c>
+      <c r="AN98" t="n">
+        <v>12</v>
+      </c>
+      <c r="AO98" t="n">
+        <v>48</v>
+      </c>
+      <c r="AP98" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AQ98" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AR98" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AS98" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AT98" t="n">
+        <v>9</v>
+      </c>
+      <c r="AU98" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AV98" t="n">
+        <v>13</v>
+      </c>
+      <c r="AW98" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AX98" t="n">
+        <v>11</v>
+      </c>
+      <c r="AY98" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ98" t="n">
+        <v>13</v>
+      </c>
+      <c r="BA98" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="BB98" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="BC98" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="BD98" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="BE98" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="BF98" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="BG98" t="n">
+        <v>32</v>
+      </c>
+      <c r="BH98" t="inlineStr">
+        <is>
+          <t>2026-02-26 01:19:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Mexican Liga MX</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>22:00:00</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>Mazatlan FC</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>Pachuca</t>
+        </is>
+      </c>
+      <c r="F99" t="n">
+        <v>4</v>
+      </c>
+      <c r="G99" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="H99" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="I99" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="J99" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K99" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="L99" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M99" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N99" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="O99" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P99" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="R99" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="S99" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T99" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="U99" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="V99" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="W99" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X99" t="n">
+        <v>18</v>
+      </c>
+      <c r="Y99" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="Z99" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AA99" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB99" t="n">
+        <v>16</v>
+      </c>
+      <c r="AC99" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD99" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE99" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF99" t="n">
+        <v>32</v>
+      </c>
+      <c r="AG99" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AH99" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI99" t="n">
+        <v>38</v>
+      </c>
+      <c r="AJ99" t="n">
+        <v>110</v>
+      </c>
+      <c r="AK99" t="n">
+        <v>55</v>
+      </c>
+      <c r="AL99" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM99" t="n">
+        <v>120</v>
+      </c>
+      <c r="AN99" t="n">
+        <v>60</v>
+      </c>
+      <c r="AO99" t="n">
+        <v>16</v>
+      </c>
+      <c r="AP99" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AQ99" t="n">
+        <v>8</v>
+      </c>
+      <c r="AR99" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AS99" t="n">
+        <v>20</v>
+      </c>
+      <c r="AT99" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AU99" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV99" t="n">
+        <v>9</v>
+      </c>
+      <c r="AW99" t="n">
+        <v>18</v>
+      </c>
+      <c r="AX99" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AY99" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ99" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="BA99" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="BB99" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="BC99" t="n">
+        <v>36</v>
+      </c>
+      <c r="BD99" t="n">
+        <v>40</v>
+      </c>
+      <c r="BE99" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="BF99" t="n">
+        <v>38</v>
+      </c>
+      <c r="BG99" t="n">
+        <v>11</v>
+      </c>
+      <c r="BH99" t="inlineStr">
+        <is>
+          <t>2026-02-26 01:19:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Colombian Primera A</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>22:30:00</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>Once Caldas</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>Boyaca Chico</t>
+        </is>
+      </c>
+      <c r="F100" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="G100" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="H100" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="I100" t="n">
+        <v>14</v>
+      </c>
+      <c r="J100" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="K100" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="L100" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M100" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N100" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="O100" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="P100" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="R100" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="S100" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="T100" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U100" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="V100" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="W100" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="X100" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y100" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z100" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA100" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB100" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC100" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD100" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE100" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF100" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG100" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH100" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI100" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ100" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK100" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL100" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM100" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN100" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO100" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AP100" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AQ100" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AR100" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AS100" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AT100" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AU100" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AV100" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AW100" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AX100" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AY100" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AZ100" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BA100" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BB100" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BC100" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BD100" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BE100" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BF100" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BG100" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BH100" t="inlineStr">
+        <is>
+          <t>2026-02-26 01:19:12</t>
         </is>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-27.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-27.xlsx
@@ -762,22 +762,22 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.63</v>
+        <v>1.66</v>
       </c>
       <c r="G2" t="n">
-        <v>1.76</v>
+        <v>1.73</v>
       </c>
       <c r="H2" t="n">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
       <c r="I2" t="n">
-        <v>6.2</v>
+        <v>5.2</v>
       </c>
       <c r="J2" t="n">
-        <v>4</v>
+        <v>4.7</v>
       </c>
       <c r="K2" t="n">
-        <v>6.2</v>
+        <v>5.1</v>
       </c>
       <c r="L2" t="n">
         <v>1.24</v>
@@ -786,146 +786,146 @@
         <v>1.02</v>
       </c>
       <c r="N2" t="n">
-        <v>5.8</v>
+        <v>6.8</v>
       </c>
       <c r="O2" t="n">
-        <v>1.13</v>
+        <v>1.15</v>
       </c>
       <c r="P2" t="n">
-        <v>2.74</v>
+        <v>2.98</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="R2" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="S2" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="T2" t="n">
-        <v>1.47</v>
+        <v>1.55</v>
       </c>
       <c r="U2" t="n">
-        <v>2.54</v>
+        <v>2.62</v>
       </c>
       <c r="V2" t="n">
-        <v>1.19</v>
+        <v>1.24</v>
       </c>
       <c r="W2" t="n">
         <v>2.36</v>
       </c>
       <c r="X2" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="Y2" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="Z2" t="n">
         <v>1000</v>
       </c>
       <c r="AA2" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AB2" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AC2" t="n">
-        <v>980</v>
+        <v>12.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AE2" t="n">
         <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>980</v>
+        <v>14.5</v>
       </c>
       <c r="AG2" t="n">
-        <v>980</v>
+        <v>11</v>
       </c>
       <c r="AH2" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AI2" t="n">
         <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AK2" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AL2" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AM2" t="n">
         <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>980</v>
+        <v>5.8</v>
       </c>
       <c r="AO2" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AP2" t="n">
-        <v>1.36</v>
+        <v>8.4</v>
       </c>
       <c r="AQ2" t="n">
-        <v>1.36</v>
+        <v>23</v>
       </c>
       <c r="AR2" t="n">
-        <v>1.36</v>
+        <v>9</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.37</v>
+        <v>10</v>
       </c>
       <c r="AT2" t="n">
-        <v>1.36</v>
+        <v>13</v>
       </c>
       <c r="AU2" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>18</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>12</v>
+      </c>
+      <c r="AY2" t="n">
         <v>9.6</v>
       </c>
-      <c r="AV2" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="AW2" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="AX2" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="AY2" t="n">
+      <c r="AZ2" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>16</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>20</v>
+      </c>
+      <c r="BE2" t="n">
         <v>9.199999999999999</v>
       </c>
-      <c r="AZ2" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="BA2" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="BB2" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="BC2" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="BD2" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="BE2" t="n">
-        <v>1.36</v>
-      </c>
       <c r="BF2" t="n">
-        <v>4.6</v>
+        <v>5.2</v>
       </c>
       <c r="BG2" t="n">
-        <v>1.36</v>
+        <v>8.4</v>
       </c>
       <c r="BH2" t="inlineStr">
         <is>
-          <t>2026-02-26 01:19:12</t>
+          <t>2026-02-26 03:36:31</t>
         </is>
       </c>
     </row>
@@ -1119,7 +1119,7 @@
       </c>
       <c r="BH3" t="inlineStr">
         <is>
-          <t>2026-02-26 01:19:12</t>
+          <t>2026-02-26 03:36:31</t>
         </is>
       </c>
     </row>
@@ -1150,22 +1150,22 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="G4" t="n">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="I4" t="n">
-        <v>2.6</v>
+        <v>2.38</v>
       </c>
       <c r="J4" t="n">
         <v>3.1</v>
       </c>
       <c r="K4" t="n">
-        <v>6</v>
+        <v>3.55</v>
       </c>
       <c r="L4" t="n">
         <v>1.01</v>
@@ -1174,40 +1174,40 @@
         <v>1.11</v>
       </c>
       <c r="N4" t="n">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="O4" t="n">
         <v>1.46</v>
       </c>
       <c r="P4" t="n">
-        <v>1.51</v>
+        <v>1.58</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.26</v>
+        <v>2.38</v>
       </c>
       <c r="R4" t="n">
-        <v>1.18</v>
+        <v>1.21</v>
       </c>
       <c r="S4" t="n">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="T4" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="U4" t="n">
         <v>1.81</v>
       </c>
       <c r="V4" t="n">
-        <v>1.64</v>
+        <v>1.72</v>
       </c>
       <c r="W4" t="n">
-        <v>1.26</v>
+        <v>1.29</v>
       </c>
       <c r="X4" t="n">
         <v>1000</v>
       </c>
       <c r="Y4" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Z4" t="n">
         <v>1000</v>
@@ -1258,62 +1258,62 @@
         <v>1000</v>
       </c>
       <c r="AP4" t="n">
-        <v>1.01</v>
+        <v>4.5</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1.01</v>
+        <v>3.75</v>
       </c>
       <c r="AR4" t="n">
-        <v>1.01</v>
+        <v>4.7</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.01</v>
+        <v>4.9</v>
       </c>
       <c r="AT4" t="n">
-        <v>1.01</v>
+        <v>4.6</v>
       </c>
       <c r="AU4" t="n">
-        <v>1.01</v>
+        <v>3.75</v>
       </c>
       <c r="AV4" t="n">
-        <v>1.01</v>
+        <v>4.6</v>
       </c>
       <c r="AW4" t="n">
-        <v>1.01</v>
+        <v>3.9</v>
       </c>
       <c r="AX4" t="n">
-        <v>1.01</v>
+        <v>5.8</v>
       </c>
       <c r="AY4" t="n">
-        <v>1.01</v>
+        <v>5.2</v>
       </c>
       <c r="AZ4" t="n">
-        <v>1.01</v>
+        <v>5.5</v>
       </c>
       <c r="BA4" t="n">
-        <v>1.01</v>
+        <v>2.44</v>
       </c>
       <c r="BB4" t="n">
-        <v>1.01</v>
+        <v>2.48</v>
       </c>
       <c r="BC4" t="n">
-        <v>1.01</v>
+        <v>2.46</v>
       </c>
       <c r="BD4" t="n">
-        <v>1.01</v>
+        <v>6.8</v>
       </c>
       <c r="BE4" t="n">
-        <v>1.01</v>
+        <v>2.3</v>
       </c>
       <c r="BF4" t="n">
-        <v>1.01</v>
+        <v>2.28</v>
       </c>
       <c r="BG4" t="n">
-        <v>1.01</v>
+        <v>5.8</v>
       </c>
       <c r="BH4" t="inlineStr">
         <is>
-          <t>2026-02-26 01:19:12</t>
+          <t>2026-02-26 03:36:31</t>
         </is>
       </c>
     </row>
@@ -1365,16 +1365,16 @@
         <v>1.01</v>
       </c>
       <c r="M5" t="n">
-        <v>1.01</v>
+        <v>1.19</v>
       </c>
       <c r="N5" t="n">
-        <v>1.97</v>
+        <v>2.02</v>
       </c>
       <c r="O5" t="n">
-        <v>1.74</v>
+        <v>1.8</v>
       </c>
       <c r="P5" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="Q5" t="n">
         <v>3.3</v>
@@ -1383,13 +1383,13 @@
         <v>1.12</v>
       </c>
       <c r="S5" t="n">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="T5" t="n">
-        <v>1.05</v>
+        <v>2.44</v>
       </c>
       <c r="U5" t="n">
-        <v>1.05</v>
+        <v>1.55</v>
       </c>
       <c r="V5" t="n">
         <v>1.47</v>
@@ -1452,62 +1452,62 @@
         <v>1000</v>
       </c>
       <c r="AP5" t="n">
-        <v>4.8</v>
+        <v>3.15</v>
       </c>
       <c r="AQ5" t="n">
-        <v>3.2</v>
+        <v>3.45</v>
       </c>
       <c r="AR5" t="n">
-        <v>4.1</v>
+        <v>4.6</v>
       </c>
       <c r="AS5" t="n">
-        <v>4.8</v>
+        <v>5.4</v>
       </c>
       <c r="AT5" t="n">
-        <v>3.25</v>
+        <v>3.45</v>
       </c>
       <c r="AU5" t="n">
-        <v>3.1</v>
+        <v>3.45</v>
       </c>
       <c r="AV5" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="AW5" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX5" t="n">
         <v>4.7</v>
       </c>
-      <c r="AX5" t="n">
-        <v>4.2</v>
-      </c>
       <c r="AY5" t="n">
-        <v>4.1</v>
+        <v>4.6</v>
       </c>
       <c r="AZ5" t="n">
-        <v>4.5</v>
+        <v>5.1</v>
       </c>
       <c r="BA5" t="n">
-        <v>4.9</v>
+        <v>5.5</v>
       </c>
       <c r="BB5" t="n">
-        <v>4.9</v>
+        <v>5.7</v>
       </c>
       <c r="BC5" t="n">
-        <v>4.8</v>
+        <v>5.4</v>
       </c>
       <c r="BD5" t="n">
-        <v>4.9</v>
+        <v>5.6</v>
       </c>
       <c r="BE5" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="BF5" t="n">
-        <v>4.9</v>
+        <v>5.5</v>
       </c>
       <c r="BG5" t="n">
-        <v>4.9</v>
+        <v>5.4</v>
       </c>
       <c r="BH5" t="inlineStr">
         <is>
-          <t>2026-02-26 01:19:12</t>
+          <t>2026-02-26 03:36:31</t>
         </is>
       </c>
     </row>
@@ -1544,7 +1544,7 @@
         <v>2.58</v>
       </c>
       <c r="H6" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I6" t="n">
         <v>4.2</v>
@@ -1553,7 +1553,7 @@
         <v>2.86</v>
       </c>
       <c r="K6" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="L6" t="n">
         <v>1.5</v>
@@ -1701,7 +1701,7 @@
       </c>
       <c r="BH6" t="inlineStr">
         <is>
-          <t>2026-02-26 01:19:12</t>
+          <t>2026-02-26 03:36:31</t>
         </is>
       </c>
     </row>
@@ -1732,10 +1732,10 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="G7" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="H7" t="n">
         <v>17.5</v>
@@ -1747,7 +1747,7 @@
         <v>7.2</v>
       </c>
       <c r="K7" t="n">
-        <v>8.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="L7" t="n">
         <v>1.18</v>
@@ -1768,7 +1768,7 @@
         <v>1.47</v>
       </c>
       <c r="R7" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="S7" t="n">
         <v>2.14</v>
@@ -1852,7 +1852,7 @@
         <v>4.6</v>
       </c>
       <c r="AT7" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AU7" t="n">
         <v>15</v>
@@ -1895,7 +1895,7 @@
       </c>
       <c r="BH7" t="inlineStr">
         <is>
-          <t>2026-02-26 01:19:12</t>
+          <t>2026-02-26 03:36:31</t>
         </is>
       </c>
     </row>
@@ -1929,16 +1929,16 @@
         <v>4.3</v>
       </c>
       <c r="G8" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H8" t="n">
         <v>1.61</v>
       </c>
       <c r="I8" t="n">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="J8" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K8" t="n">
         <v>6.8</v>
@@ -1950,22 +1950,22 @@
         <v>1.01</v>
       </c>
       <c r="N8" t="n">
-        <v>2.72</v>
+        <v>1.58</v>
       </c>
       <c r="O8" t="n">
-        <v>1.01</v>
+        <v>1.38</v>
       </c>
       <c r="P8" t="n">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.14</v>
+        <v>1.96</v>
       </c>
       <c r="R8" t="n">
         <v>1.08</v>
       </c>
       <c r="S8" t="n">
-        <v>2.14</v>
+        <v>1.96</v>
       </c>
       <c r="T8" t="n">
         <v>1.01</v>
@@ -1974,10 +1974,10 @@
         <v>1.01</v>
       </c>
       <c r="V8" t="n">
-        <v>1.92</v>
+        <v>1.97</v>
       </c>
       <c r="W8" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="X8" t="n">
         <v>1000</v>
@@ -2089,7 +2089,7 @@
       </c>
       <c r="BH8" t="inlineStr">
         <is>
-          <t>2026-02-26 01:19:12</t>
+          <t>2026-02-26 03:36:31</t>
         </is>
       </c>
     </row>
@@ -2120,22 +2120,22 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.84</v>
+        <v>3.25</v>
       </c>
       <c r="G9" t="n">
-        <v>4.2</v>
+        <v>3.7</v>
       </c>
       <c r="H9" t="n">
-        <v>2.14</v>
+        <v>2.32</v>
       </c>
       <c r="I9" t="n">
-        <v>2.86</v>
+        <v>2.58</v>
       </c>
       <c r="J9" t="n">
         <v>3.15</v>
       </c>
       <c r="K9" t="n">
-        <v>4.1</v>
+        <v>3.55</v>
       </c>
       <c r="L9" t="n">
         <v>1.01</v>
@@ -2150,140 +2150,140 @@
         <v>1.42</v>
       </c>
       <c r="P9" t="n">
-        <v>1.56</v>
+        <v>1.67</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.04</v>
+        <v>2.22</v>
       </c>
       <c r="R9" t="n">
-        <v>1.2</v>
+        <v>1.24</v>
       </c>
       <c r="S9" t="n">
-        <v>3.55</v>
+        <v>4.3</v>
       </c>
       <c r="T9" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="U9" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="V9" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="W9" t="n">
-        <v>1.32</v>
+        <v>1.37</v>
       </c>
       <c r="X9" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="Y9" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AA9" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AB9" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AC9" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD9" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AE9" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AF9" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AG9" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AH9" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AI9" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AJ9" t="n">
         <v>1000</v>
       </c>
       <c r="AK9" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AL9" t="n">
         <v>1000</v>
       </c>
       <c r="AM9" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AN9" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AO9" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AP9" t="n">
-        <v>1.01</v>
+        <v>9.4</v>
       </c>
       <c r="AQ9" t="n">
-        <v>1.01</v>
+        <v>7.6</v>
       </c>
       <c r="AR9" t="n">
-        <v>1.01</v>
+        <v>12.5</v>
       </c>
       <c r="AS9" t="n">
-        <v>1.01</v>
+        <v>3.95</v>
       </c>
       <c r="AT9" t="n">
-        <v>1.01</v>
+        <v>9.4</v>
       </c>
       <c r="AU9" t="n">
-        <v>1.01</v>
+        <v>6.6</v>
       </c>
       <c r="AV9" t="n">
-        <v>1.01</v>
+        <v>10</v>
       </c>
       <c r="AW9" t="n">
-        <v>1.01</v>
+        <v>21</v>
       </c>
       <c r="AX9" t="n">
-        <v>1.01</v>
+        <v>19.5</v>
       </c>
       <c r="AY9" t="n">
-        <v>1.01</v>
+        <v>12.5</v>
       </c>
       <c r="AZ9" t="n">
-        <v>1.01</v>
+        <v>17</v>
       </c>
       <c r="BA9" t="n">
-        <v>1.01</v>
+        <v>4</v>
       </c>
       <c r="BB9" t="n">
-        <v>1.01</v>
+        <v>4.1</v>
       </c>
       <c r="BC9" t="n">
-        <v>1.01</v>
+        <v>4</v>
       </c>
       <c r="BD9" t="n">
-        <v>1.01</v>
+        <v>4.1</v>
       </c>
       <c r="BE9" t="n">
-        <v>1.01</v>
+        <v>4.2</v>
       </c>
       <c r="BF9" t="n">
-        <v>1.01</v>
+        <v>4.1</v>
       </c>
       <c r="BG9" t="n">
-        <v>1.01</v>
+        <v>21</v>
       </c>
       <c r="BH9" t="inlineStr">
         <is>
-          <t>2026-02-26 01:19:12</t>
+          <t>2026-02-26 03:36:31</t>
         </is>
       </c>
     </row>
@@ -2314,22 +2314,22 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>3.65</v>
+        <v>3.9</v>
       </c>
       <c r="G10" t="n">
         <v>4.6</v>
       </c>
       <c r="H10" t="n">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="I10" t="n">
         <v>2.16</v>
       </c>
       <c r="J10" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="K10" t="n">
-        <v>5.2</v>
+        <v>4</v>
       </c>
       <c r="L10" t="n">
         <v>1.01</v>
@@ -2338,16 +2338,16 @@
         <v>1.07</v>
       </c>
       <c r="N10" t="n">
-        <v>2.34</v>
+        <v>2.46</v>
       </c>
       <c r="O10" t="n">
         <v>1.33</v>
       </c>
       <c r="P10" t="n">
-        <v>1.64</v>
+        <v>1.7</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.62</v>
+        <v>1.84</v>
       </c>
       <c r="R10" t="n">
         <v>1.26</v>
@@ -2383,7 +2383,7 @@
         <v>980</v>
       </c>
       <c r="AC10" t="n">
-        <v>980</v>
+        <v>11</v>
       </c>
       <c r="AD10" t="n">
         <v>980</v>
@@ -2422,62 +2422,62 @@
         <v>980</v>
       </c>
       <c r="AP10" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="AQ10" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="AR10" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="AS10" t="n">
-        <v>2.32</v>
+        <v>2.38</v>
       </c>
       <c r="AT10" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="AU10" t="n">
         <v>2.08</v>
       </c>
       <c r="AV10" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="AW10" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="AX10" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="AY10" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="AZ10" t="n">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="BA10" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="BB10" t="n">
-        <v>2.54</v>
+        <v>2.58</v>
       </c>
       <c r="BC10" t="n">
-        <v>2.54</v>
+        <v>2.48</v>
       </c>
       <c r="BD10" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="BE10" t="n">
-        <v>2.54</v>
+        <v>2.58</v>
       </c>
       <c r="BF10" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="BG10" t="n">
         <v>9.6</v>
       </c>
       <c r="BH10" t="inlineStr">
         <is>
-          <t>2026-02-26 01:19:12</t>
+          <t>2026-02-26 03:36:31</t>
         </is>
       </c>
     </row>
@@ -2508,10 +2508,10 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="G11" t="n">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="H11" t="n">
         <v>2.16</v>
@@ -2520,7 +2520,7 @@
         <v>2.62</v>
       </c>
       <c r="J11" t="n">
-        <v>2.92</v>
+        <v>2.98</v>
       </c>
       <c r="K11" t="n">
         <v>3.75</v>
@@ -2529,79 +2529,79 @@
         <v>1.33</v>
       </c>
       <c r="M11" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N11" t="n">
-        <v>1.1</v>
+        <v>2.98</v>
       </c>
       <c r="O11" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="S11" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="T11" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="U11" t="n">
+        <v>2</v>
+      </c>
+      <c r="V11" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="W11" t="n">
         <v>1.35</v>
       </c>
-      <c r="P11" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="S11" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="T11" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="U11" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="V11" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="W11" t="n">
-        <v>1.31</v>
-      </c>
       <c r="X11" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="Y11" t="n">
-        <v>12.5</v>
+        <v>9.6</v>
       </c>
       <c r="Z11" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="AA11" t="n">
+        <v>32</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>28</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>26</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>16</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AI11" t="n">
         <v>44</v>
       </c>
-      <c r="AB11" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>38</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>34</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>21</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>1000</v>
-      </c>
       <c r="AJ11" t="n">
         <v>1000</v>
       </c>
       <c r="AK11" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AL11" t="n">
         <v>1000</v>
@@ -2610,68 +2610,68 @@
         <v>1000</v>
       </c>
       <c r="AN11" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AO11" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="AP11" t="n">
-        <v>2.6</v>
+        <v>5.4</v>
       </c>
       <c r="AQ11" t="n">
-        <v>2.16</v>
+        <v>4.5</v>
       </c>
       <c r="AR11" t="n">
-        <v>2.3</v>
+        <v>5.5</v>
       </c>
       <c r="AS11" t="n">
-        <v>2.46</v>
+        <v>6.8</v>
       </c>
       <c r="AT11" t="n">
-        <v>2.26</v>
+        <v>5.2</v>
       </c>
       <c r="AU11" t="n">
-        <v>2.08</v>
+        <v>4.2</v>
       </c>
       <c r="AV11" t="n">
-        <v>2.22</v>
+        <v>5</v>
       </c>
       <c r="AW11" t="n">
-        <v>2.44</v>
+        <v>6.6</v>
       </c>
       <c r="AX11" t="n">
-        <v>2.42</v>
+        <v>6.4</v>
       </c>
       <c r="AY11" t="n">
-        <v>2.32</v>
+        <v>5.6</v>
       </c>
       <c r="AZ11" t="n">
-        <v>2.36</v>
+        <v>6</v>
       </c>
       <c r="BA11" t="n">
-        <v>2.5</v>
+        <v>7.2</v>
       </c>
       <c r="BB11" t="n">
-        <v>2.54</v>
+        <v>7.6</v>
       </c>
       <c r="BC11" t="n">
-        <v>2.5</v>
+        <v>7.2</v>
       </c>
       <c r="BD11" t="n">
-        <v>2.52</v>
+        <v>7.6</v>
       </c>
       <c r="BE11" t="n">
-        <v>2.6</v>
+        <v>8</v>
       </c>
       <c r="BF11" t="n">
-        <v>2.52</v>
+        <v>7.4</v>
       </c>
       <c r="BG11" t="n">
-        <v>2.4</v>
+        <v>6.2</v>
       </c>
       <c r="BH11" t="inlineStr">
         <is>
-          <t>2026-02-26 01:19:12</t>
+          <t>2026-02-26 03:36:31</t>
         </is>
       </c>
     </row>
@@ -2705,7 +2705,7 @@
         <v>1.74</v>
       </c>
       <c r="G12" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="H12" t="n">
         <v>4.8</v>
@@ -2753,10 +2753,10 @@
         <v>1.23</v>
       </c>
       <c r="W12" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="X12" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Y12" t="n">
         <v>23</v>
@@ -2786,7 +2786,7 @@
         <v>12</v>
       </c>
       <c r="AH12" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI12" t="n">
         <v>60</v>
@@ -2816,10 +2816,10 @@
         <v>17</v>
       </c>
       <c r="AR12" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="AS12" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="AT12" t="n">
         <v>8.800000000000001</v>
@@ -2831,7 +2831,7 @@
         <v>17</v>
       </c>
       <c r="AW12" t="n">
-        <v>5.1</v>
+        <v>42</v>
       </c>
       <c r="AX12" t="n">
         <v>10</v>
@@ -2843,7 +2843,7 @@
         <v>16.5</v>
       </c>
       <c r="BA12" t="n">
-        <v>5.1</v>
+        <v>44</v>
       </c>
       <c r="BB12" t="n">
         <v>16.5</v>
@@ -2852,20 +2852,20 @@
         <v>15.5</v>
       </c>
       <c r="BD12" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="BE12" t="n">
-        <v>5.3</v>
+        <v>65</v>
       </c>
       <c r="BF12" t="n">
         <v>7.6</v>
       </c>
       <c r="BG12" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="BH12" t="inlineStr">
         <is>
-          <t>2026-02-26 01:19:12</t>
+          <t>2026-02-26 03:36:31</t>
         </is>
       </c>
     </row>
@@ -2923,7 +2923,7 @@
         <v>3.4</v>
       </c>
       <c r="O13" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="P13" t="n">
         <v>1.83</v>
@@ -2983,7 +2983,7 @@
         <v>22</v>
       </c>
       <c r="AI13" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AJ13" t="n">
         <v>42</v>
@@ -3016,7 +3016,7 @@
         <v>4.1</v>
       </c>
       <c r="AT13" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AU13" t="n">
         <v>6.6</v>
@@ -3043,13 +3043,13 @@
         <v>4</v>
       </c>
       <c r="BC13" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="BD13" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="BE13" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="BF13" t="n">
         <v>16.5</v>
@@ -3059,7 +3059,7 @@
       </c>
       <c r="BH13" t="inlineStr">
         <is>
-          <t>2026-02-26 01:19:12</t>
+          <t>2026-02-26 03:36:31</t>
         </is>
       </c>
     </row>
@@ -3093,16 +3093,16 @@
         <v>2.26</v>
       </c>
       <c r="G14" t="n">
-        <v>2.58</v>
+        <v>2.46</v>
       </c>
       <c r="H14" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="I14" t="n">
-        <v>4.6</v>
+        <v>4.2</v>
       </c>
       <c r="J14" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="K14" t="n">
         <v>3.35</v>
@@ -3114,10 +3114,10 @@
         <v>1.12</v>
       </c>
       <c r="N14" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="O14" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="P14" t="n">
         <v>1.55</v>
@@ -3126,22 +3126,22 @@
         <v>2.5</v>
       </c>
       <c r="R14" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="S14" t="n">
-        <v>4.3</v>
+        <v>5</v>
       </c>
       <c r="T14" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="U14" t="n">
         <v>1.79</v>
       </c>
       <c r="V14" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="W14" t="n">
-        <v>1.65</v>
+        <v>1.68</v>
       </c>
       <c r="X14" t="n">
         <v>11</v>
@@ -3253,7 +3253,7 @@
       </c>
       <c r="BH14" t="inlineStr">
         <is>
-          <t>2026-02-26 01:19:12</t>
+          <t>2026-02-26 03:36:31</t>
         </is>
       </c>
     </row>
@@ -3308,7 +3308,7 @@
         <v>1.01</v>
       </c>
       <c r="N15" t="n">
-        <v>1.92</v>
+        <v>1.1</v>
       </c>
       <c r="O15" t="n">
         <v>1.33</v>
@@ -3323,7 +3323,7 @@
         <v>1.25</v>
       </c>
       <c r="S15" t="n">
-        <v>2.06</v>
+        <v>2.44</v>
       </c>
       <c r="T15" t="n">
         <v>1.05</v>
@@ -3447,7 +3447,7 @@
       </c>
       <c r="BH15" t="inlineStr">
         <is>
-          <t>2026-02-26 01:19:12</t>
+          <t>2026-02-26 03:36:31</t>
         </is>
       </c>
     </row>
@@ -3478,170 +3478,170 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="G16" t="n">
-        <v>2.38</v>
+        <v>2.24</v>
       </c>
       <c r="H16" t="n">
-        <v>3.05</v>
+        <v>3.4</v>
       </c>
       <c r="I16" t="n">
-        <v>4.9</v>
+        <v>4.5</v>
       </c>
       <c r="J16" t="n">
         <v>3.35</v>
       </c>
       <c r="K16" t="n">
-        <v>7.8</v>
+        <v>4.3</v>
       </c>
       <c r="L16" t="n">
         <v>1.01</v>
       </c>
       <c r="M16" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N16" t="n">
-        <v>2.1</v>
+        <v>4.2</v>
       </c>
       <c r="O16" t="n">
         <v>1.24</v>
       </c>
       <c r="P16" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="Q16" t="n">
         <v>1.72</v>
       </c>
       <c r="R16" t="n">
-        <v>1.34</v>
+        <v>1.44</v>
       </c>
       <c r="S16" t="n">
-        <v>2.48</v>
+        <v>2.8</v>
       </c>
       <c r="T16" t="n">
-        <v>1.05</v>
+        <v>1.65</v>
       </c>
       <c r="U16" t="n">
-        <v>1.05</v>
+        <v>2.26</v>
       </c>
       <c r="V16" t="n">
-        <v>1.26</v>
+        <v>1.32</v>
       </c>
       <c r="W16" t="n">
-        <v>1.72</v>
+        <v>1.8</v>
       </c>
       <c r="X16" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="Y16" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="Z16" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AA16" t="n">
         <v>1000</v>
       </c>
       <c r="AB16" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AC16" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AD16" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AE16" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AF16" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AG16" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AH16" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AI16" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AJ16" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AK16" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AL16" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AM16" t="n">
         <v>1000</v>
       </c>
       <c r="AN16" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AO16" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AP16" t="n">
-        <v>1.01</v>
+        <v>15.5</v>
       </c>
       <c r="AQ16" t="n">
-        <v>1.01</v>
+        <v>12</v>
       </c>
       <c r="AR16" t="n">
-        <v>1.01</v>
+        <v>20</v>
       </c>
       <c r="AS16" t="n">
-        <v>1.01</v>
+        <v>4</v>
       </c>
       <c r="AT16" t="n">
-        <v>1.01</v>
+        <v>9.6</v>
       </c>
       <c r="AU16" t="n">
-        <v>1.01</v>
+        <v>7.6</v>
       </c>
       <c r="AV16" t="n">
-        <v>1.01</v>
+        <v>13</v>
       </c>
       <c r="AW16" t="n">
-        <v>1.01</v>
+        <v>3.85</v>
       </c>
       <c r="AX16" t="n">
-        <v>1.01</v>
+        <v>10.5</v>
       </c>
       <c r="AY16" t="n">
-        <v>1.01</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AZ16" t="n">
-        <v>1.01</v>
+        <v>14</v>
       </c>
       <c r="BA16" t="n">
-        <v>1.01</v>
+        <v>3.9</v>
       </c>
       <c r="BB16" t="n">
-        <v>1.01</v>
+        <v>21</v>
       </c>
       <c r="BC16" t="n">
-        <v>1.01</v>
+        <v>17.5</v>
       </c>
       <c r="BD16" t="n">
-        <v>1.01</v>
+        <v>3.8</v>
       </c>
       <c r="BE16" t="n">
-        <v>1.01</v>
+        <v>4</v>
       </c>
       <c r="BF16" t="n">
-        <v>1.01</v>
+        <v>9.4</v>
       </c>
       <c r="BG16" t="n">
-        <v>1.01</v>
+        <v>3.8</v>
       </c>
       <c r="BH16" t="inlineStr">
         <is>
-          <t>2026-02-26 01:19:12</t>
+          <t>2026-02-26 03:36:31</t>
         </is>
       </c>
     </row>
@@ -3672,10 +3672,10 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="G17" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="H17" t="n">
         <v>3.9</v>
@@ -3696,37 +3696,37 @@
         <v>1.06</v>
       </c>
       <c r="N17" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="O17" t="n">
         <v>1.29</v>
       </c>
       <c r="P17" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="R17" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="S17" t="n">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="T17" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="U17" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="V17" t="n">
         <v>1.29</v>
       </c>
       <c r="W17" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="X17" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="Y17" t="n">
         <v>19</v>
@@ -3735,7 +3735,7 @@
         <v>38</v>
       </c>
       <c r="AA17" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AB17" t="n">
         <v>12</v>
@@ -3744,10 +3744,10 @@
         <v>10.5</v>
       </c>
       <c r="AD17" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE17" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AF17" t="n">
         <v>16</v>
@@ -3759,7 +3759,7 @@
         <v>22</v>
       </c>
       <c r="AI17" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AJ17" t="n">
         <v>29</v>
@@ -3768,74 +3768,74 @@
         <v>26</v>
       </c>
       <c r="AL17" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AM17" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AN17" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AO17" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AP17" t="n">
-        <v>11.5</v>
+        <v>14</v>
       </c>
       <c r="AQ17" t="n">
         <v>11.5</v>
       </c>
       <c r="AR17" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="AS17" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AW17" t="n">
         <v>4</v>
-      </c>
-      <c r="AT17" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AU17" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="AV17" t="n">
-        <v>12</v>
-      </c>
-      <c r="AW17" t="n">
-        <v>3.9</v>
       </c>
       <c r="AX17" t="n">
         <v>9.6</v>
       </c>
       <c r="AY17" t="n">
-        <v>7.8</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AZ17" t="n">
-        <v>15.5</v>
+        <v>13</v>
       </c>
       <c r="BA17" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB17" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="BC17" t="n">
+        <v>18</v>
+      </c>
+      <c r="BD17" t="n">
         <v>3.9</v>
       </c>
-      <c r="BB17" t="n">
-        <v>20</v>
-      </c>
-      <c r="BC17" t="n">
-        <v>15</v>
-      </c>
-      <c r="BD17" t="n">
-        <v>3.8</v>
-      </c>
       <c r="BE17" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="BF17" t="n">
         <v>10</v>
       </c>
       <c r="BG17" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="BH17" t="inlineStr">
         <is>
-          <t>2026-02-26 01:19:12</t>
+          <t>2026-02-26 03:36:31</t>
         </is>
       </c>
     </row>
@@ -3869,7 +3869,7 @@
         <v>1.78</v>
       </c>
       <c r="G18" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="H18" t="n">
         <v>4.2</v>
@@ -3884,7 +3884,7 @@
         <v>4.5</v>
       </c>
       <c r="L18" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="M18" t="n">
         <v>1.05</v>
@@ -3917,7 +3917,7 @@
         <v>1.26</v>
       </c>
       <c r="W18" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="X18" t="n">
         <v>980</v>
@@ -4029,7 +4029,7 @@
       </c>
       <c r="BH18" t="inlineStr">
         <is>
-          <t>2026-02-26 01:19:12</t>
+          <t>2026-02-26 03:36:31</t>
         </is>
       </c>
     </row>
@@ -4060,91 +4060,91 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>4</v>
+        <v>4.6</v>
       </c>
       <c r="G19" t="n">
-        <v>6.2</v>
+        <v>5.6</v>
       </c>
       <c r="H19" t="n">
-        <v>1.71</v>
+        <v>1.81</v>
       </c>
       <c r="I19" t="n">
-        <v>2.18</v>
+        <v>1.99</v>
       </c>
       <c r="J19" t="n">
         <v>3.2</v>
       </c>
       <c r="K19" t="n">
-        <v>5.1</v>
+        <v>4</v>
       </c>
       <c r="L19" t="n">
         <v>1.35</v>
       </c>
       <c r="M19" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N19" t="n">
-        <v>2.66</v>
+        <v>3.25</v>
       </c>
       <c r="O19" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="P19" t="n">
-        <v>1.63</v>
+        <v>1.77</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.9</v>
+        <v>2.08</v>
       </c>
       <c r="R19" t="n">
-        <v>1.24</v>
+        <v>1.28</v>
       </c>
       <c r="S19" t="n">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="T19" t="n">
-        <v>1.69</v>
+        <v>1.92</v>
       </c>
       <c r="U19" t="n">
-        <v>1.72</v>
+        <v>1.89</v>
       </c>
       <c r="V19" t="n">
-        <v>1.84</v>
+        <v>2</v>
       </c>
       <c r="W19" t="n">
-        <v>1.19</v>
+        <v>1.21</v>
       </c>
       <c r="X19" t="n">
-        <v>15.5</v>
+        <v>13</v>
       </c>
       <c r="Y19" t="n">
-        <v>1000</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Z19" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AA19" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AB19" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AC19" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="AD19" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AE19" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AF19" t="n">
         <v>1000</v>
       </c>
       <c r="AG19" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AH19" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AI19" t="n">
         <v>1000</v>
@@ -4165,65 +4165,65 @@
         <v>1000</v>
       </c>
       <c r="AO19" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AP19" t="n">
-        <v>1.01</v>
+        <v>10.5</v>
       </c>
       <c r="AQ19" t="n">
-        <v>1.08</v>
+        <v>6.8</v>
       </c>
       <c r="AR19" t="n">
-        <v>1.08</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AS19" t="n">
-        <v>1.08</v>
+        <v>18</v>
       </c>
       <c r="AT19" t="n">
-        <v>1.08</v>
+        <v>13</v>
       </c>
       <c r="AU19" t="n">
-        <v>1.08</v>
+        <v>7</v>
       </c>
       <c r="AV19" t="n">
-        <v>1.08</v>
+        <v>9</v>
       </c>
       <c r="AW19" t="n">
-        <v>1.08</v>
+        <v>18</v>
       </c>
       <c r="AX19" t="n">
-        <v>1.08</v>
+        <v>7</v>
       </c>
       <c r="AY19" t="n">
-        <v>1.08</v>
+        <v>17</v>
       </c>
       <c r="AZ19" t="n">
-        <v>1.08</v>
+        <v>18</v>
       </c>
       <c r="BA19" t="n">
-        <v>1.08</v>
+        <v>7.2</v>
       </c>
       <c r="BB19" t="n">
-        <v>1.08</v>
+        <v>8</v>
       </c>
       <c r="BC19" t="n">
-        <v>1.08</v>
+        <v>7.8</v>
       </c>
       <c r="BD19" t="n">
-        <v>1.08</v>
+        <v>7.8</v>
       </c>
       <c r="BE19" t="n">
-        <v>1.08</v>
+        <v>8</v>
       </c>
       <c r="BF19" t="n">
-        <v>1.08</v>
+        <v>8</v>
       </c>
       <c r="BG19" t="n">
-        <v>1.08</v>
+        <v>11.5</v>
       </c>
       <c r="BH19" t="inlineStr">
         <is>
-          <t>2026-02-26 01:19:12</t>
+          <t>2026-02-26 03:36:31</t>
         </is>
       </c>
     </row>
@@ -4254,7 +4254,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="G20" t="n">
         <v>1.46</v>
@@ -4284,10 +4284,10 @@
         <v>1.28</v>
       </c>
       <c r="P20" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="R20" t="n">
         <v>1.43</v>
@@ -4299,7 +4299,7 @@
         <v>2.08</v>
       </c>
       <c r="U20" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="V20" t="n">
         <v>1.11</v>
@@ -4317,16 +4317,16 @@
         <v>100</v>
       </c>
       <c r="AA20" t="n">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="AB20" t="n">
-        <v>9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC20" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AD20" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AE20" t="n">
         <v>180</v>
@@ -4335,10 +4335,10 @@
         <v>9.6</v>
       </c>
       <c r="AG20" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AH20" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AI20" t="n">
         <v>150</v>
@@ -4347,7 +4347,7 @@
         <v>12</v>
       </c>
       <c r="AK20" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AL20" t="n">
         <v>48</v>
@@ -4356,7 +4356,7 @@
         <v>190</v>
       </c>
       <c r="AN20" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AO20" t="n">
         <v>260</v>
@@ -4365,13 +4365,13 @@
         <v>15</v>
       </c>
       <c r="AQ20" t="n">
-        <v>5.1</v>
+        <v>7.8</v>
       </c>
       <c r="AR20" t="n">
-        <v>5.8</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AS20" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AT20" t="n">
         <v>7.2</v>
@@ -4380,10 +4380,10 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AV20" t="n">
-        <v>5.3</v>
+        <v>8</v>
       </c>
       <c r="AW20" t="n">
-        <v>5.9</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AX20" t="n">
         <v>7.4</v>
@@ -4392,10 +4392,10 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AZ20" t="n">
-        <v>5.1</v>
+        <v>7.4</v>
       </c>
       <c r="BA20" t="n">
-        <v>5.9</v>
+        <v>9.6</v>
       </c>
       <c r="BB20" t="n">
         <v>10.5</v>
@@ -4404,20 +4404,20 @@
         <v>14</v>
       </c>
       <c r="BD20" t="n">
-        <v>5.4</v>
+        <v>8.4</v>
       </c>
       <c r="BE20" t="n">
-        <v>6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="BF20" t="n">
         <v>5.5</v>
       </c>
       <c r="BG20" t="n">
-        <v>6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="BH20" t="inlineStr">
         <is>
-          <t>2026-02-26 01:19:12</t>
+          <t>2026-02-26 03:36:31</t>
         </is>
       </c>
     </row>
@@ -4448,22 +4448,22 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="G21" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H21" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="I21" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="J21" t="n">
         <v>6.8</v>
       </c>
       <c r="K21" t="n">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="L21" t="n">
         <v>1.01</v>
@@ -4490,10 +4490,10 @@
         <v>2.7</v>
       </c>
       <c r="T21" t="n">
-        <v>2.44</v>
+        <v>2.36</v>
       </c>
       <c r="U21" t="n">
-        <v>1.56</v>
+        <v>1.59</v>
       </c>
       <c r="V21" t="n">
         <v>5.1</v>
@@ -4517,37 +4517,37 @@
         <v>55</v>
       </c>
       <c r="AC21" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AD21" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AE21" t="n">
         <v>16.5</v>
       </c>
       <c r="AF21" t="n">
-        <v>270</v>
+        <v>240</v>
       </c>
       <c r="AG21" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AH21" t="n">
+        <v>980</v>
+      </c>
+      <c r="AI21" t="n">
         <v>55</v>
       </c>
-      <c r="AI21" t="n">
-        <v>65</v>
-      </c>
       <c r="AJ21" t="n">
         <v>1000</v>
       </c>
       <c r="AK21" t="n">
-        <v>580</v>
+        <v>510</v>
       </c>
       <c r="AL21" t="n">
-        <v>400</v>
+        <v>360</v>
       </c>
       <c r="AM21" t="n">
-        <v>410</v>
+        <v>370</v>
       </c>
       <c r="AN21" t="n">
         <v>1000</v>
@@ -4568,7 +4568,7 @@
         <v>7.4</v>
       </c>
       <c r="AT21" t="n">
-        <v>5.7</v>
+        <v>6.4</v>
       </c>
       <c r="AU21" t="n">
         <v>14.5</v>
@@ -4580,38 +4580,38 @@
         <v>13</v>
       </c>
       <c r="AX21" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY21" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AZ21" t="n">
         <v>6.2</v>
       </c>
-      <c r="AY21" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="AZ21" t="n">
-        <v>5.7</v>
-      </c>
       <c r="BA21" t="n">
-        <v>5.8</v>
+        <v>6.4</v>
       </c>
       <c r="BB21" t="n">
-        <v>6.4</v>
+        <v>7.2</v>
       </c>
       <c r="BC21" t="n">
-        <v>6.2</v>
+        <v>7</v>
       </c>
       <c r="BD21" t="n">
-        <v>6.2</v>
+        <v>7</v>
       </c>
       <c r="BE21" t="n">
-        <v>6.2</v>
+        <v>7</v>
       </c>
       <c r="BF21" t="n">
-        <v>6.4</v>
+        <v>7</v>
       </c>
       <c r="BG21" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="BH21" t="inlineStr">
         <is>
-          <t>2026-02-26 01:19:12</t>
+          <t>2026-02-26 03:36:31</t>
         </is>
       </c>
     </row>
@@ -4648,7 +4648,7 @@
         <v>1.95</v>
       </c>
       <c r="H22" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="I22" t="n">
         <v>4.3</v>
@@ -4666,7 +4666,7 @@
         <v>1.04</v>
       </c>
       <c r="N22" t="n">
-        <v>1.1</v>
+        <v>3.7</v>
       </c>
       <c r="O22" t="n">
         <v>1.22</v>
@@ -4678,16 +4678,16 @@
         <v>1.65</v>
       </c>
       <c r="R22" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="S22" t="n">
-        <v>2.44</v>
+        <v>2.68</v>
       </c>
       <c r="T22" t="n">
-        <v>1.58</v>
+        <v>1.67</v>
       </c>
       <c r="U22" t="n">
-        <v>1.89</v>
+        <v>2.14</v>
       </c>
       <c r="V22" t="n">
         <v>1.31</v>
@@ -4699,7 +4699,7 @@
         <v>22</v>
       </c>
       <c r="Y22" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="Z22" t="n">
         <v>36</v>
@@ -4708,7 +4708,7 @@
         <v>100</v>
       </c>
       <c r="AB22" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AC22" t="n">
         <v>10.5</v>
@@ -4720,7 +4720,7 @@
         <v>50</v>
       </c>
       <c r="AF22" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="AG22" t="n">
         <v>11</v>
@@ -4732,7 +4732,7 @@
         <v>55</v>
       </c>
       <c r="AJ22" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AK22" t="n">
         <v>19</v>
@@ -4744,7 +4744,7 @@
         <v>85</v>
       </c>
       <c r="AN22" t="n">
-        <v>10.5</v>
+        <v>980</v>
       </c>
       <c r="AO22" t="n">
         <v>44</v>
@@ -4759,7 +4759,7 @@
         <v>7.2</v>
       </c>
       <c r="AS22" t="n">
-        <v>6</v>
+        <v>4.9</v>
       </c>
       <c r="AT22" t="n">
         <v>9.199999999999999</v>
@@ -4768,10 +4768,10 @@
         <v>8.4</v>
       </c>
       <c r="AV22" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="AW22" t="n">
-        <v>5.8</v>
+        <v>7.6</v>
       </c>
       <c r="AX22" t="n">
         <v>10.5</v>
@@ -4780,10 +4780,10 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AZ22" t="n">
-        <v>4.9</v>
+        <v>14</v>
       </c>
       <c r="BA22" t="n">
-        <v>5.8</v>
+        <v>4.7</v>
       </c>
       <c r="BB22" t="n">
         <v>17</v>
@@ -4795,17 +4795,17 @@
         <v>7</v>
       </c>
       <c r="BE22" t="n">
-        <v>6</v>
+        <v>4.8</v>
       </c>
       <c r="BF22" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="BG22" t="n">
-        <v>6</v>
+        <v>16.5</v>
       </c>
       <c r="BH22" t="inlineStr">
         <is>
-          <t>2026-02-26 01:19:12</t>
+          <t>2026-02-26 03:36:31</t>
         </is>
       </c>
     </row>
@@ -4839,10 +4839,10 @@
         <v>2.9</v>
       </c>
       <c r="G23" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="H23" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="I23" t="n">
         <v>2.54</v>
@@ -4851,25 +4851,25 @@
         <v>3.6</v>
       </c>
       <c r="K23" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="L23" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="M23" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N23" t="n">
-        <v>2.22</v>
+        <v>4.2</v>
       </c>
       <c r="O23" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="P23" t="n">
         <v>2.2</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="R23" t="n">
         <v>1.44</v>
@@ -4878,7 +4878,7 @@
         <v>2.88</v>
       </c>
       <c r="T23" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="U23" t="n">
         <v>2.32</v>
@@ -4965,10 +4965,10 @@
         <v>10</v>
       </c>
       <c r="AW23" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AX23" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AY23" t="n">
         <v>11</v>
@@ -4983,7 +4983,7 @@
         <v>7.4</v>
       </c>
       <c r="BC23" t="n">
-        <v>24</v>
+        <v>6.8</v>
       </c>
       <c r="BD23" t="n">
         <v>7</v>
@@ -4999,7 +4999,7 @@
       </c>
       <c r="BH23" t="inlineStr">
         <is>
-          <t>2026-02-26 01:19:12</t>
+          <t>2026-02-26 03:36:31</t>
         </is>
       </c>
     </row>
@@ -5030,91 +5030,91 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.1</v>
+        <v>2.36</v>
       </c>
       <c r="G24" t="n">
-        <v>2.6</v>
+        <v>2.46</v>
       </c>
       <c r="H24" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="I24" t="n">
-        <v>3.9</v>
+        <v>3.4</v>
       </c>
       <c r="J24" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K24" t="n">
-        <v>4.3</v>
+        <v>3.8</v>
       </c>
       <c r="L24" t="n">
         <v>1.39</v>
       </c>
       <c r="M24" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N24" t="n">
-        <v>1.1</v>
+        <v>3.85</v>
       </c>
       <c r="O24" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="P24" t="n">
         <v>1.97</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="R24" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="S24" t="n">
-        <v>2.88</v>
+        <v>3.35</v>
       </c>
       <c r="T24" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="U24" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="V24" t="n">
-        <v>1.35</v>
+        <v>1.42</v>
       </c>
       <c r="W24" t="n">
-        <v>1.62</v>
+        <v>1.68</v>
       </c>
       <c r="X24" t="n">
         <v>1000</v>
       </c>
       <c r="Y24" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="Z24" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AA24" t="n">
         <v>1000</v>
       </c>
       <c r="AB24" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AC24" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="AD24" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AE24" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AF24" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AG24" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AH24" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AI24" t="n">
         <v>1000</v>
@@ -5123,77 +5123,77 @@
         <v>1000</v>
       </c>
       <c r="AK24" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AL24" t="n">
         <v>1000</v>
       </c>
       <c r="AM24" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AN24" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AO24" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AP24" t="n">
-        <v>1.01</v>
+        <v>5.2</v>
       </c>
       <c r="AQ24" t="n">
-        <v>1.01</v>
+        <v>11</v>
       </c>
       <c r="AR24" t="n">
-        <v>1.01</v>
+        <v>19.5</v>
       </c>
       <c r="AS24" t="n">
-        <v>1.01</v>
+        <v>7.2</v>
       </c>
       <c r="AT24" t="n">
-        <v>1.01</v>
+        <v>9.6</v>
       </c>
       <c r="AU24" t="n">
-        <v>1.01</v>
+        <v>7.2</v>
       </c>
       <c r="AV24" t="n">
-        <v>1.01</v>
+        <v>11.5</v>
       </c>
       <c r="AW24" t="n">
-        <v>1.01</v>
+        <v>6.8</v>
       </c>
       <c r="AX24" t="n">
-        <v>1.01</v>
+        <v>13.5</v>
       </c>
       <c r="AY24" t="n">
-        <v>1.01</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AZ24" t="n">
-        <v>1.01</v>
+        <v>5.8</v>
       </c>
       <c r="BA24" t="n">
-        <v>1.01</v>
+        <v>6.8</v>
       </c>
       <c r="BB24" t="n">
-        <v>1.01</v>
+        <v>6.6</v>
       </c>
       <c r="BC24" t="n">
-        <v>1.01</v>
+        <v>21</v>
       </c>
       <c r="BD24" t="n">
-        <v>1.01</v>
+        <v>6.6</v>
       </c>
       <c r="BE24" t="n">
-        <v>1.01</v>
+        <v>7.6</v>
       </c>
       <c r="BF24" t="n">
-        <v>1.01</v>
+        <v>14</v>
       </c>
       <c r="BG24" t="n">
-        <v>1.01</v>
+        <v>6.6</v>
       </c>
       <c r="BH24" t="inlineStr">
         <is>
-          <t>2026-02-26 01:19:12</t>
+          <t>2026-02-26 03:36:31</t>
         </is>
       </c>
     </row>
@@ -5224,58 +5224,58 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.84</v>
+        <v>2.04</v>
       </c>
       <c r="G25" t="n">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="H25" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="I25" t="n">
-        <v>4.7</v>
+        <v>3.9</v>
       </c>
       <c r="J25" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K25" t="n">
-        <v>7.8</v>
+        <v>4.2</v>
       </c>
       <c r="L25" t="n">
         <v>1.01</v>
       </c>
       <c r="M25" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N25" t="n">
-        <v>2.34</v>
+        <v>4.6</v>
       </c>
       <c r="O25" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="P25" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="Q25" t="n">
         <v>1.69</v>
       </c>
       <c r="R25" t="n">
-        <v>1.39</v>
+        <v>1.49</v>
       </c>
       <c r="S25" t="n">
-        <v>2.52</v>
+        <v>2.74</v>
       </c>
       <c r="T25" t="n">
-        <v>1.52</v>
+        <v>1.63</v>
       </c>
       <c r="U25" t="n">
-        <v>2.08</v>
+        <v>2.36</v>
       </c>
       <c r="V25" t="n">
-        <v>1.27</v>
+        <v>1.35</v>
       </c>
       <c r="W25" t="n">
-        <v>1.71</v>
+        <v>1.83</v>
       </c>
       <c r="X25" t="n">
         <v>1000</v>
@@ -5290,25 +5290,25 @@
         <v>1000</v>
       </c>
       <c r="AB25" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AC25" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="AD25" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AE25" t="n">
         <v>1000</v>
       </c>
       <c r="AF25" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AG25" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AH25" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AI25" t="n">
         <v>1000</v>
@@ -5326,68 +5326,68 @@
         <v>1000</v>
       </c>
       <c r="AN25" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AO25" t="n">
         <v>1000</v>
       </c>
       <c r="AP25" t="n">
-        <v>1.01</v>
+        <v>17</v>
       </c>
       <c r="AQ25" t="n">
-        <v>1.01</v>
+        <v>14.5</v>
       </c>
       <c r="AR25" t="n">
-        <v>1.01</v>
+        <v>8.6</v>
       </c>
       <c r="AS25" t="n">
-        <v>1.01</v>
+        <v>10.5</v>
       </c>
       <c r="AT25" t="n">
-        <v>1.01</v>
+        <v>10.5</v>
       </c>
       <c r="AU25" t="n">
-        <v>1.01</v>
+        <v>8</v>
       </c>
       <c r="AV25" t="n">
-        <v>1.01</v>
+        <v>13</v>
       </c>
       <c r="AW25" t="n">
-        <v>1.01</v>
+        <v>9.4</v>
       </c>
       <c r="AX25" t="n">
-        <v>1.01</v>
+        <v>13</v>
       </c>
       <c r="AY25" t="n">
-        <v>1.01</v>
+        <v>9.6</v>
       </c>
       <c r="AZ25" t="n">
-        <v>1.01</v>
+        <v>14</v>
       </c>
       <c r="BA25" t="n">
-        <v>1.01</v>
+        <v>9.6</v>
       </c>
       <c r="BB25" t="n">
-        <v>1.01</v>
+        <v>8.4</v>
       </c>
       <c r="BC25" t="n">
-        <v>1.01</v>
+        <v>7.8</v>
       </c>
       <c r="BD25" t="n">
-        <v>1.01</v>
+        <v>9</v>
       </c>
       <c r="BE25" t="n">
-        <v>1.01</v>
+        <v>10.5</v>
       </c>
       <c r="BF25" t="n">
-        <v>1.01</v>
+        <v>9</v>
       </c>
       <c r="BG25" t="n">
-        <v>1.01</v>
+        <v>9</v>
       </c>
       <c r="BH25" t="inlineStr">
         <is>
-          <t>2026-02-26 01:19:12</t>
+          <t>2026-02-26 03:36:31</t>
         </is>
       </c>
     </row>
@@ -5418,22 +5418,22 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>3.35</v>
+        <v>3.55</v>
       </c>
       <c r="G26" t="n">
-        <v>5.1</v>
+        <v>4.5</v>
       </c>
       <c r="H26" t="n">
-        <v>1.86</v>
+        <v>1.94</v>
       </c>
       <c r="I26" t="n">
-        <v>2.36</v>
+        <v>2.18</v>
       </c>
       <c r="J26" t="n">
-        <v>3.35</v>
+        <v>3.6</v>
       </c>
       <c r="K26" t="n">
-        <v>6.2</v>
+        <v>4.3</v>
       </c>
       <c r="L26" t="n">
         <v>1.01</v>
@@ -5466,10 +5466,10 @@
         <v>1.01</v>
       </c>
       <c r="V26" t="n">
-        <v>1.74</v>
+        <v>1.84</v>
       </c>
       <c r="W26" t="n">
-        <v>1.24</v>
+        <v>1.28</v>
       </c>
       <c r="X26" t="n">
         <v>1000</v>
@@ -5581,7 +5581,7 @@
       </c>
       <c r="BH26" t="inlineStr">
         <is>
-          <t>2026-02-26 01:19:12</t>
+          <t>2026-02-26 03:36:31</t>
         </is>
       </c>
     </row>
@@ -5618,7 +5618,7 @@
         <v>2.06</v>
       </c>
       <c r="H27" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="I27" t="n">
         <v>4.7</v>
@@ -5633,31 +5633,31 @@
         <v>1.29</v>
       </c>
       <c r="M27" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N27" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="O27" t="n">
         <v>1.3</v>
       </c>
       <c r="P27" t="n">
-        <v>1.83</v>
+        <v>1.96</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.73</v>
+        <v>1.88</v>
       </c>
       <c r="R27" t="n">
-        <v>1.24</v>
+        <v>1.36</v>
       </c>
       <c r="S27" t="n">
-        <v>2.22</v>
+        <v>3.25</v>
       </c>
       <c r="T27" t="n">
-        <v>1.05</v>
+        <v>1.74</v>
       </c>
       <c r="U27" t="n">
-        <v>1.05</v>
+        <v>2.06</v>
       </c>
       <c r="V27" t="n">
         <v>1.27</v>
@@ -5669,7 +5669,7 @@
         <v>1000</v>
       </c>
       <c r="Y27" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="Z27" t="n">
         <v>1000</v>
@@ -5678,10 +5678,10 @@
         <v>1000</v>
       </c>
       <c r="AB27" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AC27" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="AD27" t="n">
         <v>1000</v>
@@ -5693,7 +5693,7 @@
         <v>1000</v>
       </c>
       <c r="AG27" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AH27" t="n">
         <v>1000</v>
@@ -5714,68 +5714,68 @@
         <v>1000</v>
       </c>
       <c r="AN27" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AO27" t="n">
         <v>1000</v>
       </c>
       <c r="AP27" t="n">
-        <v>1.01</v>
+        <v>5.6</v>
       </c>
       <c r="AQ27" t="n">
-        <v>1.01</v>
+        <v>5.8</v>
       </c>
       <c r="AR27" t="n">
-        <v>1.01</v>
+        <v>26</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.01</v>
+        <v>7.8</v>
       </c>
       <c r="AT27" t="n">
-        <v>1.01</v>
+        <v>8</v>
       </c>
       <c r="AU27" t="n">
-        <v>1.01</v>
+        <v>7.4</v>
       </c>
       <c r="AV27" t="n">
-        <v>1.01</v>
+        <v>5.8</v>
       </c>
       <c r="AW27" t="n">
-        <v>1.01</v>
+        <v>7.4</v>
       </c>
       <c r="AX27" t="n">
-        <v>1.01</v>
+        <v>10.5</v>
       </c>
       <c r="AY27" t="n">
-        <v>1.01</v>
+        <v>4.8</v>
       </c>
       <c r="AZ27" t="n">
-        <v>1.01</v>
+        <v>5.9</v>
       </c>
       <c r="BA27" t="n">
-        <v>1.01</v>
+        <v>7.4</v>
       </c>
       <c r="BB27" t="n">
-        <v>1.01</v>
+        <v>6.2</v>
       </c>
       <c r="BC27" t="n">
-        <v>1.01</v>
+        <v>6</v>
       </c>
       <c r="BD27" t="n">
-        <v>1.01</v>
+        <v>7</v>
       </c>
       <c r="BE27" t="n">
-        <v>1.01</v>
+        <v>8</v>
       </c>
       <c r="BF27" t="n">
-        <v>1.01</v>
+        <v>10.5</v>
       </c>
       <c r="BG27" t="n">
-        <v>1.01</v>
+        <v>40</v>
       </c>
       <c r="BH27" t="inlineStr">
         <is>
-          <t>2026-02-26 01:19:12</t>
+          <t>2026-02-26 03:36:31</t>
         </is>
       </c>
     </row>
@@ -5806,22 +5806,22 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="G28" t="n">
-        <v>2.98</v>
+        <v>2.92</v>
       </c>
       <c r="H28" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="I28" t="n">
-        <v>2.76</v>
+        <v>2.74</v>
       </c>
       <c r="J28" t="n">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="K28" t="n">
-        <v>4.8</v>
+        <v>4.3</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -5836,7 +5836,7 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="Q28" t="n">
         <v>1.59</v>
@@ -5969,7 +5969,7 @@
       </c>
       <c r="BH28" t="inlineStr">
         <is>
-          <t>2026-02-26 01:19:12</t>
+          <t>2026-02-26 03:36:31</t>
         </is>
       </c>
     </row>
@@ -6012,7 +6012,7 @@
         <v>6.8</v>
       </c>
       <c r="J29" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K29" t="n">
         <v>4</v>
@@ -6030,13 +6030,13 @@
         <v>1.38</v>
       </c>
       <c r="P29" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="Q29" t="n">
         <v>2.14</v>
       </c>
       <c r="R29" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="S29" t="n">
         <v>3.9</v>
@@ -6045,7 +6045,7 @@
         <v>2.06</v>
       </c>
       <c r="U29" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="V29" t="n">
         <v>1.17</v>
@@ -6063,7 +6063,7 @@
         <v>980</v>
       </c>
       <c r="AA29" t="n">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="AB29" t="n">
         <v>7.4</v>
@@ -6081,7 +6081,7 @@
         <v>9.6</v>
       </c>
       <c r="AG29" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH29" t="n">
         <v>980</v>
@@ -6096,7 +6096,7 @@
         <v>21</v>
       </c>
       <c r="AL29" t="n">
-        <v>55</v>
+        <v>980</v>
       </c>
       <c r="AM29" t="n">
         <v>190</v>
@@ -6114,22 +6114,22 @@
         <v>15.5</v>
       </c>
       <c r="AR29" t="n">
-        <v>9.4</v>
+        <v>10</v>
       </c>
       <c r="AS29" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AT29" t="n">
         <v>6.4</v>
       </c>
       <c r="AU29" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AV29" t="n">
         <v>21</v>
       </c>
       <c r="AW29" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="AX29" t="n">
         <v>8.199999999999999</v>
@@ -6141,7 +6141,7 @@
         <v>20</v>
       </c>
       <c r="BA29" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="BB29" t="n">
         <v>15</v>
@@ -6150,20 +6150,20 @@
         <v>17.5</v>
       </c>
       <c r="BD29" t="n">
-        <v>9.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="BE29" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="BF29" t="n">
         <v>11</v>
       </c>
       <c r="BG29" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="BH29" t="inlineStr">
         <is>
-          <t>2026-02-26 01:19:12</t>
+          <t>2026-02-26 03:36:31</t>
         </is>
       </c>
     </row>
@@ -6357,7 +6357,7 @@
       </c>
       <c r="BH30" t="inlineStr">
         <is>
-          <t>2026-02-26 01:19:12</t>
+          <t>2026-02-26 03:36:31</t>
         </is>
       </c>
     </row>
@@ -6388,7 +6388,7 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="G31" t="n">
         <v>2.12</v>
@@ -6397,7 +6397,7 @@
         <v>4.2</v>
       </c>
       <c r="I31" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="J31" t="n">
         <v>3.25</v>
@@ -6412,7 +6412,7 @@
         <v>1.1</v>
       </c>
       <c r="N31" t="n">
-        <v>2.84</v>
+        <v>2.92</v>
       </c>
       <c r="O31" t="n">
         <v>1.44</v>
@@ -6430,19 +6430,19 @@
         <v>4.2</v>
       </c>
       <c r="T31" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="U31" t="n">
         <v>1.83</v>
       </c>
       <c r="V31" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="W31" t="n">
         <v>1.89</v>
       </c>
       <c r="X31" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Y31" t="n">
         <v>980</v>
@@ -6466,7 +6466,7 @@
         <v>90</v>
       </c>
       <c r="AF31" t="n">
-        <v>14</v>
+        <v>980</v>
       </c>
       <c r="AG31" t="n">
         <v>980</v>
@@ -6496,62 +6496,62 @@
         <v>120</v>
       </c>
       <c r="AP31" t="n">
-        <v>4.3</v>
+        <v>4.8</v>
       </c>
       <c r="AQ31" t="n">
-        <v>4.3</v>
+        <v>5</v>
       </c>
       <c r="AR31" t="n">
-        <v>5.4</v>
+        <v>6.4</v>
       </c>
       <c r="AS31" t="n">
-        <v>4.2</v>
+        <v>2.62</v>
       </c>
       <c r="AT31" t="n">
+        <v>6</v>
+      </c>
+      <c r="AU31" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AV31" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AW31" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AX31" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AY31" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AZ31" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="BA31" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="BB31" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC31" t="n">
         <v>6.2</v>
       </c>
-      <c r="AU31" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="AV31" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="AW31" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="AX31" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="AY31" t="n">
-        <v>4</v>
-      </c>
-      <c r="AZ31" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="BA31" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="BB31" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="BC31" t="n">
-        <v>5.2</v>
-      </c>
       <c r="BD31" t="n">
-        <v>5.6</v>
+        <v>2.88</v>
       </c>
       <c r="BE31" t="n">
-        <v>4.2</v>
+        <v>2.62</v>
       </c>
       <c r="BF31" t="n">
-        <v>5</v>
+        <v>14.5</v>
       </c>
       <c r="BG31" t="n">
-        <v>2.72</v>
+        <v>7.2</v>
       </c>
       <c r="BH31" t="inlineStr">
         <is>
-          <t>2026-02-26 01:19:12</t>
+          <t>2026-02-26 03:36:31</t>
         </is>
       </c>
     </row>
@@ -6745,7 +6745,7 @@
       </c>
       <c r="BH32" t="inlineStr">
         <is>
-          <t>2026-02-26 01:19:12</t>
+          <t>2026-02-26 03:36:31</t>
         </is>
       </c>
     </row>
@@ -6776,22 +6776,22 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.68</v>
+        <v>2.04</v>
       </c>
       <c r="G33" t="n">
-        <v>2.78</v>
+        <v>2.54</v>
       </c>
       <c r="H33" t="n">
-        <v>2.22</v>
+        <v>3.05</v>
       </c>
       <c r="I33" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="J33" t="n">
-        <v>2.84</v>
+        <v>3</v>
       </c>
       <c r="K33" t="n">
-        <v>980</v>
+        <v>3.55</v>
       </c>
       <c r="L33" t="n">
         <v>1.01</v>
@@ -6806,7 +6806,7 @@
         <v>1.01</v>
       </c>
       <c r="P33" t="n">
-        <v>1.52</v>
+        <v>1.63</v>
       </c>
       <c r="Q33" t="n">
         <v>2.24</v>
@@ -6824,7 +6824,7 @@
         <v>1.01</v>
       </c>
       <c r="V33" t="n">
-        <v>1.01</v>
+        <v>1.29</v>
       </c>
       <c r="W33" t="n">
         <v>1.01</v>
@@ -6939,7 +6939,7 @@
       </c>
       <c r="BH33" t="inlineStr">
         <is>
-          <t>2026-02-26 01:19:12</t>
+          <t>2026-02-26 03:36:31</t>
         </is>
       </c>
     </row>
@@ -6970,31 +6970,31 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1.48</v>
+        <v>1.57</v>
       </c>
       <c r="G34" t="n">
-        <v>1.84</v>
+        <v>1.7</v>
       </c>
       <c r="H34" t="n">
-        <v>5.1</v>
+        <v>6</v>
       </c>
       <c r="I34" t="n">
-        <v>9.800000000000001</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J34" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K34" t="n">
-        <v>7.6</v>
+        <v>4.5</v>
       </c>
       <c r="L34" t="n">
         <v>1.01</v>
       </c>
       <c r="M34" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N34" t="n">
-        <v>1.81</v>
+        <v>3.35</v>
       </c>
       <c r="O34" t="n">
         <v>1.35</v>
@@ -7006,134 +7006,134 @@
         <v>2.02</v>
       </c>
       <c r="R34" t="n">
-        <v>1.08</v>
+        <v>1.3</v>
       </c>
       <c r="S34" t="n">
-        <v>2.02</v>
+        <v>3.65</v>
       </c>
       <c r="T34" t="n">
-        <v>1.01</v>
+        <v>2.04</v>
       </c>
       <c r="U34" t="n">
-        <v>1.01</v>
+        <v>1.8</v>
       </c>
       <c r="V34" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="W34" t="n">
-        <v>2.18</v>
+        <v>2.44</v>
       </c>
       <c r="X34" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="Y34" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="Z34" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AA34" t="n">
         <v>1000</v>
       </c>
       <c r="AB34" t="n">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
       <c r="AC34" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AD34" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AE34" t="n">
         <v>1000</v>
       </c>
       <c r="AF34" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AG34" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AH34" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AI34" t="n">
         <v>1000</v>
       </c>
       <c r="AJ34" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AK34" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AL34" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AM34" t="n">
         <v>1000</v>
       </c>
       <c r="AN34" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AO34" t="n">
         <v>1000</v>
       </c>
       <c r="AP34" t="n">
-        <v>1.01</v>
+        <v>10</v>
       </c>
       <c r="AQ34" t="n">
-        <v>1.01</v>
+        <v>15.5</v>
       </c>
       <c r="AR34" t="n">
-        <v>1.01</v>
+        <v>4.8</v>
       </c>
       <c r="AS34" t="n">
-        <v>1.01</v>
+        <v>5.1</v>
       </c>
       <c r="AT34" t="n">
-        <v>1.01</v>
+        <v>5.7</v>
       </c>
       <c r="AU34" t="n">
-        <v>1.01</v>
+        <v>7.2</v>
       </c>
       <c r="AV34" t="n">
-        <v>1.01</v>
+        <v>20</v>
       </c>
       <c r="AW34" t="n">
-        <v>1.01</v>
+        <v>5</v>
       </c>
       <c r="AX34" t="n">
-        <v>1.01</v>
+        <v>7</v>
       </c>
       <c r="AY34" t="n">
-        <v>1.01</v>
+        <v>7.8</v>
       </c>
       <c r="AZ34" t="n">
-        <v>1.01</v>
+        <v>19</v>
       </c>
       <c r="BA34" t="n">
-        <v>1.01</v>
+        <v>5</v>
       </c>
       <c r="BB34" t="n">
-        <v>1.01</v>
+        <v>11.5</v>
       </c>
       <c r="BC34" t="n">
-        <v>1.01</v>
+        <v>14</v>
       </c>
       <c r="BD34" t="n">
-        <v>1.01</v>
+        <v>4.7</v>
       </c>
       <c r="BE34" t="n">
-        <v>1.01</v>
+        <v>5</v>
       </c>
       <c r="BF34" t="n">
-        <v>1.01</v>
+        <v>8.4</v>
       </c>
       <c r="BG34" t="n">
-        <v>1.01</v>
+        <v>5.1</v>
       </c>
       <c r="BH34" t="inlineStr">
         <is>
-          <t>2026-02-26 01:19:12</t>
+          <t>2026-02-26 03:36:31</t>
         </is>
       </c>
     </row>
@@ -7188,7 +7188,7 @@
         <v>1.01</v>
       </c>
       <c r="N35" t="n">
-        <v>2.34</v>
+        <v>1.1</v>
       </c>
       <c r="O35" t="n">
         <v>1.39</v>
@@ -7327,7 +7327,7 @@
       </c>
       <c r="BH35" t="inlineStr">
         <is>
-          <t>2026-02-26 01:19:12</t>
+          <t>2026-02-26 03:36:31</t>
         </is>
       </c>
     </row>
@@ -7364,7 +7364,7 @@
         <v>2.24</v>
       </c>
       <c r="H36" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="I36" t="n">
         <v>5.2</v>
@@ -7373,7 +7373,7 @@
         <v>3.2</v>
       </c>
       <c r="K36" t="n">
-        <v>5.2</v>
+        <v>4.6</v>
       </c>
       <c r="L36" t="n">
         <v>1.01</v>
@@ -7521,7 +7521,7 @@
       </c>
       <c r="BH36" t="inlineStr">
         <is>
-          <t>2026-02-26 01:19:12</t>
+          <t>2026-02-26 03:36:31</t>
         </is>
       </c>
     </row>
@@ -7585,7 +7585,7 @@
         <v>2.3</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -7715,7 +7715,7 @@
       </c>
       <c r="BH37" t="inlineStr">
         <is>
-          <t>2026-02-26 01:19:12</t>
+          <t>2026-02-26 03:36:31</t>
         </is>
       </c>
     </row>
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="G38" t="n">
         <v>3.1</v>
@@ -7761,37 +7761,37 @@
         <v>2.98</v>
       </c>
       <c r="K38" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="L38" t="n">
         <v>1.01</v>
       </c>
       <c r="M38" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="N38" t="n">
-        <v>2.6</v>
+        <v>2.46</v>
       </c>
       <c r="O38" t="n">
-        <v>1.54</v>
+        <v>1.59</v>
       </c>
       <c r="P38" t="n">
-        <v>1.53</v>
+        <v>1.48</v>
       </c>
       <c r="Q38" t="n">
-        <v>2.62</v>
+        <v>2.82</v>
       </c>
       <c r="R38" t="n">
-        <v>1.19</v>
+        <v>1.17</v>
       </c>
       <c r="S38" t="n">
-        <v>5.4</v>
+        <v>5.7</v>
       </c>
       <c r="T38" t="n">
-        <v>2.08</v>
+        <v>2.16</v>
       </c>
       <c r="U38" t="n">
-        <v>1.79</v>
+        <v>1.75</v>
       </c>
       <c r="V38" t="n">
         <v>1.46</v>
@@ -7800,10 +7800,10 @@
         <v>1.48</v>
       </c>
       <c r="X38" t="n">
-        <v>9.199999999999999</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Y38" t="n">
-        <v>11</v>
+        <v>8.6</v>
       </c>
       <c r="Z38" t="n">
         <v>980</v>
@@ -7812,7 +7812,7 @@
         <v>60</v>
       </c>
       <c r="AB38" t="n">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC38" t="n">
         <v>7</v>
@@ -7821,7 +7821,7 @@
         <v>980</v>
       </c>
       <c r="AE38" t="n">
-        <v>980</v>
+        <v>60</v>
       </c>
       <c r="AF38" t="n">
         <v>980</v>
@@ -7830,7 +7830,7 @@
         <v>14.5</v>
       </c>
       <c r="AH38" t="n">
-        <v>980</v>
+        <v>27</v>
       </c>
       <c r="AI38" t="n">
         <v>80</v>
@@ -7842,16 +7842,16 @@
         <v>980</v>
       </c>
       <c r="AL38" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="AM38" t="n">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="AN38" t="n">
+        <v>70</v>
+      </c>
+      <c r="AO38" t="n">
         <v>65</v>
-      </c>
-      <c r="AO38" t="n">
-        <v>70</v>
       </c>
       <c r="AP38" t="n">
         <v>7</v>
@@ -7863,7 +7863,7 @@
         <v>13</v>
       </c>
       <c r="AS38" t="n">
-        <v>7.4</v>
+        <v>10</v>
       </c>
       <c r="AT38" t="n">
         <v>7.2</v>
@@ -7875,7 +7875,7 @@
         <v>12.5</v>
       </c>
       <c r="AW38" t="n">
-        <v>7.2</v>
+        <v>10</v>
       </c>
       <c r="AX38" t="n">
         <v>15.5</v>
@@ -7887,29 +7887,29 @@
         <v>20</v>
       </c>
       <c r="BA38" t="n">
-        <v>7.8</v>
+        <v>10.5</v>
       </c>
       <c r="BB38" t="n">
-        <v>7.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="BC38" t="n">
-        <v>7.2</v>
+        <v>32</v>
       </c>
       <c r="BD38" t="n">
-        <v>7.6</v>
+        <v>60</v>
       </c>
       <c r="BE38" t="n">
-        <v>8.199999999999999</v>
+        <v>11.5</v>
       </c>
       <c r="BF38" t="n">
-        <v>7.6</v>
+        <v>10</v>
       </c>
       <c r="BG38" t="n">
-        <v>7.6</v>
+        <v>10</v>
       </c>
       <c r="BH38" t="inlineStr">
         <is>
-          <t>2026-02-26 01:19:12</t>
+          <t>2026-02-26 03:36:31</t>
         </is>
       </c>
     </row>
@@ -7946,7 +7946,7 @@
         <v>3.3</v>
       </c>
       <c r="H39" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="I39" t="n">
         <v>2.62</v>
@@ -7988,7 +7988,7 @@
         <v>1.96</v>
       </c>
       <c r="V39" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="W39" t="n">
         <v>1.43</v>
@@ -8021,7 +8021,7 @@
         <v>980</v>
       </c>
       <c r="AG39" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AH39" t="n">
         <v>21</v>
@@ -8030,7 +8030,7 @@
         <v>980</v>
       </c>
       <c r="AJ39" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AK39" t="n">
         <v>980</v>
@@ -8042,7 +8042,7 @@
         <v>150</v>
       </c>
       <c r="AN39" t="n">
-        <v>55</v>
+        <v>980</v>
       </c>
       <c r="AO39" t="n">
         <v>980</v>
@@ -8051,7 +8051,7 @@
         <v>10</v>
       </c>
       <c r="AQ39" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AR39" t="n">
         <v>13</v>
@@ -8081,19 +8081,19 @@
         <v>17</v>
       </c>
       <c r="BA39" t="n">
-        <v>8.4</v>
+        <v>9</v>
       </c>
       <c r="BB39" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="BC39" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="BC39" t="n">
-        <v>8.4</v>
-      </c>
       <c r="BD39" t="n">
-        <v>8.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="BE39" t="n">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="BF39" t="n">
         <v>34</v>
@@ -8103,7 +8103,7 @@
       </c>
       <c r="BH39" t="inlineStr">
         <is>
-          <t>2026-02-26 01:19:12</t>
+          <t>2026-02-26 03:36:31</t>
         </is>
       </c>
     </row>
@@ -8134,22 +8134,22 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>2.48</v>
+        <v>2.58</v>
       </c>
       <c r="G40" t="n">
-        <v>2.58</v>
+        <v>2.72</v>
       </c>
       <c r="H40" t="n">
-        <v>3.35</v>
+        <v>3.05</v>
       </c>
       <c r="I40" t="n">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="J40" t="n">
         <v>3.1</v>
       </c>
       <c r="K40" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="L40" t="n">
         <v>1.01</v>
@@ -8158,49 +8158,49 @@
         <v>1.14</v>
       </c>
       <c r="N40" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="O40" t="n">
         <v>1.62</v>
       </c>
       <c r="P40" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="Q40" t="n">
-        <v>2.78</v>
+        <v>2.76</v>
       </c>
       <c r="R40" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="S40" t="n">
         <v>6</v>
       </c>
       <c r="T40" t="n">
-        <v>2.24</v>
+        <v>2.16</v>
       </c>
       <c r="U40" t="n">
-        <v>1.66</v>
+        <v>1.7</v>
       </c>
       <c r="V40" t="n">
-        <v>1.39</v>
+        <v>1.43</v>
       </c>
       <c r="W40" t="n">
-        <v>1.63</v>
+        <v>1.58</v>
       </c>
       <c r="X40" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="Y40" t="n">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z40" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AA40" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AB40" t="n">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
       <c r="AC40" t="n">
         <v>7.6</v>
@@ -8209,22 +8209,22 @@
         <v>16.5</v>
       </c>
       <c r="AE40" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AF40" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AG40" t="n">
         <v>13.5</v>
       </c>
       <c r="AH40" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AI40" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="AJ40" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="AK40" t="n">
         <v>42</v>
@@ -8233,13 +8233,13 @@
         <v>75</v>
       </c>
       <c r="AM40" t="n">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="AN40" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AO40" t="n">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="AP40" t="n">
         <v>7.2</v>
@@ -8248,7 +8248,7 @@
         <v>7.8</v>
       </c>
       <c r="AR40" t="n">
-        <v>19.5</v>
+        <v>17.5</v>
       </c>
       <c r="AS40" t="n">
         <v>10.5</v>
@@ -8263,7 +8263,7 @@
         <v>13.5</v>
       </c>
       <c r="AW40" t="n">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="AX40" t="n">
         <v>12</v>
@@ -8284,20 +8284,20 @@
         <v>29</v>
       </c>
       <c r="BD40" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="BE40" t="n">
         <v>11.5</v>
       </c>
       <c r="BF40" t="n">
-        <v>19.5</v>
+        <v>10</v>
       </c>
       <c r="BG40" t="n">
         <v>10.5</v>
       </c>
       <c r="BH40" t="inlineStr">
         <is>
-          <t>2026-02-26 01:19:12</t>
+          <t>2026-02-26 03:36:31</t>
         </is>
       </c>
     </row>
@@ -8436,16 +8436,16 @@
         <v>1000</v>
       </c>
       <c r="AP41" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="AQ41" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="AR41" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="AS41" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="AT41" t="n">
         <v>9.800000000000001</v>
@@ -8454,44 +8454,44 @@
         <v>7</v>
       </c>
       <c r="AV41" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="AW41" t="n">
         <v>20</v>
       </c>
       <c r="AX41" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="AY41" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="AZ41" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="BA41" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="BB41" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="BC41" t="n">
         <v>21</v>
       </c>
       <c r="BD41" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="BE41" t="n">
         <v>48</v>
       </c>
       <c r="BF41" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="BG41" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="BH41" t="inlineStr">
         <is>
-          <t>2026-02-26 01:19:12</t>
+          <t>2026-02-26 03:36:31</t>
         </is>
       </c>
     </row>
@@ -8522,7 +8522,7 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>6.4</v>
+        <v>7.6</v>
       </c>
       <c r="G42" t="n">
         <v>9.800000000000001</v>
@@ -8537,7 +8537,7 @@
         <v>5.4</v>
       </c>
       <c r="K42" t="n">
-        <v>6.4</v>
+        <v>7</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -8552,10 +8552,10 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>2.94</v>
+        <v>2.86</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -8685,7 +8685,7 @@
       </c>
       <c r="BH42" t="inlineStr">
         <is>
-          <t>2026-02-26 01:19:12</t>
+          <t>2026-02-26 03:36:31</t>
         </is>
       </c>
     </row>
@@ -8719,7 +8719,7 @@
         <v>2.78</v>
       </c>
       <c r="G43" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="H43" t="n">
         <v>2.36</v>
@@ -8770,116 +8770,116 @@
         <v>1.44</v>
       </c>
       <c r="X43" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="Y43" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Z43" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AA43" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AB43" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AC43" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="AD43" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AE43" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AF43" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AG43" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AH43" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI43" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AJ43" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AK43" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL43" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AM43" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AN43" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AO43" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AP43" t="n">
-        <v>1.01</v>
+        <v>5.9</v>
       </c>
       <c r="AQ43" t="n">
-        <v>1.01</v>
+        <v>10</v>
       </c>
       <c r="AR43" t="n">
-        <v>1.01</v>
+        <v>12.5</v>
       </c>
       <c r="AS43" t="n">
-        <v>1.01</v>
+        <v>6.8</v>
       </c>
       <c r="AT43" t="n">
-        <v>1.01</v>
+        <v>11</v>
       </c>
       <c r="AU43" t="n">
-        <v>1.01</v>
+        <v>7.2</v>
       </c>
       <c r="AV43" t="n">
-        <v>1.01</v>
+        <v>10</v>
       </c>
       <c r="AW43" t="n">
-        <v>1.01</v>
+        <v>6.4</v>
       </c>
       <c r="AX43" t="n">
-        <v>1.01</v>
+        <v>6</v>
       </c>
       <c r="AY43" t="n">
-        <v>1.01</v>
+        <v>10</v>
       </c>
       <c r="AZ43" t="n">
-        <v>1.01</v>
+        <v>5.6</v>
       </c>
       <c r="BA43" t="n">
-        <v>1.01</v>
+        <v>6.8</v>
       </c>
       <c r="BB43" t="n">
-        <v>1.01</v>
+        <v>7.2</v>
       </c>
       <c r="BC43" t="n">
-        <v>1.01</v>
+        <v>6.6</v>
       </c>
       <c r="BD43" t="n">
-        <v>1.01</v>
+        <v>7</v>
       </c>
       <c r="BE43" t="n">
-        <v>1.01</v>
+        <v>7.6</v>
       </c>
       <c r="BF43" t="n">
-        <v>1.01</v>
+        <v>19</v>
       </c>
       <c r="BG43" t="n">
-        <v>1.01</v>
+        <v>14</v>
       </c>
       <c r="BH43" t="inlineStr">
         <is>
-          <t>2026-02-26 01:19:12</t>
+          <t>2026-02-26 03:36:31</t>
         </is>
       </c>
     </row>
@@ -8910,19 +8910,19 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="G44" t="n">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="H44" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="I44" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="J44" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="K44" t="n">
         <v>5.6</v>
@@ -9073,7 +9073,7 @@
       </c>
       <c r="BH44" t="inlineStr">
         <is>
-          <t>2026-02-26 01:19:12</t>
+          <t>2026-02-26 03:36:31</t>
         </is>
       </c>
     </row>
@@ -9104,13 +9104,13 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>2.66</v>
+        <v>2.7</v>
       </c>
       <c r="G45" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="H45" t="n">
         <v>2.88</v>
-      </c>
-      <c r="H45" t="n">
-        <v>2.9</v>
       </c>
       <c r="I45" t="n">
         <v>3.15</v>
@@ -9119,7 +9119,7 @@
         <v>3.05</v>
       </c>
       <c r="K45" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="L45" t="n">
         <v>1.01</v>
@@ -9152,37 +9152,37 @@
         <v>1.86</v>
       </c>
       <c r="V45" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="W45" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="X45" t="n">
         <v>10</v>
       </c>
       <c r="Y45" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="Z45" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AA45" t="n">
         <v>70</v>
       </c>
       <c r="AB45" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AC45" t="n">
         <v>7.4</v>
       </c>
       <c r="AD45" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AE45" t="n">
         <v>50</v>
       </c>
       <c r="AF45" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AG45" t="n">
         <v>15</v>
@@ -9200,7 +9200,7 @@
         <v>46</v>
       </c>
       <c r="AL45" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AM45" t="n">
         <v>190</v>
@@ -9209,7 +9209,7 @@
         <v>50</v>
       </c>
       <c r="AO45" t="n">
-        <v>55</v>
+        <v>980</v>
       </c>
       <c r="AP45" t="n">
         <v>8.4</v>
@@ -9221,7 +9221,7 @@
         <v>16.5</v>
       </c>
       <c r="AS45" t="n">
-        <v>5</v>
+        <v>5.8</v>
       </c>
       <c r="AT45" t="n">
         <v>7.6</v>
@@ -9233,7 +9233,7 @@
         <v>12</v>
       </c>
       <c r="AW45" t="n">
-        <v>4.9</v>
+        <v>5.7</v>
       </c>
       <c r="AX45" t="n">
         <v>15</v>
@@ -9245,29 +9245,29 @@
         <v>18.5</v>
       </c>
       <c r="BA45" t="n">
-        <v>5.1</v>
+        <v>5.9</v>
       </c>
       <c r="BB45" t="n">
-        <v>5</v>
+        <v>5.7</v>
       </c>
       <c r="BC45" t="n">
-        <v>4.9</v>
+        <v>5.6</v>
       </c>
       <c r="BD45" t="n">
-        <v>5.1</v>
+        <v>5.8</v>
       </c>
       <c r="BE45" t="n">
-        <v>5.3</v>
+        <v>6.2</v>
       </c>
       <c r="BF45" t="n">
-        <v>4.9</v>
+        <v>30</v>
       </c>
       <c r="BG45" t="n">
-        <v>5</v>
+        <v>5.7</v>
       </c>
       <c r="BH45" t="inlineStr">
         <is>
-          <t>2026-02-26 01:19:12</t>
+          <t>2026-02-26 03:36:31</t>
         </is>
       </c>
     </row>
@@ -9298,16 +9298,16 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>2.96</v>
+        <v>2.9</v>
       </c>
       <c r="G46" t="n">
         <v>3.3</v>
       </c>
       <c r="H46" t="n">
-        <v>2.2</v>
+        <v>2.14</v>
       </c>
       <c r="I46" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="J46" t="n">
         <v>4</v>
@@ -9319,149 +9319,149 @@
         <v>1.01</v>
       </c>
       <c r="M46" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N46" t="n">
-        <v>2.5</v>
+        <v>6.6</v>
       </c>
       <c r="O46" t="n">
-        <v>1.12</v>
+        <v>1.14</v>
       </c>
       <c r="P46" t="n">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.12</v>
+        <v>1.42</v>
       </c>
       <c r="R46" t="n">
-        <v>1.72</v>
+        <v>1.77</v>
       </c>
       <c r="S46" t="n">
-        <v>1.89</v>
+        <v>2.04</v>
       </c>
       <c r="T46" t="n">
-        <v>1.05</v>
+        <v>1.43</v>
       </c>
       <c r="U46" t="n">
-        <v>1.05</v>
+        <v>2.84</v>
       </c>
       <c r="V46" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="W46" t="n">
         <v>1.43</v>
       </c>
       <c r="X46" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Y46" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="Z46" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AA46" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AB46" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AC46" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AD46" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AE46" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AF46" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AG46" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AH46" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AI46" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AJ46" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AK46" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AL46" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AM46" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AN46" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AO46" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AP46" t="n">
-        <v>1.01</v>
+        <v>4.8</v>
       </c>
       <c r="AQ46" t="n">
-        <v>1.01</v>
+        <v>15.5</v>
       </c>
       <c r="AR46" t="n">
-        <v>1.01</v>
+        <v>17</v>
       </c>
       <c r="AS46" t="n">
-        <v>1.01</v>
+        <v>25</v>
       </c>
       <c r="AT46" t="n">
-        <v>1.01</v>
+        <v>18.5</v>
       </c>
       <c r="AU46" t="n">
-        <v>1.01</v>
+        <v>9.6</v>
       </c>
       <c r="AV46" t="n">
-        <v>1.01</v>
+        <v>10.5</v>
       </c>
       <c r="AW46" t="n">
-        <v>1.01</v>
+        <v>17</v>
       </c>
       <c r="AX46" t="n">
-        <v>1.01</v>
+        <v>21</v>
       </c>
       <c r="AY46" t="n">
-        <v>1.01</v>
+        <v>12.5</v>
       </c>
       <c r="AZ46" t="n">
-        <v>1.01</v>
+        <v>12</v>
       </c>
       <c r="BA46" t="n">
-        <v>1.01</v>
+        <v>20</v>
       </c>
       <c r="BB46" t="n">
-        <v>1.01</v>
+        <v>5</v>
       </c>
       <c r="BC46" t="n">
-        <v>1.01</v>
+        <v>21</v>
       </c>
       <c r="BD46" t="n">
-        <v>1.01</v>
+        <v>21</v>
       </c>
       <c r="BE46" t="n">
-        <v>1.01</v>
+        <v>5</v>
       </c>
       <c r="BF46" t="n">
-        <v>1.01</v>
+        <v>11</v>
       </c>
       <c r="BG46" t="n">
-        <v>1.01</v>
+        <v>7</v>
       </c>
       <c r="BH46" t="inlineStr">
         <is>
-          <t>2026-02-26 01:19:12</t>
+          <t>2026-02-26 03:36:31</t>
         </is>
       </c>
     </row>
@@ -9522,7 +9522,7 @@
         <v>1.37</v>
       </c>
       <c r="P47" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="Q47" t="n">
         <v>2.08</v>
@@ -9531,7 +9531,7 @@
         <v>1.29</v>
       </c>
       <c r="S47" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="T47" t="n">
         <v>1.8</v>
@@ -9639,7 +9639,7 @@
         <v>7.8</v>
       </c>
       <c r="BC47" t="n">
-        <v>7.4</v>
+        <v>30</v>
       </c>
       <c r="BD47" t="n">
         <v>7.6</v>
@@ -9655,7 +9655,7 @@
       </c>
       <c r="BH47" t="inlineStr">
         <is>
-          <t>2026-02-26 01:19:12</t>
+          <t>2026-02-26 03:36:31</t>
         </is>
       </c>
     </row>
@@ -9849,7 +9849,7 @@
       </c>
       <c r="BH48" t="inlineStr">
         <is>
-          <t>2026-02-26 01:19:12</t>
+          <t>2026-02-26 03:36:31</t>
         </is>
       </c>
     </row>
@@ -9886,7 +9886,7 @@
         <v>6.8</v>
       </c>
       <c r="H49" t="n">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="I49" t="n">
         <v>1.86</v>
@@ -9895,7 +9895,7 @@
         <v>4.1</v>
       </c>
       <c r="K49" t="n">
-        <v>6</v>
+        <v>950</v>
       </c>
       <c r="L49" t="n">
         <v>1.01</v>
@@ -10043,7 +10043,7 @@
       </c>
       <c r="BH49" t="inlineStr">
         <is>
-          <t>2026-02-26 01:19:12</t>
+          <t>2026-02-26 03:36:31</t>
         </is>
       </c>
     </row>
@@ -10074,22 +10074,22 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>2.18</v>
+        <v>2.12</v>
       </c>
       <c r="G50" t="n">
-        <v>2.4</v>
+        <v>2.36</v>
       </c>
       <c r="H50" t="n">
-        <v>2.82</v>
+        <v>2.94</v>
       </c>
       <c r="I50" t="n">
-        <v>3.2</v>
+        <v>3.55</v>
       </c>
       <c r="J50" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="K50" t="n">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="L50" t="n">
         <v>1.01</v>
@@ -10122,122 +10122,122 @@
         <v>1.01</v>
       </c>
       <c r="V50" t="n">
-        <v>1.45</v>
+        <v>1.39</v>
       </c>
       <c r="W50" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="X50" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="Y50" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="Z50" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AA50" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AB50" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AC50" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AD50" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AE50" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AF50" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AG50" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AH50" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AI50" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AJ50" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AK50" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AL50" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AM50" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AN50" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AO50" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AP50" t="n">
-        <v>1.01</v>
+        <v>14.5</v>
       </c>
       <c r="AQ50" t="n">
-        <v>1.01</v>
+        <v>13</v>
       </c>
       <c r="AR50" t="n">
-        <v>1.01</v>
+        <v>21</v>
       </c>
       <c r="AS50" t="n">
-        <v>1.01</v>
+        <v>3.05</v>
       </c>
       <c r="AT50" t="n">
-        <v>1.01</v>
+        <v>2.8</v>
       </c>
       <c r="AU50" t="n">
-        <v>1.01</v>
+        <v>7</v>
       </c>
       <c r="AV50" t="n">
-        <v>1.01</v>
+        <v>11.5</v>
       </c>
       <c r="AW50" t="n">
-        <v>1.01</v>
+        <v>2.96</v>
       </c>
       <c r="AX50" t="n">
-        <v>1.01</v>
+        <v>12</v>
       </c>
       <c r="AY50" t="n">
-        <v>1.01</v>
+        <v>9.4</v>
       </c>
       <c r="AZ50" t="n">
-        <v>1.01</v>
+        <v>11</v>
       </c>
       <c r="BA50" t="n">
-        <v>1.01</v>
+        <v>2.98</v>
       </c>
       <c r="BB50" t="n">
-        <v>1.01</v>
+        <v>2.94</v>
       </c>
       <c r="BC50" t="n">
-        <v>1.01</v>
+        <v>2.84</v>
       </c>
       <c r="BD50" t="n">
-        <v>1.01</v>
+        <v>19</v>
       </c>
       <c r="BE50" t="n">
-        <v>1.01</v>
+        <v>3.05</v>
       </c>
       <c r="BF50" t="n">
-        <v>1.01</v>
+        <v>6.2</v>
       </c>
       <c r="BG50" t="n">
-        <v>1.01</v>
+        <v>10</v>
       </c>
       <c r="BH50" t="inlineStr">
         <is>
-          <t>2026-02-26 01:19:12</t>
+          <t>2026-02-26 03:36:31</t>
         </is>
       </c>
     </row>
@@ -10268,10 +10268,10 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="G51" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="H51" t="n">
         <v>2.26</v>
@@ -10298,19 +10298,19 @@
         <v>1.15</v>
       </c>
       <c r="P51" t="n">
-        <v>2.78</v>
+        <v>2.76</v>
       </c>
       <c r="Q51" t="n">
         <v>1.47</v>
       </c>
       <c r="R51" t="n">
-        <v>1.6</v>
+        <v>1.72</v>
       </c>
       <c r="S51" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="T51" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="U51" t="n">
         <v>2.72</v>
@@ -10319,7 +10319,7 @@
         <v>1.66</v>
       </c>
       <c r="W51" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="X51" t="n">
         <v>980</v>
@@ -10431,7 +10431,7 @@
       </c>
       <c r="BH51" t="inlineStr">
         <is>
-          <t>2026-02-26 01:19:12</t>
+          <t>2026-02-26 03:36:31</t>
         </is>
       </c>
     </row>
@@ -10462,22 +10462,22 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>3.35</v>
+        <v>3.7</v>
       </c>
       <c r="G52" t="n">
-        <v>5.1</v>
+        <v>4.7</v>
       </c>
       <c r="H52" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="I52" t="n">
-        <v>2.04</v>
+        <v>1.93</v>
       </c>
       <c r="J52" t="n">
         <v>4.3</v>
       </c>
       <c r="K52" t="n">
-        <v>7.8</v>
+        <v>5.8</v>
       </c>
       <c r="L52" t="n">
         <v>1.01</v>
@@ -10486,146 +10486,146 @@
         <v>1.01</v>
       </c>
       <c r="N52" t="n">
-        <v>1.02</v>
+        <v>6.4</v>
       </c>
       <c r="O52" t="n">
-        <v>1.1</v>
+        <v>1.12</v>
       </c>
       <c r="P52" t="n">
-        <v>1.38</v>
+        <v>3.15</v>
       </c>
       <c r="Q52" t="n">
-        <v>1.1</v>
+        <v>1.33</v>
       </c>
       <c r="R52" t="n">
-        <v>1.38</v>
+        <v>1.88</v>
       </c>
       <c r="S52" t="n">
         <v>1.87</v>
       </c>
       <c r="T52" t="n">
-        <v>1.01</v>
+        <v>1.44</v>
       </c>
       <c r="U52" t="n">
-        <v>1.01</v>
+        <v>2.84</v>
       </c>
       <c r="V52" t="n">
-        <v>1.96</v>
+        <v>2.06</v>
       </c>
       <c r="W52" t="n">
-        <v>1.24</v>
+        <v>1.28</v>
       </c>
       <c r="X52" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Y52" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Z52" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AA52" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AB52" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AC52" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AD52" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AE52" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AF52" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AG52" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AH52" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI52" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AJ52" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AK52" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL52" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AM52" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AN52" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AO52" t="n">
-        <v>1000</v>
+        <v>7</v>
       </c>
       <c r="AP52" t="n">
-        <v>1.01</v>
+        <v>4.6</v>
       </c>
       <c r="AQ52" t="n">
-        <v>1.01</v>
+        <v>4.2</v>
       </c>
       <c r="AR52" t="n">
-        <v>1.01</v>
+        <v>4.1</v>
       </c>
       <c r="AS52" t="n">
-        <v>1.01</v>
+        <v>4.3</v>
       </c>
       <c r="AT52" t="n">
-        <v>1.01</v>
+        <v>4.5</v>
       </c>
       <c r="AU52" t="n">
-        <v>1.01</v>
+        <v>3.8</v>
       </c>
       <c r="AV52" t="n">
-        <v>1.01</v>
+        <v>3.75</v>
       </c>
       <c r="AW52" t="n">
-        <v>1.01</v>
+        <v>4</v>
       </c>
       <c r="AX52" t="n">
-        <v>1.01</v>
+        <v>4.6</v>
       </c>
       <c r="AY52" t="n">
-        <v>1.01</v>
+        <v>4.1</v>
       </c>
       <c r="AZ52" t="n">
-        <v>1.01</v>
+        <v>4</v>
       </c>
       <c r="BA52" t="n">
-        <v>1.01</v>
+        <v>4.3</v>
       </c>
       <c r="BB52" t="n">
-        <v>1.01</v>
+        <v>4.9</v>
       </c>
       <c r="BC52" t="n">
-        <v>1.01</v>
+        <v>4.6</v>
       </c>
       <c r="BD52" t="n">
-        <v>1.01</v>
+        <v>4.6</v>
       </c>
       <c r="BE52" t="n">
-        <v>1.01</v>
+        <v>4.7</v>
       </c>
       <c r="BF52" t="n">
-        <v>1.01</v>
+        <v>4.2</v>
       </c>
       <c r="BG52" t="n">
-        <v>1.01</v>
+        <v>4.8</v>
       </c>
       <c r="BH52" t="inlineStr">
         <is>
-          <t>2026-02-26 01:19:12</t>
+          <t>2026-02-26 03:36:31</t>
         </is>
       </c>
     </row>
@@ -10819,7 +10819,7 @@
       </c>
       <c r="BH53" t="inlineStr">
         <is>
-          <t>2026-02-26 01:19:12</t>
+          <t>2026-02-26 03:36:31</t>
         </is>
       </c>
     </row>
@@ -10856,7 +10856,7 @@
         <v>2.74</v>
       </c>
       <c r="H54" t="n">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="I54" t="n">
         <v>3.05</v>
@@ -10865,7 +10865,7 @@
         <v>3.4</v>
       </c>
       <c r="K54" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="L54" t="n">
         <v>1.01</v>
@@ -10880,13 +10880,13 @@
         <v>1.27</v>
       </c>
       <c r="P54" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="Q54" t="n">
         <v>1.78</v>
       </c>
       <c r="R54" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="S54" t="n">
         <v>2.92</v>
@@ -10967,7 +10967,7 @@
         <v>4.8</v>
       </c>
       <c r="AS54" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="AT54" t="n">
         <v>4.2</v>
@@ -10976,13 +10976,13 @@
         <v>6.8</v>
       </c>
       <c r="AV54" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="AW54" t="n">
         <v>5.1</v>
       </c>
       <c r="AX54" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="AY54" t="n">
         <v>4.2</v>
@@ -10994,13 +10994,13 @@
         <v>5.2</v>
       </c>
       <c r="BB54" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="BC54" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD54" t="n">
         <v>5.2</v>
-      </c>
-      <c r="BC54" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="BD54" t="n">
-        <v>5.1</v>
       </c>
       <c r="BE54" t="n">
         <v>5.6</v>
@@ -11009,11 +11009,11 @@
         <v>4.7</v>
       </c>
       <c r="BG54" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="BH54" t="inlineStr">
         <is>
-          <t>2026-02-26 01:19:12</t>
+          <t>2026-02-26 03:36:31</t>
         </is>
       </c>
     </row>
@@ -11047,7 +11047,7 @@
         <v>1.97</v>
       </c>
       <c r="G55" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="H55" t="n">
         <v>3.65</v>
@@ -11095,7 +11095,7 @@
         <v>1.32</v>
       </c>
       <c r="W55" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="X55" t="n">
         <v>980</v>
@@ -11207,7 +11207,7 @@
       </c>
       <c r="BH55" t="inlineStr">
         <is>
-          <t>2026-02-26 01:19:12</t>
+          <t>2026-02-26 03:36:31</t>
         </is>
       </c>
     </row>
@@ -11247,7 +11247,7 @@
         <v>2.58</v>
       </c>
       <c r="I56" t="n">
-        <v>2.86</v>
+        <v>2.84</v>
       </c>
       <c r="J56" t="n">
         <v>3.85</v>
@@ -11262,146 +11262,146 @@
         <v>1.02</v>
       </c>
       <c r="N56" t="n">
-        <v>2.3</v>
+        <v>5.6</v>
       </c>
       <c r="O56" t="n">
-        <v>1.15</v>
+        <v>1.17</v>
       </c>
       <c r="P56" t="n">
-        <v>2.3</v>
+        <v>2.56</v>
       </c>
       <c r="Q56" t="n">
-        <v>1.43</v>
+        <v>1.52</v>
       </c>
       <c r="R56" t="n">
-        <v>1.54</v>
+        <v>1.63</v>
       </c>
       <c r="S56" t="n">
-        <v>2.08</v>
+        <v>2.28</v>
       </c>
       <c r="T56" t="n">
-        <v>1.01</v>
+        <v>1.48</v>
       </c>
       <c r="U56" t="n">
-        <v>1.01</v>
+        <v>2.6</v>
       </c>
       <c r="V56" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="W56" t="n">
         <v>1.58</v>
       </c>
       <c r="X56" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Y56" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="Z56" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AA56" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AB56" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AC56" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AD56" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AE56" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AF56" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AG56" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AH56" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AI56" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AJ56" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AK56" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AL56" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AM56" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AN56" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AO56" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AP56" t="n">
-        <v>1.01</v>
+        <v>21</v>
       </c>
       <c r="AQ56" t="n">
-        <v>1.01</v>
+        <v>15</v>
       </c>
       <c r="AR56" t="n">
-        <v>1.01</v>
+        <v>19</v>
       </c>
       <c r="AS56" t="n">
-        <v>1.01</v>
+        <v>7.2</v>
       </c>
       <c r="AT56" t="n">
-        <v>1.01</v>
+        <v>14</v>
       </c>
       <c r="AU56" t="n">
-        <v>1.01</v>
+        <v>8.6</v>
       </c>
       <c r="AV56" t="n">
-        <v>1.01</v>
+        <v>11</v>
       </c>
       <c r="AW56" t="n">
-        <v>1.01</v>
+        <v>21</v>
       </c>
       <c r="AX56" t="n">
-        <v>1.01</v>
+        <v>17.5</v>
       </c>
       <c r="AY56" t="n">
-        <v>1.01</v>
+        <v>10.5</v>
       </c>
       <c r="AZ56" t="n">
-        <v>1.01</v>
+        <v>12</v>
       </c>
       <c r="BA56" t="n">
-        <v>1.01</v>
+        <v>21</v>
       </c>
       <c r="BB56" t="n">
-        <v>1.01</v>
+        <v>7</v>
       </c>
       <c r="BC56" t="n">
-        <v>1.01</v>
+        <v>19.5</v>
       </c>
       <c r="BD56" t="n">
-        <v>1.01</v>
+        <v>20</v>
       </c>
       <c r="BE56" t="n">
-        <v>1.01</v>
+        <v>7.4</v>
       </c>
       <c r="BF56" t="n">
-        <v>1.01</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="BG56" t="n">
-        <v>1.01</v>
+        <v>11</v>
       </c>
       <c r="BH56" t="inlineStr">
         <is>
-          <t>2026-02-26 01:19:12</t>
+          <t>2026-02-26 03:36:31</t>
         </is>
       </c>
     </row>
@@ -11595,7 +11595,7 @@
       </c>
       <c r="BH57" t="inlineStr">
         <is>
-          <t>2026-02-26 01:19:12</t>
+          <t>2026-02-26 03:36:31</t>
         </is>
       </c>
     </row>
@@ -11662,10 +11662,10 @@
         <v>1.58</v>
       </c>
       <c r="R58" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="S58" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="T58" t="n">
         <v>1.6</v>
@@ -11734,10 +11734,10 @@
         <v>46</v>
       </c>
       <c r="AP58" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AQ58" t="n">
-        <v>16.5</v>
+        <v>18.5</v>
       </c>
       <c r="AR58" t="n">
         <v>4.5</v>
@@ -11746,13 +11746,13 @@
         <v>4.9</v>
       </c>
       <c r="AT58" t="n">
-        <v>9.4</v>
+        <v>10.5</v>
       </c>
       <c r="AU58" t="n">
-        <v>8.800000000000001</v>
+        <v>8</v>
       </c>
       <c r="AV58" t="n">
-        <v>14</v>
+        <v>15.5</v>
       </c>
       <c r="AW58" t="n">
         <v>4.7</v>
@@ -11761,7 +11761,7 @@
         <v>10</v>
       </c>
       <c r="AY58" t="n">
-        <v>8.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AZ58" t="n">
         <v>13</v>
@@ -11770,7 +11770,7 @@
         <v>4.6</v>
       </c>
       <c r="BB58" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="BC58" t="n">
         <v>13</v>
@@ -11789,7 +11789,7 @@
       </c>
       <c r="BH58" t="inlineStr">
         <is>
-          <t>2026-02-26 01:19:12</t>
+          <t>2026-02-26 03:36:31</t>
         </is>
       </c>
     </row>
@@ -11983,7 +11983,7 @@
       </c>
       <c r="BH59" t="inlineStr">
         <is>
-          <t>2026-02-26 01:19:12</t>
+          <t>2026-02-26 03:36:31</t>
         </is>
       </c>
     </row>
@@ -12023,7 +12023,7 @@
         <v>2.74</v>
       </c>
       <c r="I60" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="J60" t="n">
         <v>3.55</v>
@@ -12044,10 +12044,10 @@
         <v>1.26</v>
       </c>
       <c r="P60" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="Q60" t="n">
-        <v>1.66</v>
+        <v>1.69</v>
       </c>
       <c r="R60" t="n">
         <v>1.42</v>
@@ -12062,16 +12062,16 @@
         <v>2.32</v>
       </c>
       <c r="V60" t="n">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="W60" t="n">
         <v>1.58</v>
       </c>
       <c r="X60" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="Y60" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="Z60" t="n">
         <v>22</v>
@@ -12092,13 +12092,13 @@
         <v>32</v>
       </c>
       <c r="AF60" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AG60" t="n">
         <v>13</v>
       </c>
       <c r="AH60" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AI60" t="n">
         <v>40</v>
@@ -12113,7 +12113,7 @@
         <v>38</v>
       </c>
       <c r="AM60" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AN60" t="n">
         <v>22</v>
@@ -12131,7 +12131,7 @@
         <v>17.5</v>
       </c>
       <c r="AS60" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="AT60" t="n">
         <v>10.5</v>
@@ -12158,16 +12158,16 @@
         <v>29</v>
       </c>
       <c r="BB60" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="BC60" t="n">
         <v>20</v>
       </c>
       <c r="BD60" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="BE60" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="BF60" t="n">
         <v>13.5</v>
@@ -12177,7 +12177,7 @@
       </c>
       <c r="BH60" t="inlineStr">
         <is>
-          <t>2026-02-26 01:19:12</t>
+          <t>2026-02-26 03:36:31</t>
         </is>
       </c>
     </row>
@@ -12208,22 +12208,22 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>2.72</v>
+        <v>2.94</v>
       </c>
       <c r="G61" t="n">
-        <v>3.6</v>
+        <v>3.35</v>
       </c>
       <c r="H61" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="I61" t="n">
-        <v>2.92</v>
+        <v>2.7</v>
       </c>
       <c r="J61" t="n">
-        <v>2.76</v>
+        <v>3.25</v>
       </c>
       <c r="K61" t="n">
-        <v>980</v>
+        <v>3.65</v>
       </c>
       <c r="L61" t="n">
         <v>1.01</v>
@@ -12232,37 +12232,37 @@
         <v>1.07</v>
       </c>
       <c r="N61" t="n">
-        <v>2.62</v>
+        <v>3.45</v>
       </c>
       <c r="O61" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P61" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="R61" t="n">
         <v>1.32</v>
       </c>
-      <c r="P61" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="Q61" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="R61" t="n">
-        <v>1.26</v>
-      </c>
       <c r="S61" t="n">
-        <v>3.05</v>
+        <v>3.5</v>
       </c>
       <c r="T61" t="n">
-        <v>1.05</v>
+        <v>1.75</v>
       </c>
       <c r="U61" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="V61" t="n">
-        <v>1.55</v>
+        <v>1.59</v>
       </c>
       <c r="W61" t="n">
-        <v>1.01</v>
+        <v>1.43</v>
       </c>
       <c r="X61" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Y61" t="n">
         <v>1000</v>
@@ -12280,7 +12280,7 @@
         <v>1000</v>
       </c>
       <c r="AD61" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AE61" t="n">
         <v>1000</v>
@@ -12307,7 +12307,7 @@
         <v>1000</v>
       </c>
       <c r="AM61" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AN61" t="n">
         <v>1000</v>
@@ -12316,62 +12316,62 @@
         <v>1000</v>
       </c>
       <c r="AP61" t="n">
-        <v>1.01</v>
+        <v>5.1</v>
       </c>
       <c r="AQ61" t="n">
-        <v>1.01</v>
+        <v>4.5</v>
       </c>
       <c r="AR61" t="n">
-        <v>1.01</v>
+        <v>5.5</v>
       </c>
       <c r="AS61" t="n">
-        <v>1.01</v>
+        <v>6.4</v>
       </c>
       <c r="AT61" t="n">
-        <v>1.01</v>
+        <v>4.7</v>
       </c>
       <c r="AU61" t="n">
-        <v>1.01</v>
+        <v>6.6</v>
       </c>
       <c r="AV61" t="n">
-        <v>1.01</v>
+        <v>4.9</v>
       </c>
       <c r="AW61" t="n">
-        <v>1.01</v>
+        <v>6.2</v>
       </c>
       <c r="AX61" t="n">
-        <v>1.01</v>
+        <v>5.7</v>
       </c>
       <c r="AY61" t="n">
-        <v>1.01</v>
+        <v>4.9</v>
       </c>
       <c r="AZ61" t="n">
-        <v>1.01</v>
+        <v>5.4</v>
       </c>
       <c r="BA61" t="n">
-        <v>1.01</v>
+        <v>6.6</v>
       </c>
       <c r="BB61" t="n">
-        <v>1.01</v>
+        <v>6.6</v>
       </c>
       <c r="BC61" t="n">
-        <v>1.01</v>
+        <v>6.4</v>
       </c>
       <c r="BD61" t="n">
-        <v>1.01</v>
+        <v>6.6</v>
       </c>
       <c r="BE61" t="n">
-        <v>1.01</v>
+        <v>7.2</v>
       </c>
       <c r="BF61" t="n">
-        <v>1.01</v>
+        <v>6.2</v>
       </c>
       <c r="BG61" t="n">
-        <v>1.01</v>
+        <v>5.9</v>
       </c>
       <c r="BH61" t="inlineStr">
         <is>
-          <t>2026-02-26 01:19:12</t>
+          <t>2026-02-26 03:36:31</t>
         </is>
       </c>
     </row>
@@ -12402,22 +12402,22 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>2.42</v>
+        <v>2.64</v>
       </c>
       <c r="G62" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="H62" t="n">
-        <v>2.58</v>
+        <v>2.84</v>
       </c>
       <c r="I62" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="J62" t="n">
         <v>2.62</v>
       </c>
       <c r="K62" t="n">
-        <v>5</v>
+        <v>3.35</v>
       </c>
       <c r="L62" t="n">
         <v>1.43</v>
@@ -12450,10 +12450,10 @@
         <v>1.71</v>
       </c>
       <c r="V62" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="W62" t="n">
-        <v>1.42</v>
+        <v>1.46</v>
       </c>
       <c r="X62" t="n">
         <v>11.5</v>
@@ -12525,7 +12525,7 @@
         <v>3</v>
       </c>
       <c r="AU62" t="n">
-        <v>2.86</v>
+        <v>2.84</v>
       </c>
       <c r="AV62" t="n">
         <v>10</v>
@@ -12546,10 +12546,10 @@
         <v>4</v>
       </c>
       <c r="BB62" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="BC62" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="BD62" t="n">
         <v>4</v>
@@ -12565,7 +12565,7 @@
       </c>
       <c r="BH62" t="inlineStr">
         <is>
-          <t>2026-02-26 01:19:12</t>
+          <t>2026-02-26 03:36:31</t>
         </is>
       </c>
     </row>
@@ -12626,7 +12626,7 @@
         <v>1.26</v>
       </c>
       <c r="P63" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="Q63" t="n">
         <v>1.78</v>
@@ -12698,10 +12698,10 @@
         <v>70</v>
       </c>
       <c r="AN63" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AO63" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AP63" t="n">
         <v>15.5</v>
@@ -12737,7 +12737,7 @@
         <v>14.5</v>
       </c>
       <c r="BA63" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="BB63" t="n">
         <v>27</v>
@@ -12759,7 +12759,7 @@
       </c>
       <c r="BH63" t="inlineStr">
         <is>
-          <t>2026-02-26 01:19:12</t>
+          <t>2026-02-26 03:36:31</t>
         </is>
       </c>
     </row>
@@ -12953,7 +12953,7 @@
       </c>
       <c r="BH64" t="inlineStr">
         <is>
-          <t>2026-02-26 01:19:12</t>
+          <t>2026-02-26 03:36:31</t>
         </is>
       </c>
     </row>
@@ -13147,7 +13147,7 @@
       </c>
       <c r="BH65" t="inlineStr">
         <is>
-          <t>2026-02-26 01:19:12</t>
+          <t>2026-02-26 03:36:31</t>
         </is>
       </c>
     </row>
@@ -13341,7 +13341,7 @@
       </c>
       <c r="BH66" t="inlineStr">
         <is>
-          <t>2026-02-26 01:19:12</t>
+          <t>2026-02-26 03:36:31</t>
         </is>
       </c>
     </row>
@@ -13535,7 +13535,7 @@
       </c>
       <c r="BH67" t="inlineStr">
         <is>
-          <t>2026-02-26 01:19:12</t>
+          <t>2026-02-26 03:36:31</t>
         </is>
       </c>
     </row>
@@ -13572,7 +13572,7 @@
         <v>2.64</v>
       </c>
       <c r="H68" t="n">
-        <v>2.82</v>
+        <v>3</v>
       </c>
       <c r="I68" t="n">
         <v>3.6</v>
@@ -13629,7 +13629,7 @@
         <v>30</v>
       </c>
       <c r="AA68" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AB68" t="n">
         <v>970</v>
@@ -13641,7 +13641,7 @@
         <v>970</v>
       </c>
       <c r="AE68" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AF68" t="n">
         <v>21</v>
@@ -13674,62 +13674,62 @@
         <v>34</v>
       </c>
       <c r="AP68" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="AQ68" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="AR68" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="AS68" t="n">
         <v>4.1</v>
       </c>
       <c r="AT68" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="AU68" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="AV68" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="AW68" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="AX68" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="AY68" t="n">
         <v>3.35</v>
       </c>
       <c r="AZ68" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="BA68" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BB68" t="n">
         <v>4</v>
       </c>
-      <c r="BB68" t="n">
-        <v>3.9</v>
-      </c>
       <c r="BC68" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="BD68" t="n">
+        <v>4</v>
+      </c>
+      <c r="BE68" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="BF68" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BG68" t="n">
         <v>3.95</v>
       </c>
-      <c r="BE68" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="BF68" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="BG68" t="n">
-        <v>3.85</v>
-      </c>
       <c r="BH68" t="inlineStr">
         <is>
-          <t>2026-02-26 01:19:12</t>
+          <t>2026-02-26 03:36:31</t>
         </is>
       </c>
     </row>
@@ -13769,7 +13769,7 @@
         <v>5.6</v>
       </c>
       <c r="I69" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="J69" t="n">
         <v>4.3</v>
@@ -13923,7 +13923,7 @@
       </c>
       <c r="BH69" t="inlineStr">
         <is>
-          <t>2026-02-26 01:19:12</t>
+          <t>2026-02-26 03:36:31</t>
         </is>
       </c>
     </row>
@@ -14014,7 +14014,7 @@
         <v>9.6</v>
       </c>
       <c r="Z70" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AA70" t="n">
         <v>70</v>
@@ -14068,7 +14068,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AR70" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AS70" t="n">
         <v>60</v>
@@ -14077,7 +14077,7 @@
         <v>7.4</v>
       </c>
       <c r="AU70" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="AV70" t="n">
         <v>14.5</v>
@@ -14117,7 +14117,7 @@
       </c>
       <c r="BH70" t="inlineStr">
         <is>
-          <t>2026-02-26 01:19:12</t>
+          <t>2026-02-26 03:36:31</t>
         </is>
       </c>
     </row>
@@ -14148,22 +14148,22 @@
         </is>
       </c>
       <c r="F71" t="n">
-        <v>1.78</v>
+        <v>1.83</v>
       </c>
       <c r="G71" t="n">
-        <v>1.89</v>
+        <v>1.92</v>
       </c>
       <c r="H71" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="I71" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="J71" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="K71" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="L71" t="n">
         <v>1.01</v>
@@ -14172,13 +14172,13 @@
         <v>1.08</v>
       </c>
       <c r="N71" t="n">
-        <v>2.88</v>
+        <v>2.62</v>
       </c>
       <c r="O71" t="n">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="P71" t="n">
-        <v>1.76</v>
+        <v>1.74</v>
       </c>
       <c r="Q71" t="n">
         <v>2.16</v>
@@ -14187,7 +14187,7 @@
         <v>1.24</v>
       </c>
       <c r="S71" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="T71" t="n">
         <v>1.05</v>
@@ -14196,10 +14196,10 @@
         <v>1.05</v>
       </c>
       <c r="V71" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="W71" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="X71" t="n">
         <v>1000</v>
@@ -14311,7 +14311,7 @@
       </c>
       <c r="BH71" t="inlineStr">
         <is>
-          <t>2026-02-26 01:19:12</t>
+          <t>2026-02-26 03:36:31</t>
         </is>
       </c>
     </row>
@@ -14342,22 +14342,22 @@
         </is>
       </c>
       <c r="F72" t="n">
-        <v>1.61</v>
+        <v>1.74</v>
       </c>
       <c r="G72" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="H72" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="I72" t="n">
-        <v>6.4</v>
+        <v>5.8</v>
       </c>
       <c r="J72" t="n">
         <v>3.6</v>
       </c>
       <c r="K72" t="n">
-        <v>8.800000000000001</v>
+        <v>5.7</v>
       </c>
       <c r="L72" t="n">
         <v>1.01</v>
@@ -14366,34 +14366,34 @@
         <v>1.01</v>
       </c>
       <c r="N72" t="n">
-        <v>2.16</v>
+        <v>2.42</v>
       </c>
       <c r="O72" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="P72" t="n">
         <v>2.16</v>
       </c>
       <c r="Q72" t="n">
-        <v>1.47</v>
+        <v>1.59</v>
       </c>
       <c r="R72" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="S72" t="n">
-        <v>2.18</v>
+        <v>2.48</v>
       </c>
       <c r="T72" t="n">
-        <v>1.01</v>
+        <v>1.63</v>
       </c>
       <c r="U72" t="n">
-        <v>1.01</v>
+        <v>2.34</v>
       </c>
       <c r="V72" t="n">
-        <v>1.18</v>
+        <v>1.24</v>
       </c>
       <c r="W72" t="n">
-        <v>2</v>
+        <v>2.16</v>
       </c>
       <c r="X72" t="n">
         <v>1000</v>
@@ -14411,7 +14411,7 @@
         <v>1000</v>
       </c>
       <c r="AC72" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AD72" t="n">
         <v>1000</v>
@@ -14423,7 +14423,7 @@
         <v>1000</v>
       </c>
       <c r="AG72" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AH72" t="n">
         <v>1000</v>
@@ -14444,68 +14444,68 @@
         <v>1000</v>
       </c>
       <c r="AN72" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AO72" t="n">
         <v>1000</v>
       </c>
       <c r="AP72" t="n">
-        <v>1.01</v>
+        <v>3.7</v>
       </c>
       <c r="AQ72" t="n">
-        <v>1.01</v>
+        <v>3.65</v>
       </c>
       <c r="AR72" t="n">
-        <v>1.01</v>
+        <v>3.9</v>
       </c>
       <c r="AS72" t="n">
-        <v>1.01</v>
+        <v>4.1</v>
       </c>
       <c r="AT72" t="n">
-        <v>1.01</v>
+        <v>3.3</v>
       </c>
       <c r="AU72" t="n">
-        <v>1.01</v>
+        <v>3.15</v>
       </c>
       <c r="AV72" t="n">
-        <v>1.01</v>
+        <v>3.55</v>
       </c>
       <c r="AW72" t="n">
-        <v>1.01</v>
+        <v>3.95</v>
       </c>
       <c r="AX72" t="n">
-        <v>1.01</v>
+        <v>3.35</v>
       </c>
       <c r="AY72" t="n">
-        <v>1.01</v>
+        <v>3.2</v>
       </c>
       <c r="AZ72" t="n">
-        <v>1.01</v>
+        <v>3.5</v>
       </c>
       <c r="BA72" t="n">
-        <v>1.01</v>
+        <v>3.95</v>
       </c>
       <c r="BB72" t="n">
-        <v>1.01</v>
+        <v>3.6</v>
       </c>
       <c r="BC72" t="n">
-        <v>1.01</v>
+        <v>3.5</v>
       </c>
       <c r="BD72" t="n">
-        <v>1.01</v>
+        <v>3.75</v>
       </c>
       <c r="BE72" t="n">
-        <v>1.01</v>
+        <v>4</v>
       </c>
       <c r="BF72" t="n">
-        <v>1.01</v>
+        <v>2.96</v>
       </c>
       <c r="BG72" t="n">
-        <v>1.01</v>
+        <v>3.9</v>
       </c>
       <c r="BH72" t="inlineStr">
         <is>
-          <t>2026-02-26 01:19:12</t>
+          <t>2026-02-26 03:36:31</t>
         </is>
       </c>
     </row>
@@ -14536,22 +14536,22 @@
         </is>
       </c>
       <c r="F73" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="G73" t="n">
-        <v>1.95</v>
+        <v>1.87</v>
       </c>
       <c r="H73" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="I73" t="n">
-        <v>7.2</v>
+        <v>6.4</v>
       </c>
       <c r="J73" t="n">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="K73" t="n">
-        <v>4.7</v>
+        <v>4.1</v>
       </c>
       <c r="L73" t="n">
         <v>1.01</v>
@@ -14560,16 +14560,16 @@
         <v>1.07</v>
       </c>
       <c r="N73" t="n">
-        <v>1.7</v>
+        <v>1.88</v>
       </c>
       <c r="O73" t="n">
         <v>1.32</v>
       </c>
       <c r="P73" t="n">
-        <v>1.68</v>
+        <v>1.88</v>
       </c>
       <c r="Q73" t="n">
-        <v>1.89</v>
+        <v>1.98</v>
       </c>
       <c r="R73" t="n">
         <v>1.26</v>
@@ -14578,16 +14578,16 @@
         <v>3.15</v>
       </c>
       <c r="T73" t="n">
-        <v>1.9</v>
+        <v>1.01</v>
       </c>
       <c r="U73" t="n">
         <v>1.78</v>
       </c>
       <c r="V73" t="n">
-        <v>1.16</v>
+        <v>1.18</v>
       </c>
       <c r="W73" t="n">
-        <v>2.04</v>
+        <v>2.14</v>
       </c>
       <c r="X73" t="n">
         <v>1000</v>
@@ -14699,7 +14699,7 @@
       </c>
       <c r="BH73" t="inlineStr">
         <is>
-          <t>2026-02-26 01:19:12</t>
+          <t>2026-02-26 03:36:31</t>
         </is>
       </c>
     </row>
@@ -14893,7 +14893,7 @@
       </c>
       <c r="BH74" t="inlineStr">
         <is>
-          <t>2026-02-26 01:19:12</t>
+          <t>2026-02-26 03:36:31</t>
         </is>
       </c>
     </row>
@@ -14927,19 +14927,19 @@
         <v>1.51</v>
       </c>
       <c r="G75" t="n">
-        <v>1.77</v>
+        <v>1.69</v>
       </c>
       <c r="H75" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="I75" t="n">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="J75" t="n">
-        <v>3.15</v>
+        <v>4</v>
       </c>
       <c r="K75" t="n">
-        <v>6.4</v>
+        <v>5.3</v>
       </c>
       <c r="L75" t="n">
         <v>1.01</v>
@@ -14972,10 +14972,10 @@
         <v>1.96</v>
       </c>
       <c r="V75" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="W75" t="n">
-        <v>2.28</v>
+        <v>2.46</v>
       </c>
       <c r="X75" t="n">
         <v>23</v>
@@ -15044,7 +15044,7 @@
         <v>5.1</v>
       </c>
       <c r="AT75" t="n">
-        <v>7</v>
+        <v>7.6</v>
       </c>
       <c r="AU75" t="n">
         <v>8.4</v>
@@ -15062,7 +15062,7 @@
         <v>7.6</v>
       </c>
       <c r="AZ75" t="n">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="BA75" t="n">
         <v>4.9</v>
@@ -15087,7 +15087,7 @@
       </c>
       <c r="BH75" t="inlineStr">
         <is>
-          <t>2026-02-26 01:19:12</t>
+          <t>2026-02-26 03:36:31</t>
         </is>
       </c>
     </row>
@@ -15281,7 +15281,7 @@
       </c>
       <c r="BH76" t="inlineStr">
         <is>
-          <t>2026-02-26 01:19:12</t>
+          <t>2026-02-26 03:36:31</t>
         </is>
       </c>
     </row>
@@ -15339,7 +15339,7 @@
         <v>1.67</v>
       </c>
       <c r="O77" t="n">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="P77" t="n">
         <v>1.67</v>
@@ -15475,7 +15475,7 @@
       </c>
       <c r="BH77" t="inlineStr">
         <is>
-          <t>2026-02-26 01:19:12</t>
+          <t>2026-02-26 03:36:31</t>
         </is>
       </c>
     </row>
@@ -15506,170 +15506,170 @@
         </is>
       </c>
       <c r="F78" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="G78" t="n">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="H78" t="n">
-        <v>5.3</v>
+        <v>7.4</v>
       </c>
       <c r="I78" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="J78" t="n">
         <v>3.7</v>
       </c>
       <c r="K78" t="n">
-        <v>7.4</v>
+        <v>4.7</v>
       </c>
       <c r="L78" t="n">
         <v>1.33</v>
       </c>
       <c r="M78" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N78" t="n">
-        <v>3.05</v>
+        <v>3.5</v>
       </c>
       <c r="O78" t="n">
-        <v>1.27</v>
+        <v>1.33</v>
       </c>
       <c r="P78" t="n">
-        <v>1.71</v>
+        <v>1.86</v>
       </c>
       <c r="Q78" t="n">
-        <v>1.87</v>
+        <v>1.96</v>
       </c>
       <c r="R78" t="n">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="S78" t="n">
-        <v>2.58</v>
+        <v>3.55</v>
       </c>
       <c r="T78" t="n">
-        <v>1.05</v>
+        <v>2.06</v>
       </c>
       <c r="U78" t="n">
-        <v>1.05</v>
+        <v>1.78</v>
       </c>
       <c r="V78" t="n">
         <v>1.1</v>
       </c>
       <c r="W78" t="n">
-        <v>2.34</v>
+        <v>2.66</v>
       </c>
       <c r="X78" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="Y78" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="Z78" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AA78" t="n">
         <v>1000</v>
       </c>
       <c r="AB78" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC78" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AD78" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AE78" t="n">
         <v>1000</v>
       </c>
       <c r="AF78" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AG78" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AH78" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AI78" t="n">
         <v>1000</v>
       </c>
       <c r="AJ78" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AK78" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AL78" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM78" t="n">
         <v>1000</v>
       </c>
       <c r="AN78" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AO78" t="n">
         <v>1000</v>
       </c>
       <c r="AP78" t="n">
-        <v>1.03</v>
+        <v>10.5</v>
       </c>
       <c r="AQ78" t="n">
-        <v>1.03</v>
+        <v>19.5</v>
       </c>
       <c r="AR78" t="n">
-        <v>1.03</v>
+        <v>4.1</v>
       </c>
       <c r="AS78" t="n">
-        <v>1.03</v>
+        <v>4.2</v>
       </c>
       <c r="AT78" t="n">
-        <v>1.03</v>
+        <v>5.5</v>
       </c>
       <c r="AU78" t="n">
-        <v>1.03</v>
+        <v>7.2</v>
       </c>
       <c r="AV78" t="n">
-        <v>1.03</v>
+        <v>21</v>
       </c>
       <c r="AW78" t="n">
-        <v>1.03</v>
+        <v>4.2</v>
       </c>
       <c r="AX78" t="n">
-        <v>1.03</v>
+        <v>7.4</v>
       </c>
       <c r="AY78" t="n">
-        <v>1.03</v>
+        <v>7.4</v>
       </c>
       <c r="AZ78" t="n">
-        <v>1.03</v>
+        <v>19</v>
       </c>
       <c r="BA78" t="n">
-        <v>1.03</v>
+        <v>4.2</v>
       </c>
       <c r="BB78" t="n">
-        <v>1.03</v>
+        <v>10</v>
       </c>
       <c r="BC78" t="n">
-        <v>1.03</v>
+        <v>13</v>
       </c>
       <c r="BD78" t="n">
-        <v>1.03</v>
+        <v>4</v>
       </c>
       <c r="BE78" t="n">
-        <v>1.03</v>
+        <v>4.2</v>
       </c>
       <c r="BF78" t="n">
-        <v>1.01</v>
+        <v>7</v>
       </c>
       <c r="BG78" t="n">
-        <v>1.01</v>
+        <v>4.2</v>
       </c>
       <c r="BH78" t="inlineStr">
         <is>
-          <t>2026-02-26 01:19:12</t>
+          <t>2026-02-26 03:36:31</t>
         </is>
       </c>
     </row>
@@ -15863,7 +15863,7 @@
       </c>
       <c r="BH79" t="inlineStr">
         <is>
-          <t>2026-02-26 01:19:12</t>
+          <t>2026-02-26 03:36:31</t>
         </is>
       </c>
     </row>
@@ -15894,22 +15894,22 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>3.35</v>
+        <v>3.6</v>
       </c>
       <c r="G80" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="H80" t="n">
         <v>2.32</v>
       </c>
       <c r="I80" t="n">
-        <v>2.54</v>
+        <v>2.5</v>
       </c>
       <c r="J80" t="n">
-        <v>2.68</v>
+        <v>3</v>
       </c>
       <c r="K80" t="n">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="L80" t="n">
         <v>1.01</v>
@@ -15918,37 +15918,37 @@
         <v>1.12</v>
       </c>
       <c r="N80" t="n">
-        <v>2.52</v>
+        <v>2.62</v>
       </c>
       <c r="O80" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="P80" t="n">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="Q80" t="n">
-        <v>2.64</v>
+        <v>2.56</v>
       </c>
       <c r="R80" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="S80" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="T80" t="n">
-        <v>2.16</v>
+        <v>2.08</v>
       </c>
       <c r="U80" t="n">
-        <v>1.74</v>
+        <v>1.79</v>
       </c>
       <c r="V80" t="n">
         <v>1.68</v>
       </c>
       <c r="W80" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="X80" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="Y80" t="n">
         <v>8.6</v>
@@ -15960,10 +15960,10 @@
         <v>44</v>
       </c>
       <c r="AB80" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AC80" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AD80" t="n">
         <v>14.5</v>
@@ -15972,13 +15972,13 @@
         <v>42</v>
       </c>
       <c r="AF80" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AG80" t="n">
         <v>21</v>
       </c>
       <c r="AH80" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AI80" t="n">
         <v>75</v>
@@ -15987,19 +15987,19 @@
         <v>110</v>
       </c>
       <c r="AK80" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AL80" t="n">
         <v>110</v>
       </c>
       <c r="AM80" t="n">
-        <v>240</v>
+        <v>220</v>
       </c>
       <c r="AN80" t="n">
         <v>110</v>
       </c>
       <c r="AO80" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AP80" t="n">
         <v>7.8</v>
@@ -16008,56 +16008,56 @@
         <v>6.4</v>
       </c>
       <c r="AR80" t="n">
-        <v>3.45</v>
+        <v>12</v>
       </c>
       <c r="AS80" t="n">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="AT80" t="n">
-        <v>8.4</v>
+        <v>9</v>
       </c>
       <c r="AU80" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="AV80" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="AW80" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AX80" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AY80" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AZ80" t="n">
         <v>4</v>
       </c>
-      <c r="AX80" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="AY80" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="AZ80" t="n">
-        <v>3.8</v>
-      </c>
       <c r="BA80" t="n">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="BB80" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BC80" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="BD80" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BE80" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="BF80" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BG80" t="n">
         <v>4.2</v>
       </c>
-      <c r="BC80" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="BD80" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="BE80" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="BF80" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="BG80" t="n">
-        <v>4</v>
-      </c>
       <c r="BH80" t="inlineStr">
         <is>
-          <t>2026-02-26 01:19:12</t>
+          <t>2026-02-26 03:36:31</t>
         </is>
       </c>
     </row>
@@ -16112,16 +16112,16 @@
         <v>1.01</v>
       </c>
       <c r="N81" t="n">
-        <v>2.3</v>
+        <v>4.1</v>
       </c>
       <c r="O81" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="P81" t="n">
         <v>2.14</v>
       </c>
       <c r="Q81" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="R81" t="n">
         <v>1.4</v>
@@ -16251,7 +16251,7 @@
       </c>
       <c r="BH81" t="inlineStr">
         <is>
-          <t>2026-02-26 01:19:12</t>
+          <t>2026-02-26 03:36:31</t>
         </is>
       </c>
     </row>
@@ -16285,7 +16285,7 @@
         <v>1.74</v>
       </c>
       <c r="G82" t="n">
-        <v>1.91</v>
+        <v>1.89</v>
       </c>
       <c r="H82" t="n">
         <v>5.3</v>
@@ -16333,7 +16333,7 @@
         <v>1.19</v>
       </c>
       <c r="W82" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="X82" t="n">
         <v>11.5</v>
@@ -16445,7 +16445,7 @@
       </c>
       <c r="BH82" t="inlineStr">
         <is>
-          <t>2026-02-26 01:19:12</t>
+          <t>2026-02-26 03:36:31</t>
         </is>
       </c>
     </row>
@@ -16476,170 +16476,170 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>2.8</v>
+        <v>2.58</v>
       </c>
       <c r="G83" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="H83" t="n">
-        <v>2.84</v>
+        <v>2.9</v>
       </c>
       <c r="I83" t="n">
-        <v>3.1</v>
+        <v>3.35</v>
       </c>
       <c r="J83" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="K83" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="L83" t="n">
         <v>1.01</v>
       </c>
       <c r="M83" t="n">
-        <v>1.11</v>
+        <v>1.01</v>
       </c>
       <c r="N83" t="n">
-        <v>2.8</v>
+        <v>2.46</v>
       </c>
       <c r="O83" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="P83" t="n">
         <v>1.49</v>
       </c>
-      <c r="P83" t="n">
-        <v>1.61</v>
-      </c>
       <c r="Q83" t="n">
-        <v>2.44</v>
+        <v>1.94</v>
       </c>
       <c r="R83" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="S83" t="n">
         <v>4.7</v>
       </c>
       <c r="T83" t="n">
-        <v>1.96</v>
+        <v>1.05</v>
       </c>
       <c r="U83" t="n">
-        <v>1.86</v>
+        <v>1.05</v>
       </c>
       <c r="V83" t="n">
-        <v>1.47</v>
+        <v>1.42</v>
       </c>
       <c r="W83" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="X83" t="n">
-        <v>10</v>
+        <v>12.5</v>
       </c>
       <c r="Y83" t="n">
-        <v>9.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="Z83" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AA83" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AB83" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="AC83" t="n">
-        <v>7.4</v>
+        <v>1000</v>
       </c>
       <c r="AD83" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AE83" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AF83" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AG83" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AH83" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AI83" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AJ83" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AK83" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AL83" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AM83" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AN83" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AO83" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AP83" t="n">
-        <v>8.4</v>
+        <v>1.01</v>
       </c>
       <c r="AQ83" t="n">
-        <v>8</v>
+        <v>1.1</v>
       </c>
       <c r="AR83" t="n">
-        <v>15.5</v>
+        <v>1.1</v>
       </c>
       <c r="AS83" t="n">
-        <v>7.8</v>
+        <v>1.1</v>
       </c>
       <c r="AT83" t="n">
-        <v>7.8</v>
+        <v>1.1</v>
       </c>
       <c r="AU83" t="n">
-        <v>6.4</v>
+        <v>1.1</v>
       </c>
       <c r="AV83" t="n">
-        <v>11.5</v>
+        <v>1.1</v>
       </c>
       <c r="AW83" t="n">
-        <v>34</v>
+        <v>1.1</v>
       </c>
       <c r="AX83" t="n">
-        <v>15</v>
+        <v>1.1</v>
       </c>
       <c r="AY83" t="n">
-        <v>11</v>
+        <v>1.1</v>
       </c>
       <c r="AZ83" t="n">
-        <v>18.5</v>
+        <v>1.1</v>
       </c>
       <c r="BA83" t="n">
-        <v>8</v>
+        <v>1.1</v>
       </c>
       <c r="BB83" t="n">
-        <v>7.6</v>
+        <v>1.1</v>
       </c>
       <c r="BC83" t="n">
-        <v>32</v>
+        <v>1.1</v>
       </c>
       <c r="BD83" t="n">
-        <v>7.8</v>
+        <v>1.1</v>
       </c>
       <c r="BE83" t="n">
-        <v>8.4</v>
+        <v>1.1</v>
       </c>
       <c r="BF83" t="n">
-        <v>7.6</v>
+        <v>1.1</v>
       </c>
       <c r="BG83" t="n">
-        <v>7.6</v>
+        <v>1.1</v>
       </c>
       <c r="BH83" t="inlineStr">
         <is>
-          <t>2026-02-26 01:19:12</t>
+          <t>2026-02-26 03:36:31</t>
         </is>
       </c>
     </row>
@@ -16715,7 +16715,7 @@
         <v>2.04</v>
       </c>
       <c r="U84" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="V84" t="n">
         <v>1.48</v>
@@ -16736,7 +16736,7 @@
         <v>55</v>
       </c>
       <c r="AB84" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AC84" t="n">
         <v>7</v>
@@ -16833,7 +16833,7 @@
       </c>
       <c r="BH84" t="inlineStr">
         <is>
-          <t>2026-02-26 01:19:12</t>
+          <t>2026-02-26 03:36:31</t>
         </is>
       </c>
     </row>
@@ -16873,7 +16873,7 @@
         <v>2.08</v>
       </c>
       <c r="I85" t="n">
-        <v>2.88</v>
+        <v>2.86</v>
       </c>
       <c r="J85" t="n">
         <v>2.74</v>
@@ -16912,7 +16912,7 @@
         <v>1.01</v>
       </c>
       <c r="V85" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="W85" t="n">
         <v>1.3</v>
@@ -17027,7 +17027,7 @@
       </c>
       <c r="BH85" t="inlineStr">
         <is>
-          <t>2026-02-26 01:19:12</t>
+          <t>2026-02-26 03:36:31</t>
         </is>
       </c>
     </row>
@@ -17058,22 +17058,22 @@
         </is>
       </c>
       <c r="F86" t="n">
-        <v>1.66</v>
+        <v>1.76</v>
       </c>
       <c r="G86" t="n">
-        <v>2.18</v>
+        <v>2.12</v>
       </c>
       <c r="H86" t="n">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="I86" t="n">
-        <v>7.4</v>
+        <v>6.8</v>
       </c>
       <c r="J86" t="n">
         <v>3.05</v>
       </c>
       <c r="K86" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="L86" t="n">
         <v>1.01</v>
@@ -17082,16 +17082,16 @@
         <v>1.01</v>
       </c>
       <c r="N86" t="n">
-        <v>2.56</v>
+        <v>2.64</v>
       </c>
       <c r="O86" t="n">
         <v>1.35</v>
       </c>
       <c r="P86" t="n">
-        <v>1.6</v>
+        <v>1.75</v>
       </c>
       <c r="Q86" t="n">
-        <v>1.89</v>
+        <v>1.92</v>
       </c>
       <c r="R86" t="n">
         <v>1.17</v>
@@ -17106,10 +17106,10 @@
         <v>1.05</v>
       </c>
       <c r="V86" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="W86" t="n">
-        <v>1.85</v>
+        <v>1.89</v>
       </c>
       <c r="X86" t="n">
         <v>1000</v>
@@ -17221,7 +17221,7 @@
       </c>
       <c r="BH86" t="inlineStr">
         <is>
-          <t>2026-02-26 01:19:12</t>
+          <t>2026-02-26 03:36:31</t>
         </is>
       </c>
     </row>
@@ -17258,10 +17258,10 @@
         <v>4.4</v>
       </c>
       <c r="H87" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="I87" t="n">
         <v>1.95</v>
-      </c>
-      <c r="I87" t="n">
-        <v>1.96</v>
       </c>
       <c r="J87" t="n">
         <v>3.85</v>
@@ -17270,10 +17270,10 @@
         <v>3.9</v>
       </c>
       <c r="L87" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="M87" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N87" t="n">
         <v>4</v>
@@ -17297,7 +17297,7 @@
         <v>1.83</v>
       </c>
       <c r="U87" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="V87" t="n">
         <v>2.04</v>
@@ -17312,7 +17312,7 @@
         <v>9.4</v>
       </c>
       <c r="Z87" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AA87" t="n">
         <v>22</v>
@@ -17345,7 +17345,7 @@
         <v>90</v>
       </c>
       <c r="AK87" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AL87" t="n">
         <v>60</v>
@@ -17375,7 +17375,7 @@
         <v>15.5</v>
       </c>
       <c r="AU87" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AV87" t="n">
         <v>9.800000000000001</v>
@@ -17384,7 +17384,7 @@
         <v>18.5</v>
       </c>
       <c r="AX87" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AY87" t="n">
         <v>16</v>
@@ -17411,11 +17411,11 @@
         <v>48</v>
       </c>
       <c r="BG87" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="BH87" t="inlineStr">
         <is>
-          <t>2026-02-26 01:19:12</t>
+          <t>2026-02-26 03:36:31</t>
         </is>
       </c>
     </row>
@@ -17476,7 +17476,7 @@
         <v>0</v>
       </c>
       <c r="P88" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="Q88" t="n">
         <v>1.36</v>
@@ -17609,7 +17609,7 @@
       </c>
       <c r="BH88" t="inlineStr">
         <is>
-          <t>2026-02-26 01:19:12</t>
+          <t>2026-02-26 03:36:31</t>
         </is>
       </c>
     </row>
@@ -17646,7 +17646,7 @@
         <v>1.79</v>
       </c>
       <c r="H89" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="I89" t="n">
         <v>8</v>
@@ -17661,31 +17661,31 @@
         <v>1.45</v>
       </c>
       <c r="M89" t="n">
-        <v>1.01</v>
+        <v>1.11</v>
       </c>
       <c r="N89" t="n">
-        <v>2.24</v>
+        <v>2.6</v>
       </c>
       <c r="O89" t="n">
-        <v>1.24</v>
+        <v>1.48</v>
       </c>
       <c r="P89" t="n">
-        <v>1.48</v>
+        <v>1.56</v>
       </c>
       <c r="Q89" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="R89" t="n">
-        <v>1.14</v>
+        <v>1.2</v>
       </c>
       <c r="S89" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="T89" t="n">
-        <v>1.89</v>
+        <v>2.26</v>
       </c>
       <c r="U89" t="n">
-        <v>1.46</v>
+        <v>1.64</v>
       </c>
       <c r="V89" t="n">
         <v>1.14</v>
@@ -17697,7 +17697,7 @@
         <v>970</v>
       </c>
       <c r="Y89" t="n">
-        <v>25</v>
+        <v>970</v>
       </c>
       <c r="Z89" t="n">
         <v>1000</v>
@@ -17706,13 +17706,13 @@
         <v>1000</v>
       </c>
       <c r="AB89" t="n">
-        <v>8.6</v>
+        <v>970</v>
       </c>
       <c r="AC89" t="n">
-        <v>12</v>
+        <v>970</v>
       </c>
       <c r="AD89" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="AE89" t="n">
         <v>1000</v>
@@ -17724,16 +17724,16 @@
         <v>970</v>
       </c>
       <c r="AH89" t="n">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="AI89" t="n">
         <v>1000</v>
       </c>
       <c r="AJ89" t="n">
-        <v>26</v>
+        <v>970</v>
       </c>
       <c r="AK89" t="n">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="AL89" t="n">
         <v>1000</v>
@@ -17748,62 +17748,62 @@
         <v>1000</v>
       </c>
       <c r="AP89" t="n">
-        <v>2.02</v>
+        <v>4.6</v>
       </c>
       <c r="AQ89" t="n">
-        <v>2.18</v>
+        <v>5.6</v>
       </c>
       <c r="AR89" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="AS89" t="n">
-        <v>2.38</v>
+        <v>2.26</v>
       </c>
       <c r="AT89" t="n">
-        <v>1.87</v>
+        <v>3.6</v>
       </c>
       <c r="AU89" t="n">
-        <v>1.99</v>
+        <v>4.3</v>
       </c>
       <c r="AV89" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="AW89" t="n">
         <v>2.26</v>
       </c>
-      <c r="AW89" t="n">
-        <v>2.38</v>
-      </c>
       <c r="AX89" t="n">
-        <v>2</v>
+        <v>4.3</v>
       </c>
       <c r="AY89" t="n">
-        <v>2.06</v>
+        <v>4.8</v>
       </c>
       <c r="AZ89" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="BA89" t="n">
         <v>2.26</v>
       </c>
-      <c r="BA89" t="n">
-        <v>2.38</v>
-      </c>
       <c r="BB89" t="n">
-        <v>2.18</v>
+        <v>5.7</v>
       </c>
       <c r="BC89" t="n">
-        <v>2.22</v>
+        <v>4.6</v>
       </c>
       <c r="BD89" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="BE89" t="n">
-        <v>2.38</v>
+        <v>2.26</v>
       </c>
       <c r="BF89" t="n">
-        <v>2.38</v>
+        <v>4.5</v>
       </c>
       <c r="BG89" t="n">
-        <v>2.38</v>
+        <v>1.81</v>
       </c>
       <c r="BH89" t="inlineStr">
         <is>
-          <t>2026-02-26 01:19:12</t>
+          <t>2026-02-26 03:36:31</t>
         </is>
       </c>
     </row>
@@ -17834,94 +17834,94 @@
         </is>
       </c>
       <c r="F90" t="n">
-        <v>2.78</v>
+        <v>2.9</v>
       </c>
       <c r="G90" t="n">
-        <v>4.3</v>
+        <v>3.95</v>
       </c>
       <c r="H90" t="n">
-        <v>2.08</v>
+        <v>2.26</v>
       </c>
       <c r="I90" t="n">
-        <v>2.92</v>
+        <v>2.6</v>
       </c>
       <c r="J90" t="n">
-        <v>2.8</v>
+        <v>2.98</v>
       </c>
       <c r="K90" t="n">
-        <v>6.2</v>
+        <v>3.8</v>
       </c>
       <c r="L90" t="n">
         <v>1.33</v>
       </c>
       <c r="M90" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N90" t="n">
-        <v>2.74</v>
+        <v>3</v>
       </c>
       <c r="O90" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="P90" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>2</v>
+      </c>
+      <c r="R90" t="n">
         <v>1.3</v>
       </c>
-      <c r="P90" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="Q90" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="R90" t="n">
-        <v>1.22</v>
-      </c>
       <c r="S90" t="n">
-        <v>2.78</v>
+        <v>1.05</v>
       </c>
       <c r="T90" t="n">
-        <v>1.05</v>
+        <v>1.77</v>
       </c>
       <c r="U90" t="n">
-        <v>1.05</v>
+        <v>2.02</v>
       </c>
       <c r="V90" t="n">
-        <v>1.52</v>
+        <v>1.62</v>
       </c>
       <c r="W90" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="X90" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="Y90" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="Z90" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AA90" t="n">
         <v>1000</v>
       </c>
       <c r="AB90" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AC90" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="AD90" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AE90" t="n">
         <v>1000</v>
       </c>
       <c r="AF90" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AG90" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AH90" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AI90" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AJ90" t="n">
         <v>1000</v>
@@ -17939,65 +17939,65 @@
         <v>1000</v>
       </c>
       <c r="AO90" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AP90" t="n">
-        <v>1.01</v>
+        <v>4.6</v>
       </c>
       <c r="AQ90" t="n">
-        <v>1.01</v>
+        <v>4.1</v>
       </c>
       <c r="AR90" t="n">
-        <v>1.01</v>
+        <v>4.7</v>
       </c>
       <c r="AS90" t="n">
-        <v>1.01</v>
+        <v>5.6</v>
       </c>
       <c r="AT90" t="n">
-        <v>1.01</v>
+        <v>4.5</v>
       </c>
       <c r="AU90" t="n">
-        <v>1.01</v>
+        <v>3.85</v>
       </c>
       <c r="AV90" t="n">
-        <v>1.01</v>
+        <v>4.3</v>
       </c>
       <c r="AW90" t="n">
-        <v>1.01</v>
+        <v>5.4</v>
       </c>
       <c r="AX90" t="n">
-        <v>1.01</v>
+        <v>5.3</v>
       </c>
       <c r="AY90" t="n">
-        <v>1.01</v>
+        <v>4.7</v>
       </c>
       <c r="AZ90" t="n">
-        <v>1.01</v>
+        <v>4.9</v>
       </c>
       <c r="BA90" t="n">
-        <v>1.01</v>
+        <v>5.9</v>
       </c>
       <c r="BB90" t="n">
-        <v>1.01</v>
+        <v>6</v>
       </c>
       <c r="BC90" t="n">
-        <v>1.01</v>
+        <v>5.8</v>
       </c>
       <c r="BD90" t="n">
-        <v>1.01</v>
+        <v>5.9</v>
       </c>
       <c r="BE90" t="n">
-        <v>1.01</v>
+        <v>6.2</v>
       </c>
       <c r="BF90" t="n">
-        <v>1.01</v>
+        <v>5.8</v>
       </c>
       <c r="BG90" t="n">
-        <v>1.01</v>
+        <v>5.2</v>
       </c>
       <c r="BH90" t="inlineStr">
         <is>
-          <t>2026-02-26 01:19:12</t>
+          <t>2026-02-26 03:36:31</t>
         </is>
       </c>
     </row>
@@ -18049,43 +18049,43 @@
         <v>1.01</v>
       </c>
       <c r="M91" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N91" t="n">
-        <v>1.1</v>
+        <v>3.4</v>
       </c>
       <c r="O91" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="P91" t="n">
-        <v>1.68</v>
+        <v>1.82</v>
       </c>
       <c r="Q91" t="n">
-        <v>1.9</v>
+        <v>2.02</v>
       </c>
       <c r="R91" t="n">
-        <v>1.27</v>
+        <v>1.31</v>
       </c>
       <c r="S91" t="n">
-        <v>3.05</v>
+        <v>3.65</v>
       </c>
       <c r="T91" t="n">
-        <v>1.67</v>
+        <v>1.82</v>
       </c>
       <c r="U91" t="n">
-        <v>1.86</v>
+        <v>2.04</v>
       </c>
       <c r="V91" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="W91" t="n">
         <v>1.75</v>
       </c>
       <c r="X91" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="Y91" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="Z91" t="n">
         <v>1000</v>
@@ -18094,22 +18094,22 @@
         <v>1000</v>
       </c>
       <c r="AB91" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AC91" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD91" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AE91" t="n">
         <v>1000</v>
       </c>
       <c r="AF91" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AG91" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AH91" t="n">
         <v>1000</v>
@@ -18118,80 +18118,80 @@
         <v>1000</v>
       </c>
       <c r="AJ91" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AK91" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AL91" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AM91" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AN91" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AO91" t="n">
         <v>1000</v>
       </c>
       <c r="AP91" t="n">
-        <v>1.01</v>
+        <v>11.5</v>
       </c>
       <c r="AQ91" t="n">
-        <v>1.01</v>
+        <v>11.5</v>
       </c>
       <c r="AR91" t="n">
-        <v>1.01</v>
+        <v>5</v>
       </c>
       <c r="AS91" t="n">
-        <v>1.01</v>
+        <v>5.7</v>
       </c>
       <c r="AT91" t="n">
-        <v>1.01</v>
+        <v>8</v>
       </c>
       <c r="AU91" t="n">
-        <v>1.01</v>
+        <v>7</v>
       </c>
       <c r="AV91" t="n">
-        <v>1.01</v>
+        <v>13.5</v>
       </c>
       <c r="AW91" t="n">
-        <v>1.01</v>
+        <v>5.4</v>
       </c>
       <c r="AX91" t="n">
-        <v>1.01</v>
+        <v>12</v>
       </c>
       <c r="AY91" t="n">
-        <v>1.01</v>
+        <v>9.6</v>
       </c>
       <c r="AZ91" t="n">
-        <v>1.01</v>
+        <v>16</v>
       </c>
       <c r="BA91" t="n">
-        <v>1.01</v>
+        <v>5.6</v>
       </c>
       <c r="BB91" t="n">
-        <v>1.01</v>
+        <v>5.2</v>
       </c>
       <c r="BC91" t="n">
-        <v>1.01</v>
+        <v>5.1</v>
       </c>
       <c r="BD91" t="n">
-        <v>1.01</v>
+        <v>5.4</v>
       </c>
       <c r="BE91" t="n">
-        <v>1.01</v>
+        <v>5.9</v>
       </c>
       <c r="BF91" t="n">
-        <v>1.01</v>
+        <v>15</v>
       </c>
       <c r="BG91" t="n">
-        <v>1.01</v>
+        <v>5.5</v>
       </c>
       <c r="BH91" t="inlineStr">
         <is>
-          <t>2026-02-26 01:19:12</t>
+          <t>2026-02-26 03:36:31</t>
         </is>
       </c>
     </row>
@@ -18385,7 +18385,7 @@
       </c>
       <c r="BH92" t="inlineStr">
         <is>
-          <t>2026-02-26 01:19:12</t>
+          <t>2026-02-26 03:36:31</t>
         </is>
       </c>
     </row>
@@ -18419,13 +18419,13 @@
         <v>3.25</v>
       </c>
       <c r="G93" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="H93" t="n">
         <v>2.46</v>
       </c>
       <c r="I93" t="n">
-        <v>2.82</v>
+        <v>3.05</v>
       </c>
       <c r="J93" t="n">
         <v>2.64</v>
@@ -18440,7 +18440,7 @@
         <v>1.13</v>
       </c>
       <c r="N93" t="n">
-        <v>2.2</v>
+        <v>1.1</v>
       </c>
       <c r="O93" t="n">
         <v>1.57</v>
@@ -18464,10 +18464,10 @@
         <v>1.05</v>
       </c>
       <c r="V93" t="n">
-        <v>1.54</v>
+        <v>1.48</v>
       </c>
       <c r="W93" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="X93" t="n">
         <v>1000</v>
@@ -18491,7 +18491,7 @@
         <v>970</v>
       </c>
       <c r="AE93" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AF93" t="n">
         <v>30</v>
@@ -18524,62 +18524,62 @@
         <v>1000</v>
       </c>
       <c r="AP93" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AQ93" t="n">
-        <v>1.72</v>
+        <v>1.68</v>
       </c>
       <c r="AR93" t="n">
-        <v>1.89</v>
+        <v>10.5</v>
       </c>
       <c r="AS93" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AT93" t="n">
-        <v>1.79</v>
+        <v>1.74</v>
       </c>
       <c r="AU93" t="n">
-        <v>1.7</v>
+        <v>1.66</v>
       </c>
       <c r="AV93" t="n">
-        <v>1.86</v>
+        <v>1.81</v>
       </c>
       <c r="AW93" t="n">
         <v>2</v>
       </c>
       <c r="AX93" t="n">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="AY93" t="n">
-        <v>1.89</v>
+        <v>1.84</v>
       </c>
       <c r="AZ93" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="BA93" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="BB93" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="BC93" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="BD93" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="BE93" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="BF93" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="BG93" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="BH93" t="inlineStr">
         <is>
-          <t>2026-02-26 01:19:12</t>
+          <t>2026-02-26 03:36:31</t>
         </is>
       </c>
     </row>
@@ -18773,7 +18773,7 @@
       </c>
       <c r="BH94" t="inlineStr">
         <is>
-          <t>2026-02-26 01:19:12</t>
+          <t>2026-02-26 03:36:31</t>
         </is>
       </c>
     </row>
@@ -18804,22 +18804,22 @@
         </is>
       </c>
       <c r="F95" t="n">
-        <v>2.6</v>
+        <v>2.68</v>
       </c>
       <c r="G95" t="n">
-        <v>3.25</v>
+        <v>2.98</v>
       </c>
       <c r="H95" t="n">
-        <v>2.66</v>
+        <v>2.98</v>
       </c>
       <c r="I95" t="n">
-        <v>110</v>
+        <v>3.2</v>
       </c>
       <c r="J95" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="K95" t="n">
-        <v>950</v>
+        <v>3.3</v>
       </c>
       <c r="L95" t="n">
         <v>1.01</v>
@@ -18828,10 +18828,10 @@
         <v>1.12</v>
       </c>
       <c r="N95" t="n">
-        <v>1.59</v>
+        <v>2.7</v>
       </c>
       <c r="O95" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="P95" t="n">
         <v>1.59</v>
@@ -18840,55 +18840,55 @@
         <v>2.44</v>
       </c>
       <c r="R95" t="n">
-        <v>1.16</v>
+        <v>1.2</v>
       </c>
       <c r="S95" t="n">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="T95" t="n">
-        <v>1.01</v>
+        <v>2.04</v>
       </c>
       <c r="U95" t="n">
-        <v>1.01</v>
+        <v>1.81</v>
       </c>
       <c r="V95" t="n">
         <v>1.46</v>
       </c>
       <c r="W95" t="n">
-        <v>1.46</v>
+        <v>1.5</v>
       </c>
       <c r="X95" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Y95" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="Z95" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AA95" t="n">
         <v>1000</v>
       </c>
       <c r="AB95" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC95" t="n">
-        <v>1000</v>
+        <v>7.6</v>
       </c>
       <c r="AD95" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AE95" t="n">
         <v>1000</v>
       </c>
       <c r="AF95" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AG95" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AH95" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AI95" t="n">
         <v>1000</v>
@@ -18897,13 +18897,13 @@
         <v>1000</v>
       </c>
       <c r="AK95" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AL95" t="n">
         <v>1000</v>
       </c>
       <c r="AM95" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AN95" t="n">
         <v>1000</v>
@@ -18912,62 +18912,62 @@
         <v>1000</v>
       </c>
       <c r="AP95" t="n">
-        <v>1.01</v>
+        <v>8.4</v>
       </c>
       <c r="AQ95" t="n">
-        <v>1.01</v>
+        <v>7.8</v>
       </c>
       <c r="AR95" t="n">
-        <v>1.01</v>
+        <v>16</v>
       </c>
       <c r="AS95" t="n">
-        <v>1.01</v>
+        <v>6.4</v>
       </c>
       <c r="AT95" t="n">
-        <v>1.01</v>
+        <v>7.4</v>
       </c>
       <c r="AU95" t="n">
-        <v>1.01</v>
+        <v>6.2</v>
       </c>
       <c r="AV95" t="n">
-        <v>1.01</v>
+        <v>11.5</v>
       </c>
       <c r="AW95" t="n">
-        <v>1.01</v>
+        <v>6.2</v>
       </c>
       <c r="AX95" t="n">
-        <v>1.01</v>
+        <v>14</v>
       </c>
       <c r="AY95" t="n">
-        <v>1.01</v>
+        <v>11</v>
       </c>
       <c r="AZ95" t="n">
-        <v>1.01</v>
+        <v>5.5</v>
       </c>
       <c r="BA95" t="n">
-        <v>1.01</v>
+        <v>6.6</v>
       </c>
       <c r="BB95" t="n">
-        <v>1.01</v>
+        <v>6.2</v>
       </c>
       <c r="BC95" t="n">
-        <v>1.01</v>
+        <v>6.2</v>
       </c>
       <c r="BD95" t="n">
-        <v>1.01</v>
+        <v>6.4</v>
       </c>
       <c r="BE95" t="n">
-        <v>1.01</v>
+        <v>7</v>
       </c>
       <c r="BF95" t="n">
-        <v>1.01</v>
+        <v>6.2</v>
       </c>
       <c r="BG95" t="n">
-        <v>1.01</v>
+        <v>6.4</v>
       </c>
       <c r="BH95" t="inlineStr">
         <is>
-          <t>2026-02-26 01:19:12</t>
+          <t>2026-02-26 03:36:31</t>
         </is>
       </c>
     </row>
@@ -19161,7 +19161,7 @@
       </c>
       <c r="BH96" t="inlineStr">
         <is>
-          <t>2026-02-26 01:19:12</t>
+          <t>2026-02-26 03:36:31</t>
         </is>
       </c>
     </row>
@@ -19355,7 +19355,7 @@
       </c>
       <c r="BH97" t="inlineStr">
         <is>
-          <t>2026-02-26 01:19:12</t>
+          <t>2026-02-26 03:36:31</t>
         </is>
       </c>
     </row>
@@ -19404,16 +19404,16 @@
         <v>4.3</v>
       </c>
       <c r="L98" t="n">
-        <v>1.01</v>
+        <v>1.29</v>
       </c>
       <c r="M98" t="n">
         <v>1.05</v>
       </c>
       <c r="N98" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="O98" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="P98" t="n">
         <v>2.12</v>
@@ -19491,7 +19491,7 @@
         <v>12</v>
       </c>
       <c r="AO98" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AP98" t="n">
         <v>13.5</v>
@@ -19549,7 +19549,7 @@
       </c>
       <c r="BH98" t="inlineStr">
         <is>
-          <t>2026-02-26 01:19:12</t>
+          <t>2026-02-26 03:36:31</t>
         </is>
       </c>
     </row>
@@ -19589,7 +19589,7 @@
         <v>1.97</v>
       </c>
       <c r="I99" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="J99" t="n">
         <v>3.5</v>
@@ -19628,7 +19628,7 @@
         <v>2.08</v>
       </c>
       <c r="V99" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="W99" t="n">
         <v>1.29</v>
@@ -19743,7 +19743,7 @@
       </c>
       <c r="BH99" t="inlineStr">
         <is>
-          <t>2026-02-26 01:19:12</t>
+          <t>2026-02-26 03:36:31</t>
         </is>
       </c>
     </row>
@@ -19819,7 +19819,7 @@
         <v>1.01</v>
       </c>
       <c r="U100" t="n">
-        <v>1.54</v>
+        <v>1.01</v>
       </c>
       <c r="V100" t="n">
         <v>1.07</v>
@@ -19937,7 +19937,7 @@
       </c>
       <c r="BH100" t="inlineStr">
         <is>
-          <t>2026-02-26 01:19:12</t>
+          <t>2026-02-26 03:36:31</t>
         </is>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-27.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-27.xlsx
@@ -795,19 +795,19 @@
         <v>2.96</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="R2" t="n">
         <v>1.8</v>
       </c>
       <c r="S2" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="T2" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="U2" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="V2" t="n">
         <v>1.25</v>
@@ -816,46 +816,46 @@
         <v>2.36</v>
       </c>
       <c r="X2" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Y2" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="Z2" t="n">
+        <v>46</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>110</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>16</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE2" t="n">
         <v>50</v>
       </c>
-      <c r="AA2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>24</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>55</v>
-      </c>
       <c r="AF2" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AG2" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AH2" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AI2" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AJ2" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AK2" t="n">
-        <v>18.5</v>
+        <v>16.5</v>
       </c>
       <c r="AL2" t="n">
         <v>25</v>
@@ -867,7 +867,7 @@
         <v>6.2</v>
       </c>
       <c r="AO2" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="AP2" t="n">
         <v>10.5</v>
@@ -876,10 +876,10 @@
         <v>23</v>
       </c>
       <c r="AR2" t="n">
-        <v>5.2</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AS2" t="n">
-        <v>5.9</v>
+        <v>9.4</v>
       </c>
       <c r="AT2" t="n">
         <v>13.5</v>
@@ -891,7 +891,7 @@
         <v>17</v>
       </c>
       <c r="AW2" t="n">
-        <v>7</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AX2" t="n">
         <v>12.5</v>
@@ -900,32 +900,32 @@
         <v>9.4</v>
       </c>
       <c r="AZ2" t="n">
-        <v>5.8</v>
+        <v>14</v>
       </c>
       <c r="BA2" t="n">
-        <v>7</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="BB2" t="n">
-        <v>5.9</v>
+        <v>17</v>
       </c>
       <c r="BC2" t="n">
         <v>13.5</v>
       </c>
       <c r="BD2" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="BE2" t="n">
-        <v>5.8</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="BF2" t="n">
         <v>5.5</v>
       </c>
       <c r="BG2" t="n">
-        <v>23</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="BH2" t="inlineStr">
         <is>
-          <t>2026-02-26 13:02:44</t>
+          <t>2026-02-26 15:31:39</t>
         </is>
       </c>
     </row>
@@ -956,31 +956,31 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.75</v>
+        <v>2.78</v>
       </c>
       <c r="G3" t="n">
         <v>4.3</v>
       </c>
       <c r="H3" t="n">
-        <v>1.66</v>
+        <v>2</v>
       </c>
       <c r="I3" t="n">
-        <v>3.5</v>
+        <v>2.66</v>
       </c>
       <c r="J3" t="n">
         <v>3.1</v>
       </c>
       <c r="K3" t="n">
-        <v>980</v>
+        <v>7.2</v>
       </c>
       <c r="L3" t="n">
-        <v>1.01</v>
+        <v>1.42</v>
       </c>
       <c r="M3" t="n">
         <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>1.51</v>
+        <v>2.28</v>
       </c>
       <c r="O3" t="n">
         <v>1.02</v>
@@ -989,22 +989,22 @@
         <v>1.51</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.44</v>
+        <v>2.12</v>
       </c>
       <c r="R3" t="n">
         <v>1.18</v>
       </c>
       <c r="S3" t="n">
-        <v>1.44</v>
+        <v>3.05</v>
       </c>
       <c r="T3" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="U3" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="V3" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="W3" t="n">
         <v>1.3</v>
@@ -1119,7 +1119,7 @@
       </c>
       <c r="BH3" t="inlineStr">
         <is>
-          <t>2026-02-26 13:02:44</t>
+          <t>2026-02-26 15:31:39</t>
         </is>
       </c>
     </row>
@@ -1165,7 +1165,7 @@
         <v>4.1</v>
       </c>
       <c r="K4" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="L4" t="n">
         <v>1.01</v>
@@ -1264,10 +1264,10 @@
         <v>18.5</v>
       </c>
       <c r="AR4" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="AS4" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="AT4" t="n">
         <v>5.3</v>
@@ -1276,7 +1276,7 @@
         <v>9</v>
       </c>
       <c r="AV4" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="AW4" t="n">
         <v>4.7</v>
@@ -1285,10 +1285,10 @@
         <v>6.2</v>
       </c>
       <c r="AY4" t="n">
-        <v>7.8</v>
+        <v>9</v>
       </c>
       <c r="AZ4" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="BA4" t="n">
         <v>4.7</v>
@@ -1303,17 +1303,17 @@
         <v>40</v>
       </c>
       <c r="BE4" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="BF4" t="n">
         <v>7.4</v>
       </c>
       <c r="BG4" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="BH4" t="inlineStr">
         <is>
-          <t>2026-02-26 13:02:44</t>
+          <t>2026-02-26 15:31:39</t>
         </is>
       </c>
     </row>
@@ -1347,7 +1347,7 @@
         <v>4.4</v>
       </c>
       <c r="G5" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="H5" t="n">
         <v>1.48</v>
@@ -1356,7 +1356,7 @@
         <v>1.87</v>
       </c>
       <c r="J5" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="K5" t="n">
         <v>9.800000000000001</v>
@@ -1507,7 +1507,7 @@
       </c>
       <c r="BH5" t="inlineStr">
         <is>
-          <t>2026-02-26 13:02:44</t>
+          <t>2026-02-26 15:31:39</t>
         </is>
       </c>
     </row>
@@ -1538,7 +1538,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="G6" t="n">
         <v>1.47</v>
@@ -1547,7 +1547,7 @@
         <v>8.6</v>
       </c>
       <c r="I6" t="n">
-        <v>410</v>
+        <v>990</v>
       </c>
       <c r="J6" t="n">
         <v>4.9</v>
@@ -1580,10 +1580,10 @@
         <v>2.3</v>
       </c>
       <c r="T6" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="U6" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="V6" t="n">
         <v>1.01</v>
@@ -1701,7 +1701,7 @@
       </c>
       <c r="BH6" t="inlineStr">
         <is>
-          <t>2026-02-26 13:02:44</t>
+          <t>2026-02-26 15:31:39</t>
         </is>
       </c>
     </row>
@@ -1756,28 +1756,28 @@
         <v>1.01</v>
       </c>
       <c r="N7" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="O7" t="n">
-        <v>1.01</v>
+        <v>1.5</v>
       </c>
       <c r="P7" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="R7" t="n">
         <v>1.08</v>
       </c>
       <c r="S7" t="n">
-        <v>1.71</v>
+        <v>1.02</v>
       </c>
       <c r="T7" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="U7" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="V7" t="n">
         <v>1.01</v>
@@ -1840,52 +1840,52 @@
         <v>1000</v>
       </c>
       <c r="AP7" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AQ7" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AR7" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AT7" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AU7" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AV7" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AW7" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AX7" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AY7" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AZ7" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="BA7" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="BB7" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="BC7" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="BD7" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="BE7" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="BF7" t="n">
         <v>1.01</v>
@@ -1895,7 +1895,7 @@
       </c>
       <c r="BH7" t="inlineStr">
         <is>
-          <t>2026-02-26 13:02:44</t>
+          <t>2026-02-26 15:31:39</t>
         </is>
       </c>
     </row>
@@ -1929,19 +1929,19 @@
         <v>1.04</v>
       </c>
       <c r="G8" t="n">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="H8" t="n">
         <v>1.04</v>
       </c>
       <c r="I8" t="n">
-        <v>650</v>
+        <v>990</v>
       </c>
       <c r="J8" t="n">
         <v>1.02</v>
       </c>
       <c r="K8" t="n">
-        <v>110</v>
+        <v>500</v>
       </c>
       <c r="L8" t="n">
         <v>1.01</v>
@@ -1950,13 +1950,13 @@
         <v>1.01</v>
       </c>
       <c r="N8" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="O8" t="n">
         <v>1.01</v>
       </c>
       <c r="P8" t="n">
-        <v>1.08</v>
+        <v>1.02</v>
       </c>
       <c r="Q8" t="n">
         <v>1.01</v>
@@ -1965,13 +1965,13 @@
         <v>1.08</v>
       </c>
       <c r="S8" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="T8" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="U8" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="V8" t="n">
         <v>1.01</v>
@@ -2089,7 +2089,7 @@
       </c>
       <c r="BH8" t="inlineStr">
         <is>
-          <t>2026-02-26 13:02:44</t>
+          <t>2026-02-26 15:31:39</t>
         </is>
       </c>
     </row>
@@ -2120,22 +2120,22 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.58</v>
+        <v>1.53</v>
       </c>
       <c r="G9" t="n">
-        <v>1.9</v>
+        <v>1.94</v>
       </c>
       <c r="H9" t="n">
         <v>4.4</v>
       </c>
       <c r="I9" t="n">
-        <v>8.800000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J9" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="K9" t="n">
-        <v>7</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="L9" t="n">
         <v>1.01</v>
@@ -2162,16 +2162,16 @@
         <v>1.76</v>
       </c>
       <c r="T9" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="U9" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="V9" t="n">
-        <v>1.12</v>
+        <v>1.14</v>
       </c>
       <c r="W9" t="n">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="X9" t="n">
         <v>1000</v>
@@ -2283,7 +2283,7 @@
       </c>
       <c r="BH9" t="inlineStr">
         <is>
-          <t>2026-02-26 13:02:44</t>
+          <t>2026-02-26 15:31:39</t>
         </is>
       </c>
     </row>
@@ -2314,10 +2314,10 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="G10" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="H10" t="n">
         <v>6.6</v>
@@ -2326,10 +2326,10 @@
         <v>8.6</v>
       </c>
       <c r="J10" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="K10" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -2344,10 +2344,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.38</v>
+        <v>2.22</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.62</v>
+        <v>1.72</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -2477,7 +2477,7 @@
       </c>
       <c r="BH10" t="inlineStr">
         <is>
-          <t>2026-02-26 13:02:44</t>
+          <t>2026-02-26 15:31:39</t>
         </is>
       </c>
     </row>
@@ -2511,7 +2511,7 @@
         <v>3.85</v>
       </c>
       <c r="G11" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="H11" t="n">
         <v>2.1</v>
@@ -2559,7 +2559,7 @@
         <v>1.75</v>
       </c>
       <c r="W11" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="X11" t="n">
         <v>12.5</v>
@@ -2568,7 +2568,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="Z11" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AA11" t="n">
         <v>1000</v>
@@ -2616,7 +2616,7 @@
         <v>1000</v>
       </c>
       <c r="AP11" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AQ11" t="n">
         <v>6.4</v>
@@ -2625,53 +2625,53 @@
         <v>9.6</v>
       </c>
       <c r="AS11" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="AT11" t="n">
-        <v>3.4</v>
+        <v>3.65</v>
       </c>
       <c r="AU11" t="n">
         <v>6.2</v>
       </c>
       <c r="AV11" t="n">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="AW11" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY11" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AZ11" t="n">
         <v>3.9</v>
       </c>
-      <c r="AX11" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="AY11" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AZ11" t="n">
-        <v>3.75</v>
-      </c>
       <c r="BA11" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="BB11" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="BC11" t="n">
         <v>4.2</v>
       </c>
-      <c r="BC11" t="n">
-        <v>4.1</v>
-      </c>
       <c r="BD11" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="BE11" t="n">
         <v>4.3</v>
       </c>
       <c r="BF11" t="n">
-        <v>4.2</v>
+        <v>5.1</v>
       </c>
       <c r="BG11" t="n">
-        <v>3.85</v>
+        <v>4.6</v>
       </c>
       <c r="BH11" t="inlineStr">
         <is>
-          <t>2026-02-26 13:02:44</t>
+          <t>2026-02-26 15:31:39</t>
         </is>
       </c>
     </row>
@@ -2708,7 +2708,7 @@
         <v>1.28</v>
       </c>
       <c r="H12" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="I12" t="n">
         <v>21</v>
@@ -2732,7 +2732,7 @@
         <v>1.18</v>
       </c>
       <c r="P12" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="Q12" t="n">
         <v>1.57</v>
@@ -2747,7 +2747,7 @@
         <v>2.2</v>
       </c>
       <c r="U12" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="V12" t="n">
         <v>1.05</v>
@@ -2777,7 +2777,7 @@
         <v>65</v>
       </c>
       <c r="AE12" t="n">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="AF12" t="n">
         <v>8.4</v>
@@ -2801,22 +2801,22 @@
         <v>48</v>
       </c>
       <c r="AM12" t="n">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="AN12" t="n">
         <v>4.2</v>
       </c>
       <c r="AO12" t="n">
-        <v>560</v>
+        <v>540</v>
       </c>
       <c r="AP12" t="n">
         <v>22</v>
       </c>
       <c r="AQ12" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AR12" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AS12" t="n">
         <v>9</v>
@@ -2831,7 +2831,7 @@
         <v>8</v>
       </c>
       <c r="AW12" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AX12" t="n">
         <v>6.8</v>
@@ -2840,7 +2840,7 @@
         <v>10</v>
       </c>
       <c r="AZ12" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="BA12" t="n">
         <v>8.800000000000001</v>
@@ -2865,7 +2865,7 @@
       </c>
       <c r="BH12" t="inlineStr">
         <is>
-          <t>2026-02-26 13:02:44</t>
+          <t>2026-02-26 15:31:39</t>
         </is>
       </c>
     </row>
@@ -2926,7 +2926,7 @@
         <v>1.28</v>
       </c>
       <c r="P13" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="Q13" t="n">
         <v>2.42</v>
@@ -3059,7 +3059,7 @@
       </c>
       <c r="BH13" t="inlineStr">
         <is>
-          <t>2026-02-26 13:02:44</t>
+          <t>2026-02-26 15:31:39</t>
         </is>
       </c>
     </row>
@@ -3117,10 +3117,10 @@
         <v>2.02</v>
       </c>
       <c r="O14" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="P14" t="n">
-        <v>1.32</v>
+        <v>1.37</v>
       </c>
       <c r="Q14" t="n">
         <v>3.5</v>
@@ -3135,7 +3135,7 @@
         <v>2.46</v>
       </c>
       <c r="U14" t="n">
-        <v>1.54</v>
+        <v>1.58</v>
       </c>
       <c r="V14" t="n">
         <v>1.45</v>
@@ -3253,7 +3253,7 @@
       </c>
       <c r="BH14" t="inlineStr">
         <is>
-          <t>2026-02-26 13:02:44</t>
+          <t>2026-02-26 15:31:39</t>
         </is>
       </c>
     </row>
@@ -3284,46 +3284,46 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.22</v>
+        <v>3.05</v>
       </c>
       <c r="G15" t="n">
-        <v>1000</v>
+        <v>4.7</v>
       </c>
       <c r="H15" t="n">
-        <v>1.21</v>
+        <v>2.02</v>
       </c>
       <c r="I15" t="n">
-        <v>1000</v>
+        <v>2.76</v>
       </c>
       <c r="J15" t="n">
-        <v>1.02</v>
+        <v>2.88</v>
       </c>
       <c r="K15" t="n">
-        <v>1000</v>
+        <v>5.6</v>
       </c>
       <c r="L15" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="M15" t="n">
         <v>1.01</v>
       </c>
       <c r="N15" t="n">
-        <v>2.92</v>
+        <v>2.84</v>
       </c>
       <c r="O15" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="P15" t="n">
-        <v>1.24</v>
+        <v>1.54</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.42</v>
+        <v>2.12</v>
       </c>
       <c r="R15" t="n">
         <v>1.18</v>
       </c>
       <c r="S15" t="n">
-        <v>1.42</v>
+        <v>2.12</v>
       </c>
       <c r="T15" t="n">
         <v>1.01</v>
@@ -3332,10 +3332,10 @@
         <v>1.01</v>
       </c>
       <c r="V15" t="n">
-        <v>1.01</v>
+        <v>1.56</v>
       </c>
       <c r="W15" t="n">
-        <v>1.01</v>
+        <v>1.27</v>
       </c>
       <c r="X15" t="n">
         <v>1000</v>
@@ -3447,7 +3447,7 @@
       </c>
       <c r="BH15" t="inlineStr">
         <is>
-          <t>2026-02-26 13:02:44</t>
+          <t>2026-02-26 15:31:39</t>
         </is>
       </c>
     </row>
@@ -3478,22 +3478,22 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="G16" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="H16" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="I16" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="J16" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K16" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="L16" t="n">
         <v>1.01</v>
@@ -3502,7 +3502,7 @@
         <v>1.01</v>
       </c>
       <c r="N16" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="O16" t="n">
         <v>1.01</v>
@@ -3517,13 +3517,13 @@
         <v>1.09</v>
       </c>
       <c r="S16" t="n">
-        <v>1.25</v>
+        <v>1.05</v>
       </c>
       <c r="T16" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="U16" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="V16" t="n">
         <v>1.01</v>
@@ -3586,52 +3586,52 @@
         <v>1000</v>
       </c>
       <c r="AP16" t="n">
-        <v>16</v>
+        <v>1.03</v>
       </c>
       <c r="AQ16" t="n">
-        <v>25</v>
+        <v>1.03</v>
       </c>
       <c r="AR16" t="n">
-        <v>50</v>
+        <v>1.03</v>
       </c>
       <c r="AS16" t="n">
-        <v>50</v>
+        <v>1.03</v>
       </c>
       <c r="AT16" t="n">
-        <v>6.4</v>
+        <v>1.03</v>
       </c>
       <c r="AU16" t="n">
-        <v>10</v>
+        <v>1.03</v>
       </c>
       <c r="AV16" t="n">
-        <v>32</v>
+        <v>1.03</v>
       </c>
       <c r="AW16" t="n">
-        <v>50</v>
+        <v>1.03</v>
       </c>
       <c r="AX16" t="n">
-        <v>5.8</v>
+        <v>1.03</v>
       </c>
       <c r="AY16" t="n">
-        <v>9</v>
+        <v>1.03</v>
       </c>
       <c r="AZ16" t="n">
-        <v>26</v>
+        <v>1.03</v>
       </c>
       <c r="BA16" t="n">
-        <v>50</v>
+        <v>1.03</v>
       </c>
       <c r="BB16" t="n">
-        <v>8.199999999999999</v>
+        <v>1.03</v>
       </c>
       <c r="BC16" t="n">
-        <v>11.5</v>
+        <v>1.03</v>
       </c>
       <c r="BD16" t="n">
-        <v>32</v>
+        <v>1.03</v>
       </c>
       <c r="BE16" t="n">
-        <v>50</v>
+        <v>1.03</v>
       </c>
       <c r="BF16" t="n">
         <v>1.01</v>
@@ -3641,7 +3641,7 @@
       </c>
       <c r="BH16" t="inlineStr">
         <is>
-          <t>2026-02-26 13:02:44</t>
+          <t>2026-02-26 15:31:39</t>
         </is>
       </c>
     </row>
@@ -3672,13 +3672,13 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="G17" t="n">
         <v>3.6</v>
       </c>
       <c r="H17" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="I17" t="n">
         <v>2.56</v>
@@ -3687,7 +3687,7 @@
         <v>3.2</v>
       </c>
       <c r="K17" t="n">
-        <v>3.45</v>
+        <v>3.25</v>
       </c>
       <c r="L17" t="n">
         <v>1.01</v>
@@ -3711,7 +3711,7 @@
         <v>1.24</v>
       </c>
       <c r="S17" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="T17" t="n">
         <v>1.89</v>
@@ -3835,7 +3835,7 @@
       </c>
       <c r="BH17" t="inlineStr">
         <is>
-          <t>2026-02-26 13:02:44</t>
+          <t>2026-02-26 15:31:39</t>
         </is>
       </c>
     </row>
@@ -3866,22 +3866,22 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="G18" t="n">
         <v>4.4</v>
       </c>
       <c r="H18" t="n">
-        <v>1.89</v>
+        <v>1.94</v>
       </c>
       <c r="I18" t="n">
         <v>2.06</v>
       </c>
       <c r="J18" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="K18" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="L18" t="n">
         <v>1.33</v>
@@ -3890,16 +3890,16 @@
         <v>1.07</v>
       </c>
       <c r="N18" t="n">
-        <v>2.46</v>
+        <v>2.54</v>
       </c>
       <c r="O18" t="n">
         <v>1.33</v>
       </c>
       <c r="P18" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.84</v>
+        <v>1.9</v>
       </c>
       <c r="R18" t="n">
         <v>1.25</v>
@@ -3908,10 +3908,10 @@
         <v>3.05</v>
       </c>
       <c r="T18" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="U18" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="V18" t="n">
         <v>1.94</v>
@@ -4029,7 +4029,7 @@
       </c>
       <c r="BH18" t="inlineStr">
         <is>
-          <t>2026-02-26 13:02:44</t>
+          <t>2026-02-26 15:31:39</t>
         </is>
       </c>
     </row>
@@ -4060,22 +4060,22 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>3.45</v>
+        <v>3.65</v>
       </c>
       <c r="G19" t="n">
         <v>4.1</v>
       </c>
       <c r="H19" t="n">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="I19" t="n">
-        <v>2.34</v>
+        <v>2.22</v>
       </c>
       <c r="J19" t="n">
-        <v>3.1</v>
+        <v>3.35</v>
       </c>
       <c r="K19" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="L19" t="n">
         <v>1.33</v>
@@ -4090,25 +4090,25 @@
         <v>1.32</v>
       </c>
       <c r="P19" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="R19" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="S19" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="T19" t="n">
         <v>1.8</v>
       </c>
       <c r="U19" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="V19" t="n">
-        <v>1.74</v>
+        <v>1.81</v>
       </c>
       <c r="W19" t="n">
         <v>1.32</v>
@@ -4117,7 +4117,7 @@
         <v>14.5</v>
       </c>
       <c r="Y19" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z19" t="n">
         <v>14.5</v>
@@ -4153,7 +4153,7 @@
         <v>1000</v>
       </c>
       <c r="AK19" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AL19" t="n">
         <v>60</v>
@@ -4162,7 +4162,7 @@
         <v>120</v>
       </c>
       <c r="AN19" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AO19" t="n">
         <v>18.5</v>
@@ -4210,10 +4210,10 @@
         <v>38</v>
       </c>
       <c r="BD19" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="BE19" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="BF19" t="n">
         <v>8</v>
@@ -4223,7 +4223,7 @@
       </c>
       <c r="BH19" t="inlineStr">
         <is>
-          <t>2026-02-26 13:02:44</t>
+          <t>2026-02-26 15:31:39</t>
         </is>
       </c>
     </row>
@@ -4287,13 +4287,13 @@
         <v>2.2</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="R20" t="n">
         <v>1.46</v>
       </c>
       <c r="S20" t="n">
-        <v>2.98</v>
+        <v>2.96</v>
       </c>
       <c r="T20" t="n">
         <v>2.1</v>
@@ -4311,7 +4311,7 @@
         <v>22</v>
       </c>
       <c r="Y20" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="Z20" t="n">
         <v>110</v>
@@ -4326,7 +4326,7 @@
         <v>12</v>
       </c>
       <c r="AD20" t="n">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="AE20" t="n">
         <v>200</v>
@@ -4368,10 +4368,10 @@
         <v>22</v>
       </c>
       <c r="AR20" t="n">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="AS20" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="AT20" t="n">
         <v>7.4</v>
@@ -4380,10 +4380,10 @@
         <v>10.5</v>
       </c>
       <c r="AV20" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="AW20" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="AX20" t="n">
         <v>7.2</v>
@@ -4395,7 +4395,7 @@
         <v>22</v>
       </c>
       <c r="BA20" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="BB20" t="n">
         <v>10</v>
@@ -4404,20 +4404,20 @@
         <v>13</v>
       </c>
       <c r="BD20" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="BE20" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="BF20" t="n">
         <v>5.7</v>
       </c>
       <c r="BG20" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="BH20" t="inlineStr">
         <is>
-          <t>2026-02-26 13:02:44</t>
+          <t>2026-02-26 15:31:39</t>
         </is>
       </c>
     </row>
@@ -4448,22 +4448,22 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.7</v>
+        <v>2.84</v>
       </c>
       <c r="G21" t="n">
-        <v>4.8</v>
+        <v>4.2</v>
       </c>
       <c r="H21" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="I21" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="J21" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="K21" t="n">
-        <v>980</v>
+        <v>7.2</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -4478,10 +4478,10 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>2.26</v>
+        <v>2.08</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.45</v>
+        <v>1.55</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -4611,7 +4611,7 @@
       </c>
       <c r="BH21" t="inlineStr">
         <is>
-          <t>2026-02-26 13:02:44</t>
+          <t>2026-02-26 15:31:39</t>
         </is>
       </c>
     </row>
@@ -4645,16 +4645,16 @@
         <v>2.3</v>
       </c>
       <c r="G22" t="n">
-        <v>2.8</v>
+        <v>2.58</v>
       </c>
       <c r="H22" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="I22" t="n">
-        <v>3.85</v>
+        <v>3.6</v>
       </c>
       <c r="J22" t="n">
-        <v>2.92</v>
+        <v>3.3</v>
       </c>
       <c r="K22" t="n">
         <v>3.75</v>
@@ -4666,7 +4666,7 @@
         <v>1.07</v>
       </c>
       <c r="N22" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="O22" t="n">
         <v>1.34</v>
@@ -4675,7 +4675,7 @@
         <v>1.83</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="R22" t="n">
         <v>1.31</v>
@@ -4684,19 +4684,19 @@
         <v>3.65</v>
       </c>
       <c r="T22" t="n">
-        <v>1.75</v>
+        <v>1.79</v>
       </c>
       <c r="U22" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="V22" t="n">
         <v>1.38</v>
       </c>
       <c r="W22" t="n">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="X22" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="Y22" t="n">
         <v>15</v>
@@ -4714,7 +4714,7 @@
         <v>9.4</v>
       </c>
       <c r="AD22" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AE22" t="n">
         <v>48</v>
@@ -4723,7 +4723,7 @@
         <v>19</v>
       </c>
       <c r="AG22" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AH22" t="n">
         <v>22</v>
@@ -4750,62 +4750,62 @@
         <v>48</v>
       </c>
       <c r="AP22" t="n">
-        <v>9.6</v>
+        <v>11.5</v>
       </c>
       <c r="AQ22" t="n">
-        <v>9.199999999999999</v>
+        <v>10</v>
       </c>
       <c r="AR22" t="n">
         <v>16.5</v>
       </c>
       <c r="AS22" t="n">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="AT22" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="AU22" t="n">
-        <v>6</v>
+        <v>6.6</v>
       </c>
       <c r="AV22" t="n">
         <v>10</v>
       </c>
       <c r="AW22" t="n">
-        <v>4.2</v>
+        <v>3.95</v>
       </c>
       <c r="AX22" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AY22" t="n">
-        <v>8.800000000000001</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AZ22" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BA22" t="n">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="BB22" t="n">
-        <v>24</v>
+        <v>3.9</v>
       </c>
       <c r="BC22" t="n">
         <v>20</v>
       </c>
       <c r="BD22" t="n">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="BE22" t="n">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="BF22" t="n">
         <v>16.5</v>
       </c>
       <c r="BG22" t="n">
-        <v>4.2</v>
+        <v>3.95</v>
       </c>
       <c r="BH22" t="inlineStr">
         <is>
-          <t>2026-02-26 13:02:44</t>
+          <t>2026-02-26 15:31:39</t>
         </is>
       </c>
     </row>
@@ -4836,13 +4836,13 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="G23" t="n">
-        <v>2.52</v>
+        <v>2.46</v>
       </c>
       <c r="H23" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="I23" t="n">
         <v>4.1</v>
@@ -4851,7 +4851,7 @@
         <v>2.98</v>
       </c>
       <c r="K23" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="L23" t="n">
         <v>1.46</v>
@@ -4860,16 +4860,16 @@
         <v>1.12</v>
       </c>
       <c r="N23" t="n">
-        <v>2.96</v>
+        <v>2.66</v>
       </c>
       <c r="O23" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="P23" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="R23" t="n">
         <v>1.2</v>
@@ -4878,16 +4878,16 @@
         <v>5</v>
       </c>
       <c r="T23" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="U23" t="n">
         <v>1.8</v>
       </c>
       <c r="V23" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="W23" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="X23" t="n">
         <v>11</v>
@@ -4944,7 +4944,7 @@
         <v>1000</v>
       </c>
       <c r="AP23" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AQ23" t="n">
         <v>9.199999999999999</v>
@@ -4999,7 +4999,7 @@
       </c>
       <c r="BH23" t="inlineStr">
         <is>
-          <t>2026-02-26 13:02:44</t>
+          <t>2026-02-26 15:31:39</t>
         </is>
       </c>
     </row>
@@ -5030,61 +5030,61 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.24</v>
+        <v>2.02</v>
       </c>
       <c r="G24" t="n">
-        <v>2.42</v>
+        <v>2.6</v>
       </c>
       <c r="H24" t="n">
-        <v>3.35</v>
+        <v>3</v>
       </c>
       <c r="I24" t="n">
-        <v>3.75</v>
+        <v>4.4</v>
       </c>
       <c r="J24" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="K24" t="n">
-        <v>3.65</v>
+        <v>5.5</v>
       </c>
       <c r="L24" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="M24" t="n">
         <v>1.05</v>
       </c>
       <c r="N24" t="n">
-        <v>2.8</v>
+        <v>3.55</v>
       </c>
       <c r="O24" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="P24" t="n">
-        <v>1.7</v>
+        <v>1.79</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.98</v>
+        <v>1.84</v>
       </c>
       <c r="R24" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="S24" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="T24" t="n">
         <v>1.05</v>
       </c>
       <c r="U24" t="n">
-        <v>1.05</v>
+        <v>2.08</v>
       </c>
       <c r="V24" t="n">
-        <v>1.36</v>
+        <v>1.29</v>
       </c>
       <c r="W24" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="X24" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="Y24" t="n">
         <v>1000</v>
@@ -5138,62 +5138,62 @@
         <v>1000</v>
       </c>
       <c r="AP24" t="n">
-        <v>1.01</v>
+        <v>10.5</v>
       </c>
       <c r="AQ24" t="n">
-        <v>1.08</v>
+        <v>1.01</v>
       </c>
       <c r="AR24" t="n">
-        <v>1.08</v>
+        <v>1.01</v>
       </c>
       <c r="AS24" t="n">
-        <v>1.08</v>
+        <v>1.01</v>
       </c>
       <c r="AT24" t="n">
-        <v>1.08</v>
+        <v>1.01</v>
       </c>
       <c r="AU24" t="n">
-        <v>1.08</v>
+        <v>1.01</v>
       </c>
       <c r="AV24" t="n">
-        <v>1.08</v>
+        <v>1.01</v>
       </c>
       <c r="AW24" t="n">
-        <v>1.08</v>
+        <v>1.01</v>
       </c>
       <c r="AX24" t="n">
-        <v>1.08</v>
+        <v>1.01</v>
       </c>
       <c r="AY24" t="n">
-        <v>1.08</v>
+        <v>1.01</v>
       </c>
       <c r="AZ24" t="n">
-        <v>1.08</v>
+        <v>1.01</v>
       </c>
       <c r="BA24" t="n">
-        <v>1.08</v>
+        <v>1.01</v>
       </c>
       <c r="BB24" t="n">
-        <v>1.08</v>
+        <v>1.01</v>
       </c>
       <c r="BC24" t="n">
-        <v>1.08</v>
+        <v>1.01</v>
       </c>
       <c r="BD24" t="n">
-        <v>1.08</v>
+        <v>1.01</v>
       </c>
       <c r="BE24" t="n">
-        <v>1.08</v>
+        <v>1.01</v>
       </c>
       <c r="BF24" t="n">
-        <v>1.08</v>
+        <v>1.01</v>
       </c>
       <c r="BG24" t="n">
-        <v>1.08</v>
+        <v>1.01</v>
       </c>
       <c r="BH24" t="inlineStr">
         <is>
-          <t>2026-02-26 13:02:44</t>
+          <t>2026-02-26 15:31:39</t>
         </is>
       </c>
     </row>
@@ -5227,7 +5227,7 @@
         <v>1.73</v>
       </c>
       <c r="G25" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="H25" t="n">
         <v>4.7</v>
@@ -5242,37 +5242,37 @@
         <v>4.4</v>
       </c>
       <c r="L25" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="M25" t="n">
         <v>1.05</v>
       </c>
       <c r="N25" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="O25" t="n">
         <v>1.25</v>
       </c>
       <c r="P25" t="n">
-        <v>2.04</v>
+        <v>2.24</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.74</v>
+        <v>1.72</v>
       </c>
       <c r="R25" t="n">
-        <v>1.43</v>
+        <v>1.48</v>
       </c>
       <c r="S25" t="n">
-        <v>2.84</v>
+        <v>2.82</v>
       </c>
       <c r="T25" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="U25" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="V25" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="W25" t="n">
         <v>2.24</v>
@@ -5317,10 +5317,10 @@
         <v>22</v>
       </c>
       <c r="AK25" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL25" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AM25" t="n">
         <v>100</v>
@@ -5332,19 +5332,19 @@
         <v>60</v>
       </c>
       <c r="AP25" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AQ25" t="n">
         <v>17.5</v>
       </c>
       <c r="AR25" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="AS25" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="AT25" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AU25" t="n">
         <v>8.6</v>
@@ -5353,7 +5353,7 @@
         <v>17</v>
       </c>
       <c r="AW25" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="AX25" t="n">
         <v>10.5</v>
@@ -5365,7 +5365,7 @@
         <v>16</v>
       </c>
       <c r="BA25" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="BB25" t="n">
         <v>16.5</v>
@@ -5377,7 +5377,7 @@
         <v>4.6</v>
       </c>
       <c r="BE25" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="BF25" t="n">
         <v>7.2</v>
@@ -5387,7 +5387,7 @@
       </c>
       <c r="BH25" t="inlineStr">
         <is>
-          <t>2026-02-26 13:02:44</t>
+          <t>2026-02-26 15:31:39</t>
         </is>
       </c>
     </row>
@@ -5421,13 +5421,13 @@
         <v>1.96</v>
       </c>
       <c r="G26" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="H26" t="n">
         <v>3.9</v>
       </c>
       <c r="I26" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="J26" t="n">
         <v>3.6</v>
@@ -5451,10 +5451,10 @@
         <v>2.04</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="R26" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="S26" t="n">
         <v>3.15</v>
@@ -5463,13 +5463,13 @@
         <v>1.74</v>
       </c>
       <c r="U26" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="V26" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="W26" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="X26" t="n">
         <v>16.5</v>
@@ -5581,7 +5581,7 @@
       </c>
       <c r="BH26" t="inlineStr">
         <is>
-          <t>2026-02-26 13:02:44</t>
+          <t>2026-02-26 15:31:39</t>
         </is>
       </c>
     </row>
@@ -5615,22 +5615,22 @@
         <v>1.75</v>
       </c>
       <c r="G27" t="n">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="H27" t="n">
         <v>4.3</v>
       </c>
       <c r="I27" t="n">
-        <v>5.2</v>
+        <v>4.9</v>
       </c>
       <c r="J27" t="n">
         <v>4.1</v>
       </c>
       <c r="K27" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="L27" t="n">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="M27" t="n">
         <v>1.05</v>
@@ -5642,31 +5642,31 @@
         <v>1.26</v>
       </c>
       <c r="P27" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="Q27" t="n">
         <v>1.76</v>
       </c>
       <c r="R27" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="S27" t="n">
-        <v>2.88</v>
+        <v>2.96</v>
       </c>
       <c r="T27" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="U27" t="n">
         <v>2.14</v>
       </c>
       <c r="V27" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="W27" t="n">
-        <v>2.08</v>
+        <v>2.16</v>
       </c>
       <c r="X27" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="Y27" t="n">
         <v>22</v>
@@ -5678,70 +5678,70 @@
         <v>120</v>
       </c>
       <c r="AB27" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AC27" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AD27" t="n">
         <v>22</v>
       </c>
       <c r="AE27" t="n">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="AF27" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AG27" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AH27" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AI27" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AJ27" t="n">
-        <v>28</v>
+        <v>980</v>
       </c>
       <c r="AK27" t="n">
         <v>22</v>
       </c>
       <c r="AL27" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AM27" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AN27" t="n">
         <v>12.5</v>
       </c>
       <c r="AO27" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AP27" t="n">
-        <v>1.62</v>
+        <v>4.8</v>
       </c>
       <c r="AQ27" t="n">
         <v>15.5</v>
       </c>
       <c r="AR27" t="n">
-        <v>1.57</v>
+        <v>5.3</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.6</v>
+        <v>5.8</v>
       </c>
       <c r="AT27" t="n">
         <v>8.6</v>
       </c>
       <c r="AU27" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AV27" t="n">
         <v>15.5</v>
       </c>
       <c r="AW27" t="n">
-        <v>1.59</v>
+        <v>5.5</v>
       </c>
       <c r="AX27" t="n">
         <v>10</v>
@@ -5750,32 +5750,32 @@
         <v>9</v>
       </c>
       <c r="AZ27" t="n">
-        <v>1.62</v>
+        <v>4.6</v>
       </c>
       <c r="BA27" t="n">
-        <v>1.59</v>
+        <v>5.5</v>
       </c>
       <c r="BB27" t="n">
-        <v>1.54</v>
+        <v>4.6</v>
       </c>
       <c r="BC27" t="n">
         <v>15.5</v>
       </c>
       <c r="BD27" t="n">
-        <v>1.62</v>
+        <v>5.1</v>
       </c>
       <c r="BE27" t="n">
-        <v>1.63</v>
+        <v>5.8</v>
       </c>
       <c r="BF27" t="n">
         <v>7.6</v>
       </c>
       <c r="BG27" t="n">
-        <v>1.63</v>
+        <v>38</v>
       </c>
       <c r="BH27" t="inlineStr">
         <is>
-          <t>2026-02-26 13:02:44</t>
+          <t>2026-02-26 15:31:39</t>
         </is>
       </c>
     </row>
@@ -5809,22 +5809,22 @@
         <v>4.7</v>
       </c>
       <c r="G28" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="H28" t="n">
         <v>1.79</v>
       </c>
       <c r="I28" t="n">
-        <v>1.96</v>
+        <v>1.93</v>
       </c>
       <c r="J28" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K28" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="L28" t="n">
-        <v>1.01</v>
+        <v>1.35</v>
       </c>
       <c r="M28" t="n">
         <v>1.08</v>
@@ -5851,46 +5851,46 @@
         <v>1.94</v>
       </c>
       <c r="U28" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="V28" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="W28" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="X28" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="Y28" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z28" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AA28" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AB28" t="n">
-        <v>21</v>
+        <v>16.5</v>
       </c>
       <c r="AC28" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD28" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AE28" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AF28" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AG28" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AH28" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AI28" t="n">
         <v>1000</v>
@@ -5911,7 +5911,7 @@
         <v>1000</v>
       </c>
       <c r="AO28" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AP28" t="n">
         <v>10.5</v>
@@ -5923,53 +5923,53 @@
         <v>9</v>
       </c>
       <c r="AS28" t="n">
-        <v>1.06</v>
+        <v>17.5</v>
       </c>
       <c r="AT28" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AU28" t="n">
         <v>7</v>
       </c>
       <c r="AV28" t="n">
-        <v>1.06</v>
+        <v>9</v>
       </c>
       <c r="AW28" t="n">
-        <v>1.06</v>
+        <v>18</v>
       </c>
       <c r="AX28" t="n">
-        <v>1.06</v>
+        <v>32</v>
       </c>
       <c r="AY28" t="n">
-        <v>1.06</v>
+        <v>17</v>
       </c>
       <c r="AZ28" t="n">
-        <v>1.06</v>
+        <v>18.5</v>
       </c>
       <c r="BA28" t="n">
-        <v>1.06</v>
+        <v>34</v>
       </c>
       <c r="BB28" t="n">
-        <v>1.06</v>
+        <v>6</v>
       </c>
       <c r="BC28" t="n">
-        <v>1.06</v>
+        <v>5.8</v>
       </c>
       <c r="BD28" t="n">
-        <v>1.06</v>
+        <v>5.8</v>
       </c>
       <c r="BE28" t="n">
-        <v>1.06</v>
+        <v>6</v>
       </c>
       <c r="BF28" t="n">
-        <v>1.06</v>
+        <v>5.9</v>
       </c>
       <c r="BG28" t="n">
         <v>11.5</v>
       </c>
       <c r="BH28" t="inlineStr">
         <is>
-          <t>2026-02-26 13:02:44</t>
+          <t>2026-02-26 15:31:39</t>
         </is>
       </c>
     </row>
@@ -6006,55 +6006,55 @@
         <v>29</v>
       </c>
       <c r="H29" t="n">
-        <v>1.21</v>
+        <v>1.18</v>
       </c>
       <c r="I29" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="J29" t="n">
-        <v>6.6</v>
+        <v>7.2</v>
       </c>
       <c r="K29" t="n">
-        <v>8.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="L29" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="M29" t="n">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="N29" t="n">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
       <c r="O29" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="P29" t="n">
-        <v>2.18</v>
+        <v>2.28</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.72</v>
+        <v>1.67</v>
       </c>
       <c r="R29" t="n">
-        <v>1.46</v>
+        <v>1.49</v>
       </c>
       <c r="S29" t="n">
-        <v>2.78</v>
+        <v>2.58</v>
       </c>
       <c r="T29" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="U29" t="n">
-        <v>1.54</v>
+        <v>1.52</v>
       </c>
       <c r="V29" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="W29" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="X29" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="Y29" t="n">
         <v>7.6</v>
@@ -6063,10 +6063,10 @@
         <v>7.2</v>
       </c>
       <c r="AA29" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AB29" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AC29" t="n">
         <v>18</v>
@@ -6075,7 +6075,7 @@
         <v>12.5</v>
       </c>
       <c r="AE29" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AF29" t="n">
         <v>290</v>
@@ -6093,7 +6093,7 @@
         <v>1000</v>
       </c>
       <c r="AK29" t="n">
-        <v>650</v>
+        <v>1000</v>
       </c>
       <c r="AL29" t="n">
         <v>450</v>
@@ -6111,7 +6111,7 @@
         <v>18.5</v>
       </c>
       <c r="AQ29" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="AR29" t="n">
         <v>5.8</v>
@@ -6120,7 +6120,7 @@
         <v>7.2</v>
       </c>
       <c r="AT29" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="AU29" t="n">
         <v>14.5</v>
@@ -6135,35 +6135,35 @@
         <v>7.2</v>
       </c>
       <c r="AY29" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ29" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="BA29" t="n">
         <v>6.8</v>
-      </c>
-      <c r="AZ29" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="BA29" t="n">
-        <v>6.6</v>
       </c>
       <c r="BB29" t="n">
         <v>7.4</v>
       </c>
       <c r="BC29" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="BD29" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="BE29" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="BF29" t="n">
         <v>7.4</v>
       </c>
       <c r="BG29" t="n">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="BH29" t="inlineStr">
         <is>
-          <t>2026-02-26 13:02:44</t>
+          <t>2026-02-26 15:31:39</t>
         </is>
       </c>
     </row>
@@ -6194,19 +6194,19 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.97</v>
+        <v>1.99</v>
       </c>
       <c r="G30" t="n">
-        <v>2.38</v>
+        <v>2.22</v>
       </c>
       <c r="H30" t="n">
         <v>3.5</v>
       </c>
       <c r="I30" t="n">
-        <v>4.6</v>
+        <v>4.2</v>
       </c>
       <c r="J30" t="n">
-        <v>3.35</v>
+        <v>3.65</v>
       </c>
       <c r="K30" t="n">
         <v>4.3</v>
@@ -6224,31 +6224,31 @@
         <v>1.25</v>
       </c>
       <c r="P30" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="R30" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="S30" t="n">
         <v>2.8</v>
       </c>
       <c r="T30" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="U30" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="V30" t="n">
-        <v>1.27</v>
+        <v>1.31</v>
       </c>
       <c r="W30" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="X30" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Y30" t="n">
         <v>20</v>
@@ -6302,7 +6302,7 @@
         <v>44</v>
       </c>
       <c r="AP30" t="n">
-        <v>13</v>
+        <v>15.5</v>
       </c>
       <c r="AQ30" t="n">
         <v>12</v>
@@ -6314,50 +6314,50 @@
         <v>4</v>
       </c>
       <c r="AT30" t="n">
-        <v>8.199999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="AU30" t="n">
-        <v>6.6</v>
+        <v>7.6</v>
       </c>
       <c r="AV30" t="n">
         <v>11.5</v>
       </c>
       <c r="AW30" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="AX30" t="n">
         <v>10.5</v>
       </c>
       <c r="AY30" t="n">
-        <v>8</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AZ30" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BA30" t="n">
         <v>3.95</v>
       </c>
       <c r="BB30" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="BC30" t="n">
-        <v>15</v>
+        <v>17.5</v>
       </c>
       <c r="BD30" t="n">
-        <v>23</v>
+        <v>3.8</v>
       </c>
       <c r="BE30" t="n">
         <v>4</v>
       </c>
       <c r="BF30" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="BG30" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="BH30" t="inlineStr">
         <is>
-          <t>2026-02-26 13:02:44</t>
+          <t>2026-02-26 15:31:39</t>
         </is>
       </c>
     </row>
@@ -6388,22 +6388,22 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.79</v>
+        <v>1.85</v>
       </c>
       <c r="G31" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="H31" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I31" t="n">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="J31" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="K31" t="n">
-        <v>4.9</v>
+        <v>4.6</v>
       </c>
       <c r="L31" t="n">
         <v>1.01</v>
@@ -6412,37 +6412,37 @@
         <v>1.04</v>
       </c>
       <c r="N31" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="O31" t="n">
         <v>1.23</v>
       </c>
       <c r="P31" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="Q31" t="n">
         <v>1.65</v>
       </c>
       <c r="R31" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="S31" t="n">
         <v>2.66</v>
       </c>
       <c r="T31" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="U31" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="V31" t="n">
         <v>1.31</v>
       </c>
       <c r="W31" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="X31" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y31" t="n">
         <v>38</v>
@@ -6457,13 +6457,13 @@
         <v>15.5</v>
       </c>
       <c r="AC31" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD31" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AE31" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AF31" t="n">
         <v>17.5</v>
@@ -6475,7 +6475,7 @@
         <v>19.5</v>
       </c>
       <c r="AI31" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AJ31" t="n">
         <v>28</v>
@@ -6493,31 +6493,31 @@
         <v>1000</v>
       </c>
       <c r="AO31" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AP31" t="n">
         <v>17</v>
       </c>
       <c r="AQ31" t="n">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="AR31" t="n">
-        <v>7.2</v>
+        <v>8</v>
       </c>
       <c r="AS31" t="n">
-        <v>5.1</v>
+        <v>5.6</v>
       </c>
       <c r="AT31" t="n">
-        <v>9.199999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="AU31" t="n">
-        <v>4.8</v>
+        <v>5.2</v>
       </c>
       <c r="AV31" t="n">
         <v>14.5</v>
       </c>
       <c r="AW31" t="n">
-        <v>7.6</v>
+        <v>5.9</v>
       </c>
       <c r="AX31" t="n">
         <v>11</v>
@@ -6529,29 +6529,29 @@
         <v>13.5</v>
       </c>
       <c r="BA31" t="n">
-        <v>7.6</v>
+        <v>5.3</v>
       </c>
       <c r="BB31" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="BC31" t="n">
         <v>14.5</v>
       </c>
       <c r="BD31" t="n">
-        <v>7</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="BE31" t="n">
-        <v>5</v>
+        <v>5.6</v>
       </c>
       <c r="BF31" t="n">
         <v>8</v>
       </c>
       <c r="BG31" t="n">
-        <v>7.4</v>
+        <v>18.5</v>
       </c>
       <c r="BH31" t="inlineStr">
         <is>
-          <t>2026-02-26 13:02:44</t>
+          <t>2026-02-26 15:31:39</t>
         </is>
       </c>
     </row>
@@ -6588,7 +6588,7 @@
         <v>2.44</v>
       </c>
       <c r="H32" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="I32" t="n">
         <v>3.35</v>
@@ -6597,7 +6597,7 @@
         <v>3.5</v>
       </c>
       <c r="K32" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="L32" t="n">
         <v>1.39</v>
@@ -6606,28 +6606,28 @@
         <v>1.07</v>
       </c>
       <c r="N32" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="O32" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="P32" t="n">
         <v>2</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="R32" t="n">
         <v>1.39</v>
       </c>
       <c r="S32" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="T32" t="n">
         <v>1.75</v>
       </c>
       <c r="U32" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="V32" t="n">
         <v>1.42</v>
@@ -6648,13 +6648,13 @@
         <v>1000</v>
       </c>
       <c r="AB32" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AC32" t="n">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="AD32" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AE32" t="n">
         <v>1000</v>
@@ -6699,7 +6699,7 @@
         <v>19.5</v>
       </c>
       <c r="AS32" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="AT32" t="n">
         <v>9.6</v>
@@ -6711,7 +6711,7 @@
         <v>11.5</v>
       </c>
       <c r="AW32" t="n">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="AX32" t="n">
         <v>13.5</v>
@@ -6720,32 +6720,32 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AZ32" t="n">
-        <v>14.5</v>
+        <v>5.6</v>
       </c>
       <c r="BA32" t="n">
-        <v>6.4</v>
+        <v>7</v>
       </c>
       <c r="BB32" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="BC32" t="n">
-        <v>5.9</v>
+        <v>6.2</v>
       </c>
       <c r="BD32" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="BE32" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="BF32" t="n">
         <v>16</v>
       </c>
       <c r="BG32" t="n">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="BH32" t="inlineStr">
         <is>
-          <t>2026-02-26 13:02:44</t>
+          <t>2026-02-26 15:31:39</t>
         </is>
       </c>
     </row>
@@ -6782,16 +6782,16 @@
         <v>3.05</v>
       </c>
       <c r="H33" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="I33" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="J33" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="K33" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="L33" t="n">
         <v>1.36</v>
@@ -6812,7 +6812,7 @@
         <v>1.8</v>
       </c>
       <c r="R33" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="S33" t="n">
         <v>3</v>
@@ -6866,7 +6866,7 @@
         <v>38</v>
       </c>
       <c r="AJ33" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AK33" t="n">
         <v>34</v>
@@ -6884,7 +6884,7 @@
         <v>19.5</v>
       </c>
       <c r="AP33" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AQ33" t="n">
         <v>10</v>
@@ -6923,7 +6923,7 @@
         <v>7.4</v>
       </c>
       <c r="BC33" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="BD33" t="n">
         <v>7.2</v>
@@ -6939,7 +6939,7 @@
       </c>
       <c r="BH33" t="inlineStr">
         <is>
-          <t>2026-02-26 13:02:44</t>
+          <t>2026-02-26 15:31:39</t>
         </is>
       </c>
     </row>
@@ -6970,7 +6970,7 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="G34" t="n">
         <v>2.1</v>
@@ -6979,13 +6979,13 @@
         <v>4.3</v>
       </c>
       <c r="I34" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="J34" t="n">
         <v>3.35</v>
       </c>
       <c r="K34" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="L34" t="n">
         <v>1.01</v>
@@ -6994,13 +6994,13 @@
         <v>1.1</v>
       </c>
       <c r="N34" t="n">
-        <v>2.92</v>
+        <v>2.96</v>
       </c>
       <c r="O34" t="n">
         <v>1.44</v>
       </c>
       <c r="P34" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="Q34" t="n">
         <v>2.24</v>
@@ -7018,10 +7018,10 @@
         <v>1.83</v>
       </c>
       <c r="V34" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="W34" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="X34" t="n">
         <v>13.5</v>
@@ -7033,10 +7033,10 @@
         <v>980</v>
       </c>
       <c r="AA34" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AB34" t="n">
-        <v>8.800000000000001</v>
+        <v>7.8</v>
       </c>
       <c r="AC34" t="n">
         <v>9.6</v>
@@ -7045,7 +7045,7 @@
         <v>980</v>
       </c>
       <c r="AE34" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AF34" t="n">
         <v>13.5</v>
@@ -7069,25 +7069,25 @@
         <v>980</v>
       </c>
       <c r="AM34" t="n">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="AN34" t="n">
         <v>980</v>
       </c>
       <c r="AO34" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AP34" t="n">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="AQ34" t="n">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="AR34" t="n">
-        <v>3.9</v>
+        <v>4.3</v>
       </c>
       <c r="AS34" t="n">
-        <v>4.2</v>
+        <v>4.8</v>
       </c>
       <c r="AT34" t="n">
         <v>6.2</v>
@@ -7096,44 +7096,44 @@
         <v>6.8</v>
       </c>
       <c r="AV34" t="n">
-        <v>3.65</v>
+        <v>4</v>
       </c>
       <c r="AW34" t="n">
-        <v>4.1</v>
+        <v>4.6</v>
       </c>
       <c r="AX34" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="AY34" t="n">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="AZ34" t="n">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="BA34" t="n">
-        <v>4.1</v>
+        <v>4.7</v>
       </c>
       <c r="BB34" t="n">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="BC34" t="n">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="BD34" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="BE34" t="n">
-        <v>4.2</v>
+        <v>4.8</v>
       </c>
       <c r="BF34" t="n">
         <v>14.5</v>
       </c>
       <c r="BG34" t="n">
-        <v>4.2</v>
+        <v>4.7</v>
       </c>
       <c r="BH34" t="inlineStr">
         <is>
-          <t>2026-02-26 13:02:44</t>
+          <t>2026-02-26 15:31:39</t>
         </is>
       </c>
     </row>
@@ -7164,7 +7164,7 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1.7</v>
+        <v>1.74</v>
       </c>
       <c r="G35" t="n">
         <v>2.16</v>
@@ -7173,37 +7173,37 @@
         <v>3.55</v>
       </c>
       <c r="I35" t="n">
-        <v>6.4</v>
+        <v>5.8</v>
       </c>
       <c r="J35" t="n">
         <v>3.2</v>
       </c>
       <c r="K35" t="n">
-        <v>7.6</v>
+        <v>7</v>
       </c>
       <c r="L35" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="M35" t="n">
         <v>1.01</v>
       </c>
       <c r="N35" t="n">
-        <v>2.66</v>
+        <v>2.82</v>
       </c>
       <c r="O35" t="n">
         <v>1.24</v>
       </c>
       <c r="P35" t="n">
-        <v>1.83</v>
+        <v>1.86</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="R35" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="S35" t="n">
-        <v>2.52</v>
+        <v>2.6</v>
       </c>
       <c r="T35" t="n">
         <v>1.05</v>
@@ -7212,7 +7212,7 @@
         <v>1.05</v>
       </c>
       <c r="V35" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="W35" t="n">
         <v>1.86</v>
@@ -7327,7 +7327,7 @@
       </c>
       <c r="BH35" t="inlineStr">
         <is>
-          <t>2026-02-26 13:02:44</t>
+          <t>2026-02-26 15:31:39</t>
         </is>
       </c>
     </row>
@@ -7358,79 +7358,79 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1.66</v>
+        <v>1.64</v>
       </c>
       <c r="G36" t="n">
-        <v>1.74</v>
+        <v>1.68</v>
       </c>
       <c r="H36" t="n">
-        <v>6</v>
+        <v>6.6</v>
       </c>
       <c r="I36" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="J36" t="n">
-        <v>3.7</v>
+        <v>3.85</v>
       </c>
       <c r="K36" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="L36" t="n">
-        <v>1.39</v>
+        <v>1.44</v>
       </c>
       <c r="M36" t="n">
         <v>1.08</v>
       </c>
       <c r="N36" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="O36" t="n">
         <v>1.39</v>
       </c>
       <c r="P36" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="Q36" t="n">
         <v>2.14</v>
       </c>
       <c r="R36" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="S36" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="T36" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="U36" t="n">
         <v>1.8</v>
       </c>
       <c r="V36" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="W36" t="n">
-        <v>2.34</v>
+        <v>2.46</v>
       </c>
       <c r="X36" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="Y36" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="Z36" t="n">
         <v>980</v>
       </c>
       <c r="AA36" t="n">
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="AB36" t="n">
         <v>7.2</v>
       </c>
       <c r="AC36" t="n">
-        <v>8.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD36" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AE36" t="n">
         <v>130</v>
@@ -7439,16 +7439,16 @@
         <v>10.5</v>
       </c>
       <c r="AG36" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AH36" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="AI36" t="n">
         <v>130</v>
       </c>
       <c r="AJ36" t="n">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="AK36" t="n">
         <v>24</v>
@@ -7460,68 +7460,68 @@
         <v>190</v>
       </c>
       <c r="AN36" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AO36" t="n">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="AP36" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AQ36" t="n">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="AR36" t="n">
-        <v>7.2</v>
+        <v>6.8</v>
       </c>
       <c r="AS36" t="n">
-        <v>8.199999999999999</v>
+        <v>7</v>
       </c>
       <c r="AT36" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="AU36" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="AV36" t="n">
         <v>21</v>
       </c>
       <c r="AW36" t="n">
-        <v>8</v>
+        <v>6.8</v>
       </c>
       <c r="AX36" t="n">
-        <v>8.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="AY36" t="n">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AZ36" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="BA36" t="n">
-        <v>8</v>
+        <v>6.8</v>
       </c>
       <c r="BB36" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="BC36" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="BD36" t="n">
-        <v>7.2</v>
+        <v>36</v>
       </c>
       <c r="BE36" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BF36" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="BG36" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BH36" t="inlineStr">
         <is>
-          <t>2026-02-26 13:02:44</t>
+          <t>2026-02-26 15:31:39</t>
         </is>
       </c>
     </row>
@@ -7555,7 +7555,7 @@
         <v>2.02</v>
       </c>
       <c r="G37" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="H37" t="n">
         <v>3.45</v>
@@ -7564,7 +7564,7 @@
         <v>3.85</v>
       </c>
       <c r="J37" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="K37" t="n">
         <v>4.3</v>
@@ -7576,22 +7576,22 @@
         <v>1.05</v>
       </c>
       <c r="N37" t="n">
-        <v>4</v>
+        <v>4.8</v>
       </c>
       <c r="O37" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="P37" t="n">
-        <v>2.26</v>
+        <v>2.32</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.67</v>
+        <v>1.64</v>
       </c>
       <c r="R37" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="S37" t="n">
-        <v>2.72</v>
+        <v>2.6</v>
       </c>
       <c r="T37" t="n">
         <v>1.62</v>
@@ -7603,7 +7603,7 @@
         <v>1.35</v>
       </c>
       <c r="W37" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="X37" t="n">
         <v>25</v>
@@ -7639,7 +7639,7 @@
         <v>19.5</v>
       </c>
       <c r="AI37" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AJ37" t="n">
         <v>32</v>
@@ -7651,25 +7651,25 @@
         <v>36</v>
       </c>
       <c r="AM37" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AN37" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AO37" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AP37" t="n">
         <v>17.5</v>
       </c>
       <c r="AQ37" t="n">
-        <v>12.5</v>
+        <v>15</v>
       </c>
       <c r="AR37" t="n">
-        <v>20</v>
+        <v>3.85</v>
       </c>
       <c r="AS37" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="AT37" t="n">
         <v>10.5</v>
@@ -7681,7 +7681,7 @@
         <v>13</v>
       </c>
       <c r="AW37" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="AX37" t="n">
         <v>11</v>
@@ -7690,32 +7690,32 @@
         <v>9.4</v>
       </c>
       <c r="AZ37" t="n">
-        <v>11.5</v>
+        <v>3.55</v>
       </c>
       <c r="BA37" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="BB37" t="n">
-        <v>18</v>
+        <v>3.8</v>
       </c>
       <c r="BC37" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="BD37" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="BE37" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="BF37" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="BG37" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="BH37" t="inlineStr">
         <is>
-          <t>2026-02-26 13:02:44</t>
+          <t>2026-02-26 15:31:39</t>
         </is>
       </c>
     </row>
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="G38" t="n">
         <v>2.06</v>
@@ -7755,7 +7755,7 @@
         <v>3.95</v>
       </c>
       <c r="I38" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="J38" t="n">
         <v>3.5</v>
@@ -7764,7 +7764,7 @@
         <v>3.95</v>
       </c>
       <c r="L38" t="n">
-        <v>1.34</v>
+        <v>1.38</v>
       </c>
       <c r="M38" t="n">
         <v>1.06</v>
@@ -7779,7 +7779,7 @@
         <v>1.96</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="R38" t="n">
         <v>1.36</v>
@@ -7788,13 +7788,13 @@
         <v>3.25</v>
       </c>
       <c r="T38" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="U38" t="n">
         <v>2.06</v>
       </c>
       <c r="V38" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="W38" t="n">
         <v>1.94</v>
@@ -7909,7 +7909,7 @@
       </c>
       <c r="BH38" t="inlineStr">
         <is>
-          <t>2026-02-26 13:02:44</t>
+          <t>2026-02-26 15:31:39</t>
         </is>
       </c>
     </row>
@@ -7943,13 +7943,13 @@
         <v>3.6</v>
       </c>
       <c r="G39" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="H39" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="I39" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="J39" t="n">
         <v>3.6</v>
@@ -7958,7 +7958,7 @@
         <v>4.3</v>
       </c>
       <c r="L39" t="n">
-        <v>1.3</v>
+        <v>1.35</v>
       </c>
       <c r="M39" t="n">
         <v>1.05</v>
@@ -7973,25 +7973,25 @@
         <v>2.16</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="R39" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="S39" t="n">
-        <v>2.64</v>
+        <v>2.82</v>
       </c>
       <c r="T39" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="U39" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="V39" t="n">
-        <v>1.84</v>
+        <v>1.87</v>
       </c>
       <c r="W39" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="X39" t="n">
         <v>22</v>
@@ -8000,7 +8000,7 @@
         <v>13</v>
       </c>
       <c r="Z39" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AA39" t="n">
         <v>28</v>
@@ -8018,10 +8018,10 @@
         <v>24</v>
       </c>
       <c r="AF39" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AG39" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AH39" t="n">
         <v>19.5</v>
@@ -8051,59 +8051,59 @@
         <v>15.5</v>
       </c>
       <c r="AQ39" t="n">
-        <v>9.4</v>
+        <v>8.6</v>
       </c>
       <c r="AR39" t="n">
         <v>10.5</v>
       </c>
       <c r="AS39" t="n">
-        <v>18.5</v>
+        <v>4.2</v>
       </c>
       <c r="AT39" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AU39" t="n">
         <v>7.6</v>
       </c>
       <c r="AV39" t="n">
-        <v>9.199999999999999</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AW39" t="n">
-        <v>4.2</v>
+        <v>15</v>
       </c>
       <c r="AX39" t="n">
         <v>4.4</v>
       </c>
       <c r="AY39" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AZ39" t="n">
         <v>14</v>
       </c>
       <c r="BA39" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="BB39" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="BC39" t="n">
         <v>4.5</v>
-      </c>
-      <c r="BB39" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="BC39" t="n">
-        <v>4.6</v>
       </c>
       <c r="BD39" t="n">
         <v>4.6</v>
       </c>
       <c r="BE39" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="BF39" t="n">
         <v>4.5</v>
       </c>
       <c r="BG39" t="n">
-        <v>9.4</v>
+        <v>10</v>
       </c>
       <c r="BH39" t="inlineStr">
         <is>
-          <t>2026-02-26 13:02:44</t>
+          <t>2026-02-26 15:31:39</t>
         </is>
       </c>
     </row>
@@ -8137,16 +8137,16 @@
         <v>2.42</v>
       </c>
       <c r="G40" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="H40" t="n">
         <v>2.3</v>
       </c>
       <c r="I40" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="J40" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="K40" t="n">
         <v>6.6</v>
@@ -8164,10 +8164,10 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>1.25</v>
+        <v>2.18</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.49</v>
+        <v>1.51</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -8297,7 +8297,7 @@
       </c>
       <c r="BH40" t="inlineStr">
         <is>
-          <t>2026-02-26 13:02:44</t>
+          <t>2026-02-26 15:31:39</t>
         </is>
       </c>
     </row>
@@ -8340,7 +8340,7 @@
         <v>4.5</v>
       </c>
       <c r="J41" t="n">
-        <v>2.72</v>
+        <v>3.05</v>
       </c>
       <c r="K41" t="n">
         <v>3.5</v>
@@ -8436,10 +8436,10 @@
         <v>1000</v>
       </c>
       <c r="AP41" t="n">
-        <v>7.6</v>
+        <v>3.2</v>
       </c>
       <c r="AQ41" t="n">
-        <v>8.4</v>
+        <v>3.3</v>
       </c>
       <c r="AR41" t="n">
         <v>18</v>
@@ -8448,13 +8448,13 @@
         <v>4.1</v>
       </c>
       <c r="AT41" t="n">
-        <v>7.2</v>
+        <v>6.2</v>
       </c>
       <c r="AU41" t="n">
-        <v>6.4</v>
+        <v>5.5</v>
       </c>
       <c r="AV41" t="n">
-        <v>3.55</v>
+        <v>11.5</v>
       </c>
       <c r="AW41" t="n">
         <v>4.1</v>
@@ -8463,7 +8463,7 @@
         <v>10</v>
       </c>
       <c r="AY41" t="n">
-        <v>3.3</v>
+        <v>8.6</v>
       </c>
       <c r="AZ41" t="n">
         <v>3.7</v>
@@ -8491,7 +8491,7 @@
       </c>
       <c r="BH41" t="inlineStr">
         <is>
-          <t>2026-02-26 13:02:44</t>
+          <t>2026-02-26 15:31:39</t>
         </is>
       </c>
     </row>
@@ -8525,16 +8525,16 @@
         <v>2.82</v>
       </c>
       <c r="G42" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="H42" t="n">
         <v>2</v>
       </c>
       <c r="I42" t="n">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="J42" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="K42" t="n">
         <v>7</v>
@@ -8564,16 +8564,16 @@
         <v>2.58</v>
       </c>
       <c r="T42" t="n">
-        <v>1.01</v>
+        <v>1.65</v>
       </c>
       <c r="U42" t="n">
         <v>1.01</v>
       </c>
       <c r="V42" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="W42" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="X42" t="n">
         <v>1000</v>
@@ -8630,7 +8630,7 @@
         <v>1000</v>
       </c>
       <c r="AP42" t="n">
-        <v>1.01</v>
+        <v>9.6</v>
       </c>
       <c r="AQ42" t="n">
         <v>1.01</v>
@@ -8685,7 +8685,7 @@
       </c>
       <c r="BH42" t="inlineStr">
         <is>
-          <t>2026-02-26 13:02:44</t>
+          <t>2026-02-26 15:31:39</t>
         </is>
       </c>
     </row>
@@ -8879,7 +8879,7 @@
       </c>
       <c r="BH43" t="inlineStr">
         <is>
-          <t>2026-02-26 13:02:44</t>
+          <t>2026-02-26 15:31:39</t>
         </is>
       </c>
     </row>
@@ -8910,19 +8910,19 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="G44" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="H44" t="n">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="I44" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="J44" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="K44" t="n">
         <v>4.5</v>
@@ -8943,7 +8943,7 @@
         <v>1.82</v>
       </c>
       <c r="Q44" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="R44" t="n">
         <v>1.3</v>
@@ -9030,10 +9030,10 @@
         <v>4.9</v>
       </c>
       <c r="AT44" t="n">
-        <v>5.7</v>
+        <v>6.2</v>
       </c>
       <c r="AU44" t="n">
-        <v>7.2</v>
+        <v>7.8</v>
       </c>
       <c r="AV44" t="n">
         <v>20</v>
@@ -9042,10 +9042,10 @@
         <v>4.8</v>
       </c>
       <c r="AX44" t="n">
-        <v>7</v>
+        <v>7.6</v>
       </c>
       <c r="AY44" t="n">
-        <v>7.8</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AZ44" t="n">
         <v>19</v>
@@ -9054,10 +9054,10 @@
         <v>4.8</v>
       </c>
       <c r="BB44" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="BC44" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="BD44" t="n">
         <v>4.5</v>
@@ -9073,7 +9073,7 @@
       </c>
       <c r="BH44" t="inlineStr">
         <is>
-          <t>2026-02-26 13:02:44</t>
+          <t>2026-02-26 15:31:39</t>
         </is>
       </c>
     </row>
@@ -9107,16 +9107,16 @@
         <v>2.04</v>
       </c>
       <c r="G45" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="H45" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="I45" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="J45" t="n">
-        <v>2.98</v>
+        <v>3.25</v>
       </c>
       <c r="K45" t="n">
         <v>3.6</v>
@@ -9152,10 +9152,10 @@
         <v>1.9</v>
       </c>
       <c r="V45" t="n">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="W45" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="X45" t="n">
         <v>13.5</v>
@@ -9212,7 +9212,7 @@
         <v>1000</v>
       </c>
       <c r="AP45" t="n">
-        <v>8.199999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="AQ45" t="n">
         <v>9.4</v>
@@ -9224,13 +9224,13 @@
         <v>4.2</v>
       </c>
       <c r="AT45" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AU45" t="n">
-        <v>5.7</v>
+        <v>6.8</v>
       </c>
       <c r="AV45" t="n">
-        <v>12.5</v>
+        <v>15</v>
       </c>
       <c r="AW45" t="n">
         <v>4.1</v>
@@ -9239,10 +9239,10 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AY45" t="n">
-        <v>8</v>
+        <v>9.6</v>
       </c>
       <c r="AZ45" t="n">
-        <v>15</v>
+        <v>3.7</v>
       </c>
       <c r="BA45" t="n">
         <v>4.1</v>
@@ -9267,7 +9267,7 @@
       </c>
       <c r="BH45" t="inlineStr">
         <is>
-          <t>2026-02-26 13:02:44</t>
+          <t>2026-02-26 15:31:39</t>
         </is>
       </c>
     </row>
@@ -9298,19 +9298,19 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>1.88</v>
+        <v>1.98</v>
       </c>
       <c r="G46" t="n">
         <v>2.24</v>
       </c>
       <c r="H46" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I46" t="n">
-        <v>5.1</v>
+        <v>4.7</v>
       </c>
       <c r="J46" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K46" t="n">
         <v>3.75</v>
@@ -9337,7 +9337,7 @@
         <v>1.28</v>
       </c>
       <c r="S46" t="n">
-        <v>3.85</v>
+        <v>3.5</v>
       </c>
       <c r="T46" t="n">
         <v>1.87</v>
@@ -9349,7 +9349,7 @@
         <v>1.27</v>
       </c>
       <c r="W46" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="X46" t="n">
         <v>15</v>
@@ -9406,7 +9406,7 @@
         <v>85</v>
       </c>
       <c r="AP46" t="n">
-        <v>9</v>
+        <v>3.35</v>
       </c>
       <c r="AQ46" t="n">
         <v>10</v>
@@ -9421,7 +9421,7 @@
         <v>3</v>
       </c>
       <c r="AU46" t="n">
-        <v>2.98</v>
+        <v>5.9</v>
       </c>
       <c r="AV46" t="n">
         <v>12.5</v>
@@ -9461,7 +9461,7 @@
       </c>
       <c r="BH46" t="inlineStr">
         <is>
-          <t>2026-02-26 13:02:44</t>
+          <t>2026-02-26 15:31:39</t>
         </is>
       </c>
     </row>
@@ -9492,7 +9492,7 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="G47" t="n">
         <v>1.19</v>
@@ -9501,13 +9501,13 @@
         <v>21</v>
       </c>
       <c r="I47" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J47" t="n">
         <v>8.4</v>
       </c>
       <c r="K47" t="n">
-        <v>9.6</v>
+        <v>9</v>
       </c>
       <c r="L47" t="n">
         <v>1.29</v>
@@ -9525,22 +9525,22 @@
         <v>2.44</v>
       </c>
       <c r="Q47" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="R47" t="n">
         <v>1.56</v>
       </c>
       <c r="S47" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="T47" t="n">
         <v>2.62</v>
       </c>
-      <c r="T47" t="n">
-        <v>2.7</v>
-      </c>
       <c r="U47" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="V47" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="W47" t="n">
         <v>6.2</v>
@@ -9549,10 +9549,10 @@
         <v>27</v>
       </c>
       <c r="Y47" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="Z47" t="n">
-        <v>320</v>
+        <v>290</v>
       </c>
       <c r="AA47" t="n">
         <v>1000</v>
@@ -9564,25 +9564,25 @@
         <v>21</v>
       </c>
       <c r="AD47" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="AE47" t="n">
         <v>1000</v>
       </c>
       <c r="AF47" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="AG47" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AH47" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AI47" t="n">
-        <v>470</v>
+        <v>420</v>
       </c>
       <c r="AJ47" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AK47" t="n">
         <v>18</v>
@@ -9591,10 +9591,10 @@
         <v>65</v>
       </c>
       <c r="AM47" t="n">
-        <v>490</v>
+        <v>450</v>
       </c>
       <c r="AN47" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="AO47" t="n">
         <v>1000</v>
@@ -9603,25 +9603,25 @@
         <v>19</v>
       </c>
       <c r="AQ47" t="n">
-        <v>9.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AR47" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AS47" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AT47" t="n">
         <v>7.4</v>
       </c>
       <c r="AU47" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AV47" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="AW47" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AX47" t="n">
         <v>6</v>
@@ -9630,10 +9630,10 @@
         <v>11</v>
       </c>
       <c r="AZ47" t="n">
-        <v>42</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="BA47" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="BB47" t="n">
         <v>6.8</v>
@@ -9642,20 +9642,20 @@
         <v>13.5</v>
       </c>
       <c r="BD47" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="BE47" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BF47" t="n">
         <v>3.7</v>
       </c>
       <c r="BG47" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="BH47" t="inlineStr">
         <is>
-          <t>2026-02-26 13:02:44</t>
+          <t>2026-02-26 15:31:39</t>
         </is>
       </c>
     </row>
@@ -9692,10 +9692,10 @@
         <v>3.3</v>
       </c>
       <c r="H48" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="I48" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="J48" t="n">
         <v>3.4</v>
@@ -9716,13 +9716,13 @@
         <v>1.39</v>
       </c>
       <c r="P48" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="Q48" t="n">
         <v>2.14</v>
       </c>
       <c r="R48" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="S48" t="n">
         <v>4</v>
@@ -9731,10 +9731,10 @@
         <v>1.86</v>
       </c>
       <c r="U48" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="V48" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="W48" t="n">
         <v>1.43</v>
@@ -9749,10 +9749,10 @@
         <v>18</v>
       </c>
       <c r="AA48" t="n">
-        <v>42</v>
+        <v>980</v>
       </c>
       <c r="AB48" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AC48" t="n">
         <v>9</v>
@@ -9764,7 +9764,7 @@
         <v>980</v>
       </c>
       <c r="AF48" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AG48" t="n">
         <v>14.5</v>
@@ -9776,10 +9776,10 @@
         <v>55</v>
       </c>
       <c r="AJ48" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AK48" t="n">
-        <v>48</v>
+        <v>980</v>
       </c>
       <c r="AL48" t="n">
         <v>55</v>
@@ -9797,13 +9797,13 @@
         <v>10.5</v>
       </c>
       <c r="AQ48" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AR48" t="n">
         <v>13</v>
       </c>
       <c r="AS48" t="n">
-        <v>5.2</v>
+        <v>5.7</v>
       </c>
       <c r="AT48" t="n">
         <v>9.6</v>
@@ -9815,7 +9815,7 @@
         <v>10</v>
       </c>
       <c r="AW48" t="n">
-        <v>4.9</v>
+        <v>5.5</v>
       </c>
       <c r="AX48" t="n">
         <v>16</v>
@@ -9827,29 +9827,29 @@
         <v>17</v>
       </c>
       <c r="BA48" t="n">
-        <v>5.3</v>
+        <v>36</v>
       </c>
       <c r="BB48" t="n">
-        <v>5.4</v>
+        <v>6</v>
       </c>
       <c r="BC48" t="n">
         <v>30</v>
       </c>
       <c r="BD48" t="n">
-        <v>5.4</v>
+        <v>6</v>
       </c>
       <c r="BE48" t="n">
-        <v>5.7</v>
+        <v>6.4</v>
       </c>
       <c r="BF48" t="n">
-        <v>5.3</v>
+        <v>6</v>
       </c>
       <c r="BG48" t="n">
         <v>20</v>
       </c>
       <c r="BH48" t="inlineStr">
         <is>
-          <t>2026-02-26 13:02:44</t>
+          <t>2026-02-26 15:31:39</t>
         </is>
       </c>
     </row>
@@ -9886,10 +9886,10 @@
         <v>1.66</v>
       </c>
       <c r="H49" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="I49" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="J49" t="n">
         <v>4.6</v>
@@ -9907,37 +9907,37 @@
         <v>6</v>
       </c>
       <c r="O49" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="P49" t="n">
-        <v>2.76</v>
+        <v>2.7</v>
       </c>
       <c r="Q49" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="R49" t="n">
-        <v>1.71</v>
+        <v>1.68</v>
       </c>
       <c r="S49" t="n">
         <v>2.34</v>
       </c>
       <c r="T49" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="U49" t="n">
-        <v>2.36</v>
+        <v>2.32</v>
       </c>
       <c r="V49" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="W49" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="X49" t="n">
-        <v>34</v>
+        <v>980</v>
       </c>
       <c r="Y49" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="Z49" t="n">
         <v>55</v>
@@ -9991,13 +9991,13 @@
         <v>26</v>
       </c>
       <c r="AQ49" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="AR49" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AS49" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AT49" t="n">
         <v>11.5</v>
@@ -10009,7 +10009,7 @@
         <v>19</v>
       </c>
       <c r="AW49" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AX49" t="n">
         <v>10.5</v>
@@ -10021,7 +10021,7 @@
         <v>15.5</v>
       </c>
       <c r="BA49" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="BB49" t="n">
         <v>13.5</v>
@@ -10033,17 +10033,17 @@
         <v>21</v>
       </c>
       <c r="BE49" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="BF49" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="BG49" t="n">
         <v>34</v>
       </c>
       <c r="BH49" t="inlineStr">
         <is>
-          <t>2026-02-26 13:02:44</t>
+          <t>2026-02-26 15:31:39</t>
         </is>
       </c>
     </row>
@@ -10077,10 +10077,10 @@
         <v>2.78</v>
       </c>
       <c r="G50" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="H50" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="I50" t="n">
         <v>2.68</v>
@@ -10089,7 +10089,7 @@
         <v>3.45</v>
       </c>
       <c r="K50" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="L50" t="n">
         <v>1.01</v>
@@ -10104,7 +10104,7 @@
         <v>1.26</v>
       </c>
       <c r="P50" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="Q50" t="n">
         <v>1.76</v>
@@ -10113,7 +10113,7 @@
         <v>1.41</v>
       </c>
       <c r="S50" t="n">
-        <v>2.96</v>
+        <v>2.92</v>
       </c>
       <c r="T50" t="n">
         <v>1.65</v>
@@ -10125,7 +10125,7 @@
         <v>1.59</v>
       </c>
       <c r="W50" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="X50" t="n">
         <v>20</v>
@@ -10137,40 +10137,40 @@
         <v>21</v>
       </c>
       <c r="AA50" t="n">
-        <v>40</v>
+        <v>980</v>
       </c>
       <c r="AB50" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AC50" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="AD50" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AE50" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AF50" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AG50" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AH50" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AI50" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AJ50" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AK50" t="n">
         <v>38</v>
       </c>
       <c r="AL50" t="n">
-        <v>46</v>
+        <v>980</v>
       </c>
       <c r="AM50" t="n">
         <v>80</v>
@@ -10185,13 +10185,13 @@
         <v>14.5</v>
       </c>
       <c r="AQ50" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AR50" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AS50" t="n">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AT50" t="n">
         <v>11.5</v>
@@ -10203,41 +10203,41 @@
         <v>10</v>
       </c>
       <c r="AW50" t="n">
-        <v>18.5</v>
+        <v>20</v>
       </c>
       <c r="AX50" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AY50" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AZ50" t="n">
         <v>13.5</v>
       </c>
       <c r="BA50" t="n">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="BB50" t="n">
-        <v>4.9</v>
+        <v>5.2</v>
       </c>
       <c r="BC50" t="n">
-        <v>4.6</v>
+        <v>5</v>
       </c>
       <c r="BD50" t="n">
         <v>32</v>
       </c>
       <c r="BE50" t="n">
-        <v>5</v>
+        <v>5.4</v>
       </c>
       <c r="BF50" t="n">
-        <v>17.5</v>
+        <v>20</v>
       </c>
       <c r="BG50" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BH50" t="inlineStr">
         <is>
-          <t>2026-02-26 13:02:44</t>
+          <t>2026-02-26 15:31:39</t>
         </is>
       </c>
     </row>
@@ -10268,13 +10268,13 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="G51" t="n">
         <v>9</v>
       </c>
       <c r="H51" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="I51" t="n">
         <v>1.41</v>
@@ -10283,7 +10283,7 @@
         <v>5.6</v>
       </c>
       <c r="K51" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="L51" t="n">
         <v>1.01</v>
@@ -10292,28 +10292,28 @@
         <v>1.02</v>
       </c>
       <c r="N51" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="O51" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="P51" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="Q51" t="n">
         <v>1.43</v>
       </c>
       <c r="R51" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="S51" t="n">
         <v>2.06</v>
       </c>
       <c r="T51" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="U51" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="V51" t="n">
         <v>3.4</v>
@@ -10325,19 +10325,19 @@
         <v>980</v>
       </c>
       <c r="Y51" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="Z51" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AA51" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AB51" t="n">
         <v>980</v>
       </c>
       <c r="AC51" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AD51" t="n">
         <v>12.5</v>
@@ -10364,7 +10364,7 @@
         <v>110</v>
       </c>
       <c r="AL51" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AM51" t="n">
         <v>95</v>
@@ -10373,22 +10373,22 @@
         <v>90</v>
       </c>
       <c r="AO51" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="AP51" t="n">
-        <v>4.7</v>
+        <v>10.5</v>
       </c>
       <c r="AQ51" t="n">
-        <v>3.95</v>
+        <v>11</v>
       </c>
       <c r="AR51" t="n">
         <v>8.6</v>
       </c>
       <c r="AS51" t="n">
-        <v>3.95</v>
+        <v>4.3</v>
       </c>
       <c r="AT51" t="n">
-        <v>4.8</v>
+        <v>5.2</v>
       </c>
       <c r="AU51" t="n">
         <v>10</v>
@@ -10397,41 +10397,41 @@
         <v>9.4</v>
       </c>
       <c r="AW51" t="n">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="AX51" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AY51" t="n">
         <v>5</v>
       </c>
-      <c r="AY51" t="n">
-        <v>4.6</v>
-      </c>
       <c r="AZ51" t="n">
-        <v>4.4</v>
+        <v>4.8</v>
       </c>
       <c r="BA51" t="n">
-        <v>4.6</v>
+        <v>5</v>
       </c>
       <c r="BB51" t="n">
-        <v>5.2</v>
+        <v>5.9</v>
       </c>
       <c r="BC51" t="n">
-        <v>5.1</v>
+        <v>5.7</v>
       </c>
       <c r="BD51" t="n">
-        <v>5</v>
+        <v>5.6</v>
       </c>
       <c r="BE51" t="n">
-        <v>5</v>
+        <v>5.6</v>
       </c>
       <c r="BF51" t="n">
-        <v>55</v>
+        <v>5.6</v>
       </c>
       <c r="BG51" t="n">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="BH51" t="inlineStr">
         <is>
-          <t>2026-02-26 13:02:44</t>
+          <t>2026-02-26 15:31:39</t>
         </is>
       </c>
     </row>
@@ -10465,10 +10465,10 @@
         <v>2.74</v>
       </c>
       <c r="G52" t="n">
-        <v>2.96</v>
+        <v>2.92</v>
       </c>
       <c r="H52" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="I52" t="n">
         <v>3.1</v>
@@ -10498,7 +10498,7 @@
         <v>2.46</v>
       </c>
       <c r="R52" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="S52" t="n">
         <v>5</v>
@@ -10513,7 +10513,7 @@
         <v>1.47</v>
       </c>
       <c r="W52" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="X52" t="n">
         <v>9.6</v>
@@ -10570,7 +10570,7 @@
         <v>50</v>
       </c>
       <c r="AP52" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AQ52" t="n">
         <v>8</v>
@@ -10625,7 +10625,7 @@
       </c>
       <c r="BH52" t="inlineStr">
         <is>
-          <t>2026-02-26 13:02:44</t>
+          <t>2026-02-26 15:31:39</t>
         </is>
       </c>
     </row>
@@ -10659,19 +10659,19 @@
         <v>2.56</v>
       </c>
       <c r="G53" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="H53" t="n">
         <v>3.15</v>
       </c>
       <c r="I53" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="J53" t="n">
         <v>3.05</v>
       </c>
       <c r="K53" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="L53" t="n">
         <v>1.01</v>
@@ -10819,7 +10819,7 @@
       </c>
       <c r="BH53" t="inlineStr">
         <is>
-          <t>2026-02-26 13:02:44</t>
+          <t>2026-02-26 15:31:39</t>
         </is>
       </c>
     </row>
@@ -10850,10 +10850,10 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="G54" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="H54" t="n">
         <v>2.56</v>
@@ -10868,19 +10868,19 @@
         <v>3.45</v>
       </c>
       <c r="L54" t="n">
-        <v>1.37</v>
+        <v>1.43</v>
       </c>
       <c r="M54" t="n">
         <v>1.08</v>
       </c>
       <c r="N54" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="O54" t="n">
         <v>1.36</v>
       </c>
       <c r="P54" t="n">
-        <v>1.79</v>
+        <v>1.76</v>
       </c>
       <c r="Q54" t="n">
         <v>2.1</v>
@@ -10892,7 +10892,7 @@
         <v>3.75</v>
       </c>
       <c r="T54" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="U54" t="n">
         <v>2.06</v>
@@ -10901,7 +10901,7 @@
         <v>1.59</v>
       </c>
       <c r="W54" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="X54" t="n">
         <v>13</v>
@@ -10913,13 +10913,13 @@
         <v>20</v>
       </c>
       <c r="AA54" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AB54" t="n">
         <v>12</v>
       </c>
       <c r="AC54" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AD54" t="n">
         <v>13</v>
@@ -10967,7 +10967,7 @@
         <v>14</v>
       </c>
       <c r="AS54" t="n">
-        <v>6</v>
+        <v>6.6</v>
       </c>
       <c r="AT54" t="n">
         <v>9.6</v>
@@ -10988,32 +10988,32 @@
         <v>11.5</v>
       </c>
       <c r="AZ54" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="BA54" t="n">
-        <v>6.2</v>
+        <v>6.8</v>
       </c>
       <c r="BB54" t="n">
-        <v>6.2</v>
+        <v>7</v>
       </c>
       <c r="BC54" t="n">
-        <v>6</v>
+        <v>6.6</v>
       </c>
       <c r="BD54" t="n">
-        <v>6.2</v>
+        <v>7</v>
       </c>
       <c r="BE54" t="n">
-        <v>6.8</v>
+        <v>7.4</v>
       </c>
       <c r="BF54" t="n">
-        <v>6</v>
+        <v>6.6</v>
       </c>
       <c r="BG54" t="n">
         <v>20</v>
       </c>
       <c r="BH54" t="inlineStr">
         <is>
-          <t>2026-02-26 13:02:44</t>
+          <t>2026-02-26 15:31:39</t>
         </is>
       </c>
     </row>
@@ -11053,13 +11053,13 @@
         <v>2.92</v>
       </c>
       <c r="I55" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="J55" t="n">
         <v>2.88</v>
       </c>
       <c r="K55" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="L55" t="n">
         <v>1.52</v>
@@ -11207,7 +11207,7 @@
       </c>
       <c r="BH55" t="inlineStr">
         <is>
-          <t>2026-02-26 13:02:44</t>
+          <t>2026-02-26 15:31:39</t>
         </is>
       </c>
     </row>
@@ -11241,7 +11241,7 @@
         <v>2.7</v>
       </c>
       <c r="G56" t="n">
-        <v>2.88</v>
+        <v>2.86</v>
       </c>
       <c r="H56" t="n">
         <v>2.62</v>
@@ -11250,7 +11250,7 @@
         <v>2.74</v>
       </c>
       <c r="J56" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="K56" t="n">
         <v>3.8</v>
@@ -11265,16 +11265,16 @@
         <v>4.4</v>
       </c>
       <c r="O56" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="P56" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="Q56" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="R56" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="S56" t="n">
         <v>3</v>
@@ -11283,10 +11283,10 @@
         <v>1.65</v>
       </c>
       <c r="U56" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="V56" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="W56" t="n">
         <v>1.53</v>
@@ -11295,7 +11295,7 @@
         <v>20</v>
       </c>
       <c r="Y56" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="Z56" t="n">
         <v>22</v>
@@ -11304,13 +11304,13 @@
         <v>46</v>
       </c>
       <c r="AB56" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="AC56" t="n">
-        <v>9.6</v>
+        <v>8.4</v>
       </c>
       <c r="AD56" t="n">
-        <v>14.5</v>
+        <v>12.5</v>
       </c>
       <c r="AE56" t="n">
         <v>32</v>
@@ -11355,7 +11355,7 @@
         <v>16</v>
       </c>
       <c r="AS56" t="n">
-        <v>4.8</v>
+        <v>7.4</v>
       </c>
       <c r="AT56" t="n">
         <v>11.5</v>
@@ -11379,19 +11379,19 @@
         <v>13.5</v>
       </c>
       <c r="BA56" t="n">
-        <v>4.7</v>
+        <v>7.2</v>
       </c>
       <c r="BB56" t="n">
-        <v>4.8</v>
+        <v>7.4</v>
       </c>
       <c r="BC56" t="n">
         <v>21</v>
       </c>
       <c r="BD56" t="n">
-        <v>4.7</v>
+        <v>7.4</v>
       </c>
       <c r="BE56" t="n">
-        <v>5</v>
+        <v>6.2</v>
       </c>
       <c r="BF56" t="n">
         <v>16.5</v>
@@ -11401,7 +11401,7 @@
       </c>
       <c r="BH56" t="inlineStr">
         <is>
-          <t>2026-02-26 13:02:44</t>
+          <t>2026-02-26 15:31:39</t>
         </is>
       </c>
     </row>
@@ -11435,7 +11435,7 @@
         <v>1.25</v>
       </c>
       <c r="G57" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="H57" t="n">
         <v>11</v>
@@ -11468,7 +11468,7 @@
         <v>1.3</v>
       </c>
       <c r="R57" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="S57" t="n">
         <v>1.83</v>
@@ -11477,13 +11477,13 @@
         <v>1.01</v>
       </c>
       <c r="U57" t="n">
-        <v>1.01</v>
+        <v>1.71</v>
       </c>
       <c r="V57" t="n">
         <v>1.07</v>
       </c>
       <c r="W57" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="X57" t="n">
         <v>1000</v>
@@ -11540,7 +11540,7 @@
         <v>1000</v>
       </c>
       <c r="AP57" t="n">
-        <v>1.01</v>
+        <v>10.5</v>
       </c>
       <c r="AQ57" t="n">
         <v>1.01</v>
@@ -11595,7 +11595,7 @@
       </c>
       <c r="BH57" t="inlineStr">
         <is>
-          <t>2026-02-26 13:02:44</t>
+          <t>2026-02-26 15:31:39</t>
         </is>
       </c>
     </row>
@@ -11629,16 +11629,16 @@
         <v>3.4</v>
       </c>
       <c r="G58" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="H58" t="n">
         <v>2</v>
       </c>
       <c r="I58" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="J58" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="K58" t="n">
         <v>4.6</v>
@@ -11665,7 +11665,7 @@
         <v>1.9</v>
       </c>
       <c r="S58" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="T58" t="n">
         <v>1.4</v>
@@ -11674,7 +11674,7 @@
         <v>3.15</v>
       </c>
       <c r="V58" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="W58" t="n">
         <v>1.38</v>
@@ -11737,7 +11737,7 @@
         <v>30</v>
       </c>
       <c r="AQ58" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AR58" t="n">
         <v>17</v>
@@ -11746,7 +11746,7 @@
         <v>23</v>
       </c>
       <c r="AT58" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AU58" t="n">
         <v>10</v>
@@ -11758,7 +11758,7 @@
         <v>16</v>
       </c>
       <c r="AX58" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AY58" t="n">
         <v>14.5</v>
@@ -11767,16 +11767,16 @@
         <v>11.5</v>
       </c>
       <c r="BA58" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="BB58" t="n">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="BC58" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="BD58" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="BE58" t="n">
         <v>32</v>
@@ -11789,7 +11789,7 @@
       </c>
       <c r="BH58" t="inlineStr">
         <is>
-          <t>2026-02-26 13:02:44</t>
+          <t>2026-02-26 15:31:39</t>
         </is>
       </c>
     </row>
@@ -11865,7 +11865,7 @@
         <v>1.58</v>
       </c>
       <c r="U59" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="V59" t="n">
         <v>1.55</v>
@@ -11928,7 +11928,7 @@
         <v>21</v>
       </c>
       <c r="AP59" t="n">
-        <v>3.65</v>
+        <v>10.5</v>
       </c>
       <c r="AQ59" t="n">
         <v>13</v>
@@ -11983,7 +11983,7 @@
       </c>
       <c r="BH59" t="inlineStr">
         <is>
-          <t>2026-02-26 13:02:44</t>
+          <t>2026-02-26 15:31:39</t>
         </is>
       </c>
     </row>
@@ -12059,10 +12059,10 @@
         <v>1.62</v>
       </c>
       <c r="U60" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="V60" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="W60" t="n">
         <v>1.94</v>
@@ -12177,7 +12177,7 @@
       </c>
       <c r="BH60" t="inlineStr">
         <is>
-          <t>2026-02-26 13:02:44</t>
+          <t>2026-02-26 15:31:39</t>
         </is>
       </c>
     </row>
@@ -12208,10 +12208,10 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="G61" t="n">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="H61" t="n">
         <v>2.7</v>
@@ -12220,7 +12220,7 @@
         <v>3.05</v>
       </c>
       <c r="J61" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="K61" t="n">
         <v>4.3</v>
@@ -12256,10 +12256,10 @@
         <v>2.4</v>
       </c>
       <c r="V61" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="W61" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="X61" t="n">
         <v>980</v>
@@ -12334,7 +12334,7 @@
         <v>7.2</v>
       </c>
       <c r="AV61" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="AW61" t="n">
         <v>7</v>
@@ -12371,7 +12371,7 @@
       </c>
       <c r="BH61" t="inlineStr">
         <is>
-          <t>2026-02-26 13:02:44</t>
+          <t>2026-02-26 15:31:39</t>
         </is>
       </c>
     </row>
@@ -12402,19 +12402,19 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="G62" t="n">
-        <v>2.76</v>
+        <v>2.72</v>
       </c>
       <c r="H62" t="n">
         <v>2.6</v>
       </c>
       <c r="I62" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="J62" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="K62" t="n">
         <v>4.4</v>
@@ -12441,19 +12441,19 @@
         <v>1.63</v>
       </c>
       <c r="S62" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="T62" t="n">
         <v>1.48</v>
       </c>
       <c r="U62" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="V62" t="n">
         <v>1.53</v>
       </c>
       <c r="W62" t="n">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="X62" t="n">
         <v>980</v>
@@ -12565,7 +12565,7 @@
       </c>
       <c r="BH62" t="inlineStr">
         <is>
-          <t>2026-02-26 13:02:44</t>
+          <t>2026-02-26 15:31:39</t>
         </is>
       </c>
     </row>
@@ -12596,16 +12596,16 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="G63" t="n">
         <v>4.5</v>
       </c>
       <c r="H63" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="I63" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="J63" t="n">
         <v>4.4</v>
@@ -12644,7 +12644,7 @@
         <v>2.84</v>
       </c>
       <c r="V63" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="W63" t="n">
         <v>1.29</v>
@@ -12704,7 +12704,7 @@
         <v>6.2</v>
       </c>
       <c r="AP63" t="n">
-        <v>6.8</v>
+        <v>10.5</v>
       </c>
       <c r="AQ63" t="n">
         <v>6.6</v>
@@ -12759,7 +12759,7 @@
       </c>
       <c r="BH63" t="inlineStr">
         <is>
-          <t>2026-02-26 13:02:44</t>
+          <t>2026-02-26 15:31:39</t>
         </is>
       </c>
     </row>
@@ -12793,19 +12793,19 @@
         <v>2.76</v>
       </c>
       <c r="G64" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="H64" t="n">
         <v>2.28</v>
       </c>
       <c r="I64" t="n">
-        <v>2.52</v>
+        <v>2.48</v>
       </c>
       <c r="J64" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="K64" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="L64" t="n">
         <v>1.22</v>
@@ -12838,10 +12838,10 @@
         <v>2.8</v>
       </c>
       <c r="V64" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="W64" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="X64" t="n">
         <v>980</v>
@@ -12898,7 +12898,7 @@
         <v>11</v>
       </c>
       <c r="AP64" t="n">
-        <v>6.8</v>
+        <v>10.5</v>
       </c>
       <c r="AQ64" t="n">
         <v>15</v>
@@ -12953,7 +12953,7 @@
       </c>
       <c r="BH64" t="inlineStr">
         <is>
-          <t>2026-02-26 13:02:44</t>
+          <t>2026-02-26 15:31:39</t>
         </is>
       </c>
     </row>
@@ -12987,7 +12987,7 @@
         <v>2.12</v>
       </c>
       <c r="G65" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="H65" t="n">
         <v>3</v>
@@ -12999,7 +12999,7 @@
         <v>4</v>
       </c>
       <c r="K65" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="L65" t="n">
         <v>1.01</v>
@@ -13026,7 +13026,7 @@
         <v>2.24</v>
       </c>
       <c r="T65" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="U65" t="n">
         <v>2.62</v>
@@ -13035,7 +13035,7 @@
         <v>1.43</v>
       </c>
       <c r="W65" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="X65" t="n">
         <v>29</v>
@@ -13147,7 +13147,7 @@
       </c>
       <c r="BH65" t="inlineStr">
         <is>
-          <t>2026-02-26 13:02:44</t>
+          <t>2026-02-26 15:31:39</t>
         </is>
       </c>
     </row>
@@ -13181,13 +13181,13 @@
         <v>5.1</v>
       </c>
       <c r="G66" t="n">
-        <v>6.6</v>
+        <v>5.8</v>
       </c>
       <c r="H66" t="n">
         <v>1.63</v>
       </c>
       <c r="I66" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="J66" t="n">
         <v>4.2</v>
@@ -13220,16 +13220,16 @@
         <v>2.26</v>
       </c>
       <c r="T66" t="n">
-        <v>1.54</v>
+        <v>1.01</v>
       </c>
       <c r="U66" t="n">
-        <v>1.01</v>
+        <v>1.6</v>
       </c>
       <c r="V66" t="n">
-        <v>2.32</v>
+        <v>2.38</v>
       </c>
       <c r="W66" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="X66" t="n">
         <v>1000</v>
@@ -13286,7 +13286,7 @@
         <v>1000</v>
       </c>
       <c r="AP66" t="n">
-        <v>1.01</v>
+        <v>10.5</v>
       </c>
       <c r="AQ66" t="n">
         <v>1.01</v>
@@ -13341,7 +13341,7 @@
       </c>
       <c r="BH66" t="inlineStr">
         <is>
-          <t>2026-02-26 13:02:44</t>
+          <t>2026-02-26 15:31:39</t>
         </is>
       </c>
     </row>
@@ -13375,7 +13375,7 @@
         <v>1.85</v>
       </c>
       <c r="G67" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="H67" t="n">
         <v>3.8</v>
@@ -13411,19 +13411,19 @@
         <v>1.5</v>
       </c>
       <c r="S67" t="n">
-        <v>2.48</v>
+        <v>2.6</v>
       </c>
       <c r="T67" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="U67" t="n">
         <v>2.28</v>
       </c>
       <c r="V67" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="W67" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="X67" t="n">
         <v>980</v>
@@ -13535,7 +13535,7 @@
       </c>
       <c r="BH67" t="inlineStr">
         <is>
-          <t>2026-02-26 13:02:44</t>
+          <t>2026-02-26 15:31:39</t>
         </is>
       </c>
     </row>
@@ -13605,7 +13605,7 @@
         <v>1.56</v>
       </c>
       <c r="S68" t="n">
-        <v>2.42</v>
+        <v>2.28</v>
       </c>
       <c r="T68" t="n">
         <v>1.6</v>
@@ -13729,7 +13729,7 @@
       </c>
       <c r="BH68" t="inlineStr">
         <is>
-          <t>2026-02-26 13:02:44</t>
+          <t>2026-02-26 15:31:39</t>
         </is>
       </c>
     </row>
@@ -13763,16 +13763,16 @@
         <v>2.52</v>
       </c>
       <c r="G69" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="H69" t="n">
         <v>2.76</v>
       </c>
       <c r="I69" t="n">
-        <v>2.98</v>
+        <v>2.96</v>
       </c>
       <c r="J69" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="K69" t="n">
         <v>3.85</v>
@@ -13790,7 +13790,7 @@
         <v>1.27</v>
       </c>
       <c r="P69" t="n">
-        <v>2.16</v>
+        <v>2.12</v>
       </c>
       <c r="Q69" t="n">
         <v>1.78</v>
@@ -13799,19 +13799,19 @@
         <v>1.45</v>
       </c>
       <c r="S69" t="n">
-        <v>2.98</v>
+        <v>2.96</v>
       </c>
       <c r="T69" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="U69" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="V69" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="W69" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="X69" t="n">
         <v>19</v>
@@ -13877,7 +13877,7 @@
         <v>17.5</v>
       </c>
       <c r="AS69" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AT69" t="n">
         <v>10.5</v>
@@ -13923,7 +13923,7 @@
       </c>
       <c r="BH69" t="inlineStr">
         <is>
-          <t>2026-02-26 13:02:44</t>
+          <t>2026-02-26 15:31:39</t>
         </is>
       </c>
     </row>
@@ -13954,7 +13954,7 @@
         </is>
       </c>
       <c r="F70" t="n">
-        <v>2.98</v>
+        <v>2.96</v>
       </c>
       <c r="G70" t="n">
         <v>3.3</v>
@@ -13966,7 +13966,7 @@
         <v>2.64</v>
       </c>
       <c r="J70" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="K70" t="n">
         <v>3.65</v>
@@ -13978,34 +13978,34 @@
         <v>1.08</v>
       </c>
       <c r="N70" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="O70" t="n">
         <v>1.35</v>
       </c>
       <c r="P70" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="Q70" t="n">
         <v>2.02</v>
       </c>
       <c r="R70" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="S70" t="n">
         <v>3.6</v>
       </c>
       <c r="T70" t="n">
-        <v>1.69</v>
+        <v>1.78</v>
       </c>
       <c r="U70" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="V70" t="n">
         <v>1.61</v>
       </c>
       <c r="W70" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="X70" t="n">
         <v>15</v>
@@ -14065,49 +14065,49 @@
         <v>10.5</v>
       </c>
       <c r="AQ70" t="n">
-        <v>8.800000000000001</v>
+        <v>3.7</v>
       </c>
       <c r="AR70" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="AS70" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="AT70" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="AU70" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="AV70" t="n">
         <v>10</v>
       </c>
       <c r="AW70" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="AX70" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AY70" t="n">
+        <v>4</v>
+      </c>
+      <c r="AZ70" t="n">
         <v>4.3</v>
       </c>
-      <c r="AY70" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="AZ70" t="n">
-        <v>4.2</v>
-      </c>
       <c r="BA70" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="BB70" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="BC70" t="n">
         <v>4.7</v>
       </c>
       <c r="BD70" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="BE70" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="BF70" t="n">
         <v>4.7</v>
@@ -14117,7 +14117,7 @@
       </c>
       <c r="BH70" t="inlineStr">
         <is>
-          <t>2026-02-26 13:02:44</t>
+          <t>2026-02-26 15:31:39</t>
         </is>
       </c>
     </row>
@@ -14151,16 +14151,16 @@
         <v>2.78</v>
       </c>
       <c r="G71" t="n">
-        <v>3.6</v>
+        <v>3.35</v>
       </c>
       <c r="H71" t="n">
         <v>2.72</v>
       </c>
       <c r="I71" t="n">
-        <v>3.45</v>
+        <v>3.2</v>
       </c>
       <c r="J71" t="n">
-        <v>2.62</v>
+        <v>2.7</v>
       </c>
       <c r="K71" t="n">
         <v>3.3</v>
@@ -14187,7 +14187,7 @@
         <v>1.2</v>
       </c>
       <c r="S71" t="n">
-        <v>4.3</v>
+        <v>4.9</v>
       </c>
       <c r="T71" t="n">
         <v>1.98</v>
@@ -14196,7 +14196,7 @@
         <v>1.81</v>
       </c>
       <c r="V71" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="W71" t="n">
         <v>1.43</v>
@@ -14311,7 +14311,7 @@
       </c>
       <c r="BH71" t="inlineStr">
         <is>
-          <t>2026-02-26 13:02:44</t>
+          <t>2026-02-26 15:31:39</t>
         </is>
       </c>
     </row>
@@ -14345,7 +14345,7 @@
         <v>2.22</v>
       </c>
       <c r="G72" t="n">
-        <v>2.96</v>
+        <v>2.64</v>
       </c>
       <c r="H72" t="n">
         <v>2.92</v>
@@ -14354,10 +14354,10 @@
         <v>4.2</v>
       </c>
       <c r="J72" t="n">
-        <v>2.68</v>
+        <v>2.76</v>
       </c>
       <c r="K72" t="n">
-        <v>4.8</v>
+        <v>4</v>
       </c>
       <c r="L72" t="n">
         <v>1.43</v>
@@ -14366,22 +14366,22 @@
         <v>1.01</v>
       </c>
       <c r="N72" t="n">
-        <v>1.5</v>
+        <v>3.15</v>
       </c>
       <c r="O72" t="n">
-        <v>1.02</v>
+        <v>1.35</v>
       </c>
       <c r="P72" t="n">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="Q72" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="R72" t="n">
         <v>1.18</v>
       </c>
       <c r="S72" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="T72" t="n">
         <v>1.01</v>
@@ -14393,7 +14393,7 @@
         <v>1.31</v>
       </c>
       <c r="W72" t="n">
-        <v>1.51</v>
+        <v>1.6</v>
       </c>
       <c r="X72" t="n">
         <v>1000</v>
@@ -14505,7 +14505,7 @@
       </c>
       <c r="BH72" t="inlineStr">
         <is>
-          <t>2026-02-26 13:02:44</t>
+          <t>2026-02-26 15:31:39</t>
         </is>
       </c>
     </row>
@@ -14560,7 +14560,7 @@
         <v>1.06</v>
       </c>
       <c r="N73" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="O73" t="n">
         <v>1.26</v>
@@ -14699,7 +14699,7 @@
       </c>
       <c r="BH73" t="inlineStr">
         <is>
-          <t>2026-02-26 13:02:44</t>
+          <t>2026-02-26 15:31:39</t>
         </is>
       </c>
     </row>
@@ -14733,16 +14733,16 @@
         <v>2.26</v>
       </c>
       <c r="G74" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="H74" t="n">
         <v>2.88</v>
       </c>
       <c r="I74" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="J74" t="n">
-        <v>2.56</v>
+        <v>2.72</v>
       </c>
       <c r="K74" t="n">
         <v>4.7</v>
@@ -14778,10 +14778,10 @@
         <v>1.01</v>
       </c>
       <c r="V74" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="W74" t="n">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="X74" t="n">
         <v>1000</v>
@@ -14893,7 +14893,7 @@
       </c>
       <c r="BH74" t="inlineStr">
         <is>
-          <t>2026-02-26 13:02:44</t>
+          <t>2026-02-26 15:31:39</t>
         </is>
       </c>
     </row>
@@ -14924,10 +14924,10 @@
         </is>
       </c>
       <c r="F75" t="n">
-        <v>1.56</v>
+        <v>1.89</v>
       </c>
       <c r="G75" t="n">
-        <v>980</v>
+        <v>2.42</v>
       </c>
       <c r="H75" t="n">
         <v>3.05</v>
@@ -14936,10 +14936,10 @@
         <v>4.7</v>
       </c>
       <c r="J75" t="n">
-        <v>1.03</v>
+        <v>3.35</v>
       </c>
       <c r="K75" t="n">
-        <v>980</v>
+        <v>6.8</v>
       </c>
       <c r="L75" t="n">
         <v>1.01</v>
@@ -14957,25 +14957,25 @@
         <v>2.2</v>
       </c>
       <c r="Q75" t="n">
-        <v>1.23</v>
+        <v>1.6</v>
       </c>
       <c r="R75" t="n">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="S75" t="n">
-        <v>1.23</v>
+        <v>2.6</v>
       </c>
       <c r="T75" t="n">
-        <v>1.01</v>
+        <v>1.58</v>
       </c>
       <c r="U75" t="n">
-        <v>1.01</v>
+        <v>2.12</v>
       </c>
       <c r="V75" t="n">
-        <v>1.01</v>
+        <v>1.27</v>
       </c>
       <c r="W75" t="n">
-        <v>1.01</v>
+        <v>1.71</v>
       </c>
       <c r="X75" t="n">
         <v>1000</v>
@@ -15087,7 +15087,7 @@
       </c>
       <c r="BH75" t="inlineStr">
         <is>
-          <t>2026-02-26 13:02:44</t>
+          <t>2026-02-26 15:31:39</t>
         </is>
       </c>
     </row>
@@ -15118,22 +15118,22 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>1.77</v>
+        <v>1.73</v>
       </c>
       <c r="G76" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="H76" t="n">
-        <v>5</v>
+        <v>4.4</v>
       </c>
       <c r="I76" t="n">
         <v>6.8</v>
       </c>
       <c r="J76" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K76" t="n">
-        <v>4.2</v>
+        <v>4.6</v>
       </c>
       <c r="L76" t="n">
         <v>1.35</v>
@@ -15145,7 +15145,7 @@
         <v>1.71</v>
       </c>
       <c r="O76" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="P76" t="n">
         <v>1.71</v>
@@ -15166,10 +15166,10 @@
         <v>1.01</v>
       </c>
       <c r="V76" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="W76" t="n">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="X76" t="n">
         <v>1000</v>
@@ -15281,7 +15281,7 @@
       </c>
       <c r="BH76" t="inlineStr">
         <is>
-          <t>2026-02-26 13:02:44</t>
+          <t>2026-02-26 15:31:39</t>
         </is>
       </c>
     </row>
@@ -15315,7 +15315,7 @@
         <v>1.46</v>
       </c>
       <c r="G77" t="n">
-        <v>1.58</v>
+        <v>1.56</v>
       </c>
       <c r="H77" t="n">
         <v>7.2</v>
@@ -15327,7 +15327,7 @@
         <v>4.3</v>
       </c>
       <c r="K77" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="L77" t="n">
         <v>1.01</v>
@@ -15348,10 +15348,10 @@
         <v>1.84</v>
       </c>
       <c r="R77" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="S77" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="T77" t="n">
         <v>1.98</v>
@@ -15363,7 +15363,7 @@
         <v>1.11</v>
       </c>
       <c r="W77" t="n">
-        <v>2.74</v>
+        <v>2.78</v>
       </c>
       <c r="X77" t="n">
         <v>19.5</v>
@@ -15393,7 +15393,7 @@
         <v>10.5</v>
       </c>
       <c r="AG77" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH77" t="n">
         <v>29</v>
@@ -15426,10 +15426,10 @@
         <v>20</v>
       </c>
       <c r="AR77" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="AS77" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="AT77" t="n">
         <v>7</v>
@@ -15441,7 +15441,7 @@
         <v>23</v>
       </c>
       <c r="AW77" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="AX77" t="n">
         <v>7.4</v>
@@ -15453,7 +15453,7 @@
         <v>21</v>
       </c>
       <c r="BA77" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="BB77" t="n">
         <v>11.5</v>
@@ -15462,20 +15462,20 @@
         <v>14</v>
       </c>
       <c r="BD77" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="BE77" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="BF77" t="n">
         <v>6.2</v>
       </c>
       <c r="BG77" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="BH77" t="inlineStr">
         <is>
-          <t>2026-02-26 13:02:44</t>
+          <t>2026-02-26 15:31:39</t>
         </is>
       </c>
     </row>
@@ -15509,46 +15509,46 @@
         <v>1.64</v>
       </c>
       <c r="G78" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="H78" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="I78" t="n">
         <v>6.2</v>
       </c>
       <c r="J78" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="K78" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="L78" t="n">
         <v>1.01</v>
       </c>
       <c r="M78" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N78" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="O78" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="P78" t="n">
         <v>2.38</v>
       </c>
       <c r="Q78" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="R78" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="S78" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="T78" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="U78" t="n">
         <v>2.28</v>
@@ -15557,7 +15557,7 @@
         <v>1.2</v>
       </c>
       <c r="W78" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="X78" t="n">
         <v>1000</v>
@@ -15608,68 +15608,68 @@
         <v>1000</v>
       </c>
       <c r="AN78" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AO78" t="n">
         <v>1000</v>
       </c>
       <c r="AP78" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="AQ78" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AR78" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AS78" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AT78" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AU78" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AV78" t="n">
         <v>3.85</v>
       </c>
-      <c r="AQ78" t="n">
+      <c r="AW78" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AX78" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AY78" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AZ78" t="n">
         <v>3.8</v>
       </c>
-      <c r="AR78" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="AS78" t="n">
+      <c r="BA78" t="n">
         <v>4.3</v>
       </c>
-      <c r="AT78" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="AU78" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AV78" t="n">
+      <c r="BB78" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BC78" t="n">
         <v>3.75</v>
       </c>
-      <c r="AW78" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="AX78" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AY78" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="AZ78" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="BA78" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="BB78" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="BC78" t="n">
-        <v>3.65</v>
-      </c>
       <c r="BD78" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="BE78" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="BF78" t="n">
         <v>6.4</v>
       </c>
       <c r="BG78" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="BH78" t="inlineStr">
         <is>
-          <t>2026-02-26 13:02:44</t>
+          <t>2026-02-26 15:31:39</t>
         </is>
       </c>
     </row>
@@ -15703,13 +15703,13 @@
         <v>2.38</v>
       </c>
       <c r="G79" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="H79" t="n">
         <v>3</v>
       </c>
       <c r="I79" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="J79" t="n">
         <v>3.25</v>
@@ -15751,7 +15751,7 @@
         <v>1.39</v>
       </c>
       <c r="W79" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="X79" t="n">
         <v>970</v>
@@ -15808,46 +15808,46 @@
         <v>34</v>
       </c>
       <c r="AP79" t="n">
-        <v>3.65</v>
+        <v>3.8</v>
       </c>
       <c r="AQ79" t="n">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="AR79" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="AS79" t="n">
         <v>4.1</v>
       </c>
       <c r="AT79" t="n">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="AU79" t="n">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="AV79" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="AW79" t="n">
         <v>4</v>
       </c>
       <c r="AX79" t="n">
-        <v>3.65</v>
+        <v>3.9</v>
       </c>
       <c r="AY79" t="n">
-        <v>3.35</v>
+        <v>3.55</v>
       </c>
       <c r="AZ79" t="n">
-        <v>3.55</v>
+        <v>3.8</v>
       </c>
       <c r="BA79" t="n">
         <v>4</v>
       </c>
       <c r="BB79" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="BC79" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="BD79" t="n">
         <v>4</v>
@@ -15859,11 +15859,11 @@
         <v>11.5</v>
       </c>
       <c r="BG79" t="n">
-        <v>3.9</v>
+        <v>4.3</v>
       </c>
       <c r="BH79" t="inlineStr">
         <is>
-          <t>2026-02-26 13:02:44</t>
+          <t>2026-02-26 15:31:39</t>
         </is>
       </c>
     </row>
@@ -15894,7 +15894,7 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>1.4</v>
+        <v>1.43</v>
       </c>
       <c r="G80" t="n">
         <v>1.49</v>
@@ -15903,13 +15903,13 @@
         <v>5.6</v>
       </c>
       <c r="I80" t="n">
-        <v>17.5</v>
+        <v>14</v>
       </c>
       <c r="J80" t="n">
         <v>4.4</v>
       </c>
       <c r="K80" t="n">
-        <v>9.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="L80" t="n">
         <v>0</v>
@@ -15927,7 +15927,7 @@
         <v>2.1</v>
       </c>
       <c r="Q80" t="n">
-        <v>1.67</v>
+        <v>1.79</v>
       </c>
       <c r="R80" t="n">
         <v>0</v>
@@ -16057,7 +16057,7 @@
       </c>
       <c r="BH80" t="inlineStr">
         <is>
-          <t>2026-02-26 13:02:44</t>
+          <t>2026-02-26 15:31:39</t>
         </is>
       </c>
     </row>
@@ -16088,16 +16088,16 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>2.58</v>
+        <v>2.48</v>
       </c>
       <c r="G81" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="H81" t="n">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="I81" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="J81" t="n">
         <v>3</v>
@@ -16109,64 +16109,64 @@
         <v>1.58</v>
       </c>
       <c r="M81" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="N81" t="n">
-        <v>2.78</v>
+        <v>2.74</v>
       </c>
       <c r="O81" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="P81" t="n">
         <v>1.56</v>
       </c>
       <c r="Q81" t="n">
-        <v>2.68</v>
+        <v>2.72</v>
       </c>
       <c r="R81" t="n">
         <v>1.21</v>
       </c>
       <c r="S81" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="T81" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="U81" t="n">
-        <v>1.86</v>
+        <v>1.83</v>
       </c>
       <c r="V81" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="W81" t="n">
-        <v>1.62</v>
+        <v>1.66</v>
       </c>
       <c r="X81" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="Y81" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="Z81" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AA81" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AB81" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="AC81" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="AD81" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AE81" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AF81" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AG81" t="n">
         <v>12.5</v>
@@ -16175,52 +16175,52 @@
         <v>23</v>
       </c>
       <c r="AI81" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AJ81" t="n">
         <v>38</v>
       </c>
       <c r="AK81" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AL81" t="n">
         <v>65</v>
       </c>
       <c r="AM81" t="n">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="AN81" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AO81" t="n">
+        <v>75</v>
+      </c>
+      <c r="AP81" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AQ81" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AR81" t="n">
+        <v>20</v>
+      </c>
+      <c r="AS81" t="n">
         <v>65</v>
       </c>
-      <c r="AP81" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AQ81" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AR81" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AS81" t="n">
-        <v>60</v>
-      </c>
       <c r="AT81" t="n">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="AU81" t="n">
         <v>6.4</v>
       </c>
       <c r="AV81" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AW81" t="n">
         <v>48</v>
       </c>
       <c r="AX81" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AY81" t="n">
         <v>11.5</v>
@@ -16229,29 +16229,29 @@
         <v>21</v>
       </c>
       <c r="BA81" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="BB81" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="BC81" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="BD81" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="BE81" t="n">
         <v>46</v>
       </c>
       <c r="BF81" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="BG81" t="n">
         <v>60</v>
       </c>
       <c r="BH81" t="inlineStr">
         <is>
-          <t>2026-02-26 13:02:44</t>
+          <t>2026-02-26 15:31:39</t>
         </is>
       </c>
     </row>
@@ -16282,7 +16282,7 @@
         </is>
       </c>
       <c r="F82" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="G82" t="n">
         <v>1.91</v>
@@ -16297,7 +16297,7 @@
         <v>3.55</v>
       </c>
       <c r="K82" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="L82" t="n">
         <v>1.01</v>
@@ -16306,13 +16306,13 @@
         <v>1.09</v>
       </c>
       <c r="N82" t="n">
-        <v>3.35</v>
+        <v>3.2</v>
       </c>
       <c r="O82" t="n">
         <v>1.4</v>
       </c>
       <c r="P82" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="Q82" t="n">
         <v>2.16</v>
@@ -16336,7 +16336,7 @@
         <v>2.1</v>
       </c>
       <c r="X82" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="Y82" t="n">
         <v>1000</v>
@@ -16348,7 +16348,7 @@
         <v>170</v>
       </c>
       <c r="AB82" t="n">
-        <v>970</v>
+        <v>7.6</v>
       </c>
       <c r="AC82" t="n">
         <v>1000</v>
@@ -16369,7 +16369,7 @@
         <v>1000</v>
       </c>
       <c r="AI82" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AJ82" t="n">
         <v>1000</v>
@@ -16396,56 +16396,56 @@
         <v>6.6</v>
       </c>
       <c r="AR82" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AS82" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AT82" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="AU82" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AV82" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AW82" t="n">
-        <v>2.16</v>
+        <v>3.55</v>
       </c>
       <c r="AX82" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="AY82" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="AZ82" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="BA82" t="n">
-        <v>2.16</v>
+        <v>3.55</v>
       </c>
       <c r="BB82" t="n">
         <v>7.4</v>
       </c>
       <c r="BC82" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="BD82" t="n">
-        <v>3.4</v>
+        <v>4.3</v>
       </c>
       <c r="BE82" t="n">
-        <v>2.18</v>
+        <v>3.6</v>
       </c>
       <c r="BF82" t="n">
-        <v>12</v>
+        <v>6.8</v>
       </c>
       <c r="BG82" t="n">
-        <v>2.06</v>
+        <v>3.1</v>
       </c>
       <c r="BH82" t="inlineStr">
         <is>
-          <t>2026-02-26 13:02:44</t>
+          <t>2026-02-26 15:31:39</t>
         </is>
       </c>
     </row>
@@ -16479,7 +16479,7 @@
         <v>1.79</v>
       </c>
       <c r="G83" t="n">
-        <v>1.88</v>
+        <v>1.86</v>
       </c>
       <c r="H83" t="n">
         <v>4.9</v>
@@ -16494,7 +16494,7 @@
         <v>4.1</v>
       </c>
       <c r="L83" t="n">
-        <v>1.33</v>
+        <v>1.39</v>
       </c>
       <c r="M83" t="n">
         <v>1.07</v>
@@ -16527,7 +16527,7 @@
         <v>1.21</v>
       </c>
       <c r="W83" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="X83" t="n">
         <v>18</v>
@@ -16639,7 +16639,7 @@
       </c>
       <c r="BH83" t="inlineStr">
         <is>
-          <t>2026-02-26 13:02:44</t>
+          <t>2026-02-26 15:31:39</t>
         </is>
       </c>
     </row>
@@ -16673,7 +16673,7 @@
         <v>2.24</v>
       </c>
       <c r="G84" t="n">
-        <v>2.56</v>
+        <v>2.5</v>
       </c>
       <c r="H84" t="n">
         <v>3.1</v>
@@ -16688,7 +16688,7 @@
         <v>3.85</v>
       </c>
       <c r="L84" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="M84" t="n">
         <v>1.07</v>
@@ -16709,7 +16709,7 @@
         <v>1.33</v>
       </c>
       <c r="S84" t="n">
-        <v>3.45</v>
+        <v>3.2</v>
       </c>
       <c r="T84" t="n">
         <v>1.74</v>
@@ -16721,7 +16721,7 @@
         <v>1.37</v>
       </c>
       <c r="W84" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="X84" t="n">
         <v>1000</v>
@@ -16781,7 +16781,7 @@
         <v>10.5</v>
       </c>
       <c r="AQ84" t="n">
-        <v>9.800000000000001</v>
+        <v>3.75</v>
       </c>
       <c r="AR84" t="n">
         <v>4.2</v>
@@ -16796,7 +16796,7 @@
         <v>6.2</v>
       </c>
       <c r="AV84" t="n">
-        <v>11</v>
+        <v>3.85</v>
       </c>
       <c r="AW84" t="n">
         <v>4.5</v>
@@ -16833,7 +16833,7 @@
       </c>
       <c r="BH84" t="inlineStr">
         <is>
-          <t>2026-02-26 13:02:44</t>
+          <t>2026-02-26 15:31:39</t>
         </is>
       </c>
     </row>
@@ -16870,13 +16870,13 @@
         <v>1.71</v>
       </c>
       <c r="H85" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="I85" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="J85" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="K85" t="n">
         <v>5.1</v>
@@ -16900,7 +16900,7 @@
         <v>1.74</v>
       </c>
       <c r="R85" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="S85" t="n">
         <v>2.94</v>
@@ -16909,7 +16909,7 @@
         <v>1.83</v>
       </c>
       <c r="U85" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="V85" t="n">
         <v>1.18</v>
@@ -16975,7 +16975,7 @@
         <v>16</v>
       </c>
       <c r="AQ85" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AR85" t="n">
         <v>7.6</v>
@@ -17027,7 +17027,7 @@
       </c>
       <c r="BH85" t="inlineStr">
         <is>
-          <t>2026-02-26 13:02:44</t>
+          <t>2026-02-26 15:31:39</t>
         </is>
       </c>
     </row>
@@ -17061,7 +17061,7 @@
         <v>2.76</v>
       </c>
       <c r="G86" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="H86" t="n">
         <v>2.42</v>
@@ -17070,7 +17070,7 @@
         <v>2.78</v>
       </c>
       <c r="J86" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K86" t="n">
         <v>3.95</v>
@@ -17109,7 +17109,7 @@
         <v>1.56</v>
       </c>
       <c r="W86" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="X86" t="n">
         <v>1000</v>
@@ -17221,7 +17221,7 @@
       </c>
       <c r="BH86" t="inlineStr">
         <is>
-          <t>2026-02-26 13:02:44</t>
+          <t>2026-02-26 15:31:39</t>
         </is>
       </c>
     </row>
@@ -17252,43 +17252,43 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>2.34</v>
+        <v>2.28</v>
       </c>
       <c r="G87" t="n">
-        <v>2.56</v>
+        <v>2.5</v>
       </c>
       <c r="H87" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="I87" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="J87" t="n">
         <v>3.45</v>
       </c>
-      <c r="J87" t="n">
-        <v>3.35</v>
-      </c>
       <c r="K87" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="L87" t="n">
-        <v>1.33</v>
+        <v>1.01</v>
       </c>
       <c r="M87" t="n">
         <v>1.08</v>
       </c>
       <c r="N87" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="O87" t="n">
         <v>1.36</v>
       </c>
       <c r="P87" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="Q87" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="R87" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="S87" t="n">
         <v>3.75</v>
@@ -17300,13 +17300,13 @@
         <v>2.04</v>
       </c>
       <c r="V87" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="W87" t="n">
-        <v>1.64</v>
+        <v>1.67</v>
       </c>
       <c r="X87" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="Y87" t="n">
         <v>14</v>
@@ -17321,7 +17321,7 @@
         <v>11.5</v>
       </c>
       <c r="AC87" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AD87" t="n">
         <v>17</v>
@@ -17330,7 +17330,7 @@
         <v>50</v>
       </c>
       <c r="AF87" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AG87" t="n">
         <v>14</v>
@@ -17351,10 +17351,10 @@
         <v>55</v>
       </c>
       <c r="AM87" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AN87" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AO87" t="n">
         <v>50</v>
@@ -17369,19 +17369,19 @@
         <v>16</v>
       </c>
       <c r="AS87" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="AT87" t="n">
         <v>8.4</v>
       </c>
       <c r="AU87" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AV87" t="n">
         <v>10</v>
       </c>
       <c r="AW87" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="AX87" t="n">
         <v>13.5</v>
@@ -17390,32 +17390,32 @@
         <v>10</v>
       </c>
       <c r="AZ87" t="n">
-        <v>13.5</v>
+        <v>16</v>
       </c>
       <c r="BA87" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="BB87" t="n">
         <v>4</v>
       </c>
-      <c r="BB87" t="n">
-        <v>3.95</v>
-      </c>
       <c r="BC87" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="BD87" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="BE87" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="BF87" t="n">
         <v>17.5</v>
       </c>
       <c r="BG87" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="BH87" t="inlineStr">
         <is>
-          <t>2026-02-26 13:02:44</t>
+          <t>2026-02-26 15:31:39</t>
         </is>
       </c>
     </row>
@@ -17449,7 +17449,7 @@
         <v>1.5</v>
       </c>
       <c r="G88" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="H88" t="n">
         <v>7.6</v>
@@ -17464,7 +17464,7 @@
         <v>4.7</v>
       </c>
       <c r="L88" t="n">
-        <v>1.41</v>
+        <v>1.34</v>
       </c>
       <c r="M88" t="n">
         <v>1.07</v>
@@ -17609,7 +17609,7 @@
       </c>
       <c r="BH88" t="inlineStr">
         <is>
-          <t>2026-02-26 13:02:44</t>
+          <t>2026-02-26 15:31:39</t>
         </is>
       </c>
     </row>
@@ -17640,25 +17640,25 @@
         </is>
       </c>
       <c r="F89" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="G89" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="H89" t="n">
         <v>3.05</v>
       </c>
       <c r="I89" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="J89" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="K89" t="n">
         <v>3.8</v>
       </c>
       <c r="L89" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="M89" t="n">
         <v>1.05</v>
@@ -17682,7 +17682,7 @@
         <v>2.72</v>
       </c>
       <c r="T89" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="U89" t="n">
         <v>2.6</v>
@@ -17694,16 +17694,16 @@
         <v>1.68</v>
       </c>
       <c r="X89" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="Y89" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="Z89" t="n">
         <v>23</v>
       </c>
       <c r="AA89" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AB89" t="n">
         <v>14</v>
@@ -17733,7 +17733,7 @@
         <v>34</v>
       </c>
       <c r="AK89" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AL89" t="n">
         <v>32</v>
@@ -17745,7 +17745,7 @@
         <v>14</v>
       </c>
       <c r="AO89" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AP89" t="n">
         <v>18</v>
@@ -17757,7 +17757,7 @@
         <v>21</v>
       </c>
       <c r="AS89" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AT89" t="n">
         <v>13</v>
@@ -17769,10 +17769,10 @@
         <v>12</v>
       </c>
       <c r="AW89" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AX89" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AY89" t="n">
         <v>10.5</v>
@@ -17793,17 +17793,17 @@
         <v>28</v>
       </c>
       <c r="BE89" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="BF89" t="n">
         <v>13.5</v>
       </c>
       <c r="BG89" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="BH89" t="inlineStr">
         <is>
-          <t>2026-02-26 13:02:44</t>
+          <t>2026-02-26 15:31:39</t>
         </is>
       </c>
     </row>
@@ -17834,52 +17834,52 @@
         </is>
       </c>
       <c r="F90" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="G90" t="n">
         <v>3.9</v>
       </c>
       <c r="H90" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="I90" t="n">
         <v>2.46</v>
       </c>
       <c r="J90" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="K90" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="L90" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="M90" t="n">
         <v>1.12</v>
       </c>
       <c r="N90" t="n">
-        <v>2.78</v>
+        <v>2.86</v>
       </c>
       <c r="O90" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="P90" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="Q90" t="n">
-        <v>2.4</v>
+        <v>2.36</v>
       </c>
       <c r="R90" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="S90" t="n">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="T90" t="n">
-        <v>2.02</v>
+        <v>1.99</v>
       </c>
       <c r="U90" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="V90" t="n">
         <v>1.68</v>
@@ -17933,7 +17933,7 @@
         <v>75</v>
       </c>
       <c r="AM90" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="AN90" t="n">
         <v>75</v>
@@ -17942,7 +17942,7 @@
         <v>32</v>
       </c>
       <c r="AP90" t="n">
-        <v>8.6</v>
+        <v>9</v>
       </c>
       <c r="AQ90" t="n">
         <v>7</v>
@@ -17966,19 +17966,19 @@
         <v>7.6</v>
       </c>
       <c r="AX90" t="n">
-        <v>7</v>
+        <v>8.6</v>
       </c>
       <c r="AY90" t="n">
-        <v>6</v>
+        <v>7.2</v>
       </c>
       <c r="AZ90" t="n">
-        <v>6.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="BA90" t="n">
         <v>8.4</v>
       </c>
       <c r="BB90" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="BC90" t="n">
         <v>8.6</v>
@@ -17993,11 +17993,11 @@
         <v>8.800000000000001</v>
       </c>
       <c r="BG90" t="n">
-        <v>7.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="BH90" t="inlineStr">
         <is>
-          <t>2026-02-26 13:02:44</t>
+          <t>2026-02-26 15:31:39</t>
         </is>
       </c>
     </row>
@@ -18028,22 +18028,22 @@
         </is>
       </c>
       <c r="F91" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="G91" t="n">
-        <v>3.45</v>
+        <v>3.25</v>
       </c>
       <c r="H91" t="n">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="I91" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="J91" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="K91" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="L91" t="n">
         <v>1.01</v>
@@ -18052,10 +18052,10 @@
         <v>1.01</v>
       </c>
       <c r="N91" t="n">
-        <v>2.3</v>
+        <v>4.2</v>
       </c>
       <c r="O91" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="P91" t="n">
         <v>2</v>
@@ -18064,22 +18064,22 @@
         <v>1.62</v>
       </c>
       <c r="R91" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="S91" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="T91" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="U91" t="n">
         <v>1.05</v>
       </c>
       <c r="V91" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="W91" t="n">
-        <v>1.41</v>
+        <v>1.45</v>
       </c>
       <c r="X91" t="n">
         <v>1000</v>
@@ -18191,7 +18191,7 @@
       </c>
       <c r="BH91" t="inlineStr">
         <is>
-          <t>2026-02-26 13:02:44</t>
+          <t>2026-02-26 15:31:39</t>
         </is>
       </c>
     </row>
@@ -18222,10 +18222,10 @@
         </is>
       </c>
       <c r="F92" t="n">
-        <v>2.78</v>
+        <v>2.74</v>
       </c>
       <c r="G92" t="n">
-        <v>2.8</v>
+        <v>2.76</v>
       </c>
       <c r="H92" t="n">
         <v>3</v>
@@ -18246,13 +18246,13 @@
         <v>1.11</v>
       </c>
       <c r="N92" t="n">
-        <v>2.96</v>
+        <v>2.94</v>
       </c>
       <c r="O92" t="n">
         <v>1.49</v>
       </c>
       <c r="P92" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="Q92" t="n">
         <v>2.5</v>
@@ -18261,7 +18261,7 @@
         <v>1.23</v>
       </c>
       <c r="S92" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="T92" t="n">
         <v>2.04</v>
@@ -18270,10 +18270,10 @@
         <v>1.9</v>
       </c>
       <c r="V92" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="W92" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="X92" t="n">
         <v>9.199999999999999</v>
@@ -18282,10 +18282,10 @@
         <v>9.4</v>
       </c>
       <c r="Z92" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AA92" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AB92" t="n">
         <v>8.800000000000001</v>
@@ -18303,19 +18303,19 @@
         <v>16</v>
       </c>
       <c r="AG92" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AH92" t="n">
         <v>21</v>
       </c>
       <c r="AI92" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AJ92" t="n">
         <v>44</v>
       </c>
       <c r="AK92" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AL92" t="n">
         <v>60</v>
@@ -18339,7 +18339,7 @@
         <v>17</v>
       </c>
       <c r="AS92" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AT92" t="n">
         <v>8.4</v>
@@ -18348,7 +18348,7 @@
         <v>6.6</v>
       </c>
       <c r="AV92" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AW92" t="n">
         <v>38</v>
@@ -18363,29 +18363,29 @@
         <v>20</v>
       </c>
       <c r="BA92" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="BB92" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="BC92" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="BD92" t="n">
         <v>50</v>
       </c>
       <c r="BE92" t="n">
-        <v>44</v>
+        <v>130</v>
       </c>
       <c r="BF92" t="n">
         <v>36</v>
       </c>
       <c r="BG92" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="BH92" t="inlineStr">
         <is>
-          <t>2026-02-26 13:02:44</t>
+          <t>2026-02-26 15:31:39</t>
         </is>
       </c>
     </row>
@@ -18425,16 +18425,16 @@
         <v>5.6</v>
       </c>
       <c r="I93" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="J93" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="K93" t="n">
         <v>3.75</v>
       </c>
       <c r="L93" t="n">
-        <v>1.48</v>
+        <v>1.41</v>
       </c>
       <c r="M93" t="n">
         <v>1.1</v>
@@ -18467,7 +18467,7 @@
         <v>1.19</v>
       </c>
       <c r="W93" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="X93" t="n">
         <v>13</v>
@@ -18506,7 +18506,7 @@
         <v>140</v>
       </c>
       <c r="AJ93" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AK93" t="n">
         <v>24</v>
@@ -18518,7 +18518,7 @@
         <v>230</v>
       </c>
       <c r="AN93" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AO93" t="n">
         <v>210</v>
@@ -18557,7 +18557,7 @@
         <v>21</v>
       </c>
       <c r="BA93" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="BB93" t="n">
         <v>16.5</v>
@@ -18566,7 +18566,7 @@
         <v>19</v>
       </c>
       <c r="BD93" t="n">
-        <v>7.2</v>
+        <v>8</v>
       </c>
       <c r="BE93" t="n">
         <v>7.8</v>
@@ -18575,11 +18575,11 @@
         <v>14</v>
       </c>
       <c r="BG93" t="n">
-        <v>7.8</v>
+        <v>8.4</v>
       </c>
       <c r="BH93" t="inlineStr">
         <is>
-          <t>2026-02-26 13:02:44</t>
+          <t>2026-02-26 15:31:39</t>
         </is>
       </c>
     </row>
@@ -18613,7 +18613,7 @@
         <v>2.82</v>
       </c>
       <c r="G94" t="n">
-        <v>2.98</v>
+        <v>2.92</v>
       </c>
       <c r="H94" t="n">
         <v>2.98</v>
@@ -18658,10 +18658,10 @@
         <v>1.89</v>
       </c>
       <c r="V94" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="W94" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="X94" t="n">
         <v>10</v>
@@ -18773,7 +18773,7 @@
       </c>
       <c r="BH94" t="inlineStr">
         <is>
-          <t>2026-02-26 13:02:44</t>
+          <t>2026-02-26 15:31:39</t>
         </is>
       </c>
     </row>
@@ -18828,16 +18828,16 @@
         <v>1.07</v>
       </c>
       <c r="N95" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="O95" t="n">
         <v>1.33</v>
       </c>
       <c r="P95" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="Q95" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="R95" t="n">
         <v>1.36</v>
@@ -18849,7 +18849,7 @@
         <v>1.88</v>
       </c>
       <c r="U95" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="V95" t="n">
         <v>2.04</v>
@@ -18915,7 +18915,7 @@
         <v>13</v>
       </c>
       <c r="AQ95" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AR95" t="n">
         <v>10.5</v>
@@ -18948,7 +18948,7 @@
         <v>34</v>
       </c>
       <c r="BB95" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="BC95" t="n">
         <v>50</v>
@@ -18967,7 +18967,7 @@
       </c>
       <c r="BH95" t="inlineStr">
         <is>
-          <t>2026-02-26 13:02:44</t>
+          <t>2026-02-26 15:31:39</t>
         </is>
       </c>
     </row>
@@ -19031,10 +19031,10 @@
         <v>1.54</v>
       </c>
       <c r="Q96" t="n">
-        <v>1.41</v>
+        <v>2.06</v>
       </c>
       <c r="R96" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="S96" t="n">
         <v>2.96</v>
@@ -19161,7 +19161,7 @@
       </c>
       <c r="BH96" t="inlineStr">
         <is>
-          <t>2026-02-26 13:02:44</t>
+          <t>2026-02-26 15:31:39</t>
         </is>
       </c>
     </row>
@@ -19195,7 +19195,7 @@
         <v>1.78</v>
       </c>
       <c r="G97" t="n">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="H97" t="n">
         <v>4.8</v>
@@ -19204,7 +19204,7 @@
         <v>6.8</v>
       </c>
       <c r="J97" t="n">
-        <v>3.05</v>
+        <v>3.4</v>
       </c>
       <c r="K97" t="n">
         <v>4</v>
@@ -19222,28 +19222,28 @@
         <v>1.35</v>
       </c>
       <c r="P97" t="n">
-        <v>1.77</v>
+        <v>1.75</v>
       </c>
       <c r="Q97" t="n">
-        <v>2.06</v>
+        <v>1.93</v>
       </c>
       <c r="R97" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="S97" t="n">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="T97" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="U97" t="n">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="V97" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="W97" t="n">
-        <v>1.9</v>
+        <v>1.99</v>
       </c>
       <c r="X97" t="n">
         <v>15</v>
@@ -19355,7 +19355,7 @@
       </c>
       <c r="BH97" t="inlineStr">
         <is>
-          <t>2026-02-26 13:02:44</t>
+          <t>2026-02-26 15:31:39</t>
         </is>
       </c>
     </row>
@@ -19386,22 +19386,22 @@
         </is>
       </c>
       <c r="F98" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="G98" t="n">
         <v>1.25</v>
       </c>
       <c r="H98" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="I98" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="J98" t="n">
         <v>7.6</v>
       </c>
       <c r="K98" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="L98" t="n">
         <v>1.21</v>
@@ -19428,7 +19428,7 @@
         <v>1.92</v>
       </c>
       <c r="T98" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="U98" t="n">
         <v>2</v>
@@ -19437,7 +19437,7 @@
         <v>1.07</v>
       </c>
       <c r="W98" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="X98" t="n">
         <v>55</v>
@@ -19542,14 +19542,14 @@
         <v>6.6</v>
       </c>
       <c r="BF98" t="n">
-        <v>2.96</v>
+        <v>2.94</v>
       </c>
       <c r="BG98" t="n">
         <v>6.6</v>
       </c>
       <c r="BH98" t="inlineStr">
         <is>
-          <t>2026-02-26 13:02:44</t>
+          <t>2026-02-26 15:31:39</t>
         </is>
       </c>
     </row>
@@ -19589,16 +19589,16 @@
         <v>6</v>
       </c>
       <c r="I99" t="n">
-        <v>9</v>
+        <v>8.4</v>
       </c>
       <c r="J99" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="K99" t="n">
         <v>3.95</v>
       </c>
       <c r="L99" t="n">
-        <v>1.01</v>
+        <v>1.43</v>
       </c>
       <c r="M99" t="n">
         <v>1.11</v>
@@ -19628,7 +19628,7 @@
         <v>1.64</v>
       </c>
       <c r="V99" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="W99" t="n">
         <v>2.26</v>
@@ -19743,7 +19743,7 @@
       </c>
       <c r="BH99" t="inlineStr">
         <is>
-          <t>2026-02-26 13:02:44</t>
+          <t>2026-02-26 15:31:39</t>
         </is>
       </c>
     </row>
@@ -19777,19 +19777,19 @@
         <v>3.05</v>
       </c>
       <c r="G100" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="H100" t="n">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="I100" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="J100" t="n">
         <v>2.98</v>
       </c>
       <c r="K100" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="L100" t="n">
         <v>1.01</v>
@@ -19798,40 +19798,40 @@
         <v>1.07</v>
       </c>
       <c r="N100" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="O100" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="P100" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="R100" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="S100" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T100" t="n">
         <v>1.79</v>
       </c>
-      <c r="Q100" t="n">
-        <v>2</v>
-      </c>
-      <c r="R100" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="S100" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="T100" t="n">
-        <v>1.77</v>
-      </c>
       <c r="U100" t="n">
-        <v>2.02</v>
+        <v>1.99</v>
       </c>
       <c r="V100" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="W100" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="X100" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="Y100" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="Z100" t="n">
         <v>18</v>
@@ -19840,10 +19840,10 @@
         <v>40</v>
       </c>
       <c r="AB100" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AC100" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD100" t="n">
         <v>13.5</v>
@@ -19891,7 +19891,7 @@
         <v>13</v>
       </c>
       <c r="AS100" t="n">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="AT100" t="n">
         <v>10</v>
@@ -19903,7 +19903,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AW100" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="AX100" t="n">
         <v>19</v>
@@ -19915,29 +19915,29 @@
         <v>15</v>
       </c>
       <c r="BA100" t="n">
-        <v>4.6</v>
+        <v>4.9</v>
       </c>
       <c r="BB100" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="BC100" t="n">
-        <v>4.6</v>
+        <v>4.9</v>
       </c>
       <c r="BD100" t="n">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="BE100" t="n">
-        <v>4.9</v>
+        <v>5.2</v>
       </c>
       <c r="BF100" t="n">
-        <v>4.6</v>
+        <v>30</v>
       </c>
       <c r="BG100" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="BH100" t="inlineStr">
         <is>
-          <t>2026-02-26 13:02:44</t>
+          <t>2026-02-26 15:31:39</t>
         </is>
       </c>
     </row>
@@ -19971,7 +19971,7 @@
         <v>2.18</v>
       </c>
       <c r="G101" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="H101" t="n">
         <v>3.5</v>
@@ -19983,7 +19983,7 @@
         <v>3.35</v>
       </c>
       <c r="K101" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="L101" t="n">
         <v>1.43</v>
@@ -20070,7 +20070,7 @@
         <v>130</v>
       </c>
       <c r="AN101" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AO101" t="n">
         <v>60</v>
@@ -20085,7 +20085,7 @@
         <v>18</v>
       </c>
       <c r="AS101" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AT101" t="n">
         <v>8.199999999999999</v>
@@ -20097,7 +20097,7 @@
         <v>11.5</v>
       </c>
       <c r="AW101" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AX101" t="n">
         <v>12.5</v>
@@ -20112,16 +20112,16 @@
         <v>7.6</v>
       </c>
       <c r="BB101" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="BC101" t="n">
         <v>6.6</v>
-      </c>
-      <c r="BC101" t="n">
-        <v>6.4</v>
       </c>
       <c r="BD101" t="n">
         <v>7.2</v>
       </c>
       <c r="BE101" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="BF101" t="n">
         <v>15.5</v>
@@ -20131,7 +20131,7 @@
       </c>
       <c r="BH101" t="inlineStr">
         <is>
-          <t>2026-02-26 13:02:44</t>
+          <t>2026-02-26 15:31:39</t>
         </is>
       </c>
     </row>
@@ -20325,7 +20325,7 @@
       </c>
       <c r="BH102" t="inlineStr">
         <is>
-          <t>2026-02-26 13:02:44</t>
+          <t>2026-02-26 15:31:39</t>
         </is>
       </c>
     </row>
@@ -20365,10 +20365,10 @@
         <v>2.52</v>
       </c>
       <c r="I103" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="J103" t="n">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="K103" t="n">
         <v>3.25</v>
@@ -20464,19 +20464,19 @@
         <v>1000</v>
       </c>
       <c r="AP103" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="AQ103" t="n">
         <v>6.4</v>
       </c>
       <c r="AR103" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="AS103" t="n">
         <v>5.4</v>
       </c>
       <c r="AT103" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="AU103" t="n">
         <v>6</v>
@@ -20485,41 +20485,41 @@
         <v>4.4</v>
       </c>
       <c r="AW103" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="AX103" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="AY103" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="AZ103" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="BA103" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="BB103" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="BC103" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="BD103" t="n">
+        <v>6</v>
+      </c>
+      <c r="BE103" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="BF103" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="BG103" t="n">
         <v>5.7</v>
       </c>
-      <c r="BB103" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="BC103" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="BD103" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="BE103" t="n">
-        <v>6</v>
-      </c>
-      <c r="BF103" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="BG103" t="n">
-        <v>5.6</v>
-      </c>
       <c r="BH103" t="inlineStr">
         <is>
-          <t>2026-02-26 13:02:44</t>
+          <t>2026-02-26 15:31:39</t>
         </is>
       </c>
     </row>
@@ -20550,10 +20550,10 @@
         </is>
       </c>
       <c r="F104" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="G104" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="H104" t="n">
         <v>2.96</v>
@@ -20589,19 +20589,19 @@
         <v>1.2</v>
       </c>
       <c r="S104" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="T104" t="n">
         <v>2.04</v>
       </c>
       <c r="U104" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="V104" t="n">
         <v>1.45</v>
       </c>
       <c r="W104" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="X104" t="n">
         <v>10.5</v>
@@ -20619,7 +20619,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AC104" t="n">
-        <v>8.199999999999999</v>
+        <v>7.6</v>
       </c>
       <c r="AD104" t="n">
         <v>16.5</v>
@@ -20667,7 +20667,7 @@
         <v>16.5</v>
       </c>
       <c r="AS104" t="n">
-        <v>4.9</v>
+        <v>5.2</v>
       </c>
       <c r="AT104" t="n">
         <v>7.4</v>
@@ -20679,7 +20679,7 @@
         <v>12</v>
       </c>
       <c r="AW104" t="n">
-        <v>4.8</v>
+        <v>5.1</v>
       </c>
       <c r="AX104" t="n">
         <v>14.5</v>
@@ -20688,32 +20688,32 @@
         <v>11</v>
       </c>
       <c r="AZ104" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="BA104" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="BB104" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="BC104" t="n">
         <v>5</v>
       </c>
-      <c r="BB104" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="BC104" t="n">
-        <v>4.7</v>
-      </c>
       <c r="BD104" t="n">
-        <v>4.9</v>
+        <v>5.2</v>
       </c>
       <c r="BE104" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="BF104" t="n">
-        <v>4.8</v>
+        <v>5.1</v>
       </c>
       <c r="BG104" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="BH104" t="inlineStr">
         <is>
-          <t>2026-02-26 13:02:44</t>
+          <t>2026-02-26 15:31:39</t>
         </is>
       </c>
     </row>
@@ -20907,7 +20907,7 @@
       </c>
       <c r="BH105" t="inlineStr">
         <is>
-          <t>2026-02-26 13:02:44</t>
+          <t>2026-02-26 15:31:39</t>
         </is>
       </c>
     </row>
@@ -21101,7 +21101,7 @@
       </c>
       <c r="BH106" t="inlineStr">
         <is>
-          <t>2026-02-26 13:02:44</t>
+          <t>2026-02-26 15:31:39</t>
         </is>
       </c>
     </row>
@@ -21135,7 +21135,7 @@
         <v>1.83</v>
       </c>
       <c r="G107" t="n">
-        <v>2.32</v>
+        <v>2.28</v>
       </c>
       <c r="H107" t="n">
         <v>4</v>
@@ -21156,13 +21156,13 @@
         <v>1.12</v>
       </c>
       <c r="N107" t="n">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="O107" t="n">
         <v>1.5</v>
       </c>
       <c r="P107" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="Q107" t="n">
         <v>2.32</v>
@@ -21183,7 +21183,7 @@
         <v>1.19</v>
       </c>
       <c r="W107" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="X107" t="n">
         <v>1000</v>
@@ -21295,7 +21295,7 @@
       </c>
       <c r="BH107" t="inlineStr">
         <is>
-          <t>2026-02-26 13:02:44</t>
+          <t>2026-02-26 15:31:39</t>
         </is>
       </c>
     </row>
@@ -21326,7 +21326,7 @@
         </is>
       </c>
       <c r="F108" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="G108" t="n">
         <v>2.04</v>
@@ -21338,10 +21338,10 @@
         <v>4.5</v>
       </c>
       <c r="J108" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="K108" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L108" t="n">
         <v>1.31</v>
@@ -21353,10 +21353,10 @@
         <v>4.1</v>
       </c>
       <c r="O108" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="P108" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="Q108" t="n">
         <v>1.75</v>
@@ -21386,7 +21386,7 @@
         <v>18</v>
       </c>
       <c r="Z108" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="AA108" t="n">
         <v>90</v>
@@ -21398,52 +21398,52 @@
         <v>9</v>
       </c>
       <c r="AD108" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AE108" t="n">
         <v>55</v>
       </c>
       <c r="AF108" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AG108" t="n">
         <v>11</v>
       </c>
       <c r="AH108" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AI108" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AJ108" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AK108" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AL108" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="AM108" t="n">
         <v>95</v>
       </c>
       <c r="AN108" t="n">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="AO108" t="n">
         <v>50</v>
       </c>
       <c r="AP108" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AQ108" t="n">
         <v>14.5</v>
       </c>
       <c r="AR108" t="n">
-        <v>6.8</v>
+        <v>5.5</v>
       </c>
       <c r="AS108" t="n">
-        <v>7.8</v>
+        <v>6</v>
       </c>
       <c r="AT108" t="n">
         <v>9.199999999999999</v>
@@ -21455,7 +21455,7 @@
         <v>14.5</v>
       </c>
       <c r="AW108" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="AX108" t="n">
         <v>11</v>
@@ -21467,7 +21467,7 @@
         <v>14.5</v>
       </c>
       <c r="BA108" t="n">
-        <v>38</v>
+        <v>5.8</v>
       </c>
       <c r="BB108" t="n">
         <v>19</v>
@@ -21476,20 +21476,20 @@
         <v>16.5</v>
       </c>
       <c r="BD108" t="n">
-        <v>6.8</v>
+        <v>5.5</v>
       </c>
       <c r="BE108" t="n">
-        <v>7.8</v>
+        <v>6</v>
       </c>
       <c r="BF108" t="n">
         <v>10</v>
       </c>
       <c r="BG108" t="n">
-        <v>34</v>
+        <v>5.7</v>
       </c>
       <c r="BH108" t="inlineStr">
         <is>
-          <t>2026-02-26 13:02:44</t>
+          <t>2026-02-26 15:31:39</t>
         </is>
       </c>
     </row>
@@ -21520,22 +21520,22 @@
         </is>
       </c>
       <c r="F109" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="G109" t="n">
-        <v>4.3</v>
+        <v>4.6</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>1.96</v>
       </c>
       <c r="I109" t="n">
-        <v>2.1</v>
+        <v>2.04</v>
       </c>
       <c r="J109" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K109" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="L109" t="n">
         <v>1.01</v>
@@ -21544,16 +21544,16 @@
         <v>1.07</v>
       </c>
       <c r="N109" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="O109" t="n">
         <v>1.32</v>
       </c>
       <c r="P109" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="Q109" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="R109" t="n">
         <v>1.37</v>
@@ -21562,16 +21562,16 @@
         <v>3.4</v>
       </c>
       <c r="T109" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="U109" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="V109" t="n">
-        <v>1.9</v>
+        <v>1.96</v>
       </c>
       <c r="W109" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="X109" t="n">
         <v>18</v>
@@ -21583,7 +21583,7 @@
         <v>13.5</v>
       </c>
       <c r="AA109" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AB109" t="n">
         <v>16</v>
@@ -21595,19 +21595,19 @@
         <v>11.5</v>
       </c>
       <c r="AE109" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AF109" t="n">
         <v>32</v>
       </c>
       <c r="AG109" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AH109" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AI109" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AJ109" t="n">
         <v>100</v>
@@ -21628,10 +21628,10 @@
         <v>16</v>
       </c>
       <c r="AP109" t="n">
-        <v>10.5</v>
+        <v>13</v>
       </c>
       <c r="AQ109" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AR109" t="n">
         <v>11</v>
@@ -21652,28 +21652,28 @@
         <v>16</v>
       </c>
       <c r="AX109" t="n">
-        <v>21</v>
+        <v>5.5</v>
       </c>
       <c r="AY109" t="n">
         <v>14</v>
       </c>
       <c r="AZ109" t="n">
-        <v>13</v>
+        <v>15.5</v>
       </c>
       <c r="BA109" t="n">
-        <v>5.1</v>
+        <v>5.7</v>
       </c>
       <c r="BB109" t="n">
-        <v>5.5</v>
+        <v>6.2</v>
       </c>
       <c r="BC109" t="n">
-        <v>5.3</v>
+        <v>6</v>
       </c>
       <c r="BD109" t="n">
-        <v>5.3</v>
+        <v>6</v>
       </c>
       <c r="BE109" t="n">
-        <v>5.5</v>
+        <v>6.2</v>
       </c>
       <c r="BF109" t="n">
         <v>36</v>
@@ -21683,7 +21683,7 @@
       </c>
       <c r="BH109" t="inlineStr">
         <is>
-          <t>2026-02-26 13:02:44</t>
+          <t>2026-02-26 15:31:39</t>
         </is>
       </c>
     </row>
@@ -21729,7 +21729,7 @@
         <v>4.4</v>
       </c>
       <c r="K110" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="L110" t="n">
         <v>1.01</v>
@@ -21756,13 +21756,13 @@
         <v>2.04</v>
       </c>
       <c r="T110" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="U110" t="n">
         <v>1.01</v>
       </c>
       <c r="V110" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="W110" t="n">
         <v>3.05</v>
@@ -21825,13 +21825,13 @@
         <v>11.5</v>
       </c>
       <c r="AQ110" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="AR110" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="AS110" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="AT110" t="n">
         <v>5.8</v>
@@ -21840,10 +21840,10 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AV110" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="AW110" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="AX110" t="n">
         <v>6.4</v>
@@ -21852,10 +21852,10 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AZ110" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="BA110" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="BB110" t="n">
         <v>8.800000000000001</v>
@@ -21867,17 +21867,17 @@
         <v>4.1</v>
       </c>
       <c r="BE110" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="BF110" t="n">
         <v>6.6</v>
       </c>
       <c r="BG110" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="BH110" t="inlineStr">
         <is>
-          <t>2026-02-26 13:02:44</t>
+          <t>2026-02-26 15:31:39</t>
         </is>
       </c>
     </row>
